--- a/exports/06b_analysis/llama3.1:70b_V5_fa/Sleep/TP_Event_Name_LLM_Events_example_evidence_Sent_Sleep.xlsx
+++ b/exports/06b_analysis/llama3.1:70b_V5_fa/Sleep/TP_Event_Name_LLM_Events_example_evidence_Sent_Sleep.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T47"/>
+  <dimension ref="A1:U47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -496,35 +496,40 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
+          <t>Actor_LLM_Events_example_evidence_Sent_Sleep</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
           <t>Attribute_LLM_Events_example_evidence_Sent_Sleep</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Event_Name_LLM_Events_example_evidence_Sent</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Actor_LLM_Events_example_evidence_Sent</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Attribute_LLM_Events_example_evidence_Sent</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Text_Quote_LLM_Events_example_evidence_Sent</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Event_Id_LLM_Events_example_evidence_Sent</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Order_LLM_Events_example_evidence_Sent</t>
         </is>
@@ -582,35 +587,40 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
+          <t>['patient']</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'interrupted', 'duration': 'on and off'}}}]</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>['Sleep']</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>['patient']</t>
-        </is>
-      </c>
       <c r="Q2" t="inlineStr">
         <is>
+          <t>['patient']</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'interrupted', 'duration': 'on and off'}}}]</t>
         </is>
       </c>
-      <c r="R2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>['slept at intervals']</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>['e1=Sleep|1:slept at intervals']</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -668,35 +678,40 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
+          <t>['patient']</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>['Sleep']</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>['patient']</t>
-        </is>
-      </c>
       <c r="Q3" t="inlineStr">
         <is>
+          <t>['patient']</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="R3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>['eval sleep apnea']</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>['e1=Sleep|1:eval sleep apnea']</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -754,35 +769,40 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
+          <t>['patient', 'patient']</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Sleep': {'Sleep': {'quality': 'poor', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>['Sleep', 'Pain', 'Sleep']</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>['patient', 'patient', 'patient']</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="R4" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Sleep': {'Sleep': {'quality': 'poor', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="R4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>["dropped to high 80's when sleeping", '', "sats 95 when awake, dropped to high 80's when sleeping"]</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>["e1=Sleep|1:dropped to high 80's when sleeping", 'e2=Pain|1:', "e3=Sleep|1:sats 95 when awake, dropped to high 80's when sleeping"]</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e3', 'relation': 'before', 'event_id_2': 'e1'}, {'event_id_1': 'e1', 'relation': 'unknown', 'event_id_2': 'e2'}]]</t>
         </is>
@@ -840,35 +860,40 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
+          <t>['patient']</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>['Sleep', 'Unknown']</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>['patient', 'patient']</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="R5" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Unknown': {}}]</t>
         </is>
       </c>
-      <c r="R5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>['while asleep', 'bp']</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>['e1=Sleep|1:while asleep', 'e2=Unknown|1:bp']</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'simultaneous', 'event_id_2': 'e2'}]]</t>
         </is>
@@ -926,35 +951,40 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
+          <t>['patient']</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>['Sleep']</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>['patient']</t>
-        </is>
-      </c>
       <c r="Q6" t="inlineStr">
         <is>
+          <t>['patient']</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="R6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>["i can't sleep at night at home either"]</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>["e1=Sleep|1:i can't sleep at night at home either"]</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -1012,35 +1042,40 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
+          <t>['patient']</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>['Sleep', 'Pain']</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>['patient', 'patient']</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="R7" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="R7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>['patient is a mouth breather, so sat will decrease to 92% while patient is asleep', '']</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>['e1=Sleep|1:patient is a mouth breather, so sat will decrease to 92% while patient is asleep', 'e2=Pain|1:']</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'unknown', 'event_id_2': 'e2'}]]</t>
         </is>
@@ -1098,35 +1133,40 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
+          <t>['patient']</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>['Sleep', 'Pain']</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>['patient', 'patient']</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="R8" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="R8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>['down significantly when asleep but patient. awakens easily and is coherent', '']</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>['e1=Sleep|1:down significantly when asleep but patient. awakens easily and is coherent', 'e2=Pain|1:']</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'unknown', 'event_id_2': 'e2'}]]</t>
         </is>
@@ -1184,35 +1224,40 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
+          <t>['patient']</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'apnea'}}}]</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>['Sleep']</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>['patient']</t>
-        </is>
-      </c>
       <c r="Q9" t="inlineStr">
         <is>
+          <t>['patient']</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'apnea'}}}]</t>
         </is>
       </c>
-      <c r="R9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>['sleep apnea']</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>['e1=Sleep|1:sleep apnea']</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -1270,35 +1315,40 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
+          <t>['patient']</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>['Sleep', 'Eating']</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>['patient', 'patient']</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="R10" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Eating': {'Eating': {'food': 'ambien', 'amount': '5mg', 'method': 'by mouth'}}}]</t>
         </is>
       </c>
-      <c r="R10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>['slept after 5mg by mouth ambien, bedrest maintained', '5mg by mouth ambien']</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>['e1=Sleep|1:slept after 5mg by mouth ambien, bedrest maintained', 'e2=Eating|1:5mg by mouth ambien']</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e2', 'relation': 'before', 'event_id_2': 'e1'}]]</t>
         </is>
@@ -1356,35 +1406,40 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
+          <t>['patient', 'patient']</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'poor', 'duration': 'short'}}}, {'Sleep': {'Sleep': {'quality': 'excessive', 'duration': 'long'}}}]</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="P11" t="inlineStr">
         <is>
           <t>['Sleep', 'Sleep']</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>['patient', 'patient']</t>
         </is>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="R11" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'poor', 'duration': 'short'}}}, {'Sleep': {'Sleep': {'quality': 'excessive', 'duration': 'long'}}}]</t>
         </is>
       </c>
-      <c r="R11" t="inlineStr">
+      <c r="S11" t="inlineStr">
         <is>
           <t>["i can't really sleep...maybe i slept too much today", 'maybe i slept too much today']</t>
         </is>
       </c>
-      <c r="S11" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>["e1=Sleep|1:i can't really sleep...maybe i slept too much today", 'e2=Sleep|1:maybe i slept too much today']</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e2', 'relation': 'before', 'event_id_2': 'e1'}]]</t>
         </is>
@@ -1442,35 +1497,40 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
+          <t>['patient']</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'apnea'}}}]</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="P12" t="inlineStr">
         <is>
           <t>['Sleep']</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>['patient']</t>
-        </is>
-      </c>
       <c r="Q12" t="inlineStr">
         <is>
+          <t>['patient']</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'apnea'}}}]</t>
         </is>
       </c>
-      <c r="R12" t="inlineStr">
+      <c r="S12" t="inlineStr">
         <is>
           <t>['sleep apnea']</t>
         </is>
       </c>
-      <c r="S12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>['e1=Sleep|1:sleep apnea']</t>
         </is>
       </c>
-      <c r="T12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -1528,35 +1588,40 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
+          <t>['patient']</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
+      <c r="P13" t="inlineStr">
         <is>
           <t>['Sleep']</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>['patient']</t>
-        </is>
-      </c>
       <c r="Q13" t="inlineStr">
         <is>
+          <t>['patient']</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="R13" t="inlineStr">
+      <c r="S13" t="inlineStr">
         <is>
           <t>['sleeping']</t>
         </is>
       </c>
-      <c r="S13" t="inlineStr">
+      <c r="T13" t="inlineStr">
         <is>
           <t>['e1=Sleep|1:sleeping']</t>
         </is>
       </c>
-      <c r="T13" t="inlineStr">
+      <c r="U13" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -1614,35 +1679,40 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
+          <t>['patient']</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'fairly well'}}}]</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
+      <c r="P14" t="inlineStr">
         <is>
           <t>['Sleep', 'Pain']</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr">
+      <c r="Q14" t="inlineStr">
         <is>
           <t>['patient', 'others']</t>
         </is>
       </c>
-      <c r="Q14" t="inlineStr">
+      <c r="R14" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'fairly well'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="R14" t="inlineStr">
+      <c r="S14" t="inlineStr">
         <is>
           <t>['patient sleeping fairly well despite activity in the room', 'offered to give ativan .5mg']</t>
         </is>
       </c>
-      <c r="S14" t="inlineStr">
+      <c r="T14" t="inlineStr">
         <is>
           <t>['e1=Sleep|1:patient sleeping fairly well despite activity in the room', 'e2=Pain|1:offered to give ativan .5mg']</t>
         </is>
       </c>
-      <c r="T14" t="inlineStr">
+      <c r="U14" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e2', 'relation': 'after', 'event_id_2': 'e1'}]]</t>
         </is>
@@ -1700,35 +1770,40 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
+          <t>['patient']</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
           <t>[{'Sleep': {'Sleep': {}}}]</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr">
+      <c r="P15" t="inlineStr">
         <is>
           <t>['Sleep', 'Pain', 'Eating', 'Family', 'Excretion', 'Unknown']</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr">
+      <c r="Q15" t="inlineStr">
         <is>
           <t>['patient', 'patient', 'patient', 'patient', 'patient', 'patient']</t>
         </is>
       </c>
-      <c r="Q15" t="inlineStr">
+      <c r="R15" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {}}}, {'Pain': {'Pain': {}}}, {'Eating': {'Eating': {}}}, {'Family': {'Family': {}}}, {'Excretion': {'Excretion': {}}}, {'Unknown': {}}]</t>
         </is>
       </c>
-      <c r="R15" t="inlineStr">
+      <c r="S15" t="inlineStr">
         <is>
           <t>['while sleeping', "bp in the 80's", '', '', '', 'goood response from [** **]']</t>
         </is>
       </c>
-      <c r="S15" t="inlineStr">
+      <c r="T15" t="inlineStr">
         <is>
           <t>['e1=Sleep|1:while sleeping', "e2=Pain|1:bp in the 80's", 'e3=Eating|1:', 'e4=Family|1:', 'e5=Excretion|1:', 'e6=Unknown|1:goood response from [** **]']</t>
         </is>
       </c>
-      <c r="T15" t="inlineStr">
+      <c r="U15" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'unknown', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'unknown', 'event_id_2': 'e6'}]]</t>
         </is>
@@ -1786,35 +1861,40 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
+          <t>['patient']</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'good', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="O16" t="inlineStr">
+      <c r="P16" t="inlineStr">
         <is>
           <t>['Sleep', 'Pain', 'Family', 'Excretion', 'Eating', 'Pain']</t>
         </is>
       </c>
-      <c r="P16" t="inlineStr">
+      <c r="Q16" t="inlineStr">
         <is>
           <t>['patient', 'patient', 'patient', 'patient', 'patient', 'patient']</t>
         </is>
       </c>
-      <c r="Q16" t="inlineStr">
+      <c r="R16" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'good', 'duration': 'Unknown'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Family': {'Family': {'interaction': 'Unknown', 'relation': 'Unknown'}}}, {'Excretion': {'Excretion': {'type': 'serosang', 'frequency': 'Unknown', 'quality': 'Unknown'}}}, {'Eating': {'Eating': {'food': 'Unknown', 'amount': 'Unknown', 'method': 'Unknown'}}}, {'Pain': {'Pain': {'severity': 'mild', 'location': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="R16" t="inlineStr">
+      <c r="S16" t="inlineStr">
         <is>
           <t>['reassured back to sleep, continues to rest', 'None', 'None', 'patient turned dumped 100cc serosang', 'None', 'calm.., when awaken needs to be reoriented to time, patient cooperative/calm']</t>
         </is>
       </c>
-      <c r="S16" t="inlineStr">
+      <c r="T16" t="inlineStr">
         <is>
           <t>['e1=Sleep|1:reassured back to sleep, continues to rest', 'e2=Pain|0:None', 'e3=Family|0:None', 'e4=Excretion|1:patient turned dumped 100cc serosang', 'e5=Eating|0:None', 'e6=Pain|0:calm.., when awaken needs to be reoriented to time, patient cooperative/calm']</t>
         </is>
       </c>
-      <c r="T16" t="inlineStr">
+      <c r="U16" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e4', 'relation': 'before', 'event_id_2': 'e1'}, {'event_id_1': 'e1', 'relation': 'simultaneous', 'event_id_2': 'e6'}]]</t>
         </is>
@@ -1872,35 +1952,40 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
+          <t>['patient']</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'unknown', 'duration': 'unknown'}}}]</t>
         </is>
       </c>
-      <c r="O17" t="inlineStr">
+      <c r="P17" t="inlineStr">
         <is>
           <t>['Sleep']</t>
         </is>
       </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>['patient']</t>
-        </is>
-      </c>
       <c r="Q17" t="inlineStr">
         <is>
+          <t>['patient']</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'unknown', 'duration': 'unknown'}}}]</t>
         </is>
       </c>
-      <c r="R17" t="inlineStr">
+      <c r="S17" t="inlineStr">
         <is>
           <t>['unable to sleep this pm']</t>
         </is>
       </c>
-      <c r="S17" t="inlineStr">
+      <c r="T17" t="inlineStr">
         <is>
           <t>['e1=Sleep|1:unable to sleep this pm']</t>
         </is>
       </c>
-      <c r="T17" t="inlineStr">
+      <c r="U17" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -1958,35 +2043,40 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
+          <t>['patient']</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'poor', 'duration': 'intermittent'}}}]</t>
         </is>
       </c>
-      <c r="O18" t="inlineStr">
+      <c r="P18" t="inlineStr">
         <is>
           <t>['Sleep']</t>
         </is>
       </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>['patient']</t>
-        </is>
-      </c>
       <c r="Q18" t="inlineStr">
         <is>
+          <t>['patient']</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'poor', 'duration': 'intermittent'}}}]</t>
         </is>
       </c>
-      <c r="R18" t="inlineStr">
+      <c r="S18" t="inlineStr">
         <is>
           <t>['dozing intermittently']</t>
         </is>
       </c>
-      <c r="S18" t="inlineStr">
+      <c r="T18" t="inlineStr">
         <is>
           <t>['e1=Sleep|1:dozing intermittently']</t>
         </is>
       </c>
-      <c r="T18" t="inlineStr">
+      <c r="U18" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -2044,35 +2134,40 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
+          <t>['patient']</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'good', 'duration': 'most of the night'}}}]</t>
         </is>
       </c>
-      <c r="O19" t="inlineStr">
+      <c r="P19" t="inlineStr">
         <is>
           <t>['Sleep', 'Unknown']</t>
         </is>
       </c>
-      <c r="P19" t="inlineStr">
+      <c r="Q19" t="inlineStr">
         <is>
           <t>['patient', 'patient']</t>
         </is>
       </c>
-      <c r="Q19" t="inlineStr">
+      <c r="R19" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'good', 'duration': 'most of the night'}}}, {'Unknown': {}}]</t>
         </is>
       </c>
-      <c r="R19" t="inlineStr">
+      <c r="S19" t="inlineStr">
         <is>
           <t>['slept most of the night', '-repositioned in bed']</t>
         </is>
       </c>
-      <c r="S19" t="inlineStr">
+      <c r="T19" t="inlineStr">
         <is>
           <t>['e1=Sleep|1:slept most of the night', 'e2=Unknown|1:-repositioned in bed']</t>
         </is>
       </c>
-      <c r="T19" t="inlineStr">
+      <c r="U19" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e2', 'relation': 'after', 'event_id_2': 'e1'}]]</t>
         </is>
@@ -2130,35 +2225,40 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
+          <t>['patient']</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'intermittent', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="O20" t="inlineStr">
+      <c r="P20" t="inlineStr">
         <is>
           <t>['Sleep', 'Pain']</t>
         </is>
       </c>
-      <c r="P20" t="inlineStr">
+      <c r="Q20" t="inlineStr">
         <is>
           <t>['patient', 'patient']</t>
         </is>
       </c>
-      <c r="Q20" t="inlineStr">
+      <c r="R20" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'intermittent', 'duration': 'Unknown'}}}, {'Pain': {'Pain': {'severity': 'tenderness', 'location': 'midepigastric', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="R20" t="inlineStr">
+      <c r="S20" t="inlineStr">
         <is>
           <t>['patient now dozing intermittently', 'still w midepigastr tenderness on exam']</t>
         </is>
       </c>
-      <c r="S20" t="inlineStr">
+      <c r="T20" t="inlineStr">
         <is>
           <t>['e1=Sleep|1:patient now dozing intermittently', 'e2=Pain|1:still w midepigastr tenderness on exam']</t>
         </is>
       </c>
-      <c r="T20" t="inlineStr">
+      <c r="U20" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'unknown', 'event_id_2': 'e2'}]]</t>
         </is>
@@ -2216,35 +2316,40 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
+          <t>['patient']</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'on and off', 'duration': 'most of night'}}}]</t>
         </is>
       </c>
-      <c r="O21" t="inlineStr">
+      <c r="P21" t="inlineStr">
         <is>
           <t>['Sleep', 'Pain']</t>
         </is>
       </c>
-      <c r="P21" t="inlineStr">
+      <c r="Q21" t="inlineStr">
         <is>
           <t>['patient', 'patient']</t>
         </is>
       </c>
-      <c r="Q21" t="inlineStr">
+      <c r="R21" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'on and off', 'duration': 'most of night'}}}, {'Pain': {'Pain': {'severity': 'slightly improved', 'location': 'bp', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="R21" t="inlineStr">
+      <c r="S21" t="inlineStr">
         <is>
           <t>['patient slept on and off most of night---good effect from ativan', 'bp slightly improved although 10 pm lisinopril dose held due to sbp=90, no significant']</t>
         </is>
       </c>
-      <c r="S21" t="inlineStr">
+      <c r="T21" t="inlineStr">
         <is>
           <t>['e1=Sleep|1:patient slept on and off most of night---good effect from ativan', 'e2=Pain|1:bp slightly improved although 10 pm lisinopril dose held due to sbp=90, no significant']</t>
         </is>
       </c>
-      <c r="T21" t="inlineStr">
+      <c r="U21" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}]]</t>
         </is>
@@ -2302,35 +2407,40 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
+          <t>['patient']</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'naps'}}}]</t>
         </is>
       </c>
-      <c r="O22" t="inlineStr">
+      <c r="P22" t="inlineStr">
         <is>
           <t>['Sleep']</t>
         </is>
       </c>
-      <c r="P22" t="inlineStr">
-        <is>
-          <t>['patient']</t>
-        </is>
-      </c>
       <c r="Q22" t="inlineStr">
         <is>
+          <t>['patient']</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'naps'}}}]</t>
         </is>
       </c>
-      <c r="R22" t="inlineStr">
+      <c r="S22" t="inlineStr">
         <is>
           <t>['patient resting in naps']</t>
         </is>
       </c>
-      <c r="S22" t="inlineStr">
+      <c r="T22" t="inlineStr">
         <is>
           <t>['e1=Sleep|1:patient resting in naps']</t>
         </is>
       </c>
-      <c r="T22" t="inlineStr">
+      <c r="U22" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -2388,35 +2498,40 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
+          <t>['patient']</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'easily arousible', 'duration': 'long naps'}}}]</t>
         </is>
       </c>
-      <c r="O23" t="inlineStr">
+      <c r="P23" t="inlineStr">
         <is>
           <t>['Sleep']</t>
         </is>
       </c>
-      <c r="P23" t="inlineStr">
-        <is>
-          <t>['patient']</t>
-        </is>
-      </c>
       <c r="Q23" t="inlineStr">
         <is>
+          <t>['patient']</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'easily arousible', 'duration': 'long naps'}}}]</t>
         </is>
       </c>
-      <c r="R23" t="inlineStr">
+      <c r="S23" t="inlineStr">
         <is>
           <t>['neuro - sleeping in long naps but easily arousible']</t>
         </is>
       </c>
-      <c r="S23" t="inlineStr">
+      <c r="T23" t="inlineStr">
         <is>
           <t>['e1=Sleep|1:neuro - sleeping in long naps but easily arousible']</t>
         </is>
       </c>
-      <c r="T23" t="inlineStr">
+      <c r="U23" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -2474,35 +2589,40 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
+          <t>['patient']</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'most of shift'}}}]</t>
         </is>
       </c>
-      <c r="O24" t="inlineStr">
+      <c r="P24" t="inlineStr">
         <is>
           <t>['Sleep', 'Pain']</t>
         </is>
       </c>
-      <c r="P24" t="inlineStr">
+      <c r="Q24" t="inlineStr">
         <is>
           <t>['patient', 'patient']</t>
         </is>
       </c>
-      <c r="Q24" t="inlineStr">
+      <c r="R24" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'most of shift'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'when woken'}}}]</t>
         </is>
       </c>
-      <c r="R24" t="inlineStr">
+      <c r="S24" t="inlineStr">
         <is>
           <t>['slept most of shift', 'aao x 3 when woken']</t>
         </is>
       </c>
-      <c r="S24" t="inlineStr">
+      <c r="T24" t="inlineStr">
         <is>
           <t>['e1=Sleep|1:slept most of shift', 'e2=Pain|1:aao x 3 when woken']</t>
         </is>
       </c>
-      <c r="T24" t="inlineStr">
+      <c r="U24" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}]]</t>
         </is>
@@ -2560,35 +2680,40 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
+          <t>['patient']</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'poor'}}}]</t>
         </is>
       </c>
-      <c r="O25" t="inlineStr">
+      <c r="P25" t="inlineStr">
         <is>
           <t>['Sleep']</t>
         </is>
       </c>
-      <c r="P25" t="inlineStr">
-        <is>
-          <t>['patient']</t>
-        </is>
-      </c>
       <c r="Q25" t="inlineStr">
         <is>
+          <t>['patient']</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'poor'}}}]</t>
         </is>
       </c>
-      <c r="R25" t="inlineStr">
+      <c r="S25" t="inlineStr">
         <is>
           <t>['arouses to voice when sleeping']</t>
         </is>
       </c>
-      <c r="S25" t="inlineStr">
+      <c r="T25" t="inlineStr">
         <is>
           <t>['e1=Sleep|1:arouses to voice when sleeping']</t>
         </is>
       </c>
-      <c r="T25" t="inlineStr">
+      <c r="U25" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -2646,35 +2771,40 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
+          <t>['patient']</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'well'}}}]</t>
         </is>
       </c>
-      <c r="O26" t="inlineStr">
+      <c r="P26" t="inlineStr">
         <is>
           <t>['Sleep']</t>
         </is>
       </c>
-      <c r="P26" t="inlineStr">
-        <is>
-          <t>['patient']</t>
-        </is>
-      </c>
       <c r="Q26" t="inlineStr">
         <is>
+          <t>['patient']</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'well'}}}]</t>
         </is>
       </c>
-      <c r="R26" t="inlineStr">
+      <c r="S26" t="inlineStr">
         <is>
           <t>['patient slept well overnight']</t>
         </is>
       </c>
-      <c r="S26" t="inlineStr">
+      <c r="T26" t="inlineStr">
         <is>
           <t>['e1=Sleep|1:patient slept well overnight']</t>
         </is>
       </c>
-      <c r="T26" t="inlineStr">
+      <c r="U26" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -2732,35 +2862,40 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
+          <t>['patient']</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="O27" t="inlineStr">
+      <c r="P27" t="inlineStr">
         <is>
           <t>['Eating', 'Sleep', 'Family']</t>
         </is>
       </c>
-      <c r="P27" t="inlineStr">
+      <c r="Q27" t="inlineStr">
         <is>
           <t>['patient', 'patient', 'others']</t>
         </is>
       </c>
-      <c r="Q27" t="inlineStr">
+      <c r="R27" t="inlineStr">
         <is>
           <t>[{'Eating': {'Eating': {'food': 'Unknown', 'amount': 'Unknown', 'method': 'oral'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Family': {'Family': {'interaction': 'communication', 'relation': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="R27" t="inlineStr">
+      <c r="S27" t="inlineStr">
         <is>
           <t>['npo past midnight', 'sleep med tonight', 'keep patient and family informed of plan per multidisciplinary rounds']</t>
         </is>
       </c>
-      <c r="S27" t="inlineStr">
+      <c r="T27" t="inlineStr">
         <is>
           <t>['e1=Eating|1:npo past midnight', 'e2=Sleep|1:sleep med tonight', 'e3=Family|1:keep patient and family informed of plan per multidisciplinary rounds']</t>
         </is>
       </c>
-      <c r="T27" t="inlineStr">
+      <c r="U27" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'unknown', 'event_id_2': 'e3'}]]</t>
         </is>
@@ -2818,35 +2953,40 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
+          <t>['patient']</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'longer', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="O28" t="inlineStr">
+      <c r="P28" t="inlineStr">
         <is>
           <t>['Sleep', 'Pain']</t>
         </is>
       </c>
-      <c r="P28" t="inlineStr">
+      <c r="Q28" t="inlineStr">
         <is>
           <t>['patient', 'patient']</t>
         </is>
       </c>
-      <c r="Q28" t="inlineStr">
+      <c r="R28" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'longer', 'duration': 'Unknown'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="R28" t="inlineStr">
+      <c r="S28" t="inlineStr">
         <is>
           <t>['patient slept longer p last dose, requiring less ativan.', 'agitation and confusion only symptoms on ciwa scale']</t>
         </is>
       </c>
-      <c r="S28" t="inlineStr">
+      <c r="T28" t="inlineStr">
         <is>
           <t>['e1=Sleep|1:patient slept longer p last dose, requiring less ativan.', 'e2=Pain|1:agitation and confusion only symptoms on ciwa scale']</t>
         </is>
       </c>
-      <c r="T28" t="inlineStr">
+      <c r="U28" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}]]</t>
         </is>
@@ -2904,35 +3044,40 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
+          <t>['patient']</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'first night'}}}]</t>
         </is>
       </c>
-      <c r="O29" t="inlineStr">
+      <c r="P29" t="inlineStr">
         <is>
           <t>['Sleep']</t>
         </is>
       </c>
-      <c r="P29" t="inlineStr">
-        <is>
-          <t>['patient']</t>
-        </is>
-      </c>
       <c r="Q29" t="inlineStr">
         <is>
+          <t>['patient']</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'first night'}}}]</t>
         </is>
       </c>
-      <c r="R29" t="inlineStr">
+      <c r="S29" t="inlineStr">
         <is>
           <t>['this is the first night i have slept']</t>
         </is>
       </c>
-      <c r="S29" t="inlineStr">
+      <c r="T29" t="inlineStr">
         <is>
           <t>['e1=Sleep|1:this is the first night i have slept']</t>
         </is>
       </c>
-      <c r="T29" t="inlineStr">
+      <c r="U29" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -2990,35 +3135,40 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
+          <t>['patient']</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'most of the day'}}}]</t>
         </is>
       </c>
-      <c r="O30" t="inlineStr">
+      <c r="P30" t="inlineStr">
         <is>
           <t>['Sleep']</t>
         </is>
       </c>
-      <c r="P30" t="inlineStr">
-        <is>
-          <t>['patient']</t>
-        </is>
-      </c>
       <c r="Q30" t="inlineStr">
         <is>
+          <t>['patient']</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'most of the day'}}}]</t>
         </is>
       </c>
-      <c r="R30" t="inlineStr">
+      <c r="S30" t="inlineStr">
         <is>
           <t>['but is able to sleep for most of the day']</t>
         </is>
       </c>
-      <c r="S30" t="inlineStr">
+      <c r="T30" t="inlineStr">
         <is>
           <t>['e1=Sleep|1:but is able to sleep for most of the day']</t>
         </is>
       </c>
-      <c r="T30" t="inlineStr">
+      <c r="U30" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -3076,35 +3226,40 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
+          <t>['patient']</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="O31" t="inlineStr">
+      <c r="P31" t="inlineStr">
         <is>
           <t>['Sleep']</t>
         </is>
       </c>
-      <c r="P31" t="inlineStr">
-        <is>
-          <t>['patient']</t>
-        </is>
-      </c>
       <c r="Q31" t="inlineStr">
         <is>
+          <t>['patient']</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="R31" t="inlineStr">
+      <c r="S31" t="inlineStr">
         <is>
           <t>['given ambien for sleep with effect']</t>
         </is>
       </c>
-      <c r="S31" t="inlineStr">
+      <c r="T31" t="inlineStr">
         <is>
           <t>['e1=Sleep|1:given ambien for sleep with effect']</t>
         </is>
       </c>
-      <c r="T31" t="inlineStr">
+      <c r="U31" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -3162,35 +3317,40 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
+          <t>['patient']</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'most of shift'}}}]</t>
         </is>
       </c>
-      <c r="O32" t="inlineStr">
+      <c r="P32" t="inlineStr">
         <is>
           <t>['Sleep', 'Family', 'Pain']</t>
         </is>
       </c>
-      <c r="P32" t="inlineStr">
+      <c r="Q32" t="inlineStr">
         <is>
           <t>['patient', 'patient', 'patient']</t>
         </is>
       </c>
-      <c r="Q32" t="inlineStr">
+      <c r="R32" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'most of shift'}}}, {'Family': {'Family': {'interaction': 'physical contact', 'relation': 'wife'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="R32" t="inlineStr">
+      <c r="S32" t="inlineStr">
         <is>
           <t>['patient appeared to sleep most of shift', 'would hold hand w/wife and squeeze hand when she told him she had to move', 'no further answering ?s with nodding']</t>
         </is>
       </c>
-      <c r="S32" t="inlineStr">
+      <c r="T32" t="inlineStr">
         <is>
           <t>['e1=Sleep|1:patient appeared to sleep most of shift', 'e2=Family|1:would hold hand w/wife and squeeze hand when she told him she had to move', 'e3=Pain|1:no further answering ?s with nodding']</t>
         </is>
       </c>
-      <c r="T32" t="inlineStr">
+      <c r="U32" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'simultaneous', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'after', 'event_id_2': 'e3'}]]</t>
         </is>
@@ -3248,35 +3408,40 @@
       </c>
       <c r="N33" t="inlineStr">
         <is>
+          <t>['patient']</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="O33" t="inlineStr">
+      <c r="P33" t="inlineStr">
         <is>
           <t>['Pain', 'Sleep', 'Excretion', 'Pain']</t>
         </is>
       </c>
-      <c r="P33" t="inlineStr">
+      <c r="Q33" t="inlineStr">
         <is>
           <t>['patient', 'patient', 'patient', 'patient']</t>
         </is>
       </c>
-      <c r="Q33" t="inlineStr">
+      <c r="R33" t="inlineStr">
         <is>
           <t>[{'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Excretion': {'Excretion': {'type': 'secretions', 'frequency': 'copious amounts', 'quality': 'thick tan/yellow'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="R33" t="inlineStr">
+      <c r="S33" t="inlineStr">
         <is>
           <t>['patient anxious c/o pain med with morphine with relief', 'trazadone hs for sleep with effect', 'continues with copious amounts of thick tan/yellow secretions', 'patient c/o "can\'t breath"']</t>
         </is>
       </c>
-      <c r="S33" t="inlineStr">
+      <c r="T33" t="inlineStr">
         <is>
           <t>['e1=Pain|1:patient anxious c/o pain med with morphine with relief', 'e2=Sleep|1:trazadone hs for sleep with effect', 'e3=Excretion|1:continues with copious amounts of thick tan/yellow secretions', 'e4=Pain|1:patient c/o "can\'t breath"']</t>
         </is>
       </c>
-      <c r="T33" t="inlineStr">
+      <c r="U33" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'before', 'event_id_2': 'e3'}, {'event_id_1': 'e3', 'relation': 'before', 'event_id_2': 'e4'}]]</t>
         </is>
@@ -3334,35 +3499,40 @@
       </c>
       <c r="N34" t="inlineStr">
         <is>
+          <t>['patient']</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="O34" t="inlineStr">
+      <c r="P34" t="inlineStr">
         <is>
           <t>['Pain', 'Sleep']</t>
         </is>
       </c>
-      <c r="P34" t="inlineStr">
+      <c r="Q34" t="inlineStr">
         <is>
           <t>['patient', 'patient']</t>
         </is>
       </c>
-      <c r="Q34" t="inlineStr">
+      <c r="R34" t="inlineStr">
         <is>
           <t>[{'Pain': {'Pain': {'severity': 'improved', 'location': 'back', 'duration': 'Unknown'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="R34" t="inlineStr">
+      <c r="S34" t="inlineStr">
         <is>
           <t>['back pain improved', 'patient sleeping']</t>
         </is>
       </c>
-      <c r="S34" t="inlineStr">
+      <c r="T34" t="inlineStr">
         <is>
           <t>['e1=Pain|1:back pain improved', 'e2=Sleep|1:patient sleeping']</t>
         </is>
       </c>
-      <c r="T34" t="inlineStr">
+      <c r="U34" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e2', 'relation': 'after', 'event_id_2': 'e1'}]]</t>
         </is>
@@ -3420,35 +3590,40 @@
       </c>
       <c r="N35" t="inlineStr">
         <is>
+          <t>['patient']</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'poor', 'duration': 'short'}}}]</t>
         </is>
       </c>
-      <c r="O35" t="inlineStr">
+      <c r="P35" t="inlineStr">
         <is>
           <t>['Sleep']</t>
         </is>
       </c>
-      <c r="P35" t="inlineStr">
-        <is>
-          <t>['patient']</t>
-        </is>
-      </c>
       <c r="Q35" t="inlineStr">
         <is>
+          <t>['patient']</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'poor', 'duration': 'short'}}}]</t>
         </is>
       </c>
-      <c r="R35" t="inlineStr">
+      <c r="S35" t="inlineStr">
         <is>
           <t>['slept poorly in short naps']</t>
         </is>
       </c>
-      <c r="S35" t="inlineStr">
+      <c r="T35" t="inlineStr">
         <is>
           <t>['e1=Sleep|1:slept poorly in short naps']</t>
         </is>
       </c>
-      <c r="T35" t="inlineStr">
+      <c r="U35" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -3506,35 +3681,40 @@
       </c>
       <c r="N36" t="inlineStr">
         <is>
+          <t>['patient']</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'good', 'duration': 'most'}}}]</t>
         </is>
       </c>
-      <c r="O36" t="inlineStr">
+      <c r="P36" t="inlineStr">
         <is>
           <t>['Sleep']</t>
         </is>
       </c>
-      <c r="P36" t="inlineStr">
-        <is>
-          <t>['patient']</t>
-        </is>
-      </c>
       <c r="Q36" t="inlineStr">
         <is>
+          <t>['patient']</t>
+        </is>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'good', 'duration': 'most'}}}]</t>
         </is>
       </c>
-      <c r="R36" t="inlineStr">
+      <c r="S36" t="inlineStr">
         <is>
           <t>['slept most of night']</t>
         </is>
       </c>
-      <c r="S36" t="inlineStr">
+      <c r="T36" t="inlineStr">
         <is>
           <t>['e1=Sleep|1:slept most of night']</t>
         </is>
       </c>
-      <c r="T36" t="inlineStr">
+      <c r="U36" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -3592,35 +3772,40 @@
       </c>
       <c r="N37" t="inlineStr">
         <is>
+          <t>['patient']</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'well', 'duration': 'long'}}}]</t>
         </is>
       </c>
-      <c r="O37" t="inlineStr">
+      <c r="P37" t="inlineStr">
         <is>
           <t>['Sleep']</t>
         </is>
       </c>
-      <c r="P37" t="inlineStr">
-        <is>
-          <t>['patient']</t>
-        </is>
-      </c>
       <c r="Q37" t="inlineStr">
         <is>
+          <t>['patient']</t>
+        </is>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'well', 'duration': 'long'}}}]</t>
         </is>
       </c>
-      <c r="R37" t="inlineStr">
+      <c r="S37" t="inlineStr">
         <is>
           <t>['slept well in long naps']</t>
         </is>
       </c>
-      <c r="S37" t="inlineStr">
+      <c r="T37" t="inlineStr">
         <is>
           <t>['e1=Sleep|1:slept well in long naps']</t>
         </is>
       </c>
-      <c r="T37" t="inlineStr">
+      <c r="U37" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -3678,35 +3863,40 @@
       </c>
       <c r="N38" t="inlineStr">
         <is>
+          <t>['patient']</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'poor'}}}]</t>
         </is>
       </c>
-      <c r="O38" t="inlineStr">
+      <c r="P38" t="inlineStr">
         <is>
           <t>['Sleep', 'Pain']</t>
         </is>
       </c>
-      <c r="P38" t="inlineStr">
+      <c r="Q38" t="inlineStr">
         <is>
           <t>['patient', 'patient']</t>
         </is>
       </c>
-      <c r="Q38" t="inlineStr">
+      <c r="R38" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'poor'}}}, {'Pain': {'Pain': {}}}]</t>
         </is>
       </c>
-      <c r="R38" t="inlineStr">
+      <c r="S38" t="inlineStr">
         <is>
           <t>["around midnight patient with occassional pvc's while asleep", 'no symptoms noted']</t>
         </is>
       </c>
-      <c r="S38" t="inlineStr">
+      <c r="T38" t="inlineStr">
         <is>
           <t>["e1=Sleep|1:around midnight patient with occassional pvc's while asleep", 'e2=Pain|1:no symptoms noted']</t>
         </is>
       </c>
-      <c r="T38" t="inlineStr">
+      <c r="U38" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}]]</t>
         </is>
@@ -3764,35 +3954,40 @@
       </c>
       <c r="N39" t="inlineStr">
         <is>
+          <t>['patient']</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'poor'}}}]</t>
         </is>
       </c>
-      <c r="O39" t="inlineStr">
+      <c r="P39" t="inlineStr">
         <is>
           <t>['Sleep', 'Excretion', 'Pain', 'Eating', 'Family']</t>
         </is>
       </c>
-      <c r="P39" t="inlineStr">
+      <c r="Q39" t="inlineStr">
         <is>
           <t>['patient', '', '', '', '']</t>
         </is>
       </c>
-      <c r="Q39" t="inlineStr">
+      <c r="R39" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'poor'}}}, {'Excretion': {}}, {'Pain': {}}, {'Eating': {}}, {'Family': {}}]</t>
         </is>
       </c>
-      <c r="R39" t="inlineStr">
+      <c r="S39" t="inlineStr">
         <is>
           <t>['falls to 91-92 while asleep', '', '', '', '']</t>
         </is>
       </c>
-      <c r="S39" t="inlineStr">
+      <c r="T39" t="inlineStr">
         <is>
           <t>['e1=Sleep|1:falls to 91-92 while asleep', 'e2=Excretion|1:', 'e3=Pain|1:', 'e4=Eating|1:', 'e5=Family|1:']</t>
         </is>
       </c>
-      <c r="T39" t="inlineStr">
+      <c r="U39" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'unknown', 'event_id_2': ''}]]</t>
         </is>
@@ -3850,35 +4045,40 @@
       </c>
       <c r="N40" t="inlineStr">
         <is>
+          <t>['patient']</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="O40" t="inlineStr">
+      <c r="P40" t="inlineStr">
         <is>
           <t>['Pain', 'Sleep', 'Pain', 'Eating', 'Excretion', 'Family', 'Unknown']</t>
         </is>
       </c>
-      <c r="P40" t="inlineStr">
+      <c r="Q40" t="inlineStr">
         <is>
           <t>['patient', 'patient', 'patient', 'patient', 'patient', 'patient', 'patient']</t>
         </is>
       </c>
-      <c r="Q40" t="inlineStr">
+      <c r="R40" t="inlineStr">
         <is>
           <t>[{'Pain': {'Pain': {'severity': 'breakthrough, tolerable', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Pain': {'Pain': {'severity': 'tolerable', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Eating': {'Eating': {'food': '', 'amount': '', 'method': ''}}}, {'Excretion': {'Excretion': {'type': '', 'frequency': '', 'quality': ''}}}, {'Family': {'Family': {'interaction': '', 'relation': ''}}}, {'Unknown': {}}]</t>
         </is>
       </c>
-      <c r="R40" t="inlineStr">
+      <c r="S40" t="inlineStr">
         <is>
           <t>['5mg ir oxycodone for breakthrough pain -patient sleeping on reassesment, complete relief of pain-when aware pain returning - "tolerable" managed with percocet', '-patient sleeping on reassesment, complete relief of pain-when aware pain returning - "tolerable" managed with percocet', '-when aware pain returning - "tolerable" managed with percocet', '', '', '', '']</t>
         </is>
       </c>
-      <c r="S40" t="inlineStr">
+      <c r="T40" t="inlineStr">
         <is>
           <t>['e1=Pain|1:5mg ir oxycodone for breakthrough pain -patient sleeping on reassesment, complete relief of pain-when aware pain returning - "tolerable" managed with percocet', 'e2=Sleep|1:-patient sleeping on reassesment, complete relief of pain-when aware pain returning - "tolerable" managed with percocet', 'e3=Pain|1:-when aware pain returning - "tolerable" managed with percocet', 'e4=Eating|1:', 'e5=Excretion|1:', 'e6=Family|1:', 'e7=Unknown|1:']</t>
         </is>
       </c>
-      <c r="T40" t="inlineStr">
+      <c r="U40" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'before', 'event_id_2': 'e3'}]]</t>
         </is>
@@ -3936,35 +4136,40 @@
       </c>
       <c r="N41" t="inlineStr">
         <is>
+          <t>['patient']</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'good', 'duration': 'most'}}}]</t>
         </is>
       </c>
-      <c r="O41" t="inlineStr">
+      <c r="P41" t="inlineStr">
         <is>
           <t>['Sleep']</t>
         </is>
       </c>
-      <c r="P41" t="inlineStr">
-        <is>
-          <t>['patient']</t>
-        </is>
-      </c>
       <c r="Q41" t="inlineStr">
         <is>
+          <t>['patient']</t>
+        </is>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'good', 'duration': 'most'}}}]</t>
         </is>
       </c>
-      <c r="R41" t="inlineStr">
+      <c r="S41" t="inlineStr">
         <is>
           <t>['able to sleep most of night']</t>
         </is>
       </c>
-      <c r="S41" t="inlineStr">
+      <c r="T41" t="inlineStr">
         <is>
           <t>['e1=Sleep|1:able to sleep most of night']</t>
         </is>
       </c>
-      <c r="T41" t="inlineStr">
+      <c r="U41" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -4022,35 +4227,40 @@
       </c>
       <c r="N42" t="inlineStr">
         <is>
+          <t>['patient']</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'on and off', 'duration': 'throughout the night'}}}]</t>
         </is>
       </c>
-      <c r="O42" t="inlineStr">
+      <c r="P42" t="inlineStr">
         <is>
           <t>['Sleep']</t>
         </is>
       </c>
-      <c r="P42" t="inlineStr">
-        <is>
-          <t>['patient']</t>
-        </is>
-      </c>
       <c r="Q42" t="inlineStr">
         <is>
+          <t>['patient']</t>
+        </is>
+      </c>
+      <c r="R42" t="inlineStr">
+        <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'on and off', 'duration': 'throughout the night'}}}]</t>
         </is>
       </c>
-      <c r="R42" t="inlineStr">
+      <c r="S42" t="inlineStr">
         <is>
           <t>['slept in naps throughout the night']</t>
         </is>
       </c>
-      <c r="S42" t="inlineStr">
+      <c r="T42" t="inlineStr">
         <is>
           <t>['e1=Sleep|1:slept in naps throughout the night']</t>
         </is>
       </c>
-      <c r="T42" t="inlineStr">
+      <c r="U42" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -4108,35 +4318,40 @@
       </c>
       <c r="N43" t="inlineStr">
         <is>
+          <t>['patient']</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'most'}}}]</t>
         </is>
       </c>
-      <c r="O43" t="inlineStr">
+      <c r="P43" t="inlineStr">
         <is>
           <t>['Pain', 'Sleep']</t>
         </is>
       </c>
-      <c r="P43" t="inlineStr">
+      <c r="Q43" t="inlineStr">
         <is>
           <t>['patient', 'patient']</t>
         </is>
       </c>
-      <c r="Q43" t="inlineStr">
+      <c r="R43" t="inlineStr">
         <is>
           <t>[{'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'most'}}}]</t>
         </is>
       </c>
-      <c r="R43" t="inlineStr">
+      <c r="S43" t="inlineStr">
         <is>
           <t>['med for pain x 2 with relief', 'slept most of night']</t>
         </is>
       </c>
-      <c r="S43" t="inlineStr">
+      <c r="T43" t="inlineStr">
         <is>
           <t>['e1=Pain|1:med for pain x 2 with relief', 'e2=Sleep|1:slept most of night']</t>
         </is>
       </c>
-      <c r="T43" t="inlineStr">
+      <c r="U43" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e2', 'relation': 'before', 'event_id_2': 'e1'}]]</t>
         </is>
@@ -4194,35 +4409,40 @@
       </c>
       <c r="N44" t="inlineStr">
         <is>
+          <t>['patient']</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'well'}}}]</t>
         </is>
       </c>
-      <c r="O44" t="inlineStr">
+      <c r="P44" t="inlineStr">
         <is>
           <t>['Sleep']</t>
         </is>
       </c>
-      <c r="P44" t="inlineStr">
-        <is>
-          <t>['patient']</t>
-        </is>
-      </c>
       <c r="Q44" t="inlineStr">
         <is>
+          <t>['patient']</t>
+        </is>
+      </c>
+      <c r="R44" t="inlineStr">
+        <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'well'}}}]</t>
         </is>
       </c>
-      <c r="R44" t="inlineStr">
+      <c r="S44" t="inlineStr">
         <is>
           <t>['slept well on current propofol drops']</t>
         </is>
       </c>
-      <c r="S44" t="inlineStr">
+      <c r="T44" t="inlineStr">
         <is>
           <t>['e1=Sleep|1:slept well on current propofol drops']</t>
         </is>
       </c>
-      <c r="T44" t="inlineStr">
+      <c r="U44" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -4280,35 +4500,40 @@
       </c>
       <c r="N45" t="inlineStr">
         <is>
+          <t>['patient']</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'on and off', 'duration': 'short'}}}]</t>
         </is>
       </c>
-      <c r="O45" t="inlineStr">
+      <c r="P45" t="inlineStr">
         <is>
           <t>['Sleep']</t>
         </is>
       </c>
-      <c r="P45" t="inlineStr">
-        <is>
-          <t>['patient']</t>
-        </is>
-      </c>
       <c r="Q45" t="inlineStr">
         <is>
+          <t>['patient']</t>
+        </is>
+      </c>
+      <c r="R45" t="inlineStr">
+        <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'on and off', 'duration': 'short'}}}]</t>
         </is>
       </c>
-      <c r="R45" t="inlineStr">
+      <c r="S45" t="inlineStr">
         <is>
           <t>['dozing on and off']</t>
         </is>
       </c>
-      <c r="S45" t="inlineStr">
+      <c r="T45" t="inlineStr">
         <is>
           <t>['e1=Sleep|1:dozing on and off']</t>
         </is>
       </c>
-      <c r="T45" t="inlineStr">
+      <c r="U45" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -4366,35 +4591,40 @@
       </c>
       <c r="N46" t="inlineStr">
         <is>
+          <t>['patient']</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'long naps', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="O46" t="inlineStr">
+      <c r="P46" t="inlineStr">
         <is>
           <t>['Sleep', 'Eating']</t>
         </is>
       </c>
-      <c r="P46" t="inlineStr">
+      <c r="Q46" t="inlineStr">
         <is>
           <t>['patient', 'patient']</t>
         </is>
       </c>
-      <c r="Q46" t="inlineStr">
+      <c r="R46" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'long naps', 'duration': 'Unknown'}}}, {'Eating': {'Eating': {'food': 'dilantin load 1000mg', 'amount': 'Unknown', 'method': 'oral'}}}]</t>
         </is>
       </c>
-      <c r="R46" t="inlineStr">
+      <c r="S46" t="inlineStr">
         <is>
           <t>['settled and slept in long naps', 'by mouth dilantin load 1000mg given in increments late pm']</t>
         </is>
       </c>
-      <c r="S46" t="inlineStr">
+      <c r="T46" t="inlineStr">
         <is>
           <t>['e1=Sleep|1:settled and slept in long naps', 'e2=Eating|1:by mouth dilantin load 1000mg given in increments late pm']</t>
         </is>
       </c>
-      <c r="T46" t="inlineStr">
+      <c r="U46" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e2', 'relation': 'before', 'event_id_2': 'e1'}]]</t>
         </is>
@@ -4452,35 +4682,40 @@
       </c>
       <c r="N47" t="inlineStr">
         <is>
+          <t>['patient']</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="O47" t="inlineStr">
+      <c r="P47" t="inlineStr">
         <is>
           <t>['Pain', 'Sleep']</t>
         </is>
       </c>
-      <c r="P47" t="inlineStr">
+      <c r="Q47" t="inlineStr">
         <is>
           <t>['patient', 'patient']</t>
         </is>
       </c>
-      <c r="Q47" t="inlineStr">
+      <c r="R47" t="inlineStr">
         <is>
           <t>[{'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="R47" t="inlineStr">
+      <c r="S47" t="inlineStr">
         <is>
           <t>['patient then awake having bronchospasms', 'patient then awake having bronchospasms']</t>
         </is>
       </c>
-      <c r="S47" t="inlineStr">
+      <c r="T47" t="inlineStr">
         <is>
           <t>['e1=Pain|1:patient then awake having bronchospasms', 'e2=Sleep|1:patient then awake having bronchospasms']</t>
         </is>
       </c>
-      <c r="T47" t="inlineStr">
+      <c r="U47" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e2', 'relation': 'before', 'event_id_2': 'e1'}]]</t>
         </is>

--- a/exports/06b_analysis/llama3.1:70b_V5_fa/Sleep/TP_Event_Name_LLM_Events_example_evidence_Sent_Sleep.xlsx
+++ b/exports/06b_analysis/llama3.1:70b_V5_fa/Sleep/TP_Event_Name_LLM_Events_example_evidence_Sent_Sleep.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U47"/>
+  <dimension ref="A1:T46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -511,25 +511,20 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>Actor_LLM_Events_example_evidence_Sent</t>
+          <t>Attribute_LLM_Events_example_evidence_Sent</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>Attribute_LLM_Events_example_evidence_Sent</t>
+          <t>Text_Quote_LLM_Events_example_evidence_Sent</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>Text_Quote_LLM_Events_example_evidence_Sent</t>
+          <t>Event_Id_LLM_Events_example_evidence_Sent</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>Event_Id_LLM_Events_example_evidence_Sent</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Order_LLM_Events_example_evidence_Sent</t>
         </is>
@@ -602,25 +597,20 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>['patient']</t>
+          <t>[{'Sleep': {'Sleep': {'quality': 'interrupted', 'duration': 'on and off'}}}]</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>[{'Sleep': {'Sleep': {'quality': 'interrupted', 'duration': 'on and off'}}}]</t>
+          <t>['slept at intervals']</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>['slept at intervals']</t>
+          <t>['e1=Sleep|1:slept at intervals']</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
-        <is>
-          <t>['e1=Sleep|1:slept at intervals']</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -693,25 +683,20 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>['patient']</t>
+          <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
+          <t>['eval sleep apnea']</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>['eval sleep apnea']</t>
+          <t>['e1=Sleep|1:eval sleep apnea']</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
-        <is>
-          <t>['e1=Sleep|1:eval sleep apnea']</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -784,25 +769,20 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>['patient', 'patient', 'patient']</t>
+          <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Sleep': {'Sleep': {'quality': 'poor', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Sleep': {'Sleep': {'quality': 'poor', 'duration': 'Unknown'}}}]</t>
+          <t>["dropped to high 80's when sleeping", '', "sats 95 when awake, dropped to high 80's when sleeping"]</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>["dropped to high 80's when sleeping", '', "sats 95 when awake, dropped to high 80's when sleeping"]</t>
+          <t>["e1=Sleep|1:dropped to high 80's when sleeping", 'e2=Pain|1:', "e3=Sleep|1:sats 95 when awake, dropped to high 80's when sleeping"]</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
-        <is>
-          <t>["e1=Sleep|1:dropped to high 80's when sleeping", 'e2=Pain|1:', "e3=Sleep|1:sats 95 when awake, dropped to high 80's when sleeping"]</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e3', 'relation': 'before', 'event_id_2': 'e1'}, {'event_id_1': 'e1', 'relation': 'unknown', 'event_id_2': 'e2'}]]</t>
         </is>
@@ -875,25 +855,20 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>['patient', 'patient']</t>
+          <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Unknown': {}}]</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Unknown': {}}]</t>
+          <t>['while asleep', 'bp']</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>['while asleep', 'bp']</t>
+          <t>['e1=Sleep|1:while asleep', 'e2=Unknown|1:bp']</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
-        <is>
-          <t>['e1=Sleep|1:while asleep', 'e2=Unknown|1:bp']</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'simultaneous', 'event_id_2': 'e2'}]]</t>
         </is>
@@ -901,16 +876,16 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>3748_1310486_0002</t>
+          <t>3748_1310486_0016</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>s:  i can't sleep at night at home either</t>
+          <t>patient is a mouth breather, so sat will decrease to 92% while patient is asleep, otherwise 95-97%</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -926,7 +901,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>{'text': "s:  i can't sleep at night at home either", 'event': ['Sleep'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Sleep",\n      "text_quote": "i can\'t sleep at night at home either",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    }\n  ],\n  "order": []\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}], 'orders': [[]], 'text_quotes': ["i can't sleep at night at home either"], 'event_time': ['Unknown'], 'negation': [True], 'caused_by': ['Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the Text at the end of this prompt into events that took place at the HOSPITAL, DURING THE SHIFT in which this text was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'An event is extracted from the text even if it is negated (e.g. "did not sleep"), but the respective negation attribute is set to True.\', \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n              \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n            ```\n           \n           \n           Text (written between 2180-03-14 04:34:00 and 2180-03-14 04:53:00):\n           s:  i can\'t sleep at night at home either\n        ', 'case_attributes': [[]], 'actor': ['patient'], 'event_detection_time': 3.8008939591236413}</t>
+          <t>{'text': 'patient is a mouth breather, so sat will decrease to 92% while patient is asleep, otherwise 95-97%', 'event': ['Sleep', 'Pain'], 'event_id': ['e1', 'e2'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Sleep",\n            "text_quote": "patient is a mouth breather, so sat will decrease to 92% while patient is asleep",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "Unknown",\n                    "location": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        }\n    ],\n    "order": [\n        {\n            "event_id_1": "e1",\n            "relation": "unknown",\n            "event_id_2": "e2"\n        }\n    ]\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'unknown', 'event_id_2': 'e2'}]], 'text_quotes': ['patient is a mouth breather, so sat will decrease to 92% while patient is asleep', ''], 'event_time': ['Unknown', 'Unknown'], 'negation': [False, True], 'caused_by': ['Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the Text at the end of this prompt into events that took place at the HOSPITAL, DURING THE SHIFT in which this text was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'An event is extracted from the text even if it is negated (e.g. "did not sleep"), but the respective negation attribute is set to True.\', \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n              \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n            ```\n           \n           \n           Text (written between 2180-03-14 04:34:00 and 2180-03-14 04:53:00):\n           patient is a mouth breather, so sat will decrease to 92% while patient is asleep, otherwise 95-97%\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient'], 'event_detection_time': 8.098277031909674}</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -934,7 +909,7 @@
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" t="b">
         <v>1</v>
@@ -946,7 +921,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>["i can't sleep at night at home either"]</t>
+          <t>['patient is a mouth breather, so sat will decrease to 92% while patient is asleep']</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -961,47 +936,42 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>['Sleep']</t>
+          <t>['Sleep', 'Pain']</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>['patient']</t>
+          <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
+          <t>['patient is a mouth breather, so sat will decrease to 92% while patient is asleep', '']</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>["i can't sleep at night at home either"]</t>
+          <t>['e1=Sleep|1:patient is a mouth breather, so sat will decrease to 92% while patient is asleep', 'e2=Pain|1:']</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>["e1=Sleep|1:i can't sleep at night at home either"]</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>[[]]</t>
+          <t>[[{'event_id_1': 'e1', 'relation': 'unknown', 'event_id_2': 'e2'}]]</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>3748_1310486_0016</t>
+          <t>3748_1310484_0003</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>patient is a mouth breather, so sat will decrease to 92% while patient is asleep, otherwise 95-97%</t>
+          <t>cv: diastolic blood pressure labile, transiently on labetalol for bp 150s, ranging 79-150/, down significantly when asleep but patient. awakens easily and is coherent, map &gt;60, md aware, cont to closely monitor</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -1012,12 +982,12 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>(Timestamp('2180-03-14 04:34:00'), Timestamp('2180-03-14 04:53:00'))</t>
+          <t>(Timestamp('2180-03-13 04:14:00'), Timestamp('2180-03-13 04:36:00'))</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>{'text': 'patient is a mouth breather, so sat will decrease to 92% while patient is asleep, otherwise 95-97%', 'event': ['Sleep', 'Pain'], 'event_id': ['e1', 'e2'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Sleep",\n            "text_quote": "patient is a mouth breather, so sat will decrease to 92% while patient is asleep",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "Unknown",\n                    "location": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        }\n    ],\n    "order": [\n        {\n            "event_id_1": "e1",\n            "relation": "unknown",\n            "event_id_2": "e2"\n        }\n    ]\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'unknown', 'event_id_2': 'e2'}]], 'text_quotes': ['patient is a mouth breather, so sat will decrease to 92% while patient is asleep', ''], 'event_time': ['Unknown', 'Unknown'], 'negation': [False, True], 'caused_by': ['Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the Text at the end of this prompt into events that took place at the HOSPITAL, DURING THE SHIFT in which this text was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'An event is extracted from the text even if it is negated (e.g. "did not sleep"), but the respective negation attribute is set to True.\', \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n              \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n            ```\n           \n           \n           Text (written between 2180-03-14 04:34:00 and 2180-03-14 04:53:00):\n           patient is a mouth breather, so sat will decrease to 92% while patient is asleep, otherwise 95-97%\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient'], 'event_detection_time': 8.098277031909674}</t>
+          <t>{'text': 'cv: diastolic blood pressure labile, transiently on labetalol for bp 150s, ranging 79-150/, down significantly when asleep but patient. awakens easily and is coherent, map &gt;60, md aware, cont to closely monitor', 'event': ['Sleep', 'Pain'], 'event_id': ['e1', 'e2'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Sleep",\n            "text_quote": "down significantly when asleep but patient. awakens easily and is coherent",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "Unknown",\n                    "location": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        }\n    ],\n    "order": [\n        {\n            "event_id_1": "e1",\n            "relation": "unknown",\n            "event_id_2": "e2"\n        }\n    ]\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'unknown', 'event_id_2': 'e2'}]], 'text_quotes': ['down significantly when asleep but patient. awakens easily and is coherent', ''], 'event_time': ['Unknown', 'Unknown'], 'negation': [False, True], 'caused_by': ['Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the Text at the end of this prompt into events that took place at the HOSPITAL, DURING THE SHIFT in which this text was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'An event is extracted from the text even if it is negated (e.g. "did not sleep"), but the respective negation attribute is set to True.\', \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n              \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n            ```\n           \n           \n           Text (written between 2180-03-13 04:14:00 and 2180-03-13 04:36:00):\n           cv: diastolic blood pressure labile, transiently on labetalol for bp 150s, ranging 79-150/, down significantly when asleep but patient. awakens easily and is coherent, map &gt;60, md aware, cont to closely monitor\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient'], 'event_detection_time': 7.945815502898768}</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -1037,7 +1007,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>['patient is a mouth breather, so sat will decrease to 92% while patient is asleep']</t>
+          <t>['down significantly when asleep but patient. awakens easily and is coherent']</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -1057,25 +1027,20 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>['patient', 'patient']</t>
+          <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}]</t>
+          <t>['down significantly when asleep but patient. awakens easily and is coherent', '']</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>['patient is a mouth breather, so sat will decrease to 92% while patient is asleep', '']</t>
+          <t>['e1=Sleep|1:down significantly when asleep but patient. awakens easily and is coherent', 'e2=Pain|1:']</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
-        <is>
-          <t>['e1=Sleep|1:patient is a mouth breather, so sat will decrease to 92% while patient is asleep', 'e2=Pain|1:']</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'unknown', 'event_id_2': 'e2'}]]</t>
         </is>
@@ -1083,16 +1048,16 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>3748_1310484_0003</t>
+          <t>15883_1468969_0015</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>cv: diastolic blood pressure labile, transiently on labetalol for bp 150s, ranging 79-150/, down significantly when asleep but patient. awakens easily and is coherent, map &gt;60, md aware, cont to closely monitor</t>
+          <t>sleep apnea</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -1103,12 +1068,12 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>(Timestamp('2180-03-13 04:14:00'), Timestamp('2180-03-13 04:36:00'))</t>
+          <t>(Timestamp('2179-07-04 04:30:00'), Timestamp('2179-07-04 04:40:00'))</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>{'text': 'cv: diastolic blood pressure labile, transiently on labetalol for bp 150s, ranging 79-150/, down significantly when asleep but patient. awakens easily and is coherent, map &gt;60, md aware, cont to closely monitor', 'event': ['Sleep', 'Pain'], 'event_id': ['e1', 'e2'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Sleep",\n            "text_quote": "down significantly when asleep but patient. awakens easily and is coherent",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "Unknown",\n                    "location": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        }\n    ],\n    "order": [\n        {\n            "event_id_1": "e1",\n            "relation": "unknown",\n            "event_id_2": "e2"\n        }\n    ]\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'unknown', 'event_id_2': 'e2'}]], 'text_quotes': ['down significantly when asleep but patient. awakens easily and is coherent', ''], 'event_time': ['Unknown', 'Unknown'], 'negation': [False, True], 'caused_by': ['Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the Text at the end of this prompt into events that took place at the HOSPITAL, DURING THE SHIFT in which this text was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'An event is extracted from the text even if it is negated (e.g. "did not sleep"), but the respective negation attribute is set to True.\', \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n              \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n            ```\n           \n           \n           Text (written between 2180-03-13 04:14:00 and 2180-03-13 04:36:00):\n           cv: diastolic blood pressure labile, transiently on labetalol for bp 150s, ranging 79-150/, down significantly when asleep but patient. awakens easily and is coherent, map &gt;60, md aware, cont to closely monitor\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient'], 'event_detection_time': 7.945815502898768}</t>
+          <t>{'text': 'sleep apnea', 'event': ['Sleep'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Sleep",\n      "text_quote": "sleep apnea",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "apnea"\n        }\n      }\n    }\n  ],\n  "order": []\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'apnea'}}}], 'orders': [[]], 'text_quotes': ['sleep apnea'], 'event_time': ['Unknown'], 'negation': [False], 'caused_by': ['Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the Text at the end of this prompt into events that took place at the HOSPITAL, DURING THE SHIFT in which this text was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'An event is extracted from the text even if it is negated (e.g. "did not sleep"), but the respective negation attribute is set to True.\', \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n              \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n            ```\n           \n           \n           Text (written between 2179-07-04 04:30:00 and 2179-07-04 04:40:00):\n           sleep apnea\n        ', 'case_attributes': [[]], 'actor': ['patient'], 'event_detection_time': 3.4346960650291294}</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -1128,7 +1093,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>['down significantly when asleep but patient. awakens easily and is coherent']</t>
+          <t>['sleep apnea']</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -1138,52 +1103,47 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
+          <t>[{'Sleep': {'Sleep': {'quality': 'apnea'}}}]</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>['Sleep', 'Pain']</t>
+          <t>['Sleep']</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>['patient', 'patient']</t>
+          <t>[{'Sleep': {'Sleep': {'quality': 'apnea'}}}]</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}]</t>
+          <t>['sleep apnea']</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>['down significantly when asleep but patient. awakens easily and is coherent', '']</t>
+          <t>['e1=Sleep|1:sleep apnea']</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>['e1=Sleep|1:down significantly when asleep but patient. awakens easily and is coherent', 'e2=Pain|1:']</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>[[{'event_id_1': 'e1', 'relation': 'unknown', 'event_id_2': 'e2'}]]</t>
+          <t>[[]]</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>15883_1468969_0015</t>
+          <t>15883_1468997_0008</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>sleep apnea</t>
+          <t>slept after 5mg by mouth ambien, bedrest maintained</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -1194,12 +1154,12 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>(Timestamp('2179-07-04 04:30:00'), Timestamp('2179-07-04 04:40:00'))</t>
+          <t>(Timestamp('2179-07-11 05:02:00'), Timestamp('2179-07-11 05:15:00'))</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>{'text': 'sleep apnea', 'event': ['Sleep'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Sleep",\n      "text_quote": "sleep apnea",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "apnea"\n        }\n      }\n    }\n  ],\n  "order": []\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'apnea'}}}], 'orders': [[]], 'text_quotes': ['sleep apnea'], 'event_time': ['Unknown'], 'negation': [False], 'caused_by': ['Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the Text at the end of this prompt into events that took place at the HOSPITAL, DURING THE SHIFT in which this text was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'An event is extracted from the text even if it is negated (e.g. "did not sleep"), but the respective negation attribute is set to True.\', \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n              \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n            ```\n           \n           \n           Text (written between 2179-07-04 04:30:00 and 2179-07-04 04:40:00):\n           sleep apnea\n        ', 'case_attributes': [[]], 'actor': ['patient'], 'event_detection_time': 3.4346960650291294}</t>
+          <t>{'text': 'slept after 5mg by mouth ambien, bedrest maintained', 'event': ['Sleep', 'Eating'], 'event_id': ['e1', 'e2'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Sleep",\n      "text_quote": "slept after 5mg by mouth ambien, bedrest maintained",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e2",\n      "event_type": "Eating",\n      "text_quote": "5mg by mouth ambien",\n      "actor": "patient",\n      "object": "ambien",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {\n          "food": "ambien",\n          "amount": "5mg",\n          "method": "by mouth"\n        }\n      }\n    }\n  ],\n  "order": [\n    {\n      "event_id_1": "e2",\n      "relation": "before",\n      "event_id_2": "e1"\n    }\n  ]\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Eating': {'Eating': {'food': 'ambien', 'amount': '5mg', 'method': 'by mouth'}}}], 'orders': [[{'event_id_1': 'e2', 'relation': 'before', 'event_id_2': 'e1'}]], 'text_quotes': ['slept after 5mg by mouth ambien, bedrest maintained', '5mg by mouth ambien'], 'event_time': ['Unknown', 'Unknown'], 'negation': [False, False], 'caused_by': ['Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the Text at the end of this prompt into events that took place at the HOSPITAL, DURING THE SHIFT in which this text was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'An event is extracted from the text even if it is negated (e.g. "did not sleep"), but the respective negation attribute is set to True.\', \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n              \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n            ```\n           \n           \n           Text (written between 2179-07-11 05:02:00 and 2179-07-11 05:15:00):\n           slept after 5mg by mouth ambien, bedrest maintained\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient'], 'event_detection_time': 8.291189220966771}</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -1219,7 +1179,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>['sleep apnea']</t>
+          <t>['slept after 5mg by mouth ambien, bedrest maintained']</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1229,52 +1189,47 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>[{'Sleep': {'Sleep': {'quality': 'apnea'}}}]</t>
+          <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>['Sleep']</t>
+          <t>['Sleep', 'Eating']</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>['patient']</t>
+          <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Eating': {'Eating': {'food': 'ambien', 'amount': '5mg', 'method': 'by mouth'}}}]</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>[{'Sleep': {'Sleep': {'quality': 'apnea'}}}]</t>
+          <t>['slept after 5mg by mouth ambien, bedrest maintained', '5mg by mouth ambien']</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>['sleep apnea']</t>
+          <t>['e1=Sleep|1:slept after 5mg by mouth ambien, bedrest maintained', 'e2=Eating|1:5mg by mouth ambien']</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>['e1=Sleep|1:sleep apnea']</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>[[]]</t>
+          <t>[[{'event_id_1': 'e2', 'relation': 'before', 'event_id_2': 'e1'}]]</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>15883_1468997_0008</t>
+          <t>14995_1457374_0001</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>slept after 5mg by mouth ambien, bedrest maintained</t>
+          <t>s: i can't really sleep...maybe i slept too much today</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -1285,12 +1240,12 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>(Timestamp('2179-07-11 05:02:00'), Timestamp('2179-07-11 05:15:00'))</t>
+          <t>(Timestamp('2102-09-23 06:56:00'), Timestamp('2102-09-23 07:09:00'))</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>{'text': 'slept after 5mg by mouth ambien, bedrest maintained', 'event': ['Sleep', 'Eating'], 'event_id': ['e1', 'e2'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Sleep",\n      "text_quote": "slept after 5mg by mouth ambien, bedrest maintained",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e2",\n      "event_type": "Eating",\n      "text_quote": "5mg by mouth ambien",\n      "actor": "patient",\n      "object": "ambien",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {\n          "food": "ambien",\n          "amount": "5mg",\n          "method": "by mouth"\n        }\n      }\n    }\n  ],\n  "order": [\n    {\n      "event_id_1": "e2",\n      "relation": "before",\n      "event_id_2": "e1"\n    }\n  ]\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Eating': {'Eating': {'food': 'ambien', 'amount': '5mg', 'method': 'by mouth'}}}], 'orders': [[{'event_id_1': 'e2', 'relation': 'before', 'event_id_2': 'e1'}]], 'text_quotes': ['slept after 5mg by mouth ambien, bedrest maintained', '5mg by mouth ambien'], 'event_time': ['Unknown', 'Unknown'], 'negation': [False, False], 'caused_by': ['Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the Text at the end of this prompt into events that took place at the HOSPITAL, DURING THE SHIFT in which this text was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'An event is extracted from the text even if it is negated (e.g. "did not sleep"), but the respective negation attribute is set to True.\', \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n              \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n            ```\n           \n           \n           Text (written between 2179-07-11 05:02:00 and 2179-07-11 05:15:00):\n           slept after 5mg by mouth ambien, bedrest maintained\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient'], 'event_detection_time': 8.291189220966771}</t>
+          <t>{'text': "s: i can't really sleep...maybe i slept too much today", 'event': ['Sleep', 'Sleep'], 'event_id': ['e1', 'e2'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Sleep",\n      "text_quote": "i can\'t really sleep...maybe i slept too much today",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "poor",\n          "duration": "short"\n        }\n      }\n    },\n    {\n      "event_id": "e2",\n      "event_type": "Sleep",\n      "text_quote": "maybe i slept too much today",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "excessive",\n          "duration": "long"\n        }\n      }\n    }\n  ],\n  "order": [\n    {\n      "event_id_1": "e2",\n      "relation": "before",\n      "event_id_2": "e1"\n    }\n  ]\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'poor', 'duration': 'short'}}}, {'Sleep': {'Sleep': {'quality': 'excessive', 'duration': 'long'}}}], 'orders': [[{'event_id_1': 'e2', 'relation': 'before', 'event_id_2': 'e1'}]], 'text_quotes': ["i can't really sleep...maybe i slept too much today", 'maybe i slept too much today'], 'event_time': ['Unknown', 'Unknown'], 'negation': [True, False], 'caused_by': ['Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the Text at the end of this prompt into events that took place at the HOSPITAL, DURING THE SHIFT in which this text was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'An event is extracted from the text even if it is negated (e.g. "did not sleep"), but the respective negation attribute is set to True.\', \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n              \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n            ```\n           \n           \n           Text (written between 2102-09-23 06:56:00 and 2102-09-23 07:09:00):\n           s: i can\'t really sleep...maybe i slept too much today\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient'], 'event_detection_time': 7.89308607019484}</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -1305,50 +1260,45 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>[True]</t>
+          <t>[True, True]</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>['slept after 5mg by mouth ambien, bedrest maintained']</t>
+          <t>["i can't really sleep...maybe i slept too much today", 'maybe i slept too much today']</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>['patient']</t>
+          <t>['patient', 'patient']</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
+          <t>[{'Sleep': {'Sleep': {'quality': 'poor', 'duration': 'short'}}}, {'Sleep': {'Sleep': {'quality': 'excessive', 'duration': 'long'}}}]</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>['Sleep', 'Eating']</t>
+          <t>['Sleep', 'Sleep']</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>['patient', 'patient']</t>
+          <t>[{'Sleep': {'Sleep': {'quality': 'poor', 'duration': 'short'}}}, {'Sleep': {'Sleep': {'quality': 'excessive', 'duration': 'long'}}}]</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Eating': {'Eating': {'food': 'ambien', 'amount': '5mg', 'method': 'by mouth'}}}]</t>
+          <t>["i can't really sleep...maybe i slept too much today", 'maybe i slept too much today']</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>['slept after 5mg by mouth ambien, bedrest maintained', '5mg by mouth ambien']</t>
+          <t>["e1=Sleep|1:i can't really sleep...maybe i slept too much today", 'e2=Sleep|1:maybe i slept too much today']</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
-        <is>
-          <t>['e1=Sleep|1:slept after 5mg by mouth ambien, bedrest maintained', 'e2=Eating|1:5mg by mouth ambien']</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e2', 'relation': 'before', 'event_id_2': 'e1'}]]</t>
         </is>
@@ -1356,16 +1306,16 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>14995_1457374_0001</t>
+          <t>16459_1477480_0040</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>s: i can't really sleep...maybe i slept too much today</t>
+          <t>sleep apnea</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -1376,12 +1326,12 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>(Timestamp('2102-09-23 06:56:00'), Timestamp('2102-09-23 07:09:00'))</t>
+          <t>(Timestamp('2186-03-07 03:24:00'), Timestamp('2186-03-07 03:55:00'))</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>{'text': "s: i can't really sleep...maybe i slept too much today", 'event': ['Sleep', 'Sleep'], 'event_id': ['e1', 'e2'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Sleep",\n      "text_quote": "i can\'t really sleep...maybe i slept too much today",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "poor",\n          "duration": "short"\n        }\n      }\n    },\n    {\n      "event_id": "e2",\n      "event_type": "Sleep",\n      "text_quote": "maybe i slept too much today",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "excessive",\n          "duration": "long"\n        }\n      }\n    }\n  ],\n  "order": [\n    {\n      "event_id_1": "e2",\n      "relation": "before",\n      "event_id_2": "e1"\n    }\n  ]\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'poor', 'duration': 'short'}}}, {'Sleep': {'Sleep': {'quality': 'excessive', 'duration': 'long'}}}], 'orders': [[{'event_id_1': 'e2', 'relation': 'before', 'event_id_2': 'e1'}]], 'text_quotes': ["i can't really sleep...maybe i slept too much today", 'maybe i slept too much today'], 'event_time': ['Unknown', 'Unknown'], 'negation': [True, False], 'caused_by': ['Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the Text at the end of this prompt into events that took place at the HOSPITAL, DURING THE SHIFT in which this text was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'An event is extracted from the text even if it is negated (e.g. "did not sleep"), but the respective negation attribute is set to True.\', \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n              \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n            ```\n           \n           \n           Text (written between 2102-09-23 06:56:00 and 2102-09-23 07:09:00):\n           s: i can\'t really sleep...maybe i slept too much today\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient'], 'event_detection_time': 7.89308607019484}</t>
+          <t>{'text': 'sleep apnea', 'event': ['Sleep'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Sleep",\n      "text_quote": "sleep apnea",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "apnea"\n        }\n      }\n    }\n  ],\n  "order": []\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'apnea'}}}], 'orders': [[]], 'text_quotes': ['sleep apnea'], 'event_time': ['Unknown'], 'negation': [False], 'caused_by': ['Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the Text at the end of this prompt into events that took place at the HOSPITAL, DURING THE SHIFT in which this text was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'An event is extracted from the text even if it is negated (e.g. "did not sleep"), but the respective negation attribute is set to True.\', \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n              \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n            ```\n           \n           \n           Text (written between 2186-03-07 03:24:00 and 2186-03-07 03:55:00):\n           sleep apnea\n        ', 'case_attributes': [[]], 'actor': ['patient'], 'event_detection_time': nan}</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -1396,67 +1346,62 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>[True, True]</t>
+          <t>[True]</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>["i can't really sleep...maybe i slept too much today", 'maybe i slept too much today']</t>
+          <t>['sleep apnea']</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>['patient', 'patient']</t>
+          <t>['patient']</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>[{'Sleep': {'Sleep': {'quality': 'poor', 'duration': 'short'}}}, {'Sleep': {'Sleep': {'quality': 'excessive', 'duration': 'long'}}}]</t>
+          <t>[{'Sleep': {'Sleep': {'quality': 'apnea'}}}]</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>['Sleep', 'Sleep']</t>
+          <t>['Sleep']</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>['patient', 'patient']</t>
+          <t>[{'Sleep': {'Sleep': {'quality': 'apnea'}}}]</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>[{'Sleep': {'Sleep': {'quality': 'poor', 'duration': 'short'}}}, {'Sleep': {'Sleep': {'quality': 'excessive', 'duration': 'long'}}}]</t>
+          <t>['sleep apnea']</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>["i can't really sleep...maybe i slept too much today", 'maybe i slept too much today']</t>
+          <t>['e1=Sleep|1:sleep apnea']</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>["e1=Sleep|1:i can't really sleep...maybe i slept too much today", 'e2=Sleep|1:maybe i slept too much today']</t>
-        </is>
-      </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>[[{'event_id_1': 'e2', 'relation': 'before', 'event_id_2': 'e1'}]]</t>
+          <t>[[]]</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>16459_1477480_0040</t>
+          <t>22673_1558377_0005</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>sleep apnea</t>
+          <t>sleeping. vss</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -1467,12 +1412,12 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>(Timestamp('2186-03-07 03:24:00'), Timestamp('2186-03-07 03:55:00'))</t>
+          <t>(Timestamp('2167-05-21 05:19:00'), Timestamp('2167-05-21 05:32:00'))</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>{'text': 'sleep apnea', 'event': ['Sleep'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Sleep",\n      "text_quote": "sleep apnea",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "apnea"\n        }\n      }\n    }\n  ],\n  "order": []\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'apnea'}}}], 'orders': [[]], 'text_quotes': ['sleep apnea'], 'event_time': ['Unknown'], 'negation': [False], 'caused_by': ['Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the Text at the end of this prompt into events that took place at the HOSPITAL, DURING THE SHIFT in which this text was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'An event is extracted from the text even if it is negated (e.g. "did not sleep"), but the respective negation attribute is set to True.\', \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n              \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n            ```\n           \n           \n           Text (written between 2186-03-07 03:24:00 and 2186-03-07 03:55:00):\n           sleep apnea\n        ', 'case_attributes': [[]], 'actor': ['patient'], 'event_detection_time': nan}</t>
+          <t>{'text': 'sleeping. vss', 'event': ['Sleep'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Sleep",\n      "text_quote": "sleeping",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    }\n  ],\n  "order": []\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}], 'orders': [[]], 'text_quotes': ['sleeping'], 'event_time': ['Unknown'], 'negation': [False], 'caused_by': ['Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the Text at the end of this prompt into events that took place at the HOSPITAL, DURING THE SHIFT in which this text was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'An event is extracted from the text even if it is negated (e.g. "did not sleep"), but the respective negation attribute is set to True.\', \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n              \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n            ```\n           \n           \n           Text (written between 2167-05-21 05:19:00 and 2167-05-21 05:32:00):\n           sleeping. vss\n        ', 'case_attributes': [[]], 'actor': ['patient'], 'event_detection_time': 3.5918684678617865}</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -1492,7 +1437,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>['sleep apnea']</t>
+          <t>['sleeping']</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -1502,7 +1447,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>[{'Sleep': {'Sleep': {'quality': 'apnea'}}}]</t>
+          <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -1512,25 +1457,20 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>['patient']</t>
+          <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>[{'Sleep': {'Sleep': {'quality': 'apnea'}}}]</t>
+          <t>['sleeping']</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>['sleep apnea']</t>
+          <t>['e1=Sleep|1:sleeping']</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
-        <is>
-          <t>['e1=Sleep|1:sleep apnea']</t>
-        </is>
-      </c>
-      <c r="U12" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -1538,16 +1478,16 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>22673_1558377_0005</t>
+          <t>23082_1563949_0000</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>sleeping. vss</t>
+          <t>patient sleeping fairly well despite activity in the room, offered to give ativan .5mg</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -1558,12 +1498,12 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>(Timestamp('2167-05-21 05:19:00'), Timestamp('2167-05-21 05:32:00'))</t>
+          <t>(Timestamp('2151-05-10 04:08:00'), Timestamp('2151-05-10 04:11:00'))</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>{'text': 'sleeping. vss', 'event': ['Sleep'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Sleep",\n      "text_quote": "sleeping",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    }\n  ],\n  "order": []\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}], 'orders': [[]], 'text_quotes': ['sleeping'], 'event_time': ['Unknown'], 'negation': [False], 'caused_by': ['Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the Text at the end of this prompt into events that took place at the HOSPITAL, DURING THE SHIFT in which this text was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'An event is extracted from the text even if it is negated (e.g. "did not sleep"), but the respective negation attribute is set to True.\', \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n              \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n            ```\n           \n           \n           Text (written between 2167-05-21 05:19:00 and 2167-05-21 05:32:00):\n           sleeping. vss\n        ', 'case_attributes': [[]], 'actor': ['patient'], 'event_detection_time': 3.5918684678617865}</t>
+          <t>{'text': 'patient sleeping fairly well despite activity in the room, offered to give ativan .5mg', 'event': ['Sleep', 'Pain'], 'event_id': ['e1', 'e2'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Sleep",\n      "text_quote": "patient sleeping fairly well despite activity in the room",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "fairly well"\n        }\n      }\n    },\n    {\n      "event_id": "e2",\n      "event_type": "Pain",\n      "text_quote": "offered to give ativan .5mg",\n      "actor": "others",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "Unknown",\n          "location": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    }\n  ],\n  "order": [\n    {\n      "event_id_1": "e2",\n      "relation": "after",\n      "event_id_2": "e1"\n    }\n  ]\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'fairly well'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}], 'orders': [[{'event_id_1': 'e2', 'relation': 'after', 'event_id_2': 'e1'}]], 'text_quotes': ['patient sleeping fairly well despite activity in the room', 'offered to give ativan .5mg'], 'event_time': ['Unknown', 'Unknown'], 'negation': [False, False], 'caused_by': ['Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the Text at the end of this prompt into events that took place at the HOSPITAL, DURING THE SHIFT in which this text was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'An event is extracted from the text even if it is negated (e.g. "did not sleep"), but the respective negation attribute is set to True.\', \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n              \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n            ```\n           \n           \n           Text (written between 2151-05-10 04:08:00 and 2151-05-10 04:11:00):\n           patient sleeping fairly well despite activity in the room, offered to give ativan .5mg\n        ', 'case_attributes': [[]], 'actor': ['patient', 'others'], 'event_detection_time': 7.988435260951519}</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -1583,7 +1523,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>['sleeping']</t>
+          <t>['patient sleeping fairly well despite activity in the room']</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -1593,52 +1533,47 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
+          <t>[{'Sleep': {'Sleep': {'quality': 'fairly well'}}}]</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>['Sleep']</t>
+          <t>['Sleep', 'Pain']</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>['patient']</t>
+          <t>[{'Sleep': {'Sleep': {'quality': 'fairly well'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
+          <t>['patient sleeping fairly well despite activity in the room', 'offered to give ativan .5mg']</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>['sleeping']</t>
+          <t>['e1=Sleep|1:patient sleeping fairly well despite activity in the room', 'e2=Pain|1:offered to give ativan .5mg']</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>['e1=Sleep|1:sleeping']</t>
-        </is>
-      </c>
-      <c r="U13" t="inlineStr">
-        <is>
-          <t>[[]]</t>
+          <t>[[{'event_id_1': 'e2', 'relation': 'after', 'event_id_2': 'e1'}]]</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>23082_1563949_0000</t>
+          <t>23082_1563949_0005</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>patient sleeping fairly well despite activity in the room, offered to give ativan .5mg</t>
+          <t>in crease captopril dose while sleeping bp in the 80's .. goood response from [** **]</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -1654,7 +1589,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>{'text': 'patient sleeping fairly well despite activity in the room, offered to give ativan .5mg', 'event': ['Sleep', 'Pain'], 'event_id': ['e1', 'e2'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Sleep",\n      "text_quote": "patient sleeping fairly well despite activity in the room",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "fairly well"\n        }\n      }\n    },\n    {\n      "event_id": "e2",\n      "event_type": "Pain",\n      "text_quote": "offered to give ativan .5mg",\n      "actor": "others",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "Unknown",\n          "location": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    }\n  ],\n  "order": [\n    {\n      "event_id_1": "e2",\n      "relation": "after",\n      "event_id_2": "e1"\n    }\n  ]\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'fairly well'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}], 'orders': [[{'event_id_1': 'e2', 'relation': 'after', 'event_id_2': 'e1'}]], 'text_quotes': ['patient sleeping fairly well despite activity in the room', 'offered to give ativan .5mg'], 'event_time': ['Unknown', 'Unknown'], 'negation': [False, False], 'caused_by': ['Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the Text at the end of this prompt into events that took place at the HOSPITAL, DURING THE SHIFT in which this text was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'An event is extracted from the text even if it is negated (e.g. "did not sleep"), but the respective negation attribute is set to True.\', \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n              \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n            ```\n           \n           \n           Text (written between 2151-05-10 04:08:00 and 2151-05-10 04:11:00):\n           patient sleeping fairly well despite activity in the room, offered to give ativan .5mg\n        ', 'case_attributes': [[]], 'actor': ['patient', 'others'], 'event_detection_time': 7.988435260951519}</t>
+          <t>{'text': "in crease captopril dose while sleeping bp in the 80's .. goood response from [** **]", 'event': ['Sleep', 'Pain', 'Eating', 'Family', 'Excretion', 'Unknown'], 'event_id': ['e1', 'e2', 'e3', 'e4', 'e5', 'e6'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Sleep",\n            "text_quote": "while sleeping",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {}\n            }\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Pain",\n            "text_quote": "bp in the 80\'s",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e3",\n            "event_type": "Eating",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {}\n            }\n        },\n        {\n            "event_id": "e4",\n            "event_type": "Family",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {}\n            }\n        },\n        {\n            "event_id": "e5",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e6",\n            "event_type": "Unknown",\n            "text_quote": "goood response from [** **]",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        }\n    ],\n    "order": [\n        {\n            "event_id_1": "e1",\n            "relation": "unknown",\n            "event_id_2": "e2"\n        },\n        {\n            "event_id_1": "e2",\n            "relation": "unknown",\n            "event_id_2": "e6"\n        }\n    ]\n}', 'attributes': [{'Sleep': {'Sleep': {}}}, {'Pain': {'Pain': {}}}, {'Eating': {'Eating': {}}}, {'Family': {'Family': {}}}, {'Excretion': {'Excretion': {}}}, {'Unknown': {}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'unknown', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'unknown', 'event_id_2': 'e6'}]], 'text_quotes': ['while sleeping', "bp in the 80's", '', '', '', 'goood response from [** **]'], 'event_time': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'negation': [False, False, True, True, True, False], 'caused_by': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the Text at the end of this prompt into events that took place at the HOSPITAL, DURING THE SHIFT in which this text was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'An event is extracted from the text even if it is negated (e.g. "did not sleep"), but the respective negation attribute is set to True.\', \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n              \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n            ```\n           \n           \n           Text (written between 2151-05-10 04:08:00 and 2151-05-10 04:11:00):\n           in crease captopril dose while sleeping bp in the 80\'s .. goood response from [** **]\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient', 'patient', 'patient', 'patient', 'patient'], 'event_detection_time': 16.862382733030245}</t>
         </is>
       </c>
       <c r="H14" t="n">
@@ -1674,7 +1609,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>['patient sleeping fairly well despite activity in the room']</t>
+          <t>['while sleeping']</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -1684,52 +1619,47 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>[{'Sleep': {'Sleep': {'quality': 'fairly well'}}}]</t>
+          <t>[{'Sleep': {'Sleep': {}}}]</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>['Sleep', 'Pain']</t>
+          <t>['Sleep', 'Pain', 'Eating', 'Family', 'Excretion', 'Unknown']</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>['patient', 'others']</t>
+          <t>[{'Sleep': {'Sleep': {}}}, {'Pain': {'Pain': {}}}, {'Eating': {'Eating': {}}}, {'Family': {'Family': {}}}, {'Excretion': {'Excretion': {}}}, {'Unknown': {}}]</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>[{'Sleep': {'Sleep': {'quality': 'fairly well'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}]</t>
+          <t>['while sleeping', "bp in the 80's", '', '', '', 'goood response from [** **]']</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>['patient sleeping fairly well despite activity in the room', 'offered to give ativan .5mg']</t>
+          <t>['e1=Sleep|1:while sleeping', "e2=Pain|1:bp in the 80's", 'e3=Eating|1:', 'e4=Family|1:', 'e5=Excretion|1:', 'e6=Unknown|1:goood response from [** **]']</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>['e1=Sleep|1:patient sleeping fairly well despite activity in the room', 'e2=Pain|1:offered to give ativan .5mg']</t>
-        </is>
-      </c>
-      <c r="U14" t="inlineStr">
-        <is>
-          <t>[[{'event_id_1': 'e2', 'relation': 'after', 'event_id_2': 'e1'}]]</t>
+          <t>[[{'event_id_1': 'e1', 'relation': 'unknown', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'unknown', 'event_id_2': 'e6'}]]</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>23082_1563949_0005</t>
+          <t>23082_1563944_0013</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>in crease captopril dose while sleeping bp in the 80's .. goood response from [** **]</t>
+          <t>patient turned dumped 100cc serosang, reassured back to sleep, continues to rest, calm.., when awaken needs to be reoriented to time, patien tcooperative/calm</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -1740,12 +1670,12 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>(Timestamp('2151-05-10 04:08:00'), Timestamp('2151-05-10 04:11:00'))</t>
+          <t>(Timestamp('2151-05-09 01:45:00'), Timestamp('2151-05-09 01:49:00'))</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>{'text': "in crease captopril dose while sleeping bp in the 80's .. goood response from [** **]", 'event': ['Sleep', 'Pain', 'Eating', 'Family', 'Excretion', 'Unknown'], 'event_id': ['e1', 'e2', 'e3', 'e4', 'e5', 'e6'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Sleep",\n            "text_quote": "while sleeping",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {}\n            }\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Pain",\n            "text_quote": "bp in the 80\'s",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e3",\n            "event_type": "Eating",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {}\n            }\n        },\n        {\n            "event_id": "e4",\n            "event_type": "Family",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {}\n            }\n        },\n        {\n            "event_id": "e5",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e6",\n            "event_type": "Unknown",\n            "text_quote": "goood response from [** **]",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        }\n    ],\n    "order": [\n        {\n            "event_id_1": "e1",\n            "relation": "unknown",\n            "event_id_2": "e2"\n        },\n        {\n            "event_id_1": "e2",\n            "relation": "unknown",\n            "event_id_2": "e6"\n        }\n    ]\n}', 'attributes': [{'Sleep': {'Sleep': {}}}, {'Pain': {'Pain': {}}}, {'Eating': {'Eating': {}}}, {'Family': {'Family': {}}}, {'Excretion': {'Excretion': {}}}, {'Unknown': {}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'unknown', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'unknown', 'event_id_2': 'e6'}]], 'text_quotes': ['while sleeping', "bp in the 80's", '', '', '', 'goood response from [** **]'], 'event_time': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'negation': [False, False, True, True, True, False], 'caused_by': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the Text at the end of this prompt into events that took place at the HOSPITAL, DURING THE SHIFT in which this text was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'An event is extracted from the text even if it is negated (e.g. "did not sleep"), but the respective negation attribute is set to True.\', \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n              \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n            ```\n           \n           \n           Text (written between 2151-05-10 04:08:00 and 2151-05-10 04:11:00):\n           in crease captopril dose while sleeping bp in the 80\'s .. goood response from [** **]\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient', 'patient', 'patient', 'patient', 'patient'], 'event_detection_time': 16.862382733030245}</t>
+          <t>{'text': 'patient turned dumped 100cc serosang, reassured back to sleep, continues to rest, calm.., when awaken needs to be reoriented to time, patien tcooperative/calm', 'event': ['Sleep', 'Pain', 'Family', 'Excretion', 'Eating', 'Pain'], 'event_id': ['e1', 'e2', 'e3', 'e4', 'e5', 'e6'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Sleep",\n      "text_quote": "reassured back to sleep, continues to rest",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "good",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e2",\n      "event_type": "Pain",\n      "text_quote": "None",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "Unknown",\n          "location": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e3",\n      "event_type": "Family",\n      "text_quote": "None",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {\n          "interaction": "Unknown",\n          "relation": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e4",\n      "event_type": "Excretion",\n      "text_quote": "patient turned dumped 100cc serosang",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "serosang",\n          "frequency": "Unknown",\n          "quality": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e5",\n      "event_type": "Eating",\n      "text_quote": "None",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {\n          "food": "Unknown",\n          "amount": "Unknown",\n          "method": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e6",\n      "event_type": "Pain",\n      "text_quote": "calm.., when awaken needs to be reoriented to time, patient cooperative/calm",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "mild",\n          "location": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    }\n  ],\n  "order": [\n    {\n      "event_id_1": "e4",\n      "relation": "before",\n      "event_id_2": "e1"\n    },\n    {\n      "event_id_1": "e1",\n      "relation": "simultaneous",\n      "event_id_2": "e6"\n    }\n  ]\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'good', 'duration': 'Unknown'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Family': {'Family': {'interaction': 'Unknown', 'relation': 'Unknown'}}}, {'Excretion': {'Excretion': {'type': 'serosang', 'frequency': 'Unknown', 'quality': 'Unknown'}}}, {'Eating': {'Eating': {'food': 'Unknown', 'amount': 'Unknown', 'method': 'Unknown'}}}, {'Pain': {'Pain': {'severity': 'mild', 'location': 'Unknown', 'duration': 'Unknown'}}}], 'orders': [[{'event_id_1': 'e4', 'relation': 'before', 'event_id_2': 'e1'}, {'event_id_1': 'e1', 'relation': 'simultaneous', 'event_id_2': 'e6'}]], 'text_quotes': ['reassured back to sleep, continues to rest', 'None', 'None', 'patient turned dumped 100cc serosang', 'None', 'calm.., when awaken needs to be reoriented to time, patient cooperative/calm'], 'event_time': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'negation': [False, True, True, False, True, False], 'caused_by': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the Text at the end of this prompt into events that took place at the HOSPITAL, DURING THE SHIFT in which this text was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'An event is extracted from the text even if it is negated (e.g. "did not sleep"), but the respective negation attribute is set to True.\', \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n              \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n            ```\n           \n           \n           Text (written between 2151-05-09 01:45:00 and 2151-05-09 01:49:00):\n           patient turned dumped 100cc serosang, reassured back to sleep, continues to rest, calm.., when awaken needs to be reoriented to time, patien tcooperative/calm\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient', 'patient', 'patient', 'patient', 'patient'], 'event_detection_time': 21.774615990929306}</t>
         </is>
       </c>
       <c r="H15" t="n">
@@ -1765,7 +1695,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>['while sleeping']</t>
+          <t>['reassured back to sleep, continues to rest']</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -1775,52 +1705,47 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>[{'Sleep': {'Sleep': {}}}]</t>
+          <t>[{'Sleep': {'Sleep': {'quality': 'good', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>['Sleep', 'Pain', 'Eating', 'Family', 'Excretion', 'Unknown']</t>
+          <t>['Sleep', 'Pain', 'Family', 'Excretion', 'Eating', 'Pain']</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>['patient', 'patient', 'patient', 'patient', 'patient', 'patient']</t>
+          <t>[{'Sleep': {'Sleep': {'quality': 'good', 'duration': 'Unknown'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Family': {'Family': {'interaction': 'Unknown', 'relation': 'Unknown'}}}, {'Excretion': {'Excretion': {'type': 'serosang', 'frequency': 'Unknown', 'quality': 'Unknown'}}}, {'Eating': {'Eating': {'food': 'Unknown', 'amount': 'Unknown', 'method': 'Unknown'}}}, {'Pain': {'Pain': {'severity': 'mild', 'location': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>[{'Sleep': {'Sleep': {}}}, {'Pain': {'Pain': {}}}, {'Eating': {'Eating': {}}}, {'Family': {'Family': {}}}, {'Excretion': {'Excretion': {}}}, {'Unknown': {}}]</t>
+          <t>['reassured back to sleep, continues to rest', 'None', 'None', 'patient turned dumped 100cc serosang', 'None', 'calm.., when awaken needs to be reoriented to time, patient cooperative/calm']</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>['while sleeping', "bp in the 80's", '', '', '', 'goood response from [** **]']</t>
+          <t>['e1=Sleep|1:reassured back to sleep, continues to rest', 'e2=Pain|0:None', 'e3=Family|0:None', 'e4=Excretion|1:patient turned dumped 100cc serosang', 'e5=Eating|0:None', 'e6=Pain|0:calm.., when awaken needs to be reoriented to time, patient cooperative/calm']</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>['e1=Sleep|1:while sleeping', "e2=Pain|1:bp in the 80's", 'e3=Eating|1:', 'e4=Family|1:', 'e5=Excretion|1:', 'e6=Unknown|1:goood response from [** **]']</t>
-        </is>
-      </c>
-      <c r="U15" t="inlineStr">
-        <is>
-          <t>[[{'event_id_1': 'e1', 'relation': 'unknown', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'unknown', 'event_id_2': 'e6'}]]</t>
+          <t>[[{'event_id_1': 'e4', 'relation': 'before', 'event_id_2': 'e1'}, {'event_id_1': 'e1', 'relation': 'simultaneous', 'event_id_2': 'e6'}]]</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>23082_1563944_0013</t>
+          <t>25328_1592841_0036</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>patient turned dumped 100cc serosang, reassured back to sleep, continues to rest, calm.., when awaken needs to be reoriented to time, patien tcooperative/calm</t>
+          <t>unable to sleep this pm</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -1831,12 +1756,12 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>(Timestamp('2151-05-09 01:45:00'), Timestamp('2151-05-09 01:49:00'))</t>
+          <t>(Timestamp('2183-03-14 04:18:00'), Timestamp('2183-03-14 04:35:00'))</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>{'text': 'patient turned dumped 100cc serosang, reassured back to sleep, continues to rest, calm.., when awaken needs to be reoriented to time, patien tcooperative/calm', 'event': ['Sleep', 'Pain', 'Family', 'Excretion', 'Eating', 'Pain'], 'event_id': ['e1', 'e2', 'e3', 'e4', 'e5', 'e6'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Sleep",\n      "text_quote": "reassured back to sleep, continues to rest",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "good",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e2",\n      "event_type": "Pain",\n      "text_quote": "None",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "Unknown",\n          "location": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e3",\n      "event_type": "Family",\n      "text_quote": "None",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {\n          "interaction": "Unknown",\n          "relation": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e4",\n      "event_type": "Excretion",\n      "text_quote": "patient turned dumped 100cc serosang",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "serosang",\n          "frequency": "Unknown",\n          "quality": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e5",\n      "event_type": "Eating",\n      "text_quote": "None",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {\n          "food": "Unknown",\n          "amount": "Unknown",\n          "method": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e6",\n      "event_type": "Pain",\n      "text_quote": "calm.., when awaken needs to be reoriented to time, patient cooperative/calm",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "mild",\n          "location": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    }\n  ],\n  "order": [\n    {\n      "event_id_1": "e4",\n      "relation": "before",\n      "event_id_2": "e1"\n    },\n    {\n      "event_id_1": "e1",\n      "relation": "simultaneous",\n      "event_id_2": "e6"\n    }\n  ]\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'good', 'duration': 'Unknown'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Family': {'Family': {'interaction': 'Unknown', 'relation': 'Unknown'}}}, {'Excretion': {'Excretion': {'type': 'serosang', 'frequency': 'Unknown', 'quality': 'Unknown'}}}, {'Eating': {'Eating': {'food': 'Unknown', 'amount': 'Unknown', 'method': 'Unknown'}}}, {'Pain': {'Pain': {'severity': 'mild', 'location': 'Unknown', 'duration': 'Unknown'}}}], 'orders': [[{'event_id_1': 'e4', 'relation': 'before', 'event_id_2': 'e1'}, {'event_id_1': 'e1', 'relation': 'simultaneous', 'event_id_2': 'e6'}]], 'text_quotes': ['reassured back to sleep, continues to rest', 'None', 'None', 'patient turned dumped 100cc serosang', 'None', 'calm.., when awaken needs to be reoriented to time, patient cooperative/calm'], 'event_time': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'negation': [False, True, True, False, True, False], 'caused_by': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the Text at the end of this prompt into events that took place at the HOSPITAL, DURING THE SHIFT in which this text was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'An event is extracted from the text even if it is negated (e.g. "did not sleep"), but the respective negation attribute is set to True.\', \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n              \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n            ```\n           \n           \n           Text (written between 2151-05-09 01:45:00 and 2151-05-09 01:49:00):\n           patient turned dumped 100cc serosang, reassured back to sleep, continues to rest, calm.., when awaken needs to be reoriented to time, patien tcooperative/calm\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient', 'patient', 'patient', 'patient', 'patient'], 'event_detection_time': 21.774615990929306}</t>
+          <t>{'text': 'unable to sleep this pm', 'event': ['Sleep'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Sleep",\n      "text_quote": "unable to sleep this pm",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "pm",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "unknown",\n          "duration": "unknown"\n        }\n      }\n    }\n  ],\n  "order": []\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'unknown', 'duration': 'unknown'}}}], 'orders': [[]], 'text_quotes': ['unable to sleep this pm'], 'event_time': ['pm'], 'negation': [True], 'caused_by': ['Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the Text at the end of this prompt into events that took place at the HOSPITAL, DURING THE SHIFT in which this text was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'An event is extracted from the text even if it is negated (e.g. "did not sleep"), but the respective negation attribute is set to True.\', \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n              \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n            ```\n           \n           \n           Text (written between 2183-03-14 04:18:00 and 2183-03-14 04:35:00):\n           unable to sleep this pm\n        ', 'case_attributes': [[]], 'actor': ['patient'], 'event_detection_time': 3.6814139841590077}</t>
         </is>
       </c>
       <c r="H16" t="n">
@@ -1844,7 +1769,7 @@
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" t="b">
         <v>1</v>
@@ -1856,7 +1781,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>['reassured back to sleep, continues to rest']</t>
+          <t>['unable to sleep this pm']</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -1866,52 +1791,47 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>[{'Sleep': {'Sleep': {'quality': 'good', 'duration': 'Unknown'}}}]</t>
+          <t>[{'Sleep': {'Sleep': {'quality': 'unknown', 'duration': 'unknown'}}}]</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>['Sleep', 'Pain', 'Family', 'Excretion', 'Eating', 'Pain']</t>
+          <t>['Sleep']</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>['patient', 'patient', 'patient', 'patient', 'patient', 'patient']</t>
+          <t>[{'Sleep': {'Sleep': {'quality': 'unknown', 'duration': 'unknown'}}}]</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>[{'Sleep': {'Sleep': {'quality': 'good', 'duration': 'Unknown'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Family': {'Family': {'interaction': 'Unknown', 'relation': 'Unknown'}}}, {'Excretion': {'Excretion': {'type': 'serosang', 'frequency': 'Unknown', 'quality': 'Unknown'}}}, {'Eating': {'Eating': {'food': 'Unknown', 'amount': 'Unknown', 'method': 'Unknown'}}}, {'Pain': {'Pain': {'severity': 'mild', 'location': 'Unknown', 'duration': 'Unknown'}}}]</t>
+          <t>['unable to sleep this pm']</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>['reassured back to sleep, continues to rest', 'None', 'None', 'patient turned dumped 100cc serosang', 'None', 'calm.., when awaken needs to be reoriented to time, patient cooperative/calm']</t>
+          <t>['e1=Sleep|1:unable to sleep this pm']</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>['e1=Sleep|1:reassured back to sleep, continues to rest', 'e2=Pain|0:None', 'e3=Family|0:None', 'e4=Excretion|1:patient turned dumped 100cc serosang', 'e5=Eating|0:None', 'e6=Pain|0:calm.., when awaken needs to be reoriented to time, patient cooperative/calm']</t>
-        </is>
-      </c>
-      <c r="U16" t="inlineStr">
-        <is>
-          <t>[[{'event_id_1': 'e4', 'relation': 'before', 'event_id_2': 'e1'}, {'event_id_1': 'e1', 'relation': 'simultaneous', 'event_id_2': 'e6'}]]</t>
+          <t>[[]]</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>25328_1592841_0036</t>
+          <t>25328_1592840_0008</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>unable to sleep this pm</t>
+          <t>dozing intermittently but needs frequent reminders re operation</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -1922,12 +1842,12 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>(Timestamp('2183-03-14 04:18:00'), Timestamp('2183-03-14 04:35:00'))</t>
+          <t>(Timestamp('2183-03-13 18:05:00'), Timestamp('2183-03-13 18:31:00'))</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>{'text': 'unable to sleep this pm', 'event': ['Sleep'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Sleep",\n      "text_quote": "unable to sleep this pm",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "pm",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "unknown",\n          "duration": "unknown"\n        }\n      }\n    }\n  ],\n  "order": []\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'unknown', 'duration': 'unknown'}}}], 'orders': [[]], 'text_quotes': ['unable to sleep this pm'], 'event_time': ['pm'], 'negation': [True], 'caused_by': ['Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the Text at the end of this prompt into events that took place at the HOSPITAL, DURING THE SHIFT in which this text was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'An event is extracted from the text even if it is negated (e.g. "did not sleep"), but the respective negation attribute is set to True.\', \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n              \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n            ```\n           \n           \n           Text (written between 2183-03-14 04:18:00 and 2183-03-14 04:35:00):\n           unable to sleep this pm\n        ', 'case_attributes': [[]], 'actor': ['patient'], 'event_detection_time': 3.6814139841590077}</t>
+          <t>{'text': 'dozing intermittently but needs frequent reminders re operation', 'event': ['Sleep'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Sleep",\n      "text_quote": "dozing intermittently",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "poor",\n          "duration": "intermittent"\n        }\n      }\n    }\n  ],\n  "order": []\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'poor', 'duration': 'intermittent'}}}], 'orders': [[]], 'text_quotes': ['dozing intermittently'], 'event_time': ['Unknown'], 'negation': [False], 'caused_by': ['Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the Text at the end of this prompt into events that took place at the HOSPITAL, DURING THE SHIFT in which this text was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'An event is extracted from the text even if it is negated (e.g. "did not sleep"), but the respective negation attribute is set to True.\', \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n              \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n            ```\n           \n           \n           Text (written between 2183-03-13 18:05:00 and 2183-03-13 18:31:00):\n           dozing intermittently but needs frequent reminders re operation\n        ', 'case_attributes': [[]], 'actor': ['patient'], 'event_detection_time': 3.7258137420285493}</t>
         </is>
       </c>
       <c r="H17" t="n">
@@ -1935,7 +1855,7 @@
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" t="b">
         <v>1</v>
@@ -1947,7 +1867,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>['unable to sleep this pm']</t>
+          <t>['dozing intermittently']</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -1957,7 +1877,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>[{'Sleep': {'Sleep': {'quality': 'unknown', 'duration': 'unknown'}}}]</t>
+          <t>[{'Sleep': {'Sleep': {'quality': 'poor', 'duration': 'intermittent'}}}]</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
@@ -1967,25 +1887,20 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>['patient']</t>
+          <t>[{'Sleep': {'Sleep': {'quality': 'poor', 'duration': 'intermittent'}}}]</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>[{'Sleep': {'Sleep': {'quality': 'unknown', 'duration': 'unknown'}}}]</t>
+          <t>['dozing intermittently']</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>['unable to sleep this pm']</t>
+          <t>['e1=Sleep|1:dozing intermittently']</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
-        <is>
-          <t>['e1=Sleep|1:unable to sleep this pm']</t>
-        </is>
-      </c>
-      <c r="U17" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -1993,16 +1908,16 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>25328_1592840_0008</t>
+          <t>32291_1671530_0018</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>dozing intermittently but needs frequent reminders re operation</t>
+          <t>slept most of the night: -repositioned in bed</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -2013,12 +1928,12 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>(Timestamp('2183-03-13 18:05:00'), Timestamp('2183-03-13 18:31:00'))</t>
+          <t>(Timestamp('2171-01-06 02:12:00'), Timestamp('2171-01-06 02:27:00'))</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>{'text': 'dozing intermittently but needs frequent reminders re operation', 'event': ['Sleep'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Sleep",\n      "text_quote": "dozing intermittently",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "poor",\n          "duration": "intermittent"\n        }\n      }\n    }\n  ],\n  "order": []\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'poor', 'duration': 'intermittent'}}}], 'orders': [[]], 'text_quotes': ['dozing intermittently'], 'event_time': ['Unknown'], 'negation': [False], 'caused_by': ['Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the Text at the end of this prompt into events that took place at the HOSPITAL, DURING THE SHIFT in which this text was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'An event is extracted from the text even if it is negated (e.g. "did not sleep"), but the respective negation attribute is set to True.\', \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n              \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n            ```\n           \n           \n           Text (written between 2183-03-13 18:05:00 and 2183-03-13 18:31:00):\n           dozing intermittently but needs frequent reminders re operation\n        ', 'case_attributes': [[]], 'actor': ['patient'], 'event_detection_time': 3.7258137420285493}</t>
+          <t>{'text': 'slept most of the night: -repositioned in bed', 'event': ['Sleep', 'Unknown'], 'event_id': ['e1', 'e2'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Sleep",\n      "text_quote": "slept most of the night",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "night",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "good",\n          "duration": "most of the night"\n        }\n      }\n    },\n    {\n      "event_id": "e2",\n      "event_type": "Unknown",\n      "text_quote": "-repositioned in bed",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {}\n    }\n  ],\n  "order": [\n    {\n      "event_id_1": "e2",\n      "relation": "after",\n      "event_id_2": "e1"\n    }\n  ]\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'good', 'duration': 'most of the night'}}}, {'Unknown': {}}], 'orders': [[{'event_id_1': 'e2', 'relation': 'after', 'event_id_2': 'e1'}]], 'text_quotes': ['slept most of the night', '-repositioned in bed'], 'event_time': ['night', 'Unknown'], 'negation': [False, False], 'caused_by': ['Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the Text at the end of this prompt into events that took place at the HOSPITAL, DURING THE SHIFT in which this text was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'An event is extracted from the text even if it is negated (e.g. "did not sleep"), but the respective negation attribute is set to True.\', \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n              \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n            ```\n           \n           \n           Text (written between 2171-01-06 02:12:00 and 2171-01-06 02:27:00):\n           slept most of the night: -repositioned in bed\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient'], 'event_detection_time': 7.058968710945919}</t>
         </is>
       </c>
       <c r="H18" t="n">
@@ -2038,7 +1953,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>['dozing intermittently']</t>
+          <t>['slept most of the night']</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -2048,52 +1963,47 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>[{'Sleep': {'Sleep': {'quality': 'poor', 'duration': 'intermittent'}}}]</t>
+          <t>[{'Sleep': {'Sleep': {'quality': 'good', 'duration': 'most of the night'}}}]</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>['Sleep']</t>
+          <t>['Sleep', 'Unknown']</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>['patient']</t>
+          <t>[{'Sleep': {'Sleep': {'quality': 'good', 'duration': 'most of the night'}}}, {'Unknown': {}}]</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>[{'Sleep': {'Sleep': {'quality': 'poor', 'duration': 'intermittent'}}}]</t>
+          <t>['slept most of the night', '-repositioned in bed']</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>['dozing intermittently']</t>
+          <t>['e1=Sleep|1:slept most of the night', 'e2=Unknown|1:-repositioned in bed']</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>['e1=Sleep|1:dozing intermittently']</t>
-        </is>
-      </c>
-      <c r="U18" t="inlineStr">
-        <is>
-          <t>[[]]</t>
+          <t>[[{'event_id_1': 'e2', 'relation': 'after', 'event_id_2': 'e1'}]]</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>32291_1671530_0018</t>
+          <t>16788_1481943_0010</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>slept most of the night: -repositioned in bed</t>
+          <t>ck iso's to be drawn and cycled.patient now dozing intermittently still w midepigastr tenderness on exam</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -2104,12 +2014,12 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>(Timestamp('2171-01-06 02:12:00'), Timestamp('2171-01-06 02:27:00'))</t>
+          <t>(Timestamp('2139-06-07 06:48:00'), Timestamp('2139-06-07 07:00:00'))</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>{'text': 'slept most of the night: -repositioned in bed', 'event': ['Sleep', 'Unknown'], 'event_id': ['e1', 'e2'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Sleep",\n      "text_quote": "slept most of the night",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "night",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "good",\n          "duration": "most of the night"\n        }\n      }\n    },\n    {\n      "event_id": "e2",\n      "event_type": "Unknown",\n      "text_quote": "-repositioned in bed",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {}\n    }\n  ],\n  "order": [\n    {\n      "event_id_1": "e2",\n      "relation": "after",\n      "event_id_2": "e1"\n    }\n  ]\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'good', 'duration': 'most of the night'}}}, {'Unknown': {}}], 'orders': [[{'event_id_1': 'e2', 'relation': 'after', 'event_id_2': 'e1'}]], 'text_quotes': ['slept most of the night', '-repositioned in bed'], 'event_time': ['night', 'Unknown'], 'negation': [False, False], 'caused_by': ['Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the Text at the end of this prompt into events that took place at the HOSPITAL, DURING THE SHIFT in which this text was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'An event is extracted from the text even if it is negated (e.g. "did not sleep"), but the respective negation attribute is set to True.\', \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n              \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n            ```\n           \n           \n           Text (written between 2171-01-06 02:12:00 and 2171-01-06 02:27:00):\n           slept most of the night: -repositioned in bed\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient'], 'event_detection_time': 7.058968710945919}</t>
+          <t>{'text': "ck iso's to be drawn and cycled.patient now dozing intermittently still w midepigastr tenderness on exam", 'event': ['Sleep', 'Pain'], 'event_id': ['e1', 'e2'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Sleep",\n      "text_quote": "patient now dozing intermittently",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "intermittent",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e2",\n      "event_type": "Pain",\n      "text_quote": "still w midepigastr tenderness on exam",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "tenderness",\n          "location": "midepigastric",\n          "duration": "Unknown"\n        }\n      }\n    }\n  ],\n  "order": [\n    {\n      "event_id_1": "e1",\n      "relation": "unknown",\n      "event_id_2": "e2"\n    }\n  ]\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'intermittent', 'duration': 'Unknown'}}}, {'Pain': {'Pain': {'severity': 'tenderness', 'location': 'midepigastric', 'duration': 'Unknown'}}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'unknown', 'event_id_2': 'e2'}]], 'text_quotes': ['patient now dozing intermittently', 'still w midepigastr tenderness on exam'], 'event_time': ['Unknown', 'Unknown'], 'negation': [False, False], 'caused_by': ['Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the Text at the end of this prompt into events that took place at the HOSPITAL, DURING THE SHIFT in which this text was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'An event is extracted from the text even if it is negated (e.g. "did not sleep"), but the respective negation attribute is set to True.\', \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n              \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n            ```\n           \n           \n           Text (written between 2139-06-07 06:48:00 and 2139-06-07 07:00:00):\n           ck iso\'s to be drawn and cycled.patient now dozing intermittently still w midepigastr tenderness on exam\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient'], 'event_detection_time': 8.333869362948462}</t>
         </is>
       </c>
       <c r="H19" t="n">
@@ -2129,7 +2039,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>['slept most of the night']</t>
+          <t>['patient now dozing intermittently']</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -2139,52 +2049,47 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>[{'Sleep': {'Sleep': {'quality': 'good', 'duration': 'most of the night'}}}]</t>
+          <t>[{'Sleep': {'Sleep': {'quality': 'intermittent', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>['Sleep', 'Unknown']</t>
+          <t>['Sleep', 'Pain']</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>['patient', 'patient']</t>
+          <t>[{'Sleep': {'Sleep': {'quality': 'intermittent', 'duration': 'Unknown'}}}, {'Pain': {'Pain': {'severity': 'tenderness', 'location': 'midepigastric', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>[{'Sleep': {'Sleep': {'quality': 'good', 'duration': 'most of the night'}}}, {'Unknown': {}}]</t>
+          <t>['patient now dozing intermittently', 'still w midepigastr tenderness on exam']</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>['slept most of the night', '-repositioned in bed']</t>
+          <t>['e1=Sleep|1:patient now dozing intermittently', 'e2=Pain|1:still w midepigastr tenderness on exam']</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>['e1=Sleep|1:slept most of the night', 'e2=Unknown|1:-repositioned in bed']</t>
-        </is>
-      </c>
-      <c r="U19" t="inlineStr">
-        <is>
-          <t>[[{'event_id_1': 'e2', 'relation': 'after', 'event_id_2': 'e1'}]]</t>
+          <t>[[{'event_id_1': 'e1', 'relation': 'unknown', 'event_id_2': 'e2'}]]</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>16788_1481943_0010</t>
+          <t>1135_1277060_0001</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>ck iso's to be drawn and cycled.patient now dozing intermittently still w midepigastr tenderness on exam</t>
+          <t>events:  patient slept on and off most of night---good effect from ativan, bp slightly improved although 10 pm lisinopril dose held due to sbp=90, no significant</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -2195,12 +2100,12 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>(Timestamp('2139-06-07 06:48:00'), Timestamp('2139-06-07 07:00:00'))</t>
+          <t>(Timestamp('2154-01-13 05:18:00'), Timestamp('2154-01-13 05:35:00'))</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>{'text': "ck iso's to be drawn and cycled.patient now dozing intermittently still w midepigastr tenderness on exam", 'event': ['Sleep', 'Pain'], 'event_id': ['e1', 'e2'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Sleep",\n      "text_quote": "patient now dozing intermittently",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "intermittent",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e2",\n      "event_type": "Pain",\n      "text_quote": "still w midepigastr tenderness on exam",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "tenderness",\n          "location": "midepigastric",\n          "duration": "Unknown"\n        }\n      }\n    }\n  ],\n  "order": [\n    {\n      "event_id_1": "e1",\n      "relation": "unknown",\n      "event_id_2": "e2"\n    }\n  ]\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'intermittent', 'duration': 'Unknown'}}}, {'Pain': {'Pain': {'severity': 'tenderness', 'location': 'midepigastric', 'duration': 'Unknown'}}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'unknown', 'event_id_2': 'e2'}]], 'text_quotes': ['patient now dozing intermittently', 'still w midepigastr tenderness on exam'], 'event_time': ['Unknown', 'Unknown'], 'negation': [False, False], 'caused_by': ['Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the Text at the end of this prompt into events that took place at the HOSPITAL, DURING THE SHIFT in which this text was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'An event is extracted from the text even if it is negated (e.g. "did not sleep"), but the respective negation attribute is set to True.\', \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n              \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n            ```\n           \n           \n           Text (written between 2139-06-07 06:48:00 and 2139-06-07 07:00:00):\n           ck iso\'s to be drawn and cycled.patient now dozing intermittently still w midepigastr tenderness on exam\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient'], 'event_detection_time': 8.333869362948462}</t>
+          <t>{'text': 'events:  patient slept on and off most of night---good effect from ativan, bp slightly improved although 10 pm lisinopril dose held due to sbp=90, no significant', 'event': ['Sleep', 'Pain'], 'event_id': ['e1', 'e2'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Sleep",\n      "text_quote": "patient slept on and off most of night---good effect from ativan",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "night",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "on and off",\n          "duration": "most of night"\n        }\n      }\n    },\n    {\n      "event_id": "e2",\n      "event_type": "Pain",\n      "text_quote": "bp slightly improved although 10 pm lisinopril dose held due to sbp=90, no significant",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "slightly improved",\n          "location": "bp",\n          "duration": "Unknown"\n        }\n      }\n    }\n  ],\n  "order": [\n    {\n      "event_id_1": "e1",\n      "relation": "before",\n      "event_id_2": "e2"\n    }\n  ]\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'on and off', 'duration': 'most of night'}}}, {'Pain': {'Pain': {'severity': 'slightly improved', 'location': 'bp', 'duration': 'Unknown'}}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}]], 'text_quotes': ['patient slept on and off most of night---good effect from ativan', 'bp slightly improved although 10 pm lisinopril dose held due to sbp=90, no significant'], 'event_time': ['night', 'Unknown'], 'negation': [False, False], 'caused_by': ['Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the Text at the end of this prompt into events that took place at the HOSPITAL, DURING THE SHIFT in which this text was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'An event is extracted from the text even if it is negated (e.g. "did not sleep"), but the respective negation attribute is set to True.\', \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n              \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n            ```\n           \n           \n           Text (written between 2154-01-13 05:18:00 and 2154-01-13 05:35:00):\n           events:  patient slept on and off most of night---good effect from ativan, bp slightly improved although 10 pm lisinopril dose held due to sbp=90, no significant\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient'], 'event_detection_time': 8.849278097040951}</t>
         </is>
       </c>
       <c r="H20" t="n">
@@ -2220,7 +2125,7 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>['patient now dozing intermittently']</t>
+          <t>['patient slept on and off most of night---good effect from ativan']</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -2230,7 +2135,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>[{'Sleep': {'Sleep': {'quality': 'intermittent', 'duration': 'Unknown'}}}]</t>
+          <t>[{'Sleep': {'Sleep': {'quality': 'on and off', 'duration': 'most of night'}}}]</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
@@ -2240,42 +2145,37 @@
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>['patient', 'patient']</t>
+          <t>[{'Sleep': {'Sleep': {'quality': 'on and off', 'duration': 'most of night'}}}, {'Pain': {'Pain': {'severity': 'slightly improved', 'location': 'bp', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>[{'Sleep': {'Sleep': {'quality': 'intermittent', 'duration': 'Unknown'}}}, {'Pain': {'Pain': {'severity': 'tenderness', 'location': 'midepigastric', 'duration': 'Unknown'}}}]</t>
+          <t>['patient slept on and off most of night---good effect from ativan', 'bp slightly improved although 10 pm lisinopril dose held due to sbp=90, no significant']</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>['patient now dozing intermittently', 'still w midepigastr tenderness on exam']</t>
+          <t>['e1=Sleep|1:patient slept on and off most of night---good effect from ativan', 'e2=Pain|1:bp slightly improved although 10 pm lisinopril dose held due to sbp=90, no significant']</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>['e1=Sleep|1:patient now dozing intermittently', 'e2=Pain|1:still w midepigastr tenderness on exam']</t>
-        </is>
-      </c>
-      <c r="U20" t="inlineStr">
-        <is>
-          <t>[[{'event_id_1': 'e1', 'relation': 'unknown', 'event_id_2': 'e2'}]]</t>
+          <t>[[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}]]</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1135_1277060_0001</t>
+          <t>625_1269099_0030</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>events:  patient slept on and off most of night---good effect from ativan, bp slightly improved although 10 pm lisinopril dose held due to sbp=90, no significant</t>
+          <t>patient resting in naps</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -2286,12 +2186,12 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>(Timestamp('2154-01-13 05:18:00'), Timestamp('2154-01-13 05:35:00'))</t>
+          <t>(Timestamp('2178-04-25 16:35:00'), Timestamp('2178-04-25 17:01:00'))</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>{'text': 'events:  patient slept on and off most of night---good effect from ativan, bp slightly improved although 10 pm lisinopril dose held due to sbp=90, no significant', 'event': ['Sleep', 'Pain'], 'event_id': ['e1', 'e2'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Sleep",\n      "text_quote": "patient slept on and off most of night---good effect from ativan",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "night",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "on and off",\n          "duration": "most of night"\n        }\n      }\n    },\n    {\n      "event_id": "e2",\n      "event_type": "Pain",\n      "text_quote": "bp slightly improved although 10 pm lisinopril dose held due to sbp=90, no significant",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "slightly improved",\n          "location": "bp",\n          "duration": "Unknown"\n        }\n      }\n    }\n  ],\n  "order": [\n    {\n      "event_id_1": "e1",\n      "relation": "before",\n      "event_id_2": "e2"\n    }\n  ]\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'on and off', 'duration': 'most of night'}}}, {'Pain': {'Pain': {'severity': 'slightly improved', 'location': 'bp', 'duration': 'Unknown'}}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}]], 'text_quotes': ['patient slept on and off most of night---good effect from ativan', 'bp slightly improved although 10 pm lisinopril dose held due to sbp=90, no significant'], 'event_time': ['night', 'Unknown'], 'negation': [False, False], 'caused_by': ['Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the Text at the end of this prompt into events that took place at the HOSPITAL, DURING THE SHIFT in which this text was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'An event is extracted from the text even if it is negated (e.g. "did not sleep"), but the respective negation attribute is set to True.\', \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n              \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n            ```\n           \n           \n           Text (written between 2154-01-13 05:18:00 and 2154-01-13 05:35:00):\n           events:  patient slept on and off most of night---good effect from ativan, bp slightly improved although 10 pm lisinopril dose held due to sbp=90, no significant\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient'], 'event_detection_time': 8.849278097040951}</t>
+          <t>{'text': 'patient resting in naps', 'event': ['Sleep'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Sleep",\n      "text_quote": "patient resting in naps",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "Unknown",\n          "duration": "naps"\n        }\n      }\n    }\n  ],\n  "order": []\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'naps'}}}], 'orders': [[]], 'text_quotes': ['patient resting in naps'], 'event_time': ['Unknown'], 'negation': [False], 'caused_by': ['Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the Text at the end of this prompt into events that took place at the HOSPITAL, DURING THE SHIFT in which this text was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'An event is extracted from the text even if it is negated (e.g. "did not sleep"), but the respective negation attribute is set to True.\', \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n              \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n            ```\n           \n           \n           Text (written between 2178-04-25 16:35:00 and 2178-04-25 17:01:00):\n           patient resting in naps\n        ', 'case_attributes': [[]], 'actor': ['patient'], 'event_detection_time': 3.7160936649888754}</t>
         </is>
       </c>
       <c r="H21" t="n">
@@ -2311,7 +2211,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>['patient slept on and off most of night---good effect from ativan']</t>
+          <t>['patient resting in naps']</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -2321,52 +2221,47 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>[{'Sleep': {'Sleep': {'quality': 'on and off', 'duration': 'most of night'}}}]</t>
+          <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'naps'}}}]</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>['Sleep', 'Pain']</t>
+          <t>['Sleep']</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>['patient', 'patient']</t>
+          <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'naps'}}}]</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>[{'Sleep': {'Sleep': {'quality': 'on and off', 'duration': 'most of night'}}}, {'Pain': {'Pain': {'severity': 'slightly improved', 'location': 'bp', 'duration': 'Unknown'}}}]</t>
+          <t>['patient resting in naps']</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>['patient slept on and off most of night---good effect from ativan', 'bp slightly improved although 10 pm lisinopril dose held due to sbp=90, no significant']</t>
+          <t>['e1=Sleep|1:patient resting in naps']</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>['e1=Sleep|1:patient slept on and off most of night---good effect from ativan', 'e2=Pain|1:bp slightly improved although 10 pm lisinopril dose held due to sbp=90, no significant']</t>
-        </is>
-      </c>
-      <c r="U21" t="inlineStr">
-        <is>
-          <t>[[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}]]</t>
+          <t>[[]]</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>625_1269099_0030</t>
+          <t>23389_1567793_0021</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>patient resting in naps</t>
+          <t>neuro - sleeping in long naps but easily arousible</t>
         </is>
       </c>
       <c r="D22" t="n">
@@ -2377,12 +2272,12 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>(Timestamp('2178-04-25 16:35:00'), Timestamp('2178-04-25 17:01:00'))</t>
+          <t>(Timestamp('2108-04-05 03:37:00'), Timestamp('2108-04-05 03:57:00'))</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>{'text': 'patient resting in naps', 'event': ['Sleep'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Sleep",\n      "text_quote": "patient resting in naps",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "Unknown",\n          "duration": "naps"\n        }\n      }\n    }\n  ],\n  "order": []\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'naps'}}}], 'orders': [[]], 'text_quotes': ['patient resting in naps'], 'event_time': ['Unknown'], 'negation': [False], 'caused_by': ['Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the Text at the end of this prompt into events that took place at the HOSPITAL, DURING THE SHIFT in which this text was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'An event is extracted from the text even if it is negated (e.g. "did not sleep"), but the respective negation attribute is set to True.\', \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n              \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n            ```\n           \n           \n           Text (written between 2178-04-25 16:35:00 and 2178-04-25 17:01:00):\n           patient resting in naps\n        ', 'case_attributes': [[]], 'actor': ['patient'], 'event_detection_time': 3.7160936649888754}</t>
+          <t>{'text': 'neuro - sleeping in long naps but easily arousible', 'event': ['Sleep'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Sleep",\n      "text_quote": "neuro - sleeping in long naps but easily arousible",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "easily arousible",\n          "duration": "long naps"\n        }\n      }\n    }\n  ],\n  "order": []\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'easily arousible', 'duration': 'long naps'}}}], 'orders': [[]], 'text_quotes': ['neuro - sleeping in long naps but easily arousible'], 'event_time': ['Unknown'], 'negation': [False], 'caused_by': ['Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the Text at the end of this prompt into events that took place at the HOSPITAL, DURING THE SHIFT in which this text was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'An event is extracted from the text even if it is negated (e.g. "did not sleep"), but the respective negation attribute is set to True.\', \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n              \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n            ```\n           \n           \n           Text (written between 2108-04-05 03:37:00 and 2108-04-05 03:57:00):\n           neuro - sleeping in long naps but easily arousible\n        ', 'case_attributes': [[]], 'actor': ['patient'], 'event_detection_time': 4.036406691884622}</t>
         </is>
       </c>
       <c r="H22" t="n">
@@ -2402,7 +2297,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>['patient resting in naps']</t>
+          <t>['neuro - sleeping in long naps but easily arousible']</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -2412,7 +2307,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'naps'}}}]</t>
+          <t>[{'Sleep': {'Sleep': {'quality': 'easily arousible', 'duration': 'long naps'}}}]</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
@@ -2422,25 +2317,20 @@
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>['patient']</t>
+          <t>[{'Sleep': {'Sleep': {'quality': 'easily arousible', 'duration': 'long naps'}}}]</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'naps'}}}]</t>
+          <t>['neuro - sleeping in long naps but easily arousible']</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>['patient resting in naps']</t>
+          <t>['e1=Sleep|1:neuro - sleeping in long naps but easily arousible']</t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
-        <is>
-          <t>['e1=Sleep|1:patient resting in naps']</t>
-        </is>
-      </c>
-      <c r="U22" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -2448,16 +2338,16 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>23389_1567793_0021</t>
+          <t>19950_1524858_0007</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>neuro - sleeping in long naps but easily arousible</t>
+          <t>slept most of shift, but aao x 3 when woken</t>
         </is>
       </c>
       <c r="D23" t="n">
@@ -2468,12 +2358,12 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>(Timestamp('2108-04-05 03:37:00'), Timestamp('2108-04-05 03:57:00'))</t>
+          <t>(Timestamp('2116-04-28 14:42:00'), Timestamp('2116-04-28 14:45:00'))</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>{'text': 'neuro - sleeping in long naps but easily arousible', 'event': ['Sleep'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Sleep",\n      "text_quote": "neuro - sleeping in long naps but easily arousible",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "easily arousible",\n          "duration": "long naps"\n        }\n      }\n    }\n  ],\n  "order": []\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'easily arousible', 'duration': 'long naps'}}}], 'orders': [[]], 'text_quotes': ['neuro - sleeping in long naps but easily arousible'], 'event_time': ['Unknown'], 'negation': [False], 'caused_by': ['Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the Text at the end of this prompt into events that took place at the HOSPITAL, DURING THE SHIFT in which this text was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'An event is extracted from the text even if it is negated (e.g. "did not sleep"), but the respective negation attribute is set to True.\', \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n              \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n            ```\n           \n           \n           Text (written between 2108-04-05 03:37:00 and 2108-04-05 03:57:00):\n           neuro - sleeping in long naps but easily arousible\n        ', 'case_attributes': [[]], 'actor': ['patient'], 'event_detection_time': 4.036406691884622}</t>
+          <t>{'text': 'slept most of shift, but aao x 3 when woken', 'event': ['Sleep', 'Pain'], 'event_id': ['e1', 'e2'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Sleep",\n      "text_quote": "slept most of shift",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "Unknown",\n          "duration": "most of shift"\n        }\n      }\n    },\n    {\n      "event_id": "e2",\n      "event_type": "Pain",\n      "text_quote": "aao x 3 when woken",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "Unknown",\n          "location": "Unknown",\n          "duration": "when woken"\n        }\n      }\n    }\n  ],\n  "order": [\n    {\n      "event_id_1": "e1",\n      "relation": "before",\n      "event_id_2": "e2"\n    }\n  ]\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'most of shift'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'when woken'}}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}]], 'text_quotes': ['slept most of shift', 'aao x 3 when woken'], 'event_time': ['Unknown', 'Unknown'], 'negation': [False, False], 'caused_by': ['Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the Text at the end of this prompt into events that took place at the HOSPITAL, DURING THE SHIFT in which this text was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'An event is extracted from the text even if it is negated (e.g. "did not sleep"), but the respective negation attribute is set to True.\', \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n              \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n            ```\n           \n           \n           Text (written between 2116-04-28 14:42:00 and 2116-04-28 14:45:00):\n           slept most of shift, but aao x 3 when woken\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient'], 'event_detection_time': 8.08675427804701}</t>
         </is>
       </c>
       <c r="H23" t="n">
@@ -2493,7 +2383,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>['neuro - sleeping in long naps but easily arousible']</t>
+          <t>['slept most of shift']</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -2503,52 +2393,47 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>[{'Sleep': {'Sleep': {'quality': 'easily arousible', 'duration': 'long naps'}}}]</t>
+          <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'most of shift'}}}]</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>['Sleep']</t>
+          <t>['Sleep', 'Pain']</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>['patient']</t>
+          <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'most of shift'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'when woken'}}}]</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>[{'Sleep': {'Sleep': {'quality': 'easily arousible', 'duration': 'long naps'}}}]</t>
+          <t>['slept most of shift', 'aao x 3 when woken']</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>['neuro - sleeping in long naps but easily arousible']</t>
+          <t>['e1=Sleep|1:slept most of shift', 'e2=Pain|1:aao x 3 when woken']</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>['e1=Sleep|1:neuro - sleeping in long naps but easily arousible']</t>
-        </is>
-      </c>
-      <c r="U23" t="inlineStr">
-        <is>
-          <t>[[]]</t>
+          <t>[[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}]]</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>19950_1524858_0007</t>
+          <t>22217_1553189_0006</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>slept most of shift, but aao x 3 when woken</t>
+          <t>o x 3, arouses to voice when sleeping</t>
         </is>
       </c>
       <c r="D24" t="n">
@@ -2559,12 +2444,12 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>(Timestamp('2116-04-28 14:42:00'), Timestamp('2116-04-28 14:45:00'))</t>
+          <t>(Timestamp('2123-05-18 23:41:00'), Timestamp('2123-05-18 23:52:00'))</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>{'text': 'slept most of shift, but aao x 3 when woken', 'event': ['Sleep', 'Pain'], 'event_id': ['e1', 'e2'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Sleep",\n      "text_quote": "slept most of shift",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "Unknown",\n          "duration": "most of shift"\n        }\n      }\n    },\n    {\n      "event_id": "e2",\n      "event_type": "Pain",\n      "text_quote": "aao x 3 when woken",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "Unknown",\n          "location": "Unknown",\n          "duration": "when woken"\n        }\n      }\n    }\n  ],\n  "order": [\n    {\n      "event_id_1": "e1",\n      "relation": "before",\n      "event_id_2": "e2"\n    }\n  ]\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'most of shift'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'when woken'}}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}]], 'text_quotes': ['slept most of shift', 'aao x 3 when woken'], 'event_time': ['Unknown', 'Unknown'], 'negation': [False, False], 'caused_by': ['Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the Text at the end of this prompt into events that took place at the HOSPITAL, DURING THE SHIFT in which this text was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'An event is extracted from the text even if it is negated (e.g. "did not sleep"), but the respective negation attribute is set to True.\', \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n              \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n            ```\n           \n           \n           Text (written between 2116-04-28 14:42:00 and 2116-04-28 14:45:00):\n           slept most of shift, but aao x 3 when woken\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient'], 'event_detection_time': 8.08675427804701}</t>
+          <t>{'text': 'o x 3, arouses to voice when sleeping', 'event': ['Sleep'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Sleep",\n      "text_quote": "arouses to voice when sleeping",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "poor"\n        }\n      }\n    }\n  ],\n  "order": []\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'poor'}}}], 'orders': [[]], 'text_quotes': ['arouses to voice when sleeping'], 'event_time': ['Unknown'], 'negation': [False], 'caused_by': ['Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the Text at the end of this prompt into events that took place at the HOSPITAL, DURING THE SHIFT in which this text was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'An event is extracted from the text even if it is negated (e.g. "did not sleep"), but the respective negation attribute is set to True.\', \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n              \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n            ```\n           \n           \n           Text (written between 2123-05-18 23:41:00 and 2123-05-18 23:52:00):\n           o x 3, arouses to voice when sleeping\n        ', 'case_attributes': [[]], 'actor': ['patient'], 'event_detection_time': 3.5290062078274786}</t>
         </is>
       </c>
       <c r="H24" t="n">
@@ -2584,7 +2469,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>['slept most of shift']</t>
+          <t>['arouses to voice when sleeping']</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -2594,52 +2479,47 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'most of shift'}}}]</t>
+          <t>[{'Sleep': {'Sleep': {'quality': 'poor'}}}]</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>['Sleep', 'Pain']</t>
+          <t>['Sleep']</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>['patient', 'patient']</t>
+          <t>[{'Sleep': {'Sleep': {'quality': 'poor'}}}]</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'most of shift'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'when woken'}}}]</t>
+          <t>['arouses to voice when sleeping']</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>['slept most of shift', 'aao x 3 when woken']</t>
+          <t>['e1=Sleep|1:arouses to voice when sleeping']</t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>['e1=Sleep|1:slept most of shift', 'e2=Pain|1:aao x 3 when woken']</t>
-        </is>
-      </c>
-      <c r="U24" t="inlineStr">
-        <is>
-          <t>[[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}]]</t>
+          <t>[[]]</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>22217_1553189_0006</t>
+          <t>32240_1671091_0003</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>o x 3, arouses to voice when sleeping</t>
+          <t>patient slept well overnight</t>
         </is>
       </c>
       <c r="D25" t="n">
@@ -2650,12 +2530,12 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>(Timestamp('2123-05-18 23:41:00'), Timestamp('2123-05-18 23:52:00'))</t>
+          <t>(Timestamp('2154-10-23 02:45:00'), Timestamp('2154-10-23 03:00:00'))</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>{'text': 'o x 3, arouses to voice when sleeping', 'event': ['Sleep'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Sleep",\n      "text_quote": "arouses to voice when sleeping",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "poor"\n        }\n      }\n    }\n  ],\n  "order": []\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'poor'}}}], 'orders': [[]], 'text_quotes': ['arouses to voice when sleeping'], 'event_time': ['Unknown'], 'negation': [False], 'caused_by': ['Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the Text at the end of this prompt into events that took place at the HOSPITAL, DURING THE SHIFT in which this text was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'An event is extracted from the text even if it is negated (e.g. "did not sleep"), but the respective negation attribute is set to True.\', \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n              \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n            ```\n           \n           \n           Text (written between 2123-05-18 23:41:00 and 2123-05-18 23:52:00):\n           o x 3, arouses to voice when sleeping\n        ', 'case_attributes': [[]], 'actor': ['patient'], 'event_detection_time': 3.5290062078274786}</t>
+          <t>{'text': 'patient slept well overnight', 'event': ['Sleep'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Sleep",\n      "text_quote": "patient slept well overnight",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "overnight",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "well"\n        }\n      }\n    }\n  ],\n  "order": []\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'well'}}}], 'orders': [[]], 'text_quotes': ['patient slept well overnight'], 'event_time': ['overnight'], 'negation': [False], 'caused_by': ['Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the Text at the end of this prompt into events that took place at the HOSPITAL, DURING THE SHIFT in which this text was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'An event is extracted from the text even if it is negated (e.g. "did not sleep"), but the respective negation attribute is set to True.\', \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n              \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n            ```\n           \n           \n           Text (written between 2154-10-23 02:45:00 and 2154-10-23 03:00:00):\n           patient slept well overnight\n        ', 'case_attributes': [[]], 'actor': ['patient'], 'event_detection_time': 3.464771127095446}</t>
         </is>
       </c>
       <c r="H25" t="n">
@@ -2675,7 +2555,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>['arouses to voice when sleeping']</t>
+          <t>['patient slept well overnight']</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -2685,7 +2565,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>[{'Sleep': {'Sleep': {'quality': 'poor'}}}]</t>
+          <t>[{'Sleep': {'Sleep': {'quality': 'well'}}}]</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
@@ -2695,25 +2575,20 @@
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>['patient']</t>
+          <t>[{'Sleep': {'Sleep': {'quality': 'well'}}}]</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>[{'Sleep': {'Sleep': {'quality': 'poor'}}}]</t>
+          <t>['patient slept well overnight']</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>['arouses to voice when sleeping']</t>
+          <t>['e1=Sleep|1:patient slept well overnight']</t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
-        <is>
-          <t>['e1=Sleep|1:arouses to voice when sleeping']</t>
-        </is>
-      </c>
-      <c r="U25" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -2721,16 +2596,16 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>32240_1671091_0003</t>
+          <t>22530_1556837_0018</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>patient slept well overnight</t>
+          <t>p:  npo past midnight, sleep med tonight, cont ntg and heparin as ordered, turn and position for comfort keeping hob flat d/t sheaths, keep patient and family informed of plan per multidisciplinary rounds</t>
         </is>
       </c>
       <c r="D26" t="n">
@@ -2741,12 +2616,12 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>(Timestamp('2154-10-23 02:45:00'), Timestamp('2154-10-23 03:00:00'))</t>
+          <t>(Timestamp('2110-08-08 22:50:00'), Timestamp('2110-08-08 22:58:00'))</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>{'text': 'patient slept well overnight', 'event': ['Sleep'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Sleep",\n      "text_quote": "patient slept well overnight",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "overnight",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "well"\n        }\n      }\n    }\n  ],\n  "order": []\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'well'}}}], 'orders': [[]], 'text_quotes': ['patient slept well overnight'], 'event_time': ['overnight'], 'negation': [False], 'caused_by': ['Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the Text at the end of this prompt into events that took place at the HOSPITAL, DURING THE SHIFT in which this text was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'An event is extracted from the text even if it is negated (e.g. "did not sleep"), but the respective negation attribute is set to True.\', \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n              \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n            ```\n           \n           \n           Text (written between 2154-10-23 02:45:00 and 2154-10-23 03:00:00):\n           patient slept well overnight\n        ', 'case_attributes': [[]], 'actor': ['patient'], 'event_detection_time': 3.464771127095446}</t>
+          <t>{'text': 'p:  npo past midnight, sleep med tonight, cont ntg and heparin as ordered, turn and position for comfort keeping hob flat d/t sheaths, keep patient and family informed of plan per multidisciplinary rounds', 'event': ['Eating', 'Sleep', 'Family'], 'event_id': ['e1', 'e2', 'e3'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Eating",\n      "text_quote": "npo past midnight",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "past midnight",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {\n          "food": "Unknown",\n          "amount": "Unknown",\n          "method": "oral"\n        }\n      }\n    },\n    {\n      "event_id": "e2",\n      "event_type": "Sleep",\n      "text_quote": "sleep med tonight",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "tonight",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e3",\n      "event_type": "Family",\n      "text_quote": "keep patient and family informed of plan per multidisciplinary rounds",\n      "actor": "others",\n      "object": "family member",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {\n          "interaction": "communication",\n          "relation": "Unknown"\n        }\n      }\n    }\n  ],\n  "order": [\n    {\n      "event_id_1": "e1",\n      "relation": "before",\n      "event_id_2": "e2"\n    },\n    {\n      "event_id_1": "e2",\n      "relation": "unknown",\n      "event_id_2": "e3"\n    }\n  ]\n}', 'attributes': [{'Eating': {'Eating': {'food': 'Unknown', 'amount': 'Unknown', 'method': 'oral'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Family': {'Family': {'interaction': 'communication', 'relation': 'Unknown'}}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'unknown', 'event_id_2': 'e3'}]], 'text_quotes': ['npo past midnight', 'sleep med tonight', 'keep patient and family informed of plan per multidisciplinary rounds'], 'event_time': ['past midnight', 'tonight', 'Unknown'], 'negation': [True, False, False], 'caused_by': ['Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the Text at the end of this prompt into events that took place at the HOSPITAL, DURING THE SHIFT in which this text was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'An event is extracted from the text even if it is negated (e.g. "did not sleep"), but the respective negation attribute is set to True.\', \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n              \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n            ```\n           \n           \n           Text (written between 2110-08-08 22:50:00 and 2110-08-08 22:58:00):\n           p:  npo past midnight, sleep med tonight, cont ntg and heparin as ordered, turn and position for comfort keeping hob flat d/t sheaths, keep patient and family informed of plan per multidisciplinary rounds\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient', 'others'], 'event_detection_time': 11.984353800071403}</t>
         </is>
       </c>
       <c r="H26" t="n">
@@ -2766,7 +2641,7 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>['patient slept well overnight']</t>
+          <t>['sleep med tonight']</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -2776,52 +2651,47 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>[{'Sleep': {'Sleep': {'quality': 'well'}}}]</t>
+          <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>['Sleep']</t>
+          <t>['Eating', 'Sleep', 'Family']</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>['patient']</t>
+          <t>[{'Eating': {'Eating': {'food': 'Unknown', 'amount': 'Unknown', 'method': 'oral'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Family': {'Family': {'interaction': 'communication', 'relation': 'Unknown'}}}]</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>[{'Sleep': {'Sleep': {'quality': 'well'}}}]</t>
+          <t>['npo past midnight', 'sleep med tonight', 'keep patient and family informed of plan per multidisciplinary rounds']</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>['patient slept well overnight']</t>
+          <t>['e1=Eating|1:npo past midnight', 'e2=Sleep|1:sleep med tonight', 'e3=Family|1:keep patient and family informed of plan per multidisciplinary rounds']</t>
         </is>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>['e1=Sleep|1:patient slept well overnight']</t>
-        </is>
-      </c>
-      <c r="U26" t="inlineStr">
-        <is>
-          <t>[[]]</t>
+          <t>[[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'unknown', 'event_id_2': 'e3'}]]</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>22530_1556837_0018</t>
+          <t>7784_1366538_0012</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>p:  npo past midnight, sleep med tonight, cont ntg and heparin as ordered, turn and position for comfort keeping hob flat d/t sheaths, keep patient and family informed of plan per multidisciplinary rounds</t>
+          <t>patient slept longer p last dose, requiring less ativan. agitation and confusion only symptoms on ciwa scale</t>
         </is>
       </c>
       <c r="D27" t="n">
@@ -2832,12 +2702,12 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>(Timestamp('2110-08-08 22:50:00'), Timestamp('2110-08-08 22:58:00'))</t>
+          <t>(Timestamp('2128-06-17 04:14:00'), Timestamp('2128-06-17 04:35:00'))</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>{'text': 'p:  npo past midnight, sleep med tonight, cont ntg and heparin as ordered, turn and position for comfort keeping hob flat d/t sheaths, keep patient and family informed of plan per multidisciplinary rounds', 'event': ['Eating', 'Sleep', 'Family'], 'event_id': ['e1', 'e2', 'e3'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Eating",\n      "text_quote": "npo past midnight",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "past midnight",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {\n          "food": "Unknown",\n          "amount": "Unknown",\n          "method": "oral"\n        }\n      }\n    },\n    {\n      "event_id": "e2",\n      "event_type": "Sleep",\n      "text_quote": "sleep med tonight",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "tonight",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e3",\n      "event_type": "Family",\n      "text_quote": "keep patient and family informed of plan per multidisciplinary rounds",\n      "actor": "others",\n      "object": "family member",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {\n          "interaction": "communication",\n          "relation": "Unknown"\n        }\n      }\n    }\n  ],\n  "order": [\n    {\n      "event_id_1": "e1",\n      "relation": "before",\n      "event_id_2": "e2"\n    },\n    {\n      "event_id_1": "e2",\n      "relation": "unknown",\n      "event_id_2": "e3"\n    }\n  ]\n}', 'attributes': [{'Eating': {'Eating': {'food': 'Unknown', 'amount': 'Unknown', 'method': 'oral'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Family': {'Family': {'interaction': 'communication', 'relation': 'Unknown'}}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'unknown', 'event_id_2': 'e3'}]], 'text_quotes': ['npo past midnight', 'sleep med tonight', 'keep patient and family informed of plan per multidisciplinary rounds'], 'event_time': ['past midnight', 'tonight', 'Unknown'], 'negation': [True, False, False], 'caused_by': ['Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the Text at the end of this prompt into events that took place at the HOSPITAL, DURING THE SHIFT in which this text was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'An event is extracted from the text even if it is negated (e.g. "did not sleep"), but the respective negation attribute is set to True.\', \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n              \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n            ```\n           \n           \n           Text (written between 2110-08-08 22:50:00 and 2110-08-08 22:58:00):\n           p:  npo past midnight, sleep med tonight, cont ntg and heparin as ordered, turn and position for comfort keeping hob flat d/t sheaths, keep patient and family informed of plan per multidisciplinary rounds\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient', 'others'], 'event_detection_time': 11.984353800071403}</t>
+          <t>{'text': 'patient slept longer p last dose, requiring less ativan. agitation and confusion only symptoms on ciwa scale', 'event': ['Sleep', 'Pain'], 'event_id': ['e1', 'e2'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Sleep",\n            "text_quote": "patient slept longer p last dose, requiring less ativan.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "longer",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Pain",\n            "text_quote": "agitation and confusion only symptoms on ciwa scale",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "Unknown",\n                    "location": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        }\n    ],\n    "order": [\n        {\n            "event_id_1": "e1",\n            "relation": "before",\n            "event_id_2": "e2"\n        }\n    ]\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'longer', 'duration': 'Unknown'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}]], 'text_quotes': ['patient slept longer p last dose, requiring less ativan.', 'agitation and confusion only symptoms on ciwa scale'], 'event_time': ['Unknown', 'Unknown'], 'negation': [False, False], 'caused_by': ['Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the Text at the end of this prompt into events that took place at the HOSPITAL, DURING THE SHIFT in which this text was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'An event is extracted from the text even if it is negated (e.g. "did not sleep"), but the respective negation attribute is set to True.\', \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n              \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n            ```\n           \n           \n           Text (written between 2128-06-17 04:14:00 and 2128-06-17 04:35:00):\n           patient slept longer p last dose, requiring less ativan. agitation and confusion only symptoms on ciwa scale\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient'], 'event_detection_time': 8.209613368846476}</t>
         </is>
       </c>
       <c r="H27" t="n">
@@ -2857,7 +2727,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>['sleep med tonight']</t>
+          <t>['patient slept longer p last dose, requiring less ativan.']</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -2867,52 +2737,47 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
+          <t>[{'Sleep': {'Sleep': {'quality': 'longer', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>['Eating', 'Sleep', 'Family']</t>
+          <t>['Sleep', 'Pain']</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>['patient', 'patient', 'others']</t>
+          <t>[{'Sleep': {'Sleep': {'quality': 'longer', 'duration': 'Unknown'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>[{'Eating': {'Eating': {'food': 'Unknown', 'amount': 'Unknown', 'method': 'oral'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Family': {'Family': {'interaction': 'communication', 'relation': 'Unknown'}}}]</t>
+          <t>['patient slept longer p last dose, requiring less ativan.', 'agitation and confusion only symptoms on ciwa scale']</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>['npo past midnight', 'sleep med tonight', 'keep patient and family informed of plan per multidisciplinary rounds']</t>
+          <t>['e1=Sleep|1:patient slept longer p last dose, requiring less ativan.', 'e2=Pain|1:agitation and confusion only symptoms on ciwa scale']</t>
         </is>
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>['e1=Eating|1:npo past midnight', 'e2=Sleep|1:sleep med tonight', 'e3=Family|1:keep patient and family informed of plan per multidisciplinary rounds']</t>
-        </is>
-      </c>
-      <c r="U27" t="inlineStr">
-        <is>
-          <t>[[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'unknown', 'event_id_2': 'e3'}]]</t>
+          <t>[[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}]]</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>7784_1366538_0012</t>
+          <t>3848_1311805_0003</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>patient slept longer p last dose, requiring less ativan. agitation and confusion only symptoms on ciwa scale</t>
+          <t>this is the first night i have slept"</t>
         </is>
       </c>
       <c r="D28" t="n">
@@ -2923,12 +2788,12 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>(Timestamp('2128-06-17 04:14:00'), Timestamp('2128-06-17 04:35:00'))</t>
+          <t>(Timestamp('2198-12-24 04:39:00'), Timestamp('2198-12-24 05:16:00'))</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>{'text': 'patient slept longer p last dose, requiring less ativan. agitation and confusion only symptoms on ciwa scale', 'event': ['Sleep', 'Pain'], 'event_id': ['e1', 'e2'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Sleep",\n            "text_quote": "patient slept longer p last dose, requiring less ativan.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "longer",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Pain",\n            "text_quote": "agitation and confusion only symptoms on ciwa scale",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "Unknown",\n                    "location": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        }\n    ],\n    "order": [\n        {\n            "event_id_1": "e1",\n            "relation": "before",\n            "event_id_2": "e2"\n        }\n    ]\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'longer', 'duration': 'Unknown'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}]], 'text_quotes': ['patient slept longer p last dose, requiring less ativan.', 'agitation and confusion only symptoms on ciwa scale'], 'event_time': ['Unknown', 'Unknown'], 'negation': [False, False], 'caused_by': ['Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the Text at the end of this prompt into events that took place at the HOSPITAL, DURING THE SHIFT in which this text was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'An event is extracted from the text even if it is negated (e.g. "did not sleep"), but the respective negation attribute is set to True.\', \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n              \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n            ```\n           \n           \n           Text (written between 2128-06-17 04:14:00 and 2128-06-17 04:35:00):\n           patient slept longer p last dose, requiring less ativan. agitation and confusion only symptoms on ciwa scale\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient'], 'event_detection_time': 8.209613368846476}</t>
+          <t>{'text': 'this is the first night i have slept"', 'event': ['Sleep'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Sleep",\n      "text_quote": "this is the first night i have slept",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "night",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "Unknown",\n          "duration": "first night"\n        }\n      }\n    }\n  ],\n  "order": []\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'first night'}}}], 'orders': [[]], 'text_quotes': ['this is the first night i have slept'], 'event_time': ['night'], 'negation': [False], 'caused_by': ['Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the Text at the end of this prompt into events that took place at the HOSPITAL, DURING THE SHIFT in which this text was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'An event is extracted from the text even if it is negated (e.g. "did not sleep"), but the respective negation attribute is set to True.\', \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n              \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n            ```\n           \n           \n           Text (written between 2198-12-24 04:39:00 and 2198-12-24 05:16:00):\n           this is the first night i have slept"\n        ', 'case_attributes': [[]], 'actor': ['patient'], 'event_detection_time': 3.801187306875363}</t>
         </is>
       </c>
       <c r="H28" t="n">
@@ -2948,7 +2813,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>['patient slept longer p last dose, requiring less ativan.']</t>
+          <t>['this is the first night i have slept']</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -2958,52 +2823,47 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>[{'Sleep': {'Sleep': {'quality': 'longer', 'duration': 'Unknown'}}}]</t>
+          <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'first night'}}}]</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>['Sleep', 'Pain']</t>
+          <t>['Sleep']</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>['patient', 'patient']</t>
+          <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'first night'}}}]</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>[{'Sleep': {'Sleep': {'quality': 'longer', 'duration': 'Unknown'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}]</t>
+          <t>['this is the first night i have slept']</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>['patient slept longer p last dose, requiring less ativan.', 'agitation and confusion only symptoms on ciwa scale']</t>
+          <t>['e1=Sleep|1:this is the first night i have slept']</t>
         </is>
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>['e1=Sleep|1:patient slept longer p last dose, requiring less ativan.', 'e2=Pain|1:agitation and confusion only symptoms on ciwa scale']</t>
-        </is>
-      </c>
-      <c r="U28" t="inlineStr">
-        <is>
-          <t>[[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}]]</t>
+          <t>[[]]</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>3848_1311805_0003</t>
+          <t>14972_1457192_0011</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>this is the first night i have slept"</t>
+          <t>but is able to sleep for most of the day</t>
         </is>
       </c>
       <c r="D29" t="n">
@@ -3014,12 +2874,12 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>(Timestamp('2198-12-24 04:39:00'), Timestamp('2198-12-24 05:16:00'))</t>
+          <t>(Timestamp('2173-09-30 16:24:00'), Timestamp('2173-09-30 16:55:00'))</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>{'text': 'this is the first night i have slept"', 'event': ['Sleep'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Sleep",\n      "text_quote": "this is the first night i have slept",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "night",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "Unknown",\n          "duration": "first night"\n        }\n      }\n    }\n  ],\n  "order": []\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'first night'}}}], 'orders': [[]], 'text_quotes': ['this is the first night i have slept'], 'event_time': ['night'], 'negation': [False], 'caused_by': ['Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the Text at the end of this prompt into events that took place at the HOSPITAL, DURING THE SHIFT in which this text was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'An event is extracted from the text even if it is negated (e.g. "did not sleep"), but the respective negation attribute is set to True.\', \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n              \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n            ```\n           \n           \n           Text (written between 2198-12-24 04:39:00 and 2198-12-24 05:16:00):\n           this is the first night i have slept"\n        ', 'case_attributes': [[]], 'actor': ['patient'], 'event_detection_time': 3.801187306875363}</t>
+          <t>{'text': 'but is able to sleep for most of the day', 'event': ['Sleep'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Sleep",\n      "text_quote": "but is able to sleep for most of the day",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "Unknown",\n          "duration": "most of the day"\n        }\n      }\n    }\n  ],\n  "order": []\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'most of the day'}}}], 'orders': [[]], 'text_quotes': ['but is able to sleep for most of the day'], 'event_time': ['Unknown'], 'negation': [False], 'caused_by': ['Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the Text at the end of this prompt into events that took place at the HOSPITAL, DURING THE SHIFT in which this text was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'An event is extracted from the text even if it is negated (e.g. "did not sleep"), but the respective negation attribute is set to True.\', \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n              \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n            ```\n           \n           \n           Text (written between 2173-09-30 16:24:00 and 2173-09-30 16:55:00):\n           but is able to sleep for most of the day\n        ', 'case_attributes': [[]], 'actor': ['patient'], 'event_detection_time': 3.9144357698969543}</t>
         </is>
       </c>
       <c r="H29" t="n">
@@ -3039,7 +2899,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>['this is the first night i have slept']</t>
+          <t>['but is able to sleep for most of the day']</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -3049,7 +2909,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'first night'}}}]</t>
+          <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'most of the day'}}}]</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
@@ -3059,25 +2919,20 @@
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>['patient']</t>
+          <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'most of the day'}}}]</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'first night'}}}]</t>
+          <t>['but is able to sleep for most of the day']</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>['this is the first night i have slept']</t>
+          <t>['e1=Sleep|1:but is able to sleep for most of the day']</t>
         </is>
       </c>
       <c r="T29" t="inlineStr">
-        <is>
-          <t>['e1=Sleep|1:this is the first night i have slept']</t>
-        </is>
-      </c>
-      <c r="U29" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -3085,16 +2940,16 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>244</v>
+        <v>270</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>14972_1457192_0011</t>
+          <t>14603_1452808_0006</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>but is able to sleep for most of the day</t>
+          <t>given ambien for sleep with effect</t>
         </is>
       </c>
       <c r="D30" t="n">
@@ -3105,12 +2960,12 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>(Timestamp('2173-09-30 16:24:00'), Timestamp('2173-09-30 16:55:00'))</t>
+          <t>(Timestamp('2196-04-04 06:27:00'), Timestamp('2196-04-04 06:40:00'))</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>{'text': 'but is able to sleep for most of the day', 'event': ['Sleep'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Sleep",\n      "text_quote": "but is able to sleep for most of the day",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "Unknown",\n          "duration": "most of the day"\n        }\n      }\n    }\n  ],\n  "order": []\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'most of the day'}}}], 'orders': [[]], 'text_quotes': ['but is able to sleep for most of the day'], 'event_time': ['Unknown'], 'negation': [False], 'caused_by': ['Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the Text at the end of this prompt into events that took place at the HOSPITAL, DURING THE SHIFT in which this text was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'An event is extracted from the text even if it is negated (e.g. "did not sleep"), but the respective negation attribute is set to True.\', \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n              \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n            ```\n           \n           \n           Text (written between 2173-09-30 16:24:00 and 2173-09-30 16:55:00):\n           but is able to sleep for most of the day\n        ', 'case_attributes': [[]], 'actor': ['patient'], 'event_detection_time': 3.9144357698969543}</t>
+          <t>{'text': 'given ambien for sleep with effect', 'event': ['Sleep'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Sleep",\n      "text_quote": "given ambien for sleep with effect",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    }\n  ],\n  "order": []\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}], 'orders': [[]], 'text_quotes': ['given ambien for sleep with effect'], 'event_time': ['Unknown'], 'negation': [False], 'caused_by': ['Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the Text at the end of this prompt into events that took place at the HOSPITAL, DURING THE SHIFT in which this text was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'An event is extracted from the text even if it is negated (e.g. "did not sleep"), but the respective negation attribute is set to True.\', \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n              \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n            ```\n           \n           \n           Text (written between 2196-04-04 06:27:00 and 2196-04-04 06:40:00):\n           given ambien for sleep with effect\n        ', 'case_attributes': [[]], 'actor': ['patient'], 'event_detection_time': 3.7264576831366867}</t>
         </is>
       </c>
       <c r="H30" t="n">
@@ -3130,7 +2985,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>['but is able to sleep for most of the day']</t>
+          <t>['given ambien for sleep with effect']</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -3140,7 +2995,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'most of the day'}}}]</t>
+          <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
@@ -3150,25 +3005,20 @@
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>['patient']</t>
+          <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'most of the day'}}}]</t>
+          <t>['given ambien for sleep with effect']</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>['but is able to sleep for most of the day']</t>
+          <t>['e1=Sleep|1:given ambien for sleep with effect']</t>
         </is>
       </c>
       <c r="T30" t="inlineStr">
-        <is>
-          <t>['e1=Sleep|1:but is able to sleep for most of the day']</t>
-        </is>
-      </c>
-      <c r="U30" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -3176,16 +3026,16 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>14603_1452808_0006</t>
+          <t>11569_1413704_0004</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>given ambien for sleep with effect</t>
+          <t>patient appeared to sleep most of shift, would hold hand w/wife and squeeze hand when she told him she had to move and would occasionally open eyes when asked, no further answering ?s with nodding</t>
         </is>
       </c>
       <c r="D31" t="n">
@@ -3196,12 +3046,12 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>(Timestamp('2196-04-04 06:27:00'), Timestamp('2196-04-04 06:40:00'))</t>
+          <t>(Timestamp('2160-12-26 18:06:00'), Timestamp('2160-12-26 18:25:00'))</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>{'text': 'given ambien for sleep with effect', 'event': ['Sleep'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Sleep",\n      "text_quote": "given ambien for sleep with effect",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    }\n  ],\n  "order": []\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}], 'orders': [[]], 'text_quotes': ['given ambien for sleep with effect'], 'event_time': ['Unknown'], 'negation': [False], 'caused_by': ['Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the Text at the end of this prompt into events that took place at the HOSPITAL, DURING THE SHIFT in which this text was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'An event is extracted from the text even if it is negated (e.g. "did not sleep"), but the respective negation attribute is set to True.\', \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n              \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n            ```\n           \n           \n           Text (written between 2196-04-04 06:27:00 and 2196-04-04 06:40:00):\n           given ambien for sleep with effect\n        ', 'case_attributes': [[]], 'actor': ['patient'], 'event_detection_time': 3.7264576831366867}</t>
+          <t>{'text': 'patient appeared to sleep most of shift, would hold hand w/wife and squeeze hand when she told him she had to move and would occasionally open eyes when asked, no further answering ?s with nodding', 'event': ['Sleep', 'Family', 'Pain'], 'event_id': ['e1', 'e2', 'e3'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Sleep",\n      "text_quote": "patient appeared to sleep most of shift",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "Unknown",\n          "duration": "most of shift"\n        }\n      }\n    },\n    {\n      "event_id": "e2",\n      "event_type": "Family",\n      "text_quote": "would hold hand w/wife and squeeze hand when she told him she had to move",\n      "actor": "patient",\n      "object": "wife",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {\n          "interaction": "physical contact",\n          "relation": "wife"\n        }\n      }\n    },\n    {\n      "event_id": "e3",\n      "event_type": "Pain",\n      "text_quote": "no further answering ?s with nodding",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "Unknown",\n          "location": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    }\n  ],\n  "order": [\n    {\n      "event_id_1": "e1",\n      "relation": "simultaneous",\n      "event_id_2": "e2"\n    },\n    {\n      "event_id_1": "e2",\n      "relation": "after",\n      "event_id_2": "e3"\n    }\n  ]\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'most of shift'}}}, {'Family': {'Family': {'interaction': 'physical contact', 'relation': 'wife'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'simultaneous', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'after', 'event_id_2': 'e3'}]], 'text_quotes': ['patient appeared to sleep most of shift', 'would hold hand w/wife and squeeze hand when she told him she had to move', 'no further answering ?s with nodding'], 'event_time': ['Unknown', 'Unknown', 'Unknown'], 'negation': [False, False, True], 'caused_by': ['Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the Text at the end of this prompt into events that took place at the HOSPITAL, DURING THE SHIFT in which this text was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'An event is extracted from the text even if it is negated (e.g. "did not sleep"), but the respective negation attribute is set to True.\', \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n              \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n            ```\n           \n           \n           Text (written between 2160-12-26 18:06:00 and 2160-12-26 18:25:00):\n           patient appeared to sleep most of shift, would hold hand w/wife and squeeze hand when she told him she had to move and would occasionally open eyes when asked, no further answering ?s with nodding\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient', 'patient'], 'event_detection_time': 12.421605160227045}</t>
         </is>
       </c>
       <c r="H31" t="n">
@@ -3221,7 +3071,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>['given ambien for sleep with effect']</t>
+          <t>['patient appeared to sleep most of shift']</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -3231,52 +3081,47 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
+          <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'most of shift'}}}]</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>['Sleep']</t>
+          <t>['Sleep', 'Family', 'Pain']</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>['patient']</t>
+          <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'most of shift'}}}, {'Family': {'Family': {'interaction': 'physical contact', 'relation': 'wife'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
+          <t>['patient appeared to sleep most of shift', 'would hold hand w/wife and squeeze hand when she told him she had to move', 'no further answering ?s with nodding']</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>['given ambien for sleep with effect']</t>
+          <t>['e1=Sleep|1:patient appeared to sleep most of shift', 'e2=Family|1:would hold hand w/wife and squeeze hand when she told him she had to move', 'e3=Pain|1:no further answering ?s with nodding']</t>
         </is>
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>['e1=Sleep|1:given ambien for sleep with effect']</t>
-        </is>
-      </c>
-      <c r="U31" t="inlineStr">
-        <is>
-          <t>[[]]</t>
+          <t>[[{'event_id_1': 'e1', 'relation': 'simultaneous', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'after', 'event_id_2': 'e3'}]]</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>11569_1413704_0004</t>
+          <t>3304_1304618_0000</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>patient appeared to sleep most of shift, would hold hand w/wife and squeeze hand when she told him she had to move and would occasionally open eyes when asked, no further answering ?s with nodding</t>
+          <t>patient anxious c/o pain med with morphine with relief trazadone hs for sleep with effectbp labile neo drops increased /cvp 13-15continues with copious amounts of thick tan/yellow secretions 04am increase rr/and decrease tv decrease sao2 91 patient c/o "can't breath" mouths words increase ps to 12 increase fio2 to 70% sao2 increase to 95 rr 22 tv improved</t>
         </is>
       </c>
       <c r="D32" t="n">
@@ -3287,12 +3132,12 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>(Timestamp('2160-12-26 18:06:00'), Timestamp('2160-12-26 18:25:00'))</t>
+          <t>(Timestamp('2103-01-04 04:35:00'), Timestamp('2103-01-04 04:50:00'))</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>{'text': 'patient appeared to sleep most of shift, would hold hand w/wife and squeeze hand when she told him she had to move and would occasionally open eyes when asked, no further answering ?s with nodding', 'event': ['Sleep', 'Family', 'Pain'], 'event_id': ['e1', 'e2', 'e3'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Sleep",\n      "text_quote": "patient appeared to sleep most of shift",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "Unknown",\n          "duration": "most of shift"\n        }\n      }\n    },\n    {\n      "event_id": "e2",\n      "event_type": "Family",\n      "text_quote": "would hold hand w/wife and squeeze hand when she told him she had to move",\n      "actor": "patient",\n      "object": "wife",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {\n          "interaction": "physical contact",\n          "relation": "wife"\n        }\n      }\n    },\n    {\n      "event_id": "e3",\n      "event_type": "Pain",\n      "text_quote": "no further answering ?s with nodding",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "Unknown",\n          "location": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    }\n  ],\n  "order": [\n    {\n      "event_id_1": "e1",\n      "relation": "simultaneous",\n      "event_id_2": "e2"\n    },\n    {\n      "event_id_1": "e2",\n      "relation": "after",\n      "event_id_2": "e3"\n    }\n  ]\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'most of shift'}}}, {'Family': {'Family': {'interaction': 'physical contact', 'relation': 'wife'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'simultaneous', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'after', 'event_id_2': 'e3'}]], 'text_quotes': ['patient appeared to sleep most of shift', 'would hold hand w/wife and squeeze hand when she told him she had to move', 'no further answering ?s with nodding'], 'event_time': ['Unknown', 'Unknown', 'Unknown'], 'negation': [False, False, True], 'caused_by': ['Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the Text at the end of this prompt into events that took place at the HOSPITAL, DURING THE SHIFT in which this text was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'An event is extracted from the text even if it is negated (e.g. "did not sleep"), but the respective negation attribute is set to True.\', \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n              \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n            ```\n           \n           \n           Text (written between 2160-12-26 18:06:00 and 2160-12-26 18:25:00):\n           patient appeared to sleep most of shift, would hold hand w/wife and squeeze hand when she told him she had to move and would occasionally open eyes when asked, no further answering ?s with nodding\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient', 'patient'], 'event_detection_time': 12.421605160227045}</t>
+          <t>{'text': 'patient anxious c/o pain med with morphine with relief trazadone hs for sleep with effectbp labile neo drops increased /cvp 13-15continues with copious amounts of thick tan/yellow secretions 04am increase rr/and decrease tv decrease sao2 91 patient c/o "can\'t breath" mouths words increase ps to 12 increase fio2 to 70% sao2 increase to 95 rr 22 tv improved', 'event': ['Pain', 'Sleep', 'Excretion', 'Pain'], 'event_id': ['e1', 'e2', 'e3', 'e4'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Pain",\n      "text_quote": "patient anxious c/o pain med with morphine with relief",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "Unknown",\n          "location": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e2",\n      "event_type": "Sleep",\n      "text_quote": "trazadone hs for sleep with effect",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e3",\n      "event_type": "Excretion",\n      "text_quote": "continues with copious amounts of thick tan/yellow secretions",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "secretions",\n          "frequency": "copious amounts",\n          "quality": "thick tan/yellow"\n        }\n      }\n    },\n    {\n      "event_id": "e4",\n      "event_type": "Pain",\n      "text_quote": "patient c/o \\"can\'t breath\\"",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "Unknown",\n          "location": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    }\n  ],\n  "order": [\n    {\n      "event_id_1": "e1",\n      "relation": "before",\n      "event_id_2": "e2"\n    },\n    {\n      "event_id_1": "e2",\n      "relation": "before",\n      "event_id_2": "e3"\n    },\n    {\n      "event_id_1": "e3",\n      "relation": "before",\n      "event_id_2": "e4"\n    }\n  ]\n}', 'attributes': [{'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Excretion': {'Excretion': {'type': 'secretions', 'frequency': 'copious amounts', 'quality': 'thick tan/yellow'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'before', 'event_id_2': 'e3'}, {'event_id_1': 'e3', 'relation': 'before', 'event_id_2': 'e4'}]], 'text_quotes': ['patient anxious c/o pain med with morphine with relief', 'trazadone hs for sleep with effect', 'continues with copious amounts of thick tan/yellow secretions', 'patient c/o "can\'t breath"'], 'event_time': ['Unknown', 'Unknown', 'Unknown', 'Unknown'], 'negation': [False, False, False, False], 'caused_by': ['Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the Text at the end of this prompt into events that took place at the HOSPITAL, DURING THE SHIFT in which this text was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'An event is extracted from the text even if it is negated (e.g. "did not sleep"), but the respective negation attribute is set to True.\', \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n              \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n            ```\n           \n           \n           Text (written between 2103-01-04 04:35:00 and 2103-01-04 04:50:00):\n           patient anxious c/o pain med with morphine with relief trazadone hs for sleep with effectbp labile neo drops increased /cvp 13-15continues with copious amounts of thick tan/yellow secretions 04am increase rr/and decrease tv decrease sao2 91 patient c/o "can\'t breath" mouths words increase ps to 12 increase fio2 to 70% sao2 increase to 95 rr 22 tv improved\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient', 'patient', 'patient'], 'event_detection_time': 17.085101284086704}</t>
         </is>
       </c>
       <c r="H32" t="n">
@@ -3312,7 +3157,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>['patient appeared to sleep most of shift']</t>
+          <t>['trazadone hs for sleep with effect']</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -3322,52 +3167,47 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'most of shift'}}}]</t>
+          <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>['Sleep', 'Family', 'Pain']</t>
+          <t>['Pain', 'Sleep', 'Excretion', 'Pain']</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>['patient', 'patient', 'patient']</t>
+          <t>[{'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Excretion': {'Excretion': {'type': 'secretions', 'frequency': 'copious amounts', 'quality': 'thick tan/yellow'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'most of shift'}}}, {'Family': {'Family': {'interaction': 'physical contact', 'relation': 'wife'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}]</t>
+          <t>['patient anxious c/o pain med with morphine with relief', 'trazadone hs for sleep with effect', 'continues with copious amounts of thick tan/yellow secretions', 'patient c/o "can\'t breath"']</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>['patient appeared to sleep most of shift', 'would hold hand w/wife and squeeze hand when she told him she had to move', 'no further answering ?s with nodding']</t>
+          <t>['e1=Pain|1:patient anxious c/o pain med with morphine with relief', 'e2=Sleep|1:trazadone hs for sleep with effect', 'e3=Excretion|1:continues with copious amounts of thick tan/yellow secretions', 'e4=Pain|1:patient c/o "can\'t breath"']</t>
         </is>
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>['e1=Sleep|1:patient appeared to sleep most of shift', 'e2=Family|1:would hold hand w/wife and squeeze hand when she told him she had to move', 'e3=Pain|1:no further answering ?s with nodding']</t>
-        </is>
-      </c>
-      <c r="U32" t="inlineStr">
-        <is>
-          <t>[[{'event_id_1': 'e1', 'relation': 'simultaneous', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'after', 'event_id_2': 'e3'}]]</t>
+          <t>[[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'before', 'event_id_2': 'e3'}, {'event_id_1': 'e3', 'relation': 'before', 'event_id_2': 'e4'}]]</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>3304_1304618_0000</t>
+          <t>19814_1522561_0004</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>patient anxious c/o pain med with morphine with relief trazadone hs for sleep with effectbp labile neo drops increased /cvp 13-15continues with copious amounts of thick tan/yellow secretions 04am increase rr/and decrease tv decrease sao2 91 patient c/o "can't breath" mouths words increase ps to 12 increase fio2 to 70% sao2 increase to 95 rr 22 tv improved</t>
+          <t>back pain improved and patient sleeping</t>
         </is>
       </c>
       <c r="D33" t="n">
@@ -3378,12 +3218,12 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>(Timestamp('2103-01-04 04:35:00'), Timestamp('2103-01-04 04:50:00'))</t>
+          <t>(Timestamp('2192-04-18 15:17:00'), Timestamp('2192-04-18 15:19:00'))</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>{'text': 'patient anxious c/o pain med with morphine with relief trazadone hs for sleep with effectbp labile neo drops increased /cvp 13-15continues with copious amounts of thick tan/yellow secretions 04am increase rr/and decrease tv decrease sao2 91 patient c/o "can\'t breath" mouths words increase ps to 12 increase fio2 to 70% sao2 increase to 95 rr 22 tv improved', 'event': ['Pain', 'Sleep', 'Excretion', 'Pain'], 'event_id': ['e1', 'e2', 'e3', 'e4'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Pain",\n      "text_quote": "patient anxious c/o pain med with morphine with relief",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "Unknown",\n          "location": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e2",\n      "event_type": "Sleep",\n      "text_quote": "trazadone hs for sleep with effect",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e3",\n      "event_type": "Excretion",\n      "text_quote": "continues with copious amounts of thick tan/yellow secretions",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "secretions",\n          "frequency": "copious amounts",\n          "quality": "thick tan/yellow"\n        }\n      }\n    },\n    {\n      "event_id": "e4",\n      "event_type": "Pain",\n      "text_quote": "patient c/o \\"can\'t breath\\"",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "Unknown",\n          "location": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    }\n  ],\n  "order": [\n    {\n      "event_id_1": "e1",\n      "relation": "before",\n      "event_id_2": "e2"\n    },\n    {\n      "event_id_1": "e2",\n      "relation": "before",\n      "event_id_2": "e3"\n    },\n    {\n      "event_id_1": "e3",\n      "relation": "before",\n      "event_id_2": "e4"\n    }\n  ]\n}', 'attributes': [{'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Excretion': {'Excretion': {'type': 'secretions', 'frequency': 'copious amounts', 'quality': 'thick tan/yellow'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'before', 'event_id_2': 'e3'}, {'event_id_1': 'e3', 'relation': 'before', 'event_id_2': 'e4'}]], 'text_quotes': ['patient anxious c/o pain med with morphine with relief', 'trazadone hs for sleep with effect', 'continues with copious amounts of thick tan/yellow secretions', 'patient c/o "can\'t breath"'], 'event_time': ['Unknown', 'Unknown', 'Unknown', 'Unknown'], 'negation': [False, False, False, False], 'caused_by': ['Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the Text at the end of this prompt into events that took place at the HOSPITAL, DURING THE SHIFT in which this text was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'An event is extracted from the text even if it is negated (e.g. "did not sleep"), but the respective negation attribute is set to True.\', \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n              \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n            ```\n           \n           \n           Text (written between 2103-01-04 04:35:00 and 2103-01-04 04:50:00):\n           patient anxious c/o pain med with morphine with relief trazadone hs for sleep with effectbp labile neo drops increased /cvp 13-15continues with copious amounts of thick tan/yellow secretions 04am increase rr/and decrease tv decrease sao2 91 patient c/o "can\'t breath" mouths words increase ps to 12 increase fio2 to 70% sao2 increase to 95 rr 22 tv improved\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient', 'patient', 'patient'], 'event_detection_time': 17.085101284086704}</t>
+          <t>{'text': 'back pain improved and patient sleeping', 'event': ['Pain', 'Sleep'], 'event_id': ['e1', 'e2'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Pain",\n      "text_quote": "back pain improved",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "improved",\n          "location": "back",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e2",\n      "event_type": "Sleep",\n      "text_quote": "patient sleeping",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    }\n  ],\n  "order": [\n    {\n      "event_id_1": "e2",\n      "relation": "after",\n      "event_id_2": "e1"\n    }\n  ]\n}', 'attributes': [{'Pain': {'Pain': {'severity': 'improved', 'location': 'back', 'duration': 'Unknown'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}], 'orders': [[{'event_id_1': 'e2', 'relation': 'after', 'event_id_2': 'e1'}]], 'text_quotes': ['back pain improved', 'patient sleeping'], 'event_time': ['Unknown', 'Unknown'], 'negation': [False, False], 'caused_by': ['Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the Text at the end of this prompt into events that took place at the HOSPITAL, DURING THE SHIFT in which this text was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'An event is extracted from the text even if it is negated (e.g. "did not sleep"), but the respective negation attribute is set to True.\', \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n              \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n            ```\n           \n           \n           Text (written between 2192-04-18 15:17:00 and 2192-04-18 15:19:00):\n           back pain improved and patient sleeping\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient'], 'event_detection_time': 7.74702328001149}</t>
         </is>
       </c>
       <c r="H33" t="n">
@@ -3403,7 +3243,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>['trazadone hs for sleep with effect']</t>
+          <t>['patient sleeping']</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -3418,47 +3258,42 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>['Pain', 'Sleep', 'Excretion', 'Pain']</t>
+          <t>['Pain', 'Sleep']</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>['patient', 'patient', 'patient', 'patient']</t>
+          <t>[{'Pain': {'Pain': {'severity': 'improved', 'location': 'back', 'duration': 'Unknown'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>[{'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Excretion': {'Excretion': {'type': 'secretions', 'frequency': 'copious amounts', 'quality': 'thick tan/yellow'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}]</t>
+          <t>['back pain improved', 'patient sleeping']</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>['patient anxious c/o pain med with morphine with relief', 'trazadone hs for sleep with effect', 'continues with copious amounts of thick tan/yellow secretions', 'patient c/o "can\'t breath"']</t>
+          <t>['e1=Pain|1:back pain improved', 'e2=Sleep|1:patient sleeping']</t>
         </is>
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>['e1=Pain|1:patient anxious c/o pain med with morphine with relief', 'e2=Sleep|1:trazadone hs for sleep with effect', 'e3=Excretion|1:continues with copious amounts of thick tan/yellow secretions', 'e4=Pain|1:patient c/o "can\'t breath"']</t>
-        </is>
-      </c>
-      <c r="U33" t="inlineStr">
-        <is>
-          <t>[[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'before', 'event_id_2': 'e3'}, {'event_id_1': 'e3', 'relation': 'before', 'event_id_2': 'e4'}]]</t>
+          <t>[[{'event_id_1': 'e2', 'relation': 'after', 'event_id_2': 'e1'}]]</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>291</v>
+        <v>325</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>19814_1522561_0004</t>
+          <t>2238_1291323_0009</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>back pain improved and patient sleeping</t>
+          <t>slept poorly in short naps</t>
         </is>
       </c>
       <c r="D34" t="n">
@@ -3469,12 +3304,12 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>(Timestamp('2192-04-18 15:17:00'), Timestamp('2192-04-18 15:19:00'))</t>
+          <t>(Timestamp('2136-04-02 06:04:00'), Timestamp('2136-04-02 06:34:00'))</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>{'text': 'back pain improved and patient sleeping', 'event': ['Pain', 'Sleep'], 'event_id': ['e1', 'e2'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Pain",\n      "text_quote": "back pain improved",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "improved",\n          "location": "back",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e2",\n      "event_type": "Sleep",\n      "text_quote": "patient sleeping",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    }\n  ],\n  "order": [\n    {\n      "event_id_1": "e2",\n      "relation": "after",\n      "event_id_2": "e1"\n    }\n  ]\n}', 'attributes': [{'Pain': {'Pain': {'severity': 'improved', 'location': 'back', 'duration': 'Unknown'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}], 'orders': [[{'event_id_1': 'e2', 'relation': 'after', 'event_id_2': 'e1'}]], 'text_quotes': ['back pain improved', 'patient sleeping'], 'event_time': ['Unknown', 'Unknown'], 'negation': [False, False], 'caused_by': ['Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the Text at the end of this prompt into events that took place at the HOSPITAL, DURING THE SHIFT in which this text was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'An event is extracted from the text even if it is negated (e.g. "did not sleep"), but the respective negation attribute is set to True.\', \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n              \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n            ```\n           \n           \n           Text (written between 2192-04-18 15:17:00 and 2192-04-18 15:19:00):\n           back pain improved and patient sleeping\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient'], 'event_detection_time': 7.74702328001149}</t>
+          <t>{'text': 'slept poorly in short naps', 'event': ['Sleep'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Sleep",\n      "text_quote": "slept poorly in short naps",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "poor",\n          "duration": "short"\n        }\n      }\n    }\n  ],\n  "order": []\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'poor', 'duration': 'short'}}}], 'orders': [[]], 'text_quotes': ['slept poorly in short naps'], 'event_time': ['Unknown'], 'negation': [False], 'caused_by': ['Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the Text at the end of this prompt into events that took place at the HOSPITAL, DURING THE SHIFT in which this text was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'An event is extracted from the text even if it is negated (e.g. "did not sleep"), but the respective negation attribute is set to True.\', \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n              \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n            ```\n           \n           \n           Text (written between 2136-04-02 06:04:00 and 2136-04-02 06:34:00):\n           slept poorly in short naps\n        ', 'case_attributes': [[]], 'actor': ['patient'], 'event_detection_time': 3.8043049392290413}</t>
         </is>
       </c>
       <c r="H34" t="n">
@@ -3494,7 +3329,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>['patient sleeping']</t>
+          <t>['slept poorly in short naps']</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -3504,52 +3339,47 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
+          <t>[{'Sleep': {'Sleep': {'quality': 'poor', 'duration': 'short'}}}]</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>['Pain', 'Sleep']</t>
+          <t>['Sleep']</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>['patient', 'patient']</t>
+          <t>[{'Sleep': {'Sleep': {'quality': 'poor', 'duration': 'short'}}}]</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>[{'Pain': {'Pain': {'severity': 'improved', 'location': 'back', 'duration': 'Unknown'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
+          <t>['slept poorly in short naps']</t>
         </is>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>['back pain improved', 'patient sleeping']</t>
+          <t>['e1=Sleep|1:slept poorly in short naps']</t>
         </is>
       </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t>['e1=Pain|1:back pain improved', 'e2=Sleep|1:patient sleeping']</t>
-        </is>
-      </c>
-      <c r="U34" t="inlineStr">
-        <is>
-          <t>[[{'event_id_1': 'e2', 'relation': 'after', 'event_id_2': 'e1'}]]</t>
+          <t>[[]]</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2238_1291323_0009</t>
+          <t>19950_1524854_0003</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>slept poorly in short naps</t>
+          <t>slept most of night</t>
         </is>
       </c>
       <c r="D35" t="n">
@@ -3560,12 +3390,12 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>(Timestamp('2136-04-02 06:04:00'), Timestamp('2136-04-02 06:34:00'))</t>
+          <t>(Timestamp('2116-04-27 04:22:00'), Timestamp('2116-04-27 04:53:00'))</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>{'text': 'slept poorly in short naps', 'event': ['Sleep'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Sleep",\n      "text_quote": "slept poorly in short naps",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "poor",\n          "duration": "short"\n        }\n      }\n    }\n  ],\n  "order": []\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'poor', 'duration': 'short'}}}], 'orders': [[]], 'text_quotes': ['slept poorly in short naps'], 'event_time': ['Unknown'], 'negation': [False], 'caused_by': ['Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the Text at the end of this prompt into events that took place at the HOSPITAL, DURING THE SHIFT in which this text was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'An event is extracted from the text even if it is negated (e.g. "did not sleep"), but the respective negation attribute is set to True.\', \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n              \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n            ```\n           \n           \n           Text (written between 2136-04-02 06:04:00 and 2136-04-02 06:34:00):\n           slept poorly in short naps\n        ', 'case_attributes': [[]], 'actor': ['patient'], 'event_detection_time': 3.8043049392290413}</t>
+          <t>{'text': 'slept most of night', 'event': ['Sleep'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Sleep",\n      "text_quote": "slept most of night",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "night",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "good",\n          "duration": "most"\n        }\n      }\n    }\n  ],\n  "order": []\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'good', 'duration': 'most'}}}], 'orders': [[]], 'text_quotes': ['slept most of night'], 'event_time': ['night'], 'negation': [False], 'caused_by': ['Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the Text at the end of this prompt into events that took place at the HOSPITAL, DURING THE SHIFT in which this text was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'An event is extracted from the text even if it is negated (e.g. "did not sleep"), but the respective negation attribute is set to True.\', \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n              \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n            ```\n           \n           \n           Text (written between 2116-04-27 04:22:00 and 2116-04-27 04:53:00):\n           slept most of night\n        ', 'case_attributes': [[]], 'actor': ['patient'], 'event_detection_time': 3.709589494159445}</t>
         </is>
       </c>
       <c r="H35" t="n">
@@ -3585,7 +3415,7 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>['slept poorly in short naps']</t>
+          <t>['slept most of night']</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
@@ -3595,7 +3425,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>[{'Sleep': {'Sleep': {'quality': 'poor', 'duration': 'short'}}}]</t>
+          <t>[{'Sleep': {'Sleep': {'quality': 'good', 'duration': 'most'}}}]</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
@@ -3605,25 +3435,20 @@
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>['patient']</t>
+          <t>[{'Sleep': {'Sleep': {'quality': 'good', 'duration': 'most'}}}]</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>[{'Sleep': {'Sleep': {'quality': 'poor', 'duration': 'short'}}}]</t>
+          <t>['slept most of night']</t>
         </is>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>['slept poorly in short naps']</t>
+          <t>['e1=Sleep|1:slept most of night']</t>
         </is>
       </c>
       <c r="T35" t="inlineStr">
-        <is>
-          <t>['e1=Sleep|1:slept poorly in short naps']</t>
-        </is>
-      </c>
-      <c r="U35" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -3631,16 +3456,16 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>19950_1524854_0003</t>
+          <t>8313_1372364_0002</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>slept most of night</t>
+          <t>slept well in long naps</t>
         </is>
       </c>
       <c r="D36" t="n">
@@ -3651,12 +3476,12 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>(Timestamp('2116-04-27 04:22:00'), Timestamp('2116-04-27 04:53:00'))</t>
+          <t>(Timestamp('2144-08-29 05:02:00'), Timestamp('2144-08-29 05:07:00'))</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>{'text': 'slept most of night', 'event': ['Sleep'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Sleep",\n      "text_quote": "slept most of night",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "night",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "good",\n          "duration": "most"\n        }\n      }\n    }\n  ],\n  "order": []\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'good', 'duration': 'most'}}}], 'orders': [[]], 'text_quotes': ['slept most of night'], 'event_time': ['night'], 'negation': [False], 'caused_by': ['Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the Text at the end of this prompt into events that took place at the HOSPITAL, DURING THE SHIFT in which this text was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'An event is extracted from the text even if it is negated (e.g. "did not sleep"), but the respective negation attribute is set to True.\', \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n              \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n            ```\n           \n           \n           Text (written between 2116-04-27 04:22:00 and 2116-04-27 04:53:00):\n           slept most of night\n        ', 'case_attributes': [[]], 'actor': ['patient'], 'event_detection_time': 3.709589494159445}</t>
+          <t>{'text': 'slept well in long naps', 'event': ['Sleep'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Sleep",\n      "text_quote": "slept well in long naps",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "well",\n          "duration": "long"\n        }\n      }\n    }\n  ],\n  "order": []\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'well', 'duration': 'long'}}}], 'orders': [[]], 'text_quotes': ['slept well in long naps'], 'event_time': ['Unknown'], 'negation': [False], 'caused_by': ['Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the Text at the end of this prompt into events that took place at the HOSPITAL, DURING THE SHIFT in which this text was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'An event is extracted from the text even if it is negated (e.g. "did not sleep"), but the respective negation attribute is set to True.\', \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n              \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n            ```\n           \n           \n           Text (written between 2144-08-29 05:02:00 and 2144-08-29 05:07:00):\n           slept well in long naps\n        ', 'case_attributes': [[]], 'actor': ['patient'], 'event_detection_time': 3.7703714731615037}</t>
         </is>
       </c>
       <c r="H36" t="n">
@@ -3676,7 +3501,7 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>['slept most of night']</t>
+          <t>['slept well in long naps']</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
@@ -3686,7 +3511,7 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>[{'Sleep': {'Sleep': {'quality': 'good', 'duration': 'most'}}}]</t>
+          <t>[{'Sleep': {'Sleep': {'quality': 'well', 'duration': 'long'}}}]</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
@@ -3696,25 +3521,20 @@
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>['patient']</t>
+          <t>[{'Sleep': {'Sleep': {'quality': 'well', 'duration': 'long'}}}]</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>[{'Sleep': {'Sleep': {'quality': 'good', 'duration': 'most'}}}]</t>
+          <t>['slept well in long naps']</t>
         </is>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>['slept most of night']</t>
+          <t>['e1=Sleep|1:slept well in long naps']</t>
         </is>
       </c>
       <c r="T36" t="inlineStr">
-        <is>
-          <t>['e1=Sleep|1:slept most of night']</t>
-        </is>
-      </c>
-      <c r="U36" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -3722,16 +3542,16 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>330</v>
+        <v>344</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>8313_1372364_0002</t>
+          <t>23318_1566972_0010</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>slept well in long naps</t>
+          <t>around midnight patient with occassional pvc's while asleep- no symptoms noted</t>
         </is>
       </c>
       <c r="D37" t="n">
@@ -3742,12 +3562,12 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>(Timestamp('2144-08-29 05:02:00'), Timestamp('2144-08-29 05:07:00'))</t>
+          <t>(Timestamp('2147-09-16 04:32:00'), Timestamp('2147-09-16 04:50:00'))</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>{'text': 'slept well in long naps', 'event': ['Sleep'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Sleep",\n      "text_quote": "slept well in long naps",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "well",\n          "duration": "long"\n        }\n      }\n    }\n  ],\n  "order": []\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'well', 'duration': 'long'}}}], 'orders': [[]], 'text_quotes': ['slept well in long naps'], 'event_time': ['Unknown'], 'negation': [False], 'caused_by': ['Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the Text at the end of this prompt into events that took place at the HOSPITAL, DURING THE SHIFT in which this text was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'An event is extracted from the text even if it is negated (e.g. "did not sleep"), but the respective negation attribute is set to True.\', \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n              \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n            ```\n           \n           \n           Text (written between 2144-08-29 05:02:00 and 2144-08-29 05:07:00):\n           slept well in long naps\n        ', 'case_attributes': [[]], 'actor': ['patient'], 'event_detection_time': 3.7703714731615037}</t>
+          <t>{'text': "around midnight patient with occassional pvc's while asleep- no symptoms noted", 'event': ['Sleep', 'Pain'], 'event_id': ['e1', 'e2'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Sleep",\n      "text_quote": "around midnight patient with occassional pvc\'s while asleep",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "midnight",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "poor"\n        }\n      }\n    },\n    {\n      "event_id": "e2",\n      "event_type": "Pain",\n      "text_quote": "no symptoms noted",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {}\n      }\n    }\n  ],\n  "order": [\n    {\n      "event_id_1": "e1",\n      "relation": "before",\n      "event_id_2": "e2"\n    }\n  ]\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'poor'}}}, {'Pain': {'Pain': {}}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}]], 'text_quotes': ["around midnight patient with occassional pvc's while asleep", 'no symptoms noted'], 'event_time': ['midnight', 'Unknown'], 'negation': [False, True], 'caused_by': ['Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the Text at the end of this prompt into events that took place at the HOSPITAL, DURING THE SHIFT in which this text was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'An event is extracted from the text even if it is negated (e.g. "did not sleep"), but the respective negation attribute is set to True.\', \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n              \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n            ```\n           \n           \n           Text (written between 2147-09-16 04:32:00 and 2147-09-16 04:50:00):\n           around midnight patient with occassional pvc\'s while asleep- no symptoms noted\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient'], 'event_detection_time': 7.200789452996105}</t>
         </is>
       </c>
       <c r="H37" t="n">
@@ -3767,7 +3587,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>['slept well in long naps']</t>
+          <t>["around midnight patient with occassional pvc's while asleep"]</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -3777,52 +3597,47 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>[{'Sleep': {'Sleep': {'quality': 'well', 'duration': 'long'}}}]</t>
+          <t>[{'Sleep': {'Sleep': {'quality': 'poor'}}}]</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>['Sleep']</t>
+          <t>['Sleep', 'Pain']</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>['patient']</t>
+          <t>[{'Sleep': {'Sleep': {'quality': 'poor'}}}, {'Pain': {'Pain': {}}}]</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>[{'Sleep': {'Sleep': {'quality': 'well', 'duration': 'long'}}}]</t>
+          <t>["around midnight patient with occassional pvc's while asleep", 'no symptoms noted']</t>
         </is>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>['slept well in long naps']</t>
+          <t>["e1=Sleep|1:around midnight patient with occassional pvc's while asleep", 'e2=Pain|1:no symptoms noted']</t>
         </is>
       </c>
       <c r="T37" t="inlineStr">
         <is>
-          <t>['e1=Sleep|1:slept well in long naps']</t>
-        </is>
-      </c>
-      <c r="U37" t="inlineStr">
-        <is>
-          <t>[[]]</t>
+          <t>[[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}]]</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>344</v>
+        <v>355</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>23318_1566972_0010</t>
+          <t>27656_1623968_0005</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>around midnight patient with occassional pvc's while asleep- no symptoms noted</t>
+          <t>: ls clear, weak cough, maintans so2&gt;96 on 2lnc, falls to 91-92 while asleep and requires flow up to 5lnc</t>
         </is>
       </c>
       <c r="D38" t="n">
@@ -3833,12 +3648,12 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>(Timestamp('2147-09-16 04:32:00'), Timestamp('2147-09-16 04:50:00'))</t>
+          <t>(Timestamp('2137-07-10 05:18:00'), Timestamp('2137-07-10 05:31:00'))</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>{'text': "around midnight patient with occassional pvc's while asleep- no symptoms noted", 'event': ['Sleep', 'Pain'], 'event_id': ['e1', 'e2'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Sleep",\n      "text_quote": "around midnight patient with occassional pvc\'s while asleep",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "midnight",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "poor"\n        }\n      }\n    },\n    {\n      "event_id": "e2",\n      "event_type": "Pain",\n      "text_quote": "no symptoms noted",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {}\n      }\n    }\n  ],\n  "order": [\n    {\n      "event_id_1": "e1",\n      "relation": "before",\n      "event_id_2": "e2"\n    }\n  ]\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'poor'}}}, {'Pain': {'Pain': {}}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}]], 'text_quotes': ["around midnight patient with occassional pvc's while asleep", 'no symptoms noted'], 'event_time': ['midnight', 'Unknown'], 'negation': [False, True], 'caused_by': ['Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the Text at the end of this prompt into events that took place at the HOSPITAL, DURING THE SHIFT in which this text was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'An event is extracted from the text even if it is negated (e.g. "did not sleep"), but the respective negation attribute is set to True.\', \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n              \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n            ```\n           \n           \n           Text (written between 2147-09-16 04:32:00 and 2147-09-16 04:50:00):\n           around midnight patient with occassional pvc\'s while asleep- no symptoms noted\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient'], 'event_detection_time': 7.200789452996105}</t>
+          <t>{'text': ': ls clear, weak cough, maintans so2&gt;96 on 2lnc, falls to 91-92 while asleep and requires flow up to 5lnc', 'event': ['Sleep', 'Excretion', 'Pain', 'Eating', 'Family'], 'event_id': ['e1', 'e2', 'e3', 'e4', 'e5'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Sleep",\n      "text_quote": "falls to 91-92 while asleep",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "poor"\n        }\n      }\n    },\n    {\n      "event_id": "e2",\n      "event_type": "Excretion",\n      "text_quote": "",\n      "actor": "",\n      "object": "",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {}\n    },\n    {\n      "event_id": "e3",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "",\n      "object": "",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {}\n    },\n    {\n      "event_id": "e4",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "",\n      "object": "",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {}\n    },\n    {\n      "event_id": "e5",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "",\n      "object": "",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {}\n    }\n  ],\n  "order": [\n    {\n      "event_id_1": "e1",\n      "relation": "unknown",\n      "event_id_2": ""\n    }\n  ]\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'poor'}}}, {'Excretion': {}}, {'Pain': {}}, {'Eating': {}}, {'Family': {}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'unknown', 'event_id_2': ''}]], 'text_quotes': ['falls to 91-92 while asleep', '', '', '', ''], 'event_time': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'negation': [False, True, True, True, True], 'caused_by': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the Text at the end of this prompt into events that took place at the HOSPITAL, DURING THE SHIFT in which this text was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'An event is extracted from the text even if it is negated (e.g. "did not sleep"), but the respective negation attribute is set to True.\', \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n              \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n            ```\n           \n           \n           Text (written between 2137-07-10 05:18:00 and 2137-07-10 05:31:00):\n           : ls clear, weak cough, maintans so2&gt;96 on 2lnc, falls to 91-92 while asleep and requires flow up to 5lnc\n        ', 'case_attributes': [[]], 'actor': ['patient', '', '', '', ''], 'event_detection_time': 12.385335685918108}</t>
         </is>
       </c>
       <c r="H38" t="n">
@@ -3858,7 +3673,7 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>["around midnight patient with occassional pvc's while asleep"]</t>
+          <t>['falls to 91-92 while asleep']</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -3873,47 +3688,42 @@
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>['Sleep', 'Pain']</t>
+          <t>['Sleep', 'Excretion', 'Pain', 'Eating', 'Family']</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>['patient', 'patient']</t>
+          <t>[{'Sleep': {'Sleep': {'quality': 'poor'}}}, {'Excretion': {}}, {'Pain': {}}, {'Eating': {}}, {'Family': {}}]</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>[{'Sleep': {'Sleep': {'quality': 'poor'}}}, {'Pain': {'Pain': {}}}]</t>
+          <t>['falls to 91-92 while asleep', '', '', '', '']</t>
         </is>
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>["around midnight patient with occassional pvc's while asleep", 'no symptoms noted']</t>
+          <t>['e1=Sleep|1:falls to 91-92 while asleep', 'e2=Excretion|1:', 'e3=Pain|1:', 'e4=Eating|1:', 'e5=Family|1:']</t>
         </is>
       </c>
       <c r="T38" t="inlineStr">
         <is>
-          <t>["e1=Sleep|1:around midnight patient with occassional pvc's while asleep", 'e2=Pain|1:no symptoms noted']</t>
-        </is>
-      </c>
-      <c r="U38" t="inlineStr">
-        <is>
-          <t>[[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}]]</t>
+          <t>[[{'event_id_1': 'e1', 'relation': 'unknown', 'event_id_2': ''}]]</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>27656_1623968_0005</t>
+          <t>27467_1621531_0010</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>: ls clear, weak cough, maintans so2&gt;96 on 2lnc, falls to 91-92 while asleep and requires flow up to 5lnc</t>
+          <t>5mg ir oxycodone for breakthrough pain -patient sleeping on reassesment, complete relief of pain-when aware pain returning - "tolerable" managed with percocet</t>
         </is>
       </c>
       <c r="D39" t="n">
@@ -3924,12 +3734,12 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>(Timestamp('2137-07-10 05:18:00'), Timestamp('2137-07-10 05:31:00'))</t>
+          <t>(Timestamp('2170-08-13 16:36:00'), Timestamp('2170-08-13 17:00:00'))</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>{'text': ': ls clear, weak cough, maintans so2&gt;96 on 2lnc, falls to 91-92 while asleep and requires flow up to 5lnc', 'event': ['Sleep', 'Excretion', 'Pain', 'Eating', 'Family'], 'event_id': ['e1', 'e2', 'e3', 'e4', 'e5'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Sleep",\n      "text_quote": "falls to 91-92 while asleep",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "poor"\n        }\n      }\n    },\n    {\n      "event_id": "e2",\n      "event_type": "Excretion",\n      "text_quote": "",\n      "actor": "",\n      "object": "",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {}\n    },\n    {\n      "event_id": "e3",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "",\n      "object": "",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {}\n    },\n    {\n      "event_id": "e4",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "",\n      "object": "",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {}\n    },\n    {\n      "event_id": "e5",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "",\n      "object": "",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {}\n    }\n  ],\n  "order": [\n    {\n      "event_id_1": "e1",\n      "relation": "unknown",\n      "event_id_2": ""\n    }\n  ]\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'poor'}}}, {'Excretion': {}}, {'Pain': {}}, {'Eating': {}}, {'Family': {}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'unknown', 'event_id_2': ''}]], 'text_quotes': ['falls to 91-92 while asleep', '', '', '', ''], 'event_time': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'negation': [False, True, True, True, True], 'caused_by': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the Text at the end of this prompt into events that took place at the HOSPITAL, DURING THE SHIFT in which this text was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'An event is extracted from the text even if it is negated (e.g. "did not sleep"), but the respective negation attribute is set to True.\', \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n              \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n            ```\n           \n           \n           Text (written between 2137-07-10 05:18:00 and 2137-07-10 05:31:00):\n           : ls clear, weak cough, maintans so2&gt;96 on 2lnc, falls to 91-92 while asleep and requires flow up to 5lnc\n        ', 'case_attributes': [[]], 'actor': ['patient', '', '', '', ''], 'event_detection_time': 12.385335685918108}</t>
+          <t>{'text': '5mg ir oxycodone for breakthrough pain -patient sleeping on reassesment, complete relief of pain-when aware pain returning - "tolerable" managed with percocet', 'event': ['Pain', 'Sleep', 'Pain', 'Eating', 'Excretion', 'Family', 'Unknown'], 'event_id': ['e1', 'e2', 'e3', 'e4', 'e5', 'e6', 'e7'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Pain",\n      "text_quote": "5mg ir oxycodone for breakthrough pain -patient sleeping on reassesment, complete relief of pain-when aware pain returning - \\"tolerable\\" managed with percocet",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "breakthrough, tolerable",\n          "location": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e2",\n      "event_type": "Sleep",\n      "text_quote": "-patient sleeping on reassesment, complete relief of pain-when aware pain returning - \\"tolerable\\" managed with percocet",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "e1",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e3",\n      "event_type": "Pain",\n      "text_quote": "-when aware pain returning - \\"tolerable\\" managed with percocet",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "e2",\n      "event_attributes": {\n        "Pain": {\n          "severity": "tolerable",\n          "location": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e4",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {\n          "food": "",\n          "amount": "",\n          "method": ""\n        }\n      }\n    },\n    {\n      "event_id": "e5",\n      "event_type": "Excretion",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "",\n          "frequency": "",\n          "quality": ""\n        }\n      }\n    },\n    {\n      "event_id": "e6",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {\n          "interaction": "",\n          "relation": ""\n        }\n      }\n    },\n    {\n      "event_id": "e7",\n      "event_type": "Unknown",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {}\n    }\n  ],\n  "order": [\n    {\n      "event_id_1": "e1",\n      "relation": "before",\n      "event_id_2": "e2"\n    },\n    {\n      "event_id_1": "e2",\n      "relation": "before",\n      "event_id_2": "e3"\n    }\n  ]\n}', 'attributes': [{'Pain': {'Pain': {'severity': 'breakthrough, tolerable', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Pain': {'Pain': {'severity': 'tolerable', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Eating': {'Eating': {'food': '', 'amount': '', 'method': ''}}}, {'Excretion': {'Excretion': {'type': '', 'frequency': '', 'quality': ''}}}, {'Family': {'Family': {'interaction': '', 'relation': ''}}}, {'Unknown': {}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'before', 'event_id_2': 'e3'}]], 'text_quotes': ['5mg ir oxycodone for breakthrough pain -patient sleeping on reassesment, complete relief of pain-when aware pain returning - "tolerable" managed with percocet', '-patient sleeping on reassesment, complete relief of pain-when aware pain returning - "tolerable" managed with percocet', '-when aware pain returning - "tolerable" managed with percocet', '', '', '', ''], 'event_time': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'negation': [False, False, False, True, True, True, True], 'caused_by': ['Unknown', 'e1', 'e2', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the Text at the end of this prompt into events that took place at the HOSPITAL, DURING THE SHIFT in which this text was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'An event is extracted from the text even if it is negated (e.g. "did not sleep"), but the respective negation attribute is set to True.\', \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n              \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n            ```\n           \n           \n           Text (written between 2170-08-13 16:36:00 and 2170-08-13 17:00:00):\n           5mg ir oxycodone for breakthrough pain -patient sleeping on reassesment, complete relief of pain-when aware pain returning - "tolerable" managed with percocet\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient', 'patient', 'patient', 'patient', 'patient', 'patient'], 'event_detection_time': 24.436264917021617}</t>
         </is>
       </c>
       <c r="H39" t="n">
@@ -3949,7 +3759,7 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>['falls to 91-92 while asleep']</t>
+          <t>['-patient sleeping on reassesment, complete relief of pain-when aware pain returning - "tolerable" managed with percocet']</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
@@ -3959,52 +3769,47 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>[{'Sleep': {'Sleep': {'quality': 'poor'}}}]</t>
+          <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>['Sleep', 'Excretion', 'Pain', 'Eating', 'Family']</t>
+          <t>['Pain', 'Sleep', 'Pain', 'Eating', 'Excretion', 'Family', 'Unknown']</t>
         </is>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>['patient', '', '', '', '']</t>
+          <t>[{'Pain': {'Pain': {'severity': 'breakthrough, tolerable', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Pain': {'Pain': {'severity': 'tolerable', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Eating': {'Eating': {'food': '', 'amount': '', 'method': ''}}}, {'Excretion': {'Excretion': {'type': '', 'frequency': '', 'quality': ''}}}, {'Family': {'Family': {'interaction': '', 'relation': ''}}}, {'Unknown': {}}]</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>[{'Sleep': {'Sleep': {'quality': 'poor'}}}, {'Excretion': {}}, {'Pain': {}}, {'Eating': {}}, {'Family': {}}]</t>
+          <t>['5mg ir oxycodone for breakthrough pain -patient sleeping on reassesment, complete relief of pain-when aware pain returning - "tolerable" managed with percocet', '-patient sleeping on reassesment, complete relief of pain-when aware pain returning - "tolerable" managed with percocet', '-when aware pain returning - "tolerable" managed with percocet', '', '', '', '']</t>
         </is>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>['falls to 91-92 while asleep', '', '', '', '']</t>
+          <t>['e1=Pain|1:5mg ir oxycodone for breakthrough pain -patient sleeping on reassesment, complete relief of pain-when aware pain returning - "tolerable" managed with percocet', 'e2=Sleep|1:-patient sleeping on reassesment, complete relief of pain-when aware pain returning - "tolerable" managed with percocet', 'e3=Pain|1:-when aware pain returning - "tolerable" managed with percocet', 'e4=Eating|1:', 'e5=Excretion|1:', 'e6=Family|1:', 'e7=Unknown|1:']</t>
         </is>
       </c>
       <c r="T39" t="inlineStr">
         <is>
-          <t>['e1=Sleep|1:falls to 91-92 while asleep', 'e2=Excretion|1:', 'e3=Pain|1:', 'e4=Eating|1:', 'e5=Family|1:']</t>
-        </is>
-      </c>
-      <c r="U39" t="inlineStr">
-        <is>
-          <t>[[{'event_id_1': 'e1', 'relation': 'unknown', 'event_id_2': ''}]]</t>
+          <t>[[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'before', 'event_id_2': 'e3'}]]</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>357</v>
+        <v>371</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>27467_1621531_0010</t>
+          <t>7909_1367790_0012</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>5mg ir oxycodone for breakthrough pain -patient sleeping on reassesment, complete relief of pain-when aware pain returning - "tolerable" managed with percocet</t>
+          <t>able to sleep most of night</t>
         </is>
       </c>
       <c r="D40" t="n">
@@ -4015,12 +3820,12 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>(Timestamp('2170-08-13 16:36:00'), Timestamp('2170-08-13 17:00:00'))</t>
+          <t>(Timestamp('2189-11-18 04:20:00'), Timestamp('2189-11-18 04:28:00'))</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>{'text': '5mg ir oxycodone for breakthrough pain -patient sleeping on reassesment, complete relief of pain-when aware pain returning - "tolerable" managed with percocet', 'event': ['Pain', 'Sleep', 'Pain', 'Eating', 'Excretion', 'Family', 'Unknown'], 'event_id': ['e1', 'e2', 'e3', 'e4', 'e5', 'e6', 'e7'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Pain",\n      "text_quote": "5mg ir oxycodone for breakthrough pain -patient sleeping on reassesment, complete relief of pain-when aware pain returning - \\"tolerable\\" managed with percocet",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "breakthrough, tolerable",\n          "location": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e2",\n      "event_type": "Sleep",\n      "text_quote": "-patient sleeping on reassesment, complete relief of pain-when aware pain returning - \\"tolerable\\" managed with percocet",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "e1",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e3",\n      "event_type": "Pain",\n      "text_quote": "-when aware pain returning - \\"tolerable\\" managed with percocet",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "e2",\n      "event_attributes": {\n        "Pain": {\n          "severity": "tolerable",\n          "location": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e4",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {\n          "food": "",\n          "amount": "",\n          "method": ""\n        }\n      }\n    },\n    {\n      "event_id": "e5",\n      "event_type": "Excretion",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "",\n          "frequency": "",\n          "quality": ""\n        }\n      }\n    },\n    {\n      "event_id": "e6",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {\n          "interaction": "",\n          "relation": ""\n        }\n      }\n    },\n    {\n      "event_id": "e7",\n      "event_type": "Unknown",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {}\n    }\n  ],\n  "order": [\n    {\n      "event_id_1": "e1",\n      "relation": "before",\n      "event_id_2": "e2"\n    },\n    {\n      "event_id_1": "e2",\n      "relation": "before",\n      "event_id_2": "e3"\n    }\n  ]\n}', 'attributes': [{'Pain': {'Pain': {'severity': 'breakthrough, tolerable', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Pain': {'Pain': {'severity': 'tolerable', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Eating': {'Eating': {'food': '', 'amount': '', 'method': ''}}}, {'Excretion': {'Excretion': {'type': '', 'frequency': '', 'quality': ''}}}, {'Family': {'Family': {'interaction': '', 'relation': ''}}}, {'Unknown': {}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'before', 'event_id_2': 'e3'}]], 'text_quotes': ['5mg ir oxycodone for breakthrough pain -patient sleeping on reassesment, complete relief of pain-when aware pain returning - "tolerable" managed with percocet', '-patient sleeping on reassesment, complete relief of pain-when aware pain returning - "tolerable" managed with percocet', '-when aware pain returning - "tolerable" managed with percocet', '', '', '', ''], 'event_time': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'negation': [False, False, False, True, True, True, True], 'caused_by': ['Unknown', 'e1', 'e2', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the Text at the end of this prompt into events that took place at the HOSPITAL, DURING THE SHIFT in which this text was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'An event is extracted from the text even if it is negated (e.g. "did not sleep"), but the respective negation attribute is set to True.\', \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n              \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n            ```\n           \n           \n           Text (written between 2170-08-13 16:36:00 and 2170-08-13 17:00:00):\n           5mg ir oxycodone for breakthrough pain -patient sleeping on reassesment, complete relief of pain-when aware pain returning - "tolerable" managed with percocet\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient', 'patient', 'patient', 'patient', 'patient', 'patient'], 'event_detection_time': 24.436264917021617}</t>
+          <t>{'text': 'able to sleep most of night', 'event': ['Sleep'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Sleep",\n      "text_quote": "able to sleep most of night",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "night",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "good",\n          "duration": "most"\n        }\n      }\n    }\n  ],\n  "order": []\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'good', 'duration': 'most'}}}], 'orders': [[]], 'text_quotes': ['able to sleep most of night'], 'event_time': ['night'], 'negation': [False], 'caused_by': ['Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the Text at the end of this prompt into events that took place at the HOSPITAL, DURING THE SHIFT in which this text was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'An event is extracted from the text even if it is negated (e.g. "did not sleep"), but the respective negation attribute is set to True.\', \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n              \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n            ```\n           \n           \n           Text (written between 2189-11-18 04:20:00 and 2189-11-18 04:28:00):\n           able to sleep most of night\n        ', 'case_attributes': [[]], 'actor': ['patient'], 'event_detection_time': 3.698162592947483}</t>
         </is>
       </c>
       <c r="H40" t="n">
@@ -4040,7 +3845,7 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>['-patient sleeping on reassesment, complete relief of pain-when aware pain returning - "tolerable" managed with percocet']</t>
+          <t>['able to sleep most of night']</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -4050,52 +3855,47 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
+          <t>[{'Sleep': {'Sleep': {'quality': 'good', 'duration': 'most'}}}]</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>['Pain', 'Sleep', 'Pain', 'Eating', 'Excretion', 'Family', 'Unknown']</t>
+          <t>['Sleep']</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>['patient', 'patient', 'patient', 'patient', 'patient', 'patient', 'patient']</t>
+          <t>[{'Sleep': {'Sleep': {'quality': 'good', 'duration': 'most'}}}]</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>[{'Pain': {'Pain': {'severity': 'breakthrough, tolerable', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Pain': {'Pain': {'severity': 'tolerable', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Eating': {'Eating': {'food': '', 'amount': '', 'method': ''}}}, {'Excretion': {'Excretion': {'type': '', 'frequency': '', 'quality': ''}}}, {'Family': {'Family': {'interaction': '', 'relation': ''}}}, {'Unknown': {}}]</t>
+          <t>['able to sleep most of night']</t>
         </is>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>['5mg ir oxycodone for breakthrough pain -patient sleeping on reassesment, complete relief of pain-when aware pain returning - "tolerable" managed with percocet', '-patient sleeping on reassesment, complete relief of pain-when aware pain returning - "tolerable" managed with percocet', '-when aware pain returning - "tolerable" managed with percocet', '', '', '', '']</t>
+          <t>['e1=Sleep|1:able to sleep most of night']</t>
         </is>
       </c>
       <c r="T40" t="inlineStr">
         <is>
-          <t>['e1=Pain|1:5mg ir oxycodone for breakthrough pain -patient sleeping on reassesment, complete relief of pain-when aware pain returning - "tolerable" managed with percocet', 'e2=Sleep|1:-patient sleeping on reassesment, complete relief of pain-when aware pain returning - "tolerable" managed with percocet', 'e3=Pain|1:-when aware pain returning - "tolerable" managed with percocet', 'e4=Eating|1:', 'e5=Excretion|1:', 'e6=Family|1:', 'e7=Unknown|1:']</t>
-        </is>
-      </c>
-      <c r="U40" t="inlineStr">
-        <is>
-          <t>[[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'before', 'event_id_2': 'e3'}]]</t>
+          <t>[[]]</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>7909_1367790_0012</t>
+          <t>625_1269117_0005</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>able to sleep most of night</t>
+          <t>slept in naps throughout the night</t>
         </is>
       </c>
       <c r="D41" t="n">
@@ -4106,12 +3906,12 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>(Timestamp('2189-11-18 04:20:00'), Timestamp('2189-11-18 04:28:00'))</t>
+          <t>(Timestamp('2178-05-01 06:15:00'), Timestamp('2178-05-01 06:29:00'))</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>{'text': 'able to sleep most of night', 'event': ['Sleep'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Sleep",\n      "text_quote": "able to sleep most of night",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "night",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "good",\n          "duration": "most"\n        }\n      }\n    }\n  ],\n  "order": []\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'good', 'duration': 'most'}}}], 'orders': [[]], 'text_quotes': ['able to sleep most of night'], 'event_time': ['night'], 'negation': [False], 'caused_by': ['Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the Text at the end of this prompt into events that took place at the HOSPITAL, DURING THE SHIFT in which this text was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'An event is extracted from the text even if it is negated (e.g. "did not sleep"), but the respective negation attribute is set to True.\', \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n              \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n            ```\n           \n           \n           Text (written between 2189-11-18 04:20:00 and 2189-11-18 04:28:00):\n           able to sleep most of night\n        ', 'case_attributes': [[]], 'actor': ['patient'], 'event_detection_time': 3.698162592947483}</t>
+          <t>{'text': 'slept in naps throughout the night', 'event': ['Sleep'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Sleep",\n      "text_quote": "slept in naps throughout the night",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "night",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "on and off",\n          "duration": "throughout the night"\n        }\n      }\n    }\n  ],\n  "order": []\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'on and off', 'duration': 'throughout the night'}}}], 'orders': [[]], 'text_quotes': ['slept in naps throughout the night'], 'event_time': ['night'], 'negation': [False], 'caused_by': ['Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the Text at the end of this prompt into events that took place at the HOSPITAL, DURING THE SHIFT in which this text was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'An event is extracted from the text even if it is negated (e.g. "did not sleep"), but the respective negation attribute is set to True.\', \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n              \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n            ```\n           \n           \n           Text (written between 2178-05-01 06:15:00 and 2178-05-01 06:29:00):\n           slept in naps throughout the night\n        ', 'case_attributes': [[]], 'actor': ['patient'], 'event_detection_time': 3.935605090111494}</t>
         </is>
       </c>
       <c r="H41" t="n">
@@ -4131,7 +3931,7 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>['able to sleep most of night']</t>
+          <t>['slept in naps throughout the night']</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
@@ -4141,7 +3941,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>[{'Sleep': {'Sleep': {'quality': 'good', 'duration': 'most'}}}]</t>
+          <t>[{'Sleep': {'Sleep': {'quality': 'on and off', 'duration': 'throughout the night'}}}]</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
@@ -4151,25 +3951,20 @@
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>['patient']</t>
+          <t>[{'Sleep': {'Sleep': {'quality': 'on and off', 'duration': 'throughout the night'}}}]</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>[{'Sleep': {'Sleep': {'quality': 'good', 'duration': 'most'}}}]</t>
+          <t>['slept in naps throughout the night']</t>
         </is>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>['able to sleep most of night']</t>
+          <t>['e1=Sleep|1:slept in naps throughout the night']</t>
         </is>
       </c>
       <c r="T41" t="inlineStr">
-        <is>
-          <t>['e1=Sleep|1:able to sleep most of night']</t>
-        </is>
-      </c>
-      <c r="U41" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -4177,16 +3972,16 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>380</v>
+        <v>392</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>625_1269117_0005</t>
+          <t>2082_1288664_0008</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>slept in naps throughout the night</t>
+          <t>alert and oriented, med for pain x 2 with relief, slept most of night</t>
         </is>
       </c>
       <c r="D42" t="n">
@@ -4197,12 +3992,12 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>(Timestamp('2178-05-01 06:15:00'), Timestamp('2178-05-01 06:29:00'))</t>
+          <t>(Timestamp('2142-08-19 06:22:00'), Timestamp('2142-08-19 06:28:00'))</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>{'text': 'slept in naps throughout the night', 'event': ['Sleep'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Sleep",\n      "text_quote": "slept in naps throughout the night",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "night",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "on and off",\n          "duration": "throughout the night"\n        }\n      }\n    }\n  ],\n  "order": []\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'on and off', 'duration': 'throughout the night'}}}], 'orders': [[]], 'text_quotes': ['slept in naps throughout the night'], 'event_time': ['night'], 'negation': [False], 'caused_by': ['Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the Text at the end of this prompt into events that took place at the HOSPITAL, DURING THE SHIFT in which this text was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'An event is extracted from the text even if it is negated (e.g. "did not sleep"), but the respective negation attribute is set to True.\', \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n              \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n            ```\n           \n           \n           Text (written between 2178-05-01 06:15:00 and 2178-05-01 06:29:00):\n           slept in naps throughout the night\n        ', 'case_attributes': [[]], 'actor': ['patient'], 'event_detection_time': 3.935605090111494}</t>
+          <t>{'text': 'alert and oriented, med for pain x 2 with relief, slept most of night', 'event': ['Pain', 'Sleep'], 'event_id': ['e1', 'e2'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Pain",\n      "text_quote": "med for pain x 2 with relief",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "Unknown",\n          "location": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e2",\n      "event_type": "Sleep",\n      "text_quote": "slept most of night",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "night",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "Unknown",\n          "duration": "most"\n        }\n      }\n    }\n  ],\n  "order": [\n    {\n      "event_id_1": "e2",\n      "relation": "before",\n      "event_id_2": "e1"\n    }\n  ]\n}', 'attributes': [{'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'most'}}}], 'orders': [[{'event_id_1': 'e2', 'relation': 'before', 'event_id_2': 'e1'}]], 'text_quotes': ['med for pain x 2 with relief', 'slept most of night'], 'event_time': ['Unknown', 'night'], 'negation': [False, False], 'caused_by': ['Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the Text at the end of this prompt into events that took place at the HOSPITAL, DURING THE SHIFT in which this text was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'An event is extracted from the text even if it is negated (e.g. "did not sleep"), but the respective negation attribute is set to True.\', \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n              \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n            ```\n           \n           \n           Text (written between 2142-08-19 06:22:00 and 2142-08-19 06:28:00):\n           alert and oriented, med for pain x 2 with relief, slept most of night\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient'], 'event_detection_time': 7.997718236874789}</t>
         </is>
       </c>
       <c r="H42" t="n">
@@ -4222,7 +4017,7 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>['slept in naps throughout the night']</t>
+          <t>['slept most of night']</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
@@ -4232,52 +4027,47 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>[{'Sleep': {'Sleep': {'quality': 'on and off', 'duration': 'throughout the night'}}}]</t>
+          <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'most'}}}]</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>['Sleep']</t>
+          <t>['Pain', 'Sleep']</t>
         </is>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>['patient']</t>
+          <t>[{'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'most'}}}]</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>[{'Sleep': {'Sleep': {'quality': 'on and off', 'duration': 'throughout the night'}}}]</t>
+          <t>['med for pain x 2 with relief', 'slept most of night']</t>
         </is>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>['slept in naps throughout the night']</t>
+          <t>['e1=Pain|1:med for pain x 2 with relief', 'e2=Sleep|1:slept most of night']</t>
         </is>
       </c>
       <c r="T42" t="inlineStr">
         <is>
-          <t>['e1=Sleep|1:slept in naps throughout the night']</t>
-        </is>
-      </c>
-      <c r="U42" t="inlineStr">
-        <is>
-          <t>[[]]</t>
+          <t>[[{'event_id_1': 'e2', 'relation': 'before', 'event_id_2': 'e1'}]]</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2082_1288664_0008</t>
+          <t>11901_1418000_0021</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>alert and oriented, med for pain x 2 with relief, slept most of night</t>
+          <t>slept well on current propofol drops</t>
         </is>
       </c>
       <c r="D43" t="n">
@@ -4288,12 +4078,12 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>(Timestamp('2142-08-19 06:22:00'), Timestamp('2142-08-19 06:28:00'))</t>
+          <t>(Timestamp('2176-07-05 05:35:00'), Timestamp('2176-07-05 06:23:00'))</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>{'text': 'alert and oriented, med for pain x 2 with relief, slept most of night', 'event': ['Pain', 'Sleep'], 'event_id': ['e1', 'e2'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Pain",\n      "text_quote": "med for pain x 2 with relief",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "Unknown",\n          "location": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e2",\n      "event_type": "Sleep",\n      "text_quote": "slept most of night",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "night",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "Unknown",\n          "duration": "most"\n        }\n      }\n    }\n  ],\n  "order": [\n    {\n      "event_id_1": "e2",\n      "relation": "before",\n      "event_id_2": "e1"\n    }\n  ]\n}', 'attributes': [{'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'most'}}}], 'orders': [[{'event_id_1': 'e2', 'relation': 'before', 'event_id_2': 'e1'}]], 'text_quotes': ['med for pain x 2 with relief', 'slept most of night'], 'event_time': ['Unknown', 'night'], 'negation': [False, False], 'caused_by': ['Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the Text at the end of this prompt into events that took place at the HOSPITAL, DURING THE SHIFT in which this text was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'An event is extracted from the text even if it is negated (e.g. "did not sleep"), but the respective negation attribute is set to True.\', \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n              \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n            ```\n           \n           \n           Text (written between 2142-08-19 06:22:00 and 2142-08-19 06:28:00):\n           alert and oriented, med for pain x 2 with relief, slept most of night\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient'], 'event_detection_time': 7.997718236874789}</t>
+          <t>{'text': 'slept well on current propofol drops', 'event': ['Sleep'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Sleep",\n      "text_quote": "slept well on current propofol drops",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "well"\n        }\n      }\n    }\n  ],\n  "order": []\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'well'}}}], 'orders': [[]], 'text_quotes': ['slept well on current propofol drops'], 'event_time': ['Unknown'], 'negation': [False], 'caused_by': ['Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the Text at the end of this prompt into events that took place at the HOSPITAL, DURING THE SHIFT in which this text was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'An event is extracted from the text even if it is negated (e.g. "did not sleep"), but the respective negation attribute is set to True.\', \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n              \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n            ```\n           \n           \n           Text (written between 2176-07-05 05:35:00 and 2176-07-05 06:23:00):\n           slept well on current propofol drops\n        ', 'case_attributes': [[]], 'actor': ['patient'], 'event_detection_time': 3.6204345989972353}</t>
         </is>
       </c>
       <c r="H43" t="n">
@@ -4313,7 +4103,7 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>['slept most of night']</t>
+          <t>['slept well on current propofol drops']</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
@@ -4323,52 +4113,47 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'most'}}}]</t>
+          <t>[{'Sleep': {'Sleep': {'quality': 'well'}}}]</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>['Pain', 'Sleep']</t>
+          <t>['Sleep']</t>
         </is>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>['patient', 'patient']</t>
+          <t>[{'Sleep': {'Sleep': {'quality': 'well'}}}]</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>[{'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'most'}}}]</t>
+          <t>['slept well on current propofol drops']</t>
         </is>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>['med for pain x 2 with relief', 'slept most of night']</t>
+          <t>['e1=Sleep|1:slept well on current propofol drops']</t>
         </is>
       </c>
       <c r="T43" t="inlineStr">
         <is>
-          <t>['e1=Pain|1:med for pain x 2 with relief', 'e2=Sleep|1:slept most of night']</t>
-        </is>
-      </c>
-      <c r="U43" t="inlineStr">
-        <is>
-          <t>[[{'event_id_1': 'e2', 'relation': 'before', 'event_id_2': 'e1'}]]</t>
+          <t>[[]]</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>11901_1418000_0021</t>
+          <t>16161_1473600_0005</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>slept well on current propofol drops</t>
+          <t>dozing on and off</t>
         </is>
       </c>
       <c r="D44" t="n">
@@ -4379,12 +4164,12 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>(Timestamp('2176-07-05 05:35:00'), Timestamp('2176-07-05 06:23:00'))</t>
+          <t>(Timestamp('2123-11-22 17:10:00'), Timestamp('2123-11-22 17:36:00'))</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>{'text': 'slept well on current propofol drops', 'event': ['Sleep'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Sleep",\n      "text_quote": "slept well on current propofol drops",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "well"\n        }\n      }\n    }\n  ],\n  "order": []\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'well'}}}], 'orders': [[]], 'text_quotes': ['slept well on current propofol drops'], 'event_time': ['Unknown'], 'negation': [False], 'caused_by': ['Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the Text at the end of this prompt into events that took place at the HOSPITAL, DURING THE SHIFT in which this text was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'An event is extracted from the text even if it is negated (e.g. "did not sleep"), but the respective negation attribute is set to True.\', \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n              \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n            ```\n           \n           \n           Text (written between 2176-07-05 05:35:00 and 2176-07-05 06:23:00):\n           slept well on current propofol drops\n        ', 'case_attributes': [[]], 'actor': ['patient'], 'event_detection_time': 3.6204345989972353}</t>
+          <t>{'text': 'dozing on and off', 'event': ['Sleep'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Sleep",\n      "text_quote": "dozing on and off",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "on and off",\n          "duration": "short"\n        }\n      }\n    }\n  ],\n  "order": []\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'on and off', 'duration': 'short'}}}], 'orders': [[]], 'text_quotes': ['dozing on and off'], 'event_time': ['Unknown'], 'negation': [False], 'caused_by': ['Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the Text at the end of this prompt into events that took place at the HOSPITAL, DURING THE SHIFT in which this text was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'An event is extracted from the text even if it is negated (e.g. "did not sleep"), but the respective negation attribute is set to True.\', \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n              \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n            ```\n           \n           \n           Text (written between 2123-11-22 17:10:00 and 2123-11-22 17:36:00):\n           dozing on and off\n        ', 'case_attributes': [[]], 'actor': ['patient'], 'event_detection_time': 3.7183128809556365}</t>
         </is>
       </c>
       <c r="H44" t="n">
@@ -4404,7 +4189,7 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>['slept well on current propofol drops']</t>
+          <t>['dozing on and off']</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
@@ -4414,7 +4199,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>[{'Sleep': {'Sleep': {'quality': 'well'}}}]</t>
+          <t>[{'Sleep': {'Sleep': {'quality': 'on and off', 'duration': 'short'}}}]</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
@@ -4424,25 +4209,20 @@
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>['patient']</t>
+          <t>[{'Sleep': {'Sleep': {'quality': 'on and off', 'duration': 'short'}}}]</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>[{'Sleep': {'Sleep': {'quality': 'well'}}}]</t>
+          <t>['dozing on and off']</t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>['slept well on current propofol drops']</t>
+          <t>['e1=Sleep|1:dozing on and off']</t>
         </is>
       </c>
       <c r="T44" t="inlineStr">
-        <is>
-          <t>['e1=Sleep|1:slept well on current propofol drops']</t>
-        </is>
-      </c>
-      <c r="U44" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -4450,16 +4230,16 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>16161_1473600_0005</t>
+          <t>26751_1612579_0009</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>dozing on and off</t>
+          <t>settled and slept in long naps.by mouth dilantin load 1000mg given in increments late pm</t>
         </is>
       </c>
       <c r="D45" t="n">
@@ -4470,12 +4250,12 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>(Timestamp('2123-11-22 17:10:00'), Timestamp('2123-11-22 17:36:00'))</t>
+          <t>(Timestamp('2140-07-04 04:47:00'), Timestamp('2140-07-04 04:52:00'))</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>{'text': 'dozing on and off', 'event': ['Sleep'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Sleep",\n      "text_quote": "dozing on and off",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "on and off",\n          "duration": "short"\n        }\n      }\n    }\n  ],\n  "order": []\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'on and off', 'duration': 'short'}}}], 'orders': [[]], 'text_quotes': ['dozing on and off'], 'event_time': ['Unknown'], 'negation': [False], 'caused_by': ['Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the Text at the end of this prompt into events that took place at the HOSPITAL, DURING THE SHIFT in which this text was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'An event is extracted from the text even if it is negated (e.g. "did not sleep"), but the respective negation attribute is set to True.\', \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n              \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n            ```\n           \n           \n           Text (written between 2123-11-22 17:10:00 and 2123-11-22 17:36:00):\n           dozing on and off\n        ', 'case_attributes': [[]], 'actor': ['patient'], 'event_detection_time': 3.7183128809556365}</t>
+          <t>{'text': 'settled and slept in long naps.by mouth dilantin load 1000mg given in increments late pm', 'event': ['Sleep', 'Eating'], 'event_id': ['e1', 'e2'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Sleep",\n      "text_quote": "settled and slept in long naps",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "long naps",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e2",\n      "event_type": "Eating",\n      "text_quote": "by mouth dilantin load 1000mg given in increments late pm",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "late pm",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {\n          "food": "dilantin load 1000mg",\n          "amount": "Unknown",\n          "method": "oral"\n        }\n      }\n    }\n  ],\n  "order": [\n    {\n      "event_id_1": "e2",\n      "relation": "before",\n      "event_id_2": "e1"\n    }\n  ]\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'long naps', 'duration': 'Unknown'}}}, {'Eating': {'Eating': {'food': 'dilantin load 1000mg', 'amount': 'Unknown', 'method': 'oral'}}}], 'orders': [[{'event_id_1': 'e2', 'relation': 'before', 'event_id_2': 'e1'}]], 'text_quotes': ['settled and slept in long naps', 'by mouth dilantin load 1000mg given in increments late pm'], 'event_time': ['Unknown', 'late pm'], 'negation': [False, False], 'caused_by': ['Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the Text at the end of this prompt into events that took place at the HOSPITAL, DURING THE SHIFT in which this text was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'An event is extracted from the text even if it is negated (e.g. "did not sleep"), but the respective negation attribute is set to True.\', \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n              \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n            ```\n           \n           \n           Text (written between 2140-07-04 04:47:00 and 2140-07-04 04:52:00):\n           settled and slept in long naps.by mouth dilantin load 1000mg given in increments late pm\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient'], 'event_detection_time': 8.569345304975286}</t>
         </is>
       </c>
       <c r="H45" t="n">
@@ -4495,7 +4275,7 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>['dozing on and off']</t>
+          <t>['settled and slept in long naps']</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -4505,72 +4285,67 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>[{'Sleep': {'Sleep': {'quality': 'on and off', 'duration': 'short'}}}]</t>
+          <t>[{'Sleep': {'Sleep': {'quality': 'long naps', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>['Sleep']</t>
+          <t>['Sleep', 'Eating']</t>
         </is>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>['patient']</t>
+          <t>[{'Sleep': {'Sleep': {'quality': 'long naps', 'duration': 'Unknown'}}}, {'Eating': {'Eating': {'food': 'dilantin load 1000mg', 'amount': 'Unknown', 'method': 'oral'}}}]</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>[{'Sleep': {'Sleep': {'quality': 'on and off', 'duration': 'short'}}}]</t>
+          <t>['settled and slept in long naps', 'by mouth dilantin load 1000mg given in increments late pm']</t>
         </is>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>['dozing on and off']</t>
+          <t>['e1=Sleep|1:settled and slept in long naps', 'e2=Eating|1:by mouth dilantin load 1000mg given in increments late pm']</t>
         </is>
       </c>
       <c r="T45" t="inlineStr">
         <is>
-          <t>['e1=Sleep|1:dozing on and off']</t>
-        </is>
-      </c>
-      <c r="U45" t="inlineStr">
-        <is>
-          <t>[[]]</t>
+          <t>[[{'event_id_1': 'e2', 'relation': 'before', 'event_id_2': 'e1'}]]</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>419</v>
+        <v>532</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>26751_1612579_0009</t>
+          <t>18356_1503936_0005</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>settled and slept in long naps.by mouth dilantin load 1000mg given in increments late pm</t>
+          <t>patient then awake having bronchospasms</t>
         </is>
       </c>
       <c r="D46" t="n">
         <v>1</v>
       </c>
       <c r="E46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>(Timestamp('2140-07-04 04:47:00'), Timestamp('2140-07-04 04:52:00'))</t>
+          <t>(Timestamp('2149-01-16 13:28:00'), Timestamp('2149-01-16 13:39:00'))</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>{'text': 'settled and slept in long naps.by mouth dilantin load 1000mg given in increments late pm', 'event': ['Sleep', 'Eating'], 'event_id': ['e1', 'e2'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Sleep",\n      "text_quote": "settled and slept in long naps",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "long naps",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e2",\n      "event_type": "Eating",\n      "text_quote": "by mouth dilantin load 1000mg given in increments late pm",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "late pm",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {\n          "food": "dilantin load 1000mg",\n          "amount": "Unknown",\n          "method": "oral"\n        }\n      }\n    }\n  ],\n  "order": [\n    {\n      "event_id_1": "e2",\n      "relation": "before",\n      "event_id_2": "e1"\n    }\n  ]\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'long naps', 'duration': 'Unknown'}}}, {'Eating': {'Eating': {'food': 'dilantin load 1000mg', 'amount': 'Unknown', 'method': 'oral'}}}], 'orders': [[{'event_id_1': 'e2', 'relation': 'before', 'event_id_2': 'e1'}]], 'text_quotes': ['settled and slept in long naps', 'by mouth dilantin load 1000mg given in increments late pm'], 'event_time': ['Unknown', 'late pm'], 'negation': [False, False], 'caused_by': ['Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the Text at the end of this prompt into events that took place at the HOSPITAL, DURING THE SHIFT in which this text was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'An event is extracted from the text even if it is negated (e.g. "did not sleep"), but the respective negation attribute is set to True.\', \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n              \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n            ```\n           \n           \n           Text (written between 2140-07-04 04:47:00 and 2140-07-04 04:52:00):\n           settled and slept in long naps.by mouth dilantin load 1000mg given in increments late pm\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient'], 'event_detection_time': 8.569345304975286}</t>
+          <t>{'text': 'patient then awake having bronchospasms', 'event': ['Pain', 'Sleep'], 'event_id': ['e1', 'e2'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Pain",\n      "text_quote": "patient then awake having bronchospasms",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "Unknown",\n          "location": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e2",\n      "event_type": "Sleep",\n      "text_quote": "patient then awake having bronchospasms",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    }\n  ],\n  "order": [\n    {\n      "event_id_1": "e2",\n      "relation": "before",\n      "event_id_2": "e1"\n    }\n  ]\n}', 'attributes': [{'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}], 'orders': [[{'event_id_1': 'e2', 'relation': 'before', 'event_id_2': 'e1'}]], 'text_quotes': ['patient then awake having bronchospasms', 'patient then awake having bronchospasms'], 'event_time': ['Unknown', 'Unknown'], 'negation': [False, True], 'caused_by': ['Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the Text at the end of this prompt into events that took place at the HOSPITAL, DURING THE SHIFT in which this text was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'An event is extracted from the text even if it is negated (e.g. "did not sleep"), but the respective negation attribute is set to True.\', \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n              \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n            ```\n           \n           \n           Text (written between 2149-01-16 13:28:00 and 2149-01-16 13:39:00):\n           patient then awake having bronchospasms\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient'], 'event_detection_time': 8.081017846008763}</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="b">
@@ -4586,7 +4361,7 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>['settled and slept in long naps']</t>
+          <t>['patient then awake having bronchospasms']</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
@@ -4596,126 +4371,30 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>[{'Sleep': {'Sleep': {'quality': 'long naps', 'duration': 'Unknown'}}}]</t>
+          <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>['Sleep', 'Eating']</t>
+          <t>['Pain', 'Sleep']</t>
         </is>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>['patient', 'patient']</t>
+          <t>[{'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>[{'Sleep': {'Sleep': {'quality': 'long naps', 'duration': 'Unknown'}}}, {'Eating': {'Eating': {'food': 'dilantin load 1000mg', 'amount': 'Unknown', 'method': 'oral'}}}]</t>
+          <t>['patient then awake having bronchospasms', 'patient then awake having bronchospasms']</t>
         </is>
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>['settled and slept in long naps', 'by mouth dilantin load 1000mg given in increments late pm']</t>
+          <t>['e1=Pain|1:patient then awake having bronchospasms', 'e2=Sleep|1:patient then awake having bronchospasms']</t>
         </is>
       </c>
       <c r="T46" t="inlineStr">
-        <is>
-          <t>['e1=Sleep|1:settled and slept in long naps', 'e2=Eating|1:by mouth dilantin load 1000mg given in increments late pm']</t>
-        </is>
-      </c>
-      <c r="U46" t="inlineStr">
-        <is>
-          <t>[[{'event_id_1': 'e2', 'relation': 'before', 'event_id_2': 'e1'}]]</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>532</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>18356_1503936_0005</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>patient then awake having bronchospasms</t>
-        </is>
-      </c>
-      <c r="D47" t="n">
-        <v>1</v>
-      </c>
-      <c r="E47" t="n">
-        <v>0</v>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>(Timestamp('2149-01-16 13:28:00'), Timestamp('2149-01-16 13:39:00'))</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>{'text': 'patient then awake having bronchospasms', 'event': ['Pain', 'Sleep'], 'event_id': ['e1', 'e2'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Pain",\n      "text_quote": "patient then awake having bronchospasms",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "Unknown",\n          "location": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e2",\n      "event_type": "Sleep",\n      "text_quote": "patient then awake having bronchospasms",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    }\n  ],\n  "order": [\n    {\n      "event_id_1": "e2",\n      "relation": "before",\n      "event_id_2": "e1"\n    }\n  ]\n}', 'attributes': [{'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}], 'orders': [[{'event_id_1': 'e2', 'relation': 'before', 'event_id_2': 'e1'}]], 'text_quotes': ['patient then awake having bronchospasms', 'patient then awake having bronchospasms'], 'event_time': ['Unknown', 'Unknown'], 'negation': [False, True], 'caused_by': ['Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the Text at the end of this prompt into events that took place at the HOSPITAL, DURING THE SHIFT in which this text was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'An event is extracted from the text even if it is negated (e.g. "did not sleep"), but the respective negation attribute is set to True.\', \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n              \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n            ```\n           \n           \n           Text (written between 2149-01-16 13:28:00 and 2149-01-16 13:39:00):\n           patient then awake having bronchospasms\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient'], 'event_detection_time': 8.081017846008763}</t>
-        </is>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="b">
-        <v>0</v>
-      </c>
-      <c r="K47" t="b">
-        <v>1</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>[True]</t>
-        </is>
-      </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>['patient then awake having bronchospasms']</t>
-        </is>
-      </c>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>['patient']</t>
-        </is>
-      </c>
-      <c r="O47" t="inlineStr">
-        <is>
-          <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
-        </is>
-      </c>
-      <c r="P47" t="inlineStr">
-        <is>
-          <t>['Pain', 'Sleep']</t>
-        </is>
-      </c>
-      <c r="Q47" t="inlineStr">
-        <is>
-          <t>['patient', 'patient']</t>
-        </is>
-      </c>
-      <c r="R47" t="inlineStr">
-        <is>
-          <t>[{'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
-        </is>
-      </c>
-      <c r="S47" t="inlineStr">
-        <is>
-          <t>['patient then awake having bronchospasms', 'patient then awake having bronchospasms']</t>
-        </is>
-      </c>
-      <c r="T47" t="inlineStr">
-        <is>
-          <t>['e1=Pain|1:patient then awake having bronchospasms', 'e2=Sleep|1:patient then awake having bronchospasms']</t>
-        </is>
-      </c>
-      <c r="U47" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e2', 'relation': 'before', 'event_id_2': 'e1'}]]</t>
         </is>

--- a/exports/06b_analysis/llama3.1:70b_V5_fa/Sleep/TP_Event_Name_LLM_Events_example_evidence_Sent_Sleep.xlsx
+++ b/exports/06b_analysis/llama3.1:70b_V5_fa/Sleep/TP_Event_Name_LLM_Events_example_evidence_Sent_Sleep.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T46"/>
+  <dimension ref="A1:U46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -501,30 +501,35 @@
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
+          <t>is_patient</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
           <t>Attribute_LLM_Events_example_evidence_Sent_Sleep</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Event_Name_LLM_Events_example_evidence_Sent</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Attribute_LLM_Events_example_evidence_Sent</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Text_Quote_LLM_Events_example_evidence_Sent</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Event_Id_LLM_Events_example_evidence_Sent</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Order_LLM_Events_example_evidence_Sent</t>
         </is>
@@ -532,16 +537,16 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>4874_1325556_0033</t>
+          <t>4874_1325554_0014</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>slept at intervals</t>
+          <t>.sleeping</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -552,12 +557,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>(Timestamp('2162-06-17 05:21:00'), Timestamp('2162-06-17 05:55:00'))</t>
+          <t>(Timestamp('1991-09-11 14:38:00'), Timestamp('1991-09-11 14:59:00'))</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>{'text': 'slept at intervals', 'event': ['Sleep'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Sleep",\n      "text_quote": "slept at intervals",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "interrupted",\n          "duration": "on and off"\n        }\n      }\n    }\n  ],\n  "order": []\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'interrupted', 'duration': 'on and off'}}}], 'orders': [[]], 'text_quotes': ['slept at intervals'], 'event_time': ['Unknown'], 'negation': [False], 'caused_by': ['Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the Text at the end of this prompt into events that took place at the HOSPITAL, DURING THE SHIFT in which this text was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'An event is extracted from the text even if it is negated (e.g. "did not sleep"), but the respective negation attribute is set to True.\', \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n              \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n            ```\n           \n           \n           Text (written between 2162-06-17 05:21:00 and 2162-06-17 05:55:00):\n           slept at intervals\n        ', 'case_attributes': [[]], 'actor': ['patient'], 'event_detection_time': 34.97986714914441}</t>
+          <t>{'text': '.sleeping', 'event': ['Sleep'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Sleep",\n            "text_quote": ".sleeping",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        }\n    ],\n    "order": []\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}], 'orders': [[]], 'text_quotes': ['.sleeping'], 'event_time': ['Unknown'], 'negation': [False], 'caused_by': ['Unknown'], 'event_name_prompt': '**Task: Event Classification and Attribute Extraction** \nYour task is to analyze the Text below and extract all events that occurred during the current hospital shift (the time the note was written).\nClassify each event into one or more of the following categories:\nCategory\tDefinition\nEating\tThe patient takes food into their body by mouth.\nExcretion\tThe patient discharges waste matter from their body.\nFamily\tThe patient has a visit, call, or communication with a family member.\nPain\tThe patient reports or shows signs of pain.\nSleep\tThe patient sleeps or the sleep’s quality or quantity is described.\nUnknown\tchoose "Unknown" if none of the other event type are applicable..\n\n**Rules and Conditions** \n1. Time constraint: Consider only actions that occurred during the current shift as events. \n2. Event constraint: Consider patient history, planning and requests as case attributes. Log them seperately. \n3. Actor constraint: Find out who is the main actor of the event.\n4. Negation Rule: Extract an event even if negated (e.g. “did not sleep”), and set "negation": true.\n5. Default Assumptions: \n        - If actor unclear → "actor":"patient"\n        - If time not mentioned → "time": "Unknown" \n        - If cause not mentioned → "caused_by": "Unknown" \n6. Clarifications:\n        - Sedation/resting ≠ sleep events.\n        - Sleep apnea occurs during sleep.\n        - Actions done to enable an event do not imply the event occurred (e.g., “given med for sleep” ≠ sleep).\nFor each detected event, output strictly valid JSON following the schema below: \n```\n    \n                        {   \n                        "case_attributes":[ \n                        //all patient-related details that did NOT occur during the current hospital shift, including past history, future plans, or events that happened at home or outside the hospital.\n                            {\n                            "attribute_name":"attribute_value" \n                            }\n                        ]  \n                        "events": [ \n                        //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ \n                        //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n```\n**Examples for Sleep Classification**\n\n                1. Include as Sleep Event**\n                - "Patient slept for 2 hours."\n                - "heart rate 50pbm while asleep"\n                - "patient now awake" (awake "now" assumes the patient was sleeping at an earlier state)\n\n                2. Do NOT include as Sleep Event**\n                - "Patient asked for sleeping pill." (Request, not event)\n                - "Patient wants to sleep later." (Future plan)\n                - "Patient fell asleep while driving (history)." (Before shift)\n                - "Patient was sedated/put to sleep for procedure." (Sedation)\n                - "Daughter slept in the room." (Actor ≠ patient)\n                - "Patient Alert and Awake" (Although awake is mentioned, it is not in the context of a status change from sleep but as an observation)\n\n**Text**\nWritten between 1991-09-11 14:38:00 and 1991-09-11 14:59:00:\n\'.sleeping\'\n', 'case_attributes': [[]], 'actor': ['patient'], 'event_detection_time': 34.6976221438963}</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -577,7 +582,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>['slept at intervals']</t>
+          <t>['.sleeping']</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -585,32 +590,35 @@
           <t>['patient']</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>[{'Sleep': {'Sleep': {'quality': 'interrupted', 'duration': 'on and off'}}}]</t>
-        </is>
+      <c r="O2" t="b">
+        <v>1</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
+          <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
           <t>['Sleep']</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>[{'Sleep': {'Sleep': {'quality': 'interrupted', 'duration': 'on and off'}}}]</t>
-        </is>
-      </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>['slept at intervals']</t>
+          <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>['e1=Sleep|1:slept at intervals']</t>
+          <t>['.sleeping']</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
+        <is>
+          <t>['e1=Sleep|1:.sleeping']</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -618,16 +626,16 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>4874_1325562_0020</t>
+          <t>4874_1325548_0028</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>eval sleep apnea</t>
+          <t>patient has complained that she hasnt slept in days</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -638,12 +646,12 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>(Timestamp('2162-06-20 06:52:00'), Timestamp('2162-06-20 07:20:00'))</t>
+          <t>(Timestamp('1991-09-09 04:36:00'), Timestamp('1991-09-09 05:10:00'))</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>{'text': 'eval sleep apnea', 'event': ['Sleep'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Sleep",\n      "text_quote": "eval sleep apnea",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    }\n  ],\n  "order": []\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}], 'orders': [[]], 'text_quotes': ['eval sleep apnea'], 'event_time': ['Unknown'], 'negation': [False], 'caused_by': ['Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the Text at the end of this prompt into events that took place at the HOSPITAL, DURING THE SHIFT in which this text was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'An event is extracted from the text even if it is negated (e.g. "did not sleep"), but the respective negation attribute is set to True.\', \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n              \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n            ```\n           \n           \n           Text (written between 2162-06-20 06:52:00 and 2162-06-20 07:20:00):\n           eval sleep apnea\n        ', 'case_attributes': [[]], 'actor': ['patient'], 'event_detection_time': 3.65382138104178}</t>
+          <t>{'text': 'patient has complained that she hasnt slept in days', 'event': ['Sleep'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [\n        {\n            "attribute_name": "complaint",\n            "attribute_value": "hasn\'t slept in days"\n        }\n    ],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Sleep",\n            "text_quote": "patient has complained that she hasn\'t slept in days",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "none",\n                    "duration": "days"\n                }\n            }\n        }\n    ],\n    "order": []\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'none', 'duration': 'days'}}}], 'orders': [[]], 'text_quotes': ["patient has complained that she hasn't slept in days"], 'event_time': ['Unknown'], 'negation': [True], 'caused_by': ['Unknown'], 'event_name_prompt': '**Task: Event Classification and Attribute Extraction** \nYour task is to analyze the Text below and extract all events that occurred during the current hospital shift (the time the note was written).\nClassify each event into one or more of the following categories:\nCategory\tDefinition\nEating\tThe patient takes food into their body by mouth.\nExcretion\tThe patient discharges waste matter from their body.\nFamily\tThe patient has a visit, call, or communication with a family member.\nPain\tThe patient reports or shows signs of pain.\nSleep\tThe patient sleeps or the sleep’s quality or quantity is described.\nUnknown\tchoose "Unknown" if none of the other event type are applicable..\n\n**Rules and Conditions** \n1. Time constraint: Consider only actions that occurred during the current shift as events. \n2. Event constraint: Consider patient history, planning and requests as case attributes. Log them seperately. \n3. Actor constraint: Find out who is the main actor of the event.\n4. Negation Rule: Extract an event even if negated (e.g. “did not sleep”), and set "negation": true.\n5. Default Assumptions: \n        - If actor unclear → "actor":"patient"\n        - If time not mentioned → "time": "Unknown" \n        - If cause not mentioned → "caused_by": "Unknown" \n6. Clarifications:\n        - Sedation/resting ≠ sleep events.\n        - Sleep apnea occurs during sleep.\n        - Actions done to enable an event do not imply the event occurred (e.g., “given med for sleep” ≠ sleep).\nFor each detected event, output strictly valid JSON following the schema below: \n```\n    \n                        {   \n                        "case_attributes":[ \n                        //all patient-related details that did NOT occur during the current hospital shift, including past history, future plans, or events that happened at home or outside the hospital.\n                            {\n                            "attribute_name":"attribute_value" \n                            }\n                        ]  \n                        "events": [ \n                        //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ \n                        //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n```\n**Examples for Sleep Classification**\n\n                1. Include as Sleep Event**\n                - "Patient slept for 2 hours."\n                - "heart rate 50pbm while asleep"\n                - "patient now awake" (awake "now" assumes the patient was sleeping at an earlier state)\n\n                2. Do NOT include as Sleep Event**\n                - "Patient asked for sleeping pill." (Request, not event)\n                - "Patient wants to sleep later." (Future plan)\n                - "Patient fell asleep while driving (history)." (Before shift)\n                - "Patient was sedated/put to sleep for procedure." (Sedation)\n                - "Daughter slept in the room." (Actor ≠ patient)\n                - "Patient Alert and Awake" (Although awake is mentioned, it is not in the context of a status change from sleep but as an observation)\n\n**Text**\nWritten between 1991-09-09 04:36:00 and 1991-09-09 05:10:00:\n\'patient has complained that she hasnt slept in days\'\n', 'case_attributes': [[{'attribute_name': 'complaint', 'attribute_value': "hasn't slept in days"}]], 'actor': ['patient'], 'event_detection_time': 4.67025970085524}</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -651,7 +659,7 @@
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" t="b">
         <v>1</v>
@@ -663,7 +671,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>['eval sleep apnea']</t>
+          <t>["patient has complained that she hasn't slept in days"]</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -671,32 +679,35 @@
           <t>['patient']</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
-        </is>
+      <c r="O3" t="b">
+        <v>1</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
+          <t>[{'Sleep': {'Sleep': {'quality': 'none', 'duration': 'days'}}}]</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
           <t>['Sleep']</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
-        </is>
-      </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>['eval sleep apnea']</t>
+          <t>[{'Sleep': {'Sleep': {'quality': 'none', 'duration': 'days'}}}]</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>['e1=Sleep|1:eval sleep apnea']</t>
+          <t>["patient has complained that she hasn't slept in days"]</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
+        <is>
+          <t>["e1=Sleep|0:patient has complained that she hasn't slept in days"]</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -704,16 +715,16 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>4874_1325547_0013</t>
+          <t>3748_1310479_0011</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>sats 95 when awake, dropped to high 80's when sleeping</t>
+          <t>while asleep- bp</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -724,12 +735,12 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>(Timestamp('2162-06-13 22:52:00'), Timestamp('2162-06-13 23:02:00'))</t>
+          <t>(Timestamp('2009-06-06 06:50:00'), Timestamp('2009-06-06 07:05:00'))</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>{'text': "sats 95 when awake, dropped to high 80's when sleeping", 'event': ['Sleep', 'Pain', 'Sleep'], 'event_id': ['e1', 'e2', 'e3'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Sleep",\n      "text_quote": "dropped to high 80\'s when sleeping",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e2",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "Unknown",\n          "location": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e3",\n      "event_type": "Sleep",\n      "text_quote": "sats 95 when awake, dropped to high 80\'s when sleeping",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "poor",\n          "duration": "Unknown"\n        }\n      }\n    }\n  ],\n  "order": [\n    {\n      "event_id_1": "e3",\n      "relation": "before",\n      "event_id_2": "e1"\n    },\n    {\n      "event_id_1": "e1",\n      "relation": "unknown",\n      "event_id_2": "e2"\n    }\n  ]\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Sleep': {'Sleep': {'quality': 'poor', 'duration': 'Unknown'}}}], 'orders': [[{'event_id_1': 'e3', 'relation': 'before', 'event_id_2': 'e1'}, {'event_id_1': 'e1', 'relation': 'unknown', 'event_id_2': 'e2'}]], 'text_quotes': ["dropped to high 80's when sleeping", '', "sats 95 when awake, dropped to high 80's when sleeping"], 'event_time': ['Unknown', 'Unknown', 'Unknown'], 'negation': [False, True, False], 'caused_by': ['Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the Text at the end of this prompt into events that took place at the HOSPITAL, DURING THE SHIFT in which this text was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'An event is extracted from the text even if it is negated (e.g. "did not sleep"), but the respective negation attribute is set to True.\', \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n              \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n            ```\n           \n           \n           Text (written between 2162-06-13 22:52:00 and 2162-06-13 23:02:00):\n           sats 95 when awake, dropped to high 80\'s when sleeping\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient', 'patient'], 'event_detection_time': 11.996347272070125}</t>
+          <t>{'text': 'while asleep- bp', 'event': ['Sleep'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Sleep",\n            "text_quote": "while asleep- bp",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {}\n            }\n        }\n    ],\n    "order": []\n}', 'attributes': [{'Sleep': {'Sleep': {}}}], 'orders': [[]], 'text_quotes': ['while asleep- bp'], 'event_time': ['Unknown'], 'negation': [False], 'caused_by': ['Unknown'], 'event_name_prompt': '**Task: Event Classification and Attribute Extraction** \nYour task is to analyze the Text below and extract all events that occurred during the current hospital shift (the time the note was written).\nClassify each event into one or more of the following categories:\nCategory\tDefinition\nEating\tThe patient takes food into their body by mouth.\nExcretion\tThe patient discharges waste matter from their body.\nFamily\tThe patient has a visit, call, or communication with a family member.\nPain\tThe patient reports or shows signs of pain.\nSleep\tThe patient sleeps or the sleep’s quality or quantity is described.\nUnknown\tchoose "Unknown" if none of the other event type are applicable..\n\n**Rules and Conditions** \n1. Time constraint: Consider only actions that occurred during the current shift as events. \n2. Event constraint: Consider patient history, planning and requests as case attributes. Log them seperately. \n3. Actor constraint: Find out who is the main actor of the event.\n4. Negation Rule: Extract an event even if negated (e.g. “did not sleep”), and set "negation": true.\n5. Default Assumptions: \n        - If actor unclear → "actor":"patient"\n        - If time not mentioned → "time": "Unknown" \n        - If cause not mentioned → "caused_by": "Unknown" \n6. Clarifications:\n        - Sedation/resting ≠ sleep events.\n        - Sleep apnea occurs during sleep.\n        - Actions done to enable an event do not imply the event occurred (e.g., “given med for sleep” ≠ sleep).\nFor each detected event, output strictly valid JSON following the schema below: \n```\n    \n                        {   \n                        "case_attributes":[ \n                        //all patient-related details that did NOT occur during the current hospital shift, including past history, future plans, or events that happened at home or outside the hospital.\n                            {\n                            "attribute_name":"attribute_value" \n                            }\n                        ]  \n                        "events": [ \n                        //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ \n                        //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n```\n**Examples for Sleep Classification**\n\n                1. Include as Sleep Event**\n                - "Patient slept for 2 hours."\n                - "heart rate 50pbm while asleep"\n                - "patient now awake" (awake "now" assumes the patient was sleeping at an earlier state)\n\n                2. Do NOT include as Sleep Event**\n                - "Patient asked for sleeping pill." (Request, not event)\n                - "Patient wants to sleep later." (Future plan)\n                - "Patient fell asleep while driving (history)." (Before shift)\n                - "Patient was sedated/put to sleep for procedure." (Sedation)\n                - "Daughter slept in the room." (Actor ≠ patient)\n                - "Patient Alert and Awake" (Although awake is mentioned, it is not in the context of a status change from sleep but as an observation)\n\n**Text**\nWritten between 2009-06-06 06:50:00 and 2009-06-06 07:05:00:\n\'while asleep- bp\'\n', 'case_attributes': [[]], 'actor': ['patient'], 'event_detection_time': 3.185820319922641}</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -744,62 +755,65 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>[True, True]</t>
+          <t>[True]</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>["dropped to high 80's when sleeping", "sats 95 when awake, dropped to high 80's when sleeping"]</t>
+          <t>['while asleep- bp']</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>['patient', 'patient']</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Sleep': {'Sleep': {'quality': 'poor', 'duration': 'Unknown'}}}]</t>
-        </is>
+          <t>['patient']</t>
+        </is>
+      </c>
+      <c r="O4" t="b">
+        <v>1</v>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>['Sleep', 'Pain', 'Sleep']</t>
+          <t>[{'Sleep': {'Sleep': {}}}]</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Sleep': {'Sleep': {'quality': 'poor', 'duration': 'Unknown'}}}]</t>
+          <t>['Sleep']</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>["dropped to high 80's when sleeping", '', "sats 95 when awake, dropped to high 80's when sleeping"]</t>
+          <t>[{'Sleep': {'Sleep': {}}}]</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>["e1=Sleep|1:dropped to high 80's when sleeping", 'e2=Pain|1:', "e3=Sleep|1:sats 95 when awake, dropped to high 80's when sleeping"]</t>
+          <t>['while asleep- bp']</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>[[{'event_id_1': 'e3', 'relation': 'before', 'event_id_2': 'e1'}, {'event_id_1': 'e1', 'relation': 'unknown', 'event_id_2': 'e2'}]]</t>
+          <t>['e1=Sleep|1:while asleep- bp']</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>[[]]</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>3748_1310479_0011</t>
+          <t>3748_1310484_0003</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>while asleep- bp</t>
+          <t>cv: diastolic blood pressure labile, transiently on labetalol for bp 150s, ranging 79-150/, down significantly when asleep but patient. awakens easily and is coherent, map &gt;60, md aware, cont to closely monitor</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -810,12 +824,12 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>(Timestamp('2180-03-11 06:50:00'), Timestamp('2180-03-11 07:05:00'))</t>
+          <t>(Timestamp('2009-06-08 04:14:00'), Timestamp('2009-06-08 04:36:00'))</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>{'text': 'while asleep- bp', 'event': ['Sleep', 'Unknown'], 'event_id': ['e1', 'e2'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Sleep",\n      "text_quote": "while asleep",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e2",\n      "event_type": "Unknown",\n      "text_quote": "bp",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {}\n    }\n  ],\n  "order": [\n    {\n      "event_id_1": "e1",\n      "relation": "simultaneous",\n      "event_id_2": "e2"\n    }\n  ]\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Unknown': {}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'simultaneous', 'event_id_2': 'e2'}]], 'text_quotes': ['while asleep', 'bp'], 'event_time': ['Unknown', 'Unknown'], 'negation': [False, False], 'caused_by': ['Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the Text at the end of this prompt into events that took place at the HOSPITAL, DURING THE SHIFT in which this text was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'An event is extracted from the text even if it is negated (e.g. "did not sleep"), but the respective negation attribute is set to True.\', \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n              \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n            ```\n           \n           \n           Text (written between 2180-03-11 06:50:00 and 2180-03-11 07:05:00):\n           while asleep- bp\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient'], 'event_detection_time': 6.760254624066874}</t>
+          <t>{'text': 'cv: diastolic blood pressure labile, transiently on labetalol for bp 150s, ranging 79-150/, down significantly when asleep but patient. awakens easily and is coherent, map &gt;60, md aware, cont to closely monitor', 'event': ['Sleep', 'Pain'], 'event_id': ['e1', 'e2'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [\n        {\n            "attribute_name": "diastolic blood pressure labile"\n        },\n        {\n            "attribute_name": "transiently on labetalol for bp 150s"\n        }\n    ],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Sleep",\n            "text_quote": "down significantly when asleep but patient. awakens easily and is coherent",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Pain",\n            "text_quote": "None",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "Unknown",\n                    "location": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        }\n    ],\n    "order": [\n        {\n            "event_id_1": "e1",\n            "relation": "unknown",\n            "event_id_2": "e2"\n        }\n    ]\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'unknown', 'event_id_2': 'e2'}]], 'text_quotes': ['down significantly when asleep but patient. awakens easily and is coherent', 'None'], 'event_time': ['Unknown', 'Unknown'], 'negation': [False, True], 'caused_by': ['Unknown', 'Unknown'], 'event_name_prompt': '**Task: Event Classification and Attribute Extraction** \nYour task is to analyze the Text below and extract all events that occurred during the current hospital shift (the time the note was written).\nClassify each event into one or more of the following categories:\nCategory\tDefinition\nEating\tThe patient takes food into their body by mouth.\nExcretion\tThe patient discharges waste matter from their body.\nFamily\tThe patient has a visit, call, or communication with a family member.\nPain\tThe patient reports or shows signs of pain.\nSleep\tThe patient sleeps or the sleep’s quality or quantity is described.\nUnknown\tchoose "Unknown" if none of the other event type are applicable..\n\n**Rules and Conditions** \n1. Time constraint: Consider only actions that occurred during the current shift as events. \n2. Event constraint: Consider patient history, planning and requests as case attributes. Log them seperately. \n3. Actor constraint: Find out who is the main actor of the event.\n4. Negation Rule: Extract an event even if negated (e.g. “did not sleep”), and set "negation": true.\n5. Default Assumptions: \n        - If actor unclear → "actor":"patient"\n        - If time not mentioned → "time": "Unknown" \n        - If cause not mentioned → "caused_by": "Unknown" \n6. Clarifications:\n        - Sedation/resting ≠ sleep events.\n        - Sleep apnea occurs during sleep.\n        - Actions done to enable an event do not imply the event occurred (e.g., “given med for sleep” ≠ sleep).\nFor each detected event, output strictly valid JSON following the schema below: \n```\n    \n                        {   \n                        "case_attributes":[ \n                        //all patient-related details that did NOT occur during the current hospital shift, including past history, future plans, or events that happened at home or outside the hospital.\n                            {\n                            "attribute_name":"attribute_value" \n                            }\n                        ]  \n                        "events": [ \n                        //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ \n                        //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n```\n**Examples for Sleep Classification**\n\n                1. Include as Sleep Event**\n                - "Patient slept for 2 hours."\n                - "heart rate 50pbm while asleep"\n                - "patient now awake" (awake "now" assumes the patient was sleeping at an earlier state)\n\n                2. Do NOT include as Sleep Event**\n                - "Patient asked for sleeping pill." (Request, not event)\n                - "Patient wants to sleep later." (Future plan)\n                - "Patient fell asleep while driving (history)." (Before shift)\n                - "Patient was sedated/put to sleep for procedure." (Sedation)\n                - "Daughter slept in the room." (Actor ≠ patient)\n                - "Patient Alert and Awake" (Although awake is mentioned, it is not in the context of a status change from sleep but as an observation)\n\n**Text**\nWritten between 2009-06-08 04:14:00 and 2009-06-08 04:36:00:\n\'cv: diastolic blood pressure labile, transiently on labetalol for bp 150s, ranging 79-150/, down significantly when asleep but patient. awakens easily and is coherent, map &gt;60, md aware, cont to closely monitor\'\n', 'case_attributes': [[{'attribute_name': 'diastolic blood pressure labile'}, {'attribute_name': 'transiently on labetalol for bp 150s'}]], 'actor': ['patient', 'patient'], 'event_detection_time': 9.346327022882178}</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -835,7 +849,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>['while asleep']</t>
+          <t>['down significantly when asleep but patient. awakens easily and is coherent']</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -843,49 +857,52 @@
           <t>['patient']</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="O5" t="b">
+        <v>1</v>
+      </c>
+      <c r="P5" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>['Sleep', 'Unknown']</t>
-        </is>
-      </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Unknown': {}}]</t>
+          <t>['Sleep', 'Pain']</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>['while asleep', 'bp']</t>
+          <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>['e1=Sleep|1:while asleep', 'e2=Unknown|1:bp']</t>
+          <t>['down significantly when asleep but patient. awakens easily and is coherent', 'None']</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>[[{'event_id_1': 'e1', 'relation': 'simultaneous', 'event_id_2': 'e2'}]]</t>
+          <t>['e1=Sleep|1:down significantly when asleep but patient. awakens easily and is coherent', 'e2=Pain|0:None']</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>[[{'event_id_1': 'e1', 'relation': 'unknown', 'event_id_2': 'e2'}]]</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>3748_1310486_0016</t>
+          <t>7042_1356118_0008</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>patient is a mouth breather, so sat will decrease to 92% while patient is asleep, otherwise 95-97%</t>
+          <t>neurologically patient has been drowsy and sleeping most of shift but wakes up easily</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -896,12 +913,12 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>(Timestamp('2180-03-14 04:34:00'), Timestamp('2180-03-14 04:53:00'))</t>
+          <t>(Timestamp('1994-03-11 03:31:00'), Timestamp('1994-03-11 03:41:00'))</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>{'text': 'patient is a mouth breather, so sat will decrease to 92% while patient is asleep, otherwise 95-97%', 'event': ['Sleep', 'Pain'], 'event_id': ['e1', 'e2'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Sleep",\n            "text_quote": "patient is a mouth breather, so sat will decrease to 92% while patient is asleep",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "Unknown",\n                    "location": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        }\n    ],\n    "order": [\n        {\n            "event_id_1": "e1",\n            "relation": "unknown",\n            "event_id_2": "e2"\n        }\n    ]\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'unknown', 'event_id_2': 'e2'}]], 'text_quotes': ['patient is a mouth breather, so sat will decrease to 92% while patient is asleep', ''], 'event_time': ['Unknown', 'Unknown'], 'negation': [False, True], 'caused_by': ['Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the Text at the end of this prompt into events that took place at the HOSPITAL, DURING THE SHIFT in which this text was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'An event is extracted from the text even if it is negated (e.g. "did not sleep"), but the respective negation attribute is set to True.\', \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n              \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n            ```\n           \n           \n           Text (written between 2180-03-14 04:34:00 and 2180-03-14 04:53:00):\n           patient is a mouth breather, so sat will decrease to 92% while patient is asleep, otherwise 95-97%\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient'], 'event_detection_time': 8.098277031909674}</t>
+          <t>{'text': 'neurologically patient has been drowsy and sleeping most of shift but wakes up easily', 'event': ['Sleep'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Sleep",\n      "text_quote": "patient has been drowsy and sleeping most of shift but wakes up easily",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "drowsy",\n          "duration": "most of shift"\n        }\n      }\n    }\n  ],\n  "order": []\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'drowsy', 'duration': 'most of shift'}}}], 'orders': [[]], 'text_quotes': ['patient has been drowsy and sleeping most of shift but wakes up easily'], 'event_time': ['Unknown'], 'negation': [False], 'caused_by': ['Unknown'], 'event_name_prompt': '**Task: Event Classification and Attribute Extraction** \nYour task is to analyze the Text below and extract all events that occurred during the current hospital shift (the time the note was written).\nClassify each event into one or more of the following categories:\nCategory\tDefinition\nEating\tThe patient takes food into their body by mouth.\nExcretion\tThe patient discharges waste matter from their body.\nFamily\tThe patient has a visit, call, or communication with a family member.\nPain\tThe patient reports or shows signs of pain.\nSleep\tThe patient sleeps or the sleep’s quality or quantity is described.\nUnknown\tchoose "Unknown" if none of the other event type are applicable..\n\n**Rules and Conditions** \n1. Time constraint: Consider only actions that occurred during the current shift as events. \n2. Event constraint: Consider patient history, planning and requests as case attributes. Log them seperately. \n3. Actor constraint: Find out who is the main actor of the event.\n4. Negation Rule: Extract an event even if negated (e.g. “did not sleep”), and set "negation": true.\n5. Default Assumptions: \n        - If actor unclear → "actor":"patient"\n        - If time not mentioned → "time": "Unknown" \n        - If cause not mentioned → "caused_by": "Unknown" \n6. Clarifications:\n        - Sedation/resting ≠ sleep events.\n        - Sleep apnea occurs during sleep.\n        - Actions done to enable an event do not imply the event occurred (e.g., “given med for sleep” ≠ sleep).\nFor each detected event, output strictly valid JSON following the schema below: \n```\n    \n                        {   \n                        "case_attributes":[ \n                        //all patient-related details that did NOT occur during the current hospital shift, including past history, future plans, or events that happened at home or outside the hospital.\n                            {\n                            "attribute_name":"attribute_value" \n                            }\n                        ]  \n                        "events": [ \n                        //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ \n                        //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n```\n**Examples for Sleep Classification**\n\n                1. Include as Sleep Event**\n                - "Patient slept for 2 hours."\n                - "heart rate 50pbm while asleep"\n                - "patient now awake" (awake "now" assumes the patient was sleeping at an earlier state)\n\n                2. Do NOT include as Sleep Event**\n                - "Patient asked for sleeping pill." (Request, not event)\n                - "Patient wants to sleep later." (Future plan)\n                - "Patient fell asleep while driving (history)." (Before shift)\n                - "Patient was sedated/put to sleep for procedure." (Sedation)\n                - "Daughter slept in the room." (Actor ≠ patient)\n                - "Patient Alert and Awake" (Although awake is mentioned, it is not in the context of a status change from sleep but as an observation)\n\n**Text**\nWritten between 1994-03-11 03:31:00 and 1994-03-11 03:41:00:\n\'neurologically patient has been drowsy and sleeping most of shift but wakes up easily\'\n', 'case_attributes': [[]], 'actor': ['patient'], 'event_detection_time': 4.132848178036511}</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -921,7 +938,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>['patient is a mouth breather, so sat will decrease to 92% while patient is asleep']</t>
+          <t>['patient has been drowsy and sleeping most of shift but wakes up easily']</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -929,49 +946,52 @@
           <t>['patient']</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
-        </is>
+      <c r="O6" t="b">
+        <v>1</v>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>['Sleep', 'Pain']</t>
+          <t>[{'Sleep': {'Sleep': {'quality': 'drowsy', 'duration': 'most of shift'}}}]</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}]</t>
+          <t>['Sleep']</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>['patient is a mouth breather, so sat will decrease to 92% while patient is asleep', '']</t>
+          <t>[{'Sleep': {'Sleep': {'quality': 'drowsy', 'duration': 'most of shift'}}}]</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>['e1=Sleep|1:patient is a mouth breather, so sat will decrease to 92% while patient is asleep', 'e2=Pain|1:']</t>
+          <t>['patient has been drowsy and sleeping most of shift but wakes up easily']</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>[[{'event_id_1': 'e1', 'relation': 'unknown', 'event_id_2': 'e2'}]]</t>
+          <t>['e1=Sleep|1:patient has been drowsy and sleeping most of shift but wakes up easily']</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>[[]]</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>3748_1310484_0003</t>
+          <t>15883_1468969_0014</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>cv: diastolic blood pressure labile, transiently on labetalol for bp 150s, ranging 79-150/, down significantly when asleep but patient. awakens easily and is coherent, map &gt;60, md aware, cont to closely monitor</t>
+          <t>moving or stirring in sleep. ?</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -982,12 +1002,12 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>(Timestamp('2180-03-13 04:14:00'), Timestamp('2180-03-13 04:36:00'))</t>
+          <t>(Timestamp('2008-09-28 04:30:00'), Timestamp('2008-09-28 04:40:00'))</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>{'text': 'cv: diastolic blood pressure labile, transiently on labetalol for bp 150s, ranging 79-150/, down significantly when asleep but patient. awakens easily and is coherent, map &gt;60, md aware, cont to closely monitor', 'event': ['Sleep', 'Pain'], 'event_id': ['e1', 'e2'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Sleep",\n            "text_quote": "down significantly when asleep but patient. awakens easily and is coherent",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "Unknown",\n                    "location": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        }\n    ],\n    "order": [\n        {\n            "event_id_1": "e1",\n            "relation": "unknown",\n            "event_id_2": "e2"\n        }\n    ]\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'unknown', 'event_id_2': 'e2'}]], 'text_quotes': ['down significantly when asleep but patient. awakens easily and is coherent', ''], 'event_time': ['Unknown', 'Unknown'], 'negation': [False, True], 'caused_by': ['Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the Text at the end of this prompt into events that took place at the HOSPITAL, DURING THE SHIFT in which this text was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'An event is extracted from the text even if it is negated (e.g. "did not sleep"), but the respective negation attribute is set to True.\', \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n              \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n            ```\n           \n           \n           Text (written between 2180-03-13 04:14:00 and 2180-03-13 04:36:00):\n           cv: diastolic blood pressure labile, transiently on labetalol for bp 150s, ranging 79-150/, down significantly when asleep but patient. awakens easily and is coherent, map &gt;60, md aware, cont to closely monitor\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient'], 'event_detection_time': 7.945815502898768}</t>
+          <t>{'text': 'moving or stirring in sleep. ?', 'event': ['Sleep'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Sleep",\n            "text_quote": "moving or stirring in sleep.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "restless"\n                }\n            }\n        }\n    ],\n    "order": []\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'restless'}}}], 'orders': [[]], 'text_quotes': ['moving or stirring in sleep.'], 'event_time': ['Unknown'], 'negation': [False], 'caused_by': ['Unknown'], 'event_name_prompt': '**Task: Event Classification and Attribute Extraction** \nYour task is to analyze the Text below and extract all events that occurred during the current hospital shift (the time the note was written).\nClassify each event into one or more of the following categories:\nCategory\tDefinition\nEating\tThe patient takes food into their body by mouth.\nExcretion\tThe patient discharges waste matter from their body.\nFamily\tThe patient has a visit, call, or communication with a family member.\nPain\tThe patient reports or shows signs of pain.\nSleep\tThe patient sleeps or the sleep’s quality or quantity is described.\nUnknown\tchoose "Unknown" if none of the other event type are applicable..\n\n**Rules and Conditions** \n1. Time constraint: Consider only actions that occurred during the current shift as events. \n2. Event constraint: Consider patient history, planning and requests as case attributes. Log them seperately. \n3. Actor constraint: Find out who is the main actor of the event.\n4. Negation Rule: Extract an event even if negated (e.g. “did not sleep”), and set "negation": true.\n5. Default Assumptions: \n        - If actor unclear → "actor":"patient"\n        - If time not mentioned → "time": "Unknown" \n        - If cause not mentioned → "caused_by": "Unknown" \n6. Clarifications:\n        - Sedation/resting ≠ sleep events.\n        - Sleep apnea occurs during sleep.\n        - Actions done to enable an event do not imply the event occurred (e.g., “given med for sleep” ≠ sleep).\nFor each detected event, output strictly valid JSON following the schema below: \n```\n    \n                        {   \n                        "case_attributes":[ \n                        //all patient-related details that did NOT occur during the current hospital shift, including past history, future plans, or events that happened at home or outside the hospital.\n                            {\n                            "attribute_name":"attribute_value" \n                            }\n                        ]  \n                        "events": [ \n                        //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ \n                        //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n```\n**Examples for Sleep Classification**\n\n                1. Include as Sleep Event**\n                - "Patient slept for 2 hours."\n                - "heart rate 50pbm while asleep"\n                - "patient now awake" (awake "now" assumes the patient was sleeping at an earlier state)\n\n                2. Do NOT include as Sleep Event**\n                - "Patient asked for sleeping pill." (Request, not event)\n                - "Patient wants to sleep later." (Future plan)\n                - "Patient fell asleep while driving (history)." (Before shift)\n                - "Patient was sedated/put to sleep for procedure." (Sedation)\n                - "Daughter slept in the room." (Actor ≠ patient)\n                - "Patient Alert and Awake" (Although awake is mentioned, it is not in the context of a status change from sleep but as an observation)\n\n**Text**\nWritten between 2008-09-28 04:30:00 and 2008-09-28 04:40:00:\n\'moving or stirring in sleep. ?\'\n', 'case_attributes': [[]], 'actor': ['patient'], 'event_detection_time': 3.5369943871628493}</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -1007,7 +1027,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>['down significantly when asleep but patient. awakens easily and is coherent']</t>
+          <t>['moving or stirring in sleep.']</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -1015,34 +1035,37 @@
           <t>['patient']</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
-        </is>
+      <c r="O7" t="b">
+        <v>1</v>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>['Sleep', 'Pain']</t>
+          <t>[{'Sleep': {'Sleep': {'quality': 'restless'}}}]</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}]</t>
+          <t>['Sleep']</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>['down significantly when asleep but patient. awakens easily and is coherent', '']</t>
+          <t>[{'Sleep': {'Sleep': {'quality': 'restless'}}}]</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>['e1=Sleep|1:down significantly when asleep but patient. awakens easily and is coherent', 'e2=Pain|1:']</t>
+          <t>['moving or stirring in sleep.']</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>[[{'event_id_1': 'e1', 'relation': 'unknown', 'event_id_2': 'e2'}]]</t>
+          <t>['e1=Sleep|1:moving or stirring in sleep.']</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>[[]]</t>
         </is>
       </c>
     </row>
@@ -1068,12 +1091,12 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>(Timestamp('2179-07-04 04:30:00'), Timestamp('2179-07-04 04:40:00'))</t>
+          <t>(Timestamp('2008-09-28 04:30:00'), Timestamp('2008-09-28 04:40:00'))</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>{'text': 'sleep apnea', 'event': ['Sleep'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Sleep",\n      "text_quote": "sleep apnea",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "apnea"\n        }\n      }\n    }\n  ],\n  "order": []\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'apnea'}}}], 'orders': [[]], 'text_quotes': ['sleep apnea'], 'event_time': ['Unknown'], 'negation': [False], 'caused_by': ['Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the Text at the end of this prompt into events that took place at the HOSPITAL, DURING THE SHIFT in which this text was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'An event is extracted from the text even if it is negated (e.g. "did not sleep"), but the respective negation attribute is set to True.\', \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n              \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n            ```\n           \n           \n           Text (written between 2179-07-04 04:30:00 and 2179-07-04 04:40:00):\n           sleep apnea\n        ', 'case_attributes': [[]], 'actor': ['patient'], 'event_detection_time': 3.4346960650291294}</t>
+          <t>{'text': 'sleep apnea', 'event': ['Sleep'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Sleep",\n            "text_quote": "sleep apnea",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        }\n    ],\n    "order": []\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}], 'orders': [[]], 'text_quotes': ['sleep apnea'], 'event_time': ['Unknown'], 'negation': [False], 'caused_by': ['Unknown'], 'event_name_prompt': '**Task: Event Classification and Attribute Extraction** \nYour task is to analyze the Text below and extract all events that occurred during the current hospital shift (the time the note was written).\nClassify each event into one or more of the following categories:\nCategory\tDefinition\nEating\tThe patient takes food into their body by mouth.\nExcretion\tThe patient discharges waste matter from their body.\nFamily\tThe patient has a visit, call, or communication with a family member.\nPain\tThe patient reports or shows signs of pain.\nSleep\tThe patient sleeps or the sleep’s quality or quantity is described.\nUnknown\tchoose "Unknown" if none of the other event type are applicable..\n\n**Rules and Conditions** \n1. Time constraint: Consider only actions that occurred during the current shift as events. \n2. Event constraint: Consider patient history, planning and requests as case attributes. Log them seperately. \n3. Actor constraint: Find out who is the main actor of the event.\n4. Negation Rule: Extract an event even if negated (e.g. “did not sleep”), and set "negation": true.\n5. Default Assumptions: \n        - If actor unclear → "actor":"patient"\n        - If time not mentioned → "time": "Unknown" \n        - If cause not mentioned → "caused_by": "Unknown" \n6. Clarifications:\n        - Sedation/resting ≠ sleep events.\n        - Sleep apnea occurs during sleep.\n        - Actions done to enable an event do not imply the event occurred (e.g., “given med for sleep” ≠ sleep).\nFor each detected event, output strictly valid JSON following the schema below: \n```\n    \n                        {   \n                        "case_attributes":[ \n                        //all patient-related details that did NOT occur during the current hospital shift, including past history, future plans, or events that happened at home or outside the hospital.\n                            {\n                            "attribute_name":"attribute_value" \n                            }\n                        ]  \n                        "events": [ \n                        //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ \n                        //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n```\n**Examples for Sleep Classification**\n\n                1. Include as Sleep Event**\n                - "Patient slept for 2 hours."\n                - "heart rate 50pbm while asleep"\n                - "patient now awake" (awake "now" assumes the patient was sleeping at an earlier state)\n\n                2. Do NOT include as Sleep Event**\n                - "Patient asked for sleeping pill." (Request, not event)\n                - "Patient wants to sleep later." (Future plan)\n                - "Patient fell asleep while driving (history)." (Before shift)\n                - "Patient was sedated/put to sleep for procedure." (Sedation)\n                - "Daughter slept in the room." (Actor ≠ patient)\n                - "Patient Alert and Awake" (Although awake is mentioned, it is not in the context of a status change from sleep but as an observation)\n\n**Text**\nWritten between 2008-09-28 04:30:00 and 2008-09-28 04:40:00:\n\'sleep apnea\'\n', 'case_attributes': [[]], 'actor': ['patient'], 'event_detection_time': 3.6212174200918525}</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -1101,32 +1124,35 @@
           <t>['patient']</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>[{'Sleep': {'Sleep': {'quality': 'apnea'}}}]</t>
-        </is>
+      <c r="O8" t="b">
+        <v>1</v>
       </c>
       <c r="P8" t="inlineStr">
         <is>
+          <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
           <t>['Sleep']</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>[{'Sleep': {'Sleep': {'quality': 'apnea'}}}]</t>
-        </is>
-      </c>
       <c r="R8" t="inlineStr">
         <is>
+          <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
           <t>['sleep apnea']</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>['e1=Sleep|1:sleep apnea']</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -1134,16 +1160,16 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>15883_1468997_0008</t>
+          <t>15883_1468981_0011</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>slept after 5mg by mouth ambien, bedrest maintained</t>
+          <t>patient was sleeping in am, awake most off afternoon and now sleepingagain this pm</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -1154,12 +1180,12 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>(Timestamp('2179-07-11 05:02:00'), Timestamp('2179-07-11 05:15:00'))</t>
+          <t>(Timestamp('2008-10-01 18:34:00'), Timestamp('2008-10-01 18:44:00'))</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>{'text': 'slept after 5mg by mouth ambien, bedrest maintained', 'event': ['Sleep', 'Eating'], 'event_id': ['e1', 'e2'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Sleep",\n      "text_quote": "slept after 5mg by mouth ambien, bedrest maintained",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e2",\n      "event_type": "Eating",\n      "text_quote": "5mg by mouth ambien",\n      "actor": "patient",\n      "object": "ambien",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {\n          "food": "ambien",\n          "amount": "5mg",\n          "method": "by mouth"\n        }\n      }\n    }\n  ],\n  "order": [\n    {\n      "event_id_1": "e2",\n      "relation": "before",\n      "event_id_2": "e1"\n    }\n  ]\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Eating': {'Eating': {'food': 'ambien', 'amount': '5mg', 'method': 'by mouth'}}}], 'orders': [[{'event_id_1': 'e2', 'relation': 'before', 'event_id_2': 'e1'}]], 'text_quotes': ['slept after 5mg by mouth ambien, bedrest maintained', '5mg by mouth ambien'], 'event_time': ['Unknown', 'Unknown'], 'negation': [False, False], 'caused_by': ['Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the Text at the end of this prompt into events that took place at the HOSPITAL, DURING THE SHIFT in which this text was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'An event is extracted from the text even if it is negated (e.g. "did not sleep"), but the respective negation attribute is set to True.\', \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n              \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n            ```\n           \n           \n           Text (written between 2179-07-11 05:02:00 and 2179-07-11 05:15:00):\n           slept after 5mg by mouth ambien, bedrest maintained\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient'], 'event_detection_time': 8.291189220966771}</t>
+          <t>{'text': 'patient was sleeping in am, awake most off afternoon and now sleepingagain this pm', 'event': ['Sleep', 'Sleep', 'Sleep'], 'event_id': ['e1', 'e2', 'e3'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Sleep",\n            "text_quote": "patient was sleeping in am",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "am",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Sleep",\n            "text_quote": "now sleeping again this pm",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "pm",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e3",\n            "event_type": "Sleep",\n            "text_quote": "awake most of afternoon",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "afternoon",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        }\n    ],\n    "order": [\n        {\n            "event_id_1": "e1",\n            "relation": "before",\n            "event_id_2": "e3"\n        },\n        {\n            "event_id_1": "e3",\n            "relation": "before",\n            "event_id_2": "e2"\n        }\n    ]\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e3'}, {'event_id_1': 'e3', 'relation': 'before', 'event_id_2': 'e2'}]], 'text_quotes': ['patient was sleeping in am', 'now sleeping again this pm', 'awake most of afternoon'], 'event_time': ['am', 'pm', 'afternoon'], 'negation': [False, False, True], 'caused_by': ['Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '**Task: Event Classification and Attribute Extraction** \nYour task is to analyze the Text below and extract all events that occurred during the current hospital shift (the time the note was written).\nClassify each event into one or more of the following categories:\nCategory\tDefinition\nEating\tThe patient takes food into their body by mouth.\nExcretion\tThe patient discharges waste matter from their body.\nFamily\tThe patient has a visit, call, or communication with a family member.\nPain\tThe patient reports or shows signs of pain.\nSleep\tThe patient sleeps or the sleep’s quality or quantity is described.\nUnknown\tchoose "Unknown" if none of the other event type are applicable..\n\n**Rules and Conditions** \n1. Time constraint: Consider only actions that occurred during the current shift as events. \n2. Event constraint: Consider patient history, planning and requests as case attributes. Log them seperately. \n3. Actor constraint: Find out who is the main actor of the event.\n4. Negation Rule: Extract an event even if negated (e.g. “did not sleep”), and set "negation": true.\n5. Default Assumptions: \n        - If actor unclear → "actor":"patient"\n        - If time not mentioned → "time": "Unknown" \n        - If cause not mentioned → "caused_by": "Unknown" \n6. Clarifications:\n        - Sedation/resting ≠ sleep events.\n        - Sleep apnea occurs during sleep.\n        - Actions done to enable an event do not imply the event occurred (e.g., “given med for sleep” ≠ sleep).\nFor each detected event, output strictly valid JSON following the schema below: \n```\n    \n                        {   \n                        "case_attributes":[ \n                        //all patient-related details that did NOT occur during the current hospital shift, including past history, future plans, or events that happened at home or outside the hospital.\n                            {\n                            "attribute_name":"attribute_value" \n                            }\n                        ]  \n                        "events": [ \n                        //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ \n                        //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n```\n**Examples for Sleep Classification**\n\n                1. Include as Sleep Event**\n                - "Patient slept for 2 hours."\n                - "heart rate 50pbm while asleep"\n                - "patient now awake" (awake "now" assumes the patient was sleeping at an earlier state)\n\n                2. Do NOT include as Sleep Event**\n                - "Patient asked for sleeping pill." (Request, not event)\n                - "Patient wants to sleep later." (Future plan)\n                - "Patient fell asleep while driving (history)." (Before shift)\n                - "Patient was sedated/put to sleep for procedure." (Sedation)\n                - "Daughter slept in the room." (Actor ≠ patient)\n                - "Patient Alert and Awake" (Although awake is mentioned, it is not in the context of a status change from sleep but as an observation)\n\n**Text**\nWritten between 2008-10-01 18:34:00 and 2008-10-01 18:44:00:\n\'patient was sleeping in am, awake most off afternoon and now sleepingagain this pm\'\n', 'case_attributes': [[]], 'actor': ['patient', 'patient', 'patient'], 'event_detection_time': 11.583874989999458}</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -1174,62 +1200,65 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>[True]</t>
+          <t>[True, True, True]</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>['slept after 5mg by mouth ambien, bedrest maintained']</t>
+          <t>['patient was sleeping in am', 'now sleeping again this pm', 'awake most of afternoon']</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>['patient']</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
-        </is>
+          <t>['patient', 'patient', 'patient']</t>
+        </is>
+      </c>
+      <c r="O9" t="b">
+        <v>1</v>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>['Sleep', 'Eating']</t>
+          <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Eating': {'Eating': {'food': 'ambien', 'amount': '5mg', 'method': 'by mouth'}}}]</t>
+          <t>['Sleep', 'Sleep', 'Sleep']</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>['slept after 5mg by mouth ambien, bedrest maintained', '5mg by mouth ambien']</t>
+          <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>['e1=Sleep|1:slept after 5mg by mouth ambien, bedrest maintained', 'e2=Eating|1:5mg by mouth ambien']</t>
+          <t>['patient was sleeping in am', 'now sleeping again this pm', 'awake most of afternoon']</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>[[{'event_id_1': 'e2', 'relation': 'before', 'event_id_2': 'e1'}]]</t>
+          <t>['e1=Sleep|1:patient was sleeping in am', 'e2=Sleep|0:now sleeping again this pm', 'e3=Sleep|0:awake most of afternoon']</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>[[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e3'}, {'event_id_1': 'e3', 'relation': 'before', 'event_id_2': 'e2'}]]</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>14995_1457374_0001</t>
+          <t>15883_1468997_0008</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>s: i can't really sleep...maybe i slept too much today</t>
+          <t>slept after 5mg by mouth ambien, bedrest maintained</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -1240,12 +1269,12 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>(Timestamp('2102-09-23 06:56:00'), Timestamp('2102-09-23 07:09:00'))</t>
+          <t>(Timestamp('2008-10-05 05:02:00'), Timestamp('2008-10-05 05:15:00'))</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>{'text': "s: i can't really sleep...maybe i slept too much today", 'event': ['Sleep', 'Sleep'], 'event_id': ['e1', 'e2'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Sleep",\n      "text_quote": "i can\'t really sleep...maybe i slept too much today",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "poor",\n          "duration": "short"\n        }\n      }\n    },\n    {\n      "event_id": "e2",\n      "event_type": "Sleep",\n      "text_quote": "maybe i slept too much today",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "excessive",\n          "duration": "long"\n        }\n      }\n    }\n  ],\n  "order": [\n    {\n      "event_id_1": "e2",\n      "relation": "before",\n      "event_id_2": "e1"\n    }\n  ]\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'poor', 'duration': 'short'}}}, {'Sleep': {'Sleep': {'quality': 'excessive', 'duration': 'long'}}}], 'orders': [[{'event_id_1': 'e2', 'relation': 'before', 'event_id_2': 'e1'}]], 'text_quotes': ["i can't really sleep...maybe i slept too much today", 'maybe i slept too much today'], 'event_time': ['Unknown', 'Unknown'], 'negation': [True, False], 'caused_by': ['Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the Text at the end of this prompt into events that took place at the HOSPITAL, DURING THE SHIFT in which this text was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'An event is extracted from the text even if it is negated (e.g. "did not sleep"), but the respective negation attribute is set to True.\', \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n              \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n            ```\n           \n           \n           Text (written between 2102-09-23 06:56:00 and 2102-09-23 07:09:00):\n           s: i can\'t really sleep...maybe i slept too much today\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient'], 'event_detection_time': 7.89308607019484}</t>
+          <t>{'text': 'slept after 5mg by mouth ambien, bedrest maintained', 'event': ['Sleep', 'Eating', 'Excretion', 'Family', 'Pain', 'Sleep'], 'event_id': ['e1', 'e2', 'e3', 'e4', 'e5', 'e6'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Sleep",\n            "text_quote": "slept after 5mg by mouth ambien, bedrest maintained",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "ambien",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Eating",\n            "text_quote": "5mg by mouth ambien",\n            "actor": "patient",\n            "object": "ambien",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {\n                    "food": "ambien",\n                    "amount": "5mg",\n                    "method": "by mouth"\n                }\n            }\n        },\n        {\n            "event_id": "e3",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "Unknown",\n                    "frequency": "Unknown",\n                    "quality": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e4",\n            "event_type": "Family",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {\n                    "interaction": "Unknown",\n                    "relation": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e5",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "Unknown",\n                    "location": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e6",\n            "event_type": "Sleep",\n            "text_quote": "bedrest maintained",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        }\n    ],\n    "order": [\n        {\n            "event_id_1": "e2",\n            "relation": "before",\n            "event_id_2": "e1"\n        },\n        {\n            "event_id_1": "e1",\n            "relation": "simultaneous",\n            "event_id_2": "e6"\n        }\n    ]\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Eating': {'Eating': {'food': 'ambien', 'amount': '5mg', 'method': 'by mouth'}}}, {'Excretion': {'Excretion': {'type': 'Unknown', 'frequency': 'Unknown', 'quality': 'Unknown'}}}, {'Family': {'Family': {'interaction': 'Unknown', 'relation': 'Unknown'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}], 'orders': [[{'event_id_1': 'e2', 'relation': 'before', 'event_id_2': 'e1'}, {'event_id_1': 'e1', 'relation': 'simultaneous', 'event_id_2': 'e6'}]], 'text_quotes': ['slept after 5mg by mouth ambien, bedrest maintained', '5mg by mouth ambien', '', '', '', 'bedrest maintained'], 'event_time': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'negation': [False, False, True, True, True, False], 'caused_by': ['ambien', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '**Task: Event Classification and Attribute Extraction** \nYour task is to analyze the Text below and extract all events that occurred during the current hospital shift (the time the note was written).\nClassify each event into one or more of the following categories:\nCategory\tDefinition\nEating\tThe patient takes food into their body by mouth.\nExcretion\tThe patient discharges waste matter from their body.\nFamily\tThe patient has a visit, call, or communication with a family member.\nPain\tThe patient reports or shows signs of pain.\nSleep\tThe patient sleeps or the sleep’s quality or quantity is described.\nUnknown\tchoose "Unknown" if none of the other event type are applicable..\n\n**Rules and Conditions** \n1. Time constraint: Consider only actions that occurred during the current shift as events. \n2. Event constraint: Consider patient history, planning and requests as case attributes. Log them seperately. \n3. Actor constraint: Find out who is the main actor of the event.\n4. Negation Rule: Extract an event even if negated (e.g. “did not sleep”), and set "negation": true.\n5. Default Assumptions: \n        - If actor unclear → "actor":"patient"\n        - If time not mentioned → "time": "Unknown" \n        - If cause not mentioned → "caused_by": "Unknown" \n6. Clarifications:\n        - Sedation/resting ≠ sleep events.\n        - Sleep apnea occurs during sleep.\n        - Actions done to enable an event do not imply the event occurred (e.g., “given med for sleep” ≠ sleep).\nFor each detected event, output strictly valid JSON following the schema below: \n```\n    \n                        {   \n                        "case_attributes":[ \n                        //all patient-related details that did NOT occur during the current hospital shift, including past history, future plans, or events that happened at home or outside the hospital.\n                            {\n                            "attribute_name":"attribute_value" \n                            }\n                        ]  \n                        "events": [ \n                        //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ \n                        //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n```\n**Examples for Sleep Classification**\n\n                1. Include as Sleep Event**\n                - "Patient slept for 2 hours."\n                - "heart rate 50pbm while asleep"\n                - "patient now awake" (awake "now" assumes the patient was sleeping at an earlier state)\n\n                2. Do NOT include as Sleep Event**\n                - "Patient asked for sleeping pill." (Request, not event)\n                - "Patient wants to sleep later." (Future plan)\n                - "Patient fell asleep while driving (history)." (Before shift)\n                - "Patient was sedated/put to sleep for procedure." (Sedation)\n                - "Daughter slept in the room." (Actor ≠ patient)\n                - "Patient Alert and Awake" (Although awake is mentioned, it is not in the context of a status change from sleep but as an observation)\n\n**Text**\nWritten between 2008-10-05 05:02:00 and 2008-10-05 05:15:00:\n\'slept after 5mg by mouth ambien, bedrest maintained\'\n', 'case_attributes': [[]], 'actor': ['patient', 'patient', 'patient', 'patient', 'patient', 'patient'], 'event_detection_time': 21.034552023978904}</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -1265,7 +1294,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>["i can't really sleep...maybe i slept too much today", 'maybe i slept too much today']</t>
+          <t>['slept after 5mg by mouth ambien, bedrest maintained', 'bedrest maintained']</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1273,49 +1302,52 @@
           <t>['patient', 'patient']</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>[{'Sleep': {'Sleep': {'quality': 'poor', 'duration': 'short'}}}, {'Sleep': {'Sleep': {'quality': 'excessive', 'duration': 'long'}}}]</t>
-        </is>
+      <c r="O10" t="b">
+        <v>1</v>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>['Sleep', 'Sleep']</t>
+          <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[{'Sleep': {'Sleep': {'quality': 'poor', 'duration': 'short'}}}, {'Sleep': {'Sleep': {'quality': 'excessive', 'duration': 'long'}}}]</t>
+          <t>['Sleep', 'Eating', 'Excretion', 'Family', 'Pain', 'Sleep']</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>["i can't really sleep...maybe i slept too much today", 'maybe i slept too much today']</t>
+          <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Eating': {'Eating': {'food': 'ambien', 'amount': '5mg', 'method': 'by mouth'}}}, {'Excretion': {'Excretion': {'type': 'Unknown', 'frequency': 'Unknown', 'quality': 'Unknown'}}}, {'Family': {'Family': {'interaction': 'Unknown', 'relation': 'Unknown'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>["e1=Sleep|1:i can't really sleep...maybe i slept too much today", 'e2=Sleep|1:maybe i slept too much today']</t>
+          <t>['slept after 5mg by mouth ambien, bedrest maintained', '5mg by mouth ambien', '', '', '', 'bedrest maintained']</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>[[{'event_id_1': 'e2', 'relation': 'before', 'event_id_2': 'e1'}]]</t>
+          <t>['e1=Sleep|1:slept after 5mg by mouth ambien, bedrest maintained', 'e2=Eating|1:5mg by mouth ambien', 'e3=Excretion|1:', 'e4=Family|1:', 'e5=Pain|1:', 'e6=Sleep|1:bedrest maintained']</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>[[{'event_id_1': 'e2', 'relation': 'before', 'event_id_2': 'e1'}, {'event_id_1': 'e1', 'relation': 'simultaneous', 'event_id_2': 'e6'}]]</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>16459_1477480_0040</t>
+          <t>14995_1457369_0030</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>sleep apnea</t>
+          <t>he only sleeps 5-10min at a time</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -1326,12 +1358,12 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>(Timestamp('2186-03-07 03:24:00'), Timestamp('2186-03-07 03:55:00'))</t>
+          <t>(Timestamp('1931-12-16 22:56:00'), Timestamp('1931-12-16 23:27:00'))</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>{'text': 'sleep apnea', 'event': ['Sleep'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Sleep",\n      "text_quote": "sleep apnea",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "apnea"\n        }\n      }\n    }\n  ],\n  "order": []\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'apnea'}}}], 'orders': [[]], 'text_quotes': ['sleep apnea'], 'event_time': ['Unknown'], 'negation': [False], 'caused_by': ['Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the Text at the end of this prompt into events that took place at the HOSPITAL, DURING THE SHIFT in which this text was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'An event is extracted from the text even if it is negated (e.g. "did not sleep"), but the respective negation attribute is set to True.\', \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n              \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n            ```\n           \n           \n           Text (written between 2186-03-07 03:24:00 and 2186-03-07 03:55:00):\n           sleep apnea\n        ', 'case_attributes': [[]], 'actor': ['patient'], 'event_detection_time': nan}</t>
+          <t>{'text': 'he only sleeps 5-10min at a time', 'event': ['Sleep'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Sleep",\n      "text_quote": "he only sleeps 5-10min at a time",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "poor",\n          "duration": "short"\n        }\n      }\n    }\n  ],\n  "order": []\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'poor', 'duration': 'short'}}}], 'orders': [[]], 'text_quotes': ['he only sleeps 5-10min at a time'], 'event_time': ['Unknown'], 'negation': [False], 'caused_by': ['Unknown'], 'event_name_prompt': '**Task: Event Classification and Attribute Extraction** \nYour task is to analyze the Text below and extract all events that occurred during the current hospital shift (the time the note was written).\nClassify each event into one or more of the following categories:\nCategory\tDefinition\nEating\tThe patient takes food into their body by mouth.\nExcretion\tThe patient discharges waste matter from their body.\nFamily\tThe patient has a visit, call, or communication with a family member.\nPain\tThe patient reports or shows signs of pain.\nSleep\tThe patient sleeps or the sleep’s quality or quantity is described.\nUnknown\tchoose "Unknown" if none of the other event type are applicable..\n\n**Rules and Conditions** \n1. Time constraint: Consider only actions that occurred during the current shift as events. \n2. Event constraint: Consider patient history, planning and requests as case attributes. Log them seperately. \n3. Actor constraint: Find out who is the main actor of the event.\n4. Negation Rule: Extract an event even if negated (e.g. “did not sleep”), and set "negation": true.\n5. Default Assumptions: \n        - If actor unclear → "actor":"patient"\n        - If time not mentioned → "time": "Unknown" \n        - If cause not mentioned → "caused_by": "Unknown" \n6. Clarifications:\n        - Sedation/resting ≠ sleep events.\n        - Sleep apnea occurs during sleep.\n        - Actions done to enable an event do not imply the event occurred (e.g., “given med for sleep” ≠ sleep).\nFor each detected event, output strictly valid JSON following the schema below: \n```\n    \n                        {   \n                        "case_attributes":[ \n                        //all patient-related details that did NOT occur during the current hospital shift, including past history, future plans, or events that happened at home or outside the hospital.\n                            {\n                            "attribute_name":"attribute_value" \n                            }\n                        ]  \n                        "events": [ \n                        //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ \n                        //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n```\n**Examples for Sleep Classification**\n\n                1. Include as Sleep Event**\n                - "Patient slept for 2 hours."\n                - "heart rate 50pbm while asleep"\n                - "patient now awake" (awake "now" assumes the patient was sleeping at an earlier state)\n\n                2. Do NOT include as Sleep Event**\n                - "Patient asked for sleeping pill." (Request, not event)\n                - "Patient wants to sleep later." (Future plan)\n                - "Patient fell asleep while driving (history)." (Before shift)\n                - "Patient was sedated/put to sleep for procedure." (Sedation)\n                - "Daughter slept in the room." (Actor ≠ patient)\n                - "Patient Alert and Awake" (Although awake is mentioned, it is not in the context of a status change from sleep but as an observation)\n\n**Text**\nWritten between 1931-12-16 22:56:00 and 1931-12-16 23:27:00:\n\'he only sleeps 5-10min at a time\'\n', 'case_attributes': [[]], 'actor': ['patient'], 'event_detection_time': 3.92233230615966}</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -1351,7 +1383,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>['sleep apnea']</t>
+          <t>['he only sleeps 5-10min at a time']</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1359,32 +1391,35 @@
           <t>['patient']</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>[{'Sleep': {'Sleep': {'quality': 'apnea'}}}]</t>
-        </is>
+      <c r="O11" t="b">
+        <v>1</v>
       </c>
       <c r="P11" t="inlineStr">
         <is>
+          <t>[{'Sleep': {'Sleep': {'quality': 'poor', 'duration': 'short'}}}]</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
           <t>['Sleep']</t>
         </is>
       </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>[{'Sleep': {'Sleep': {'quality': 'apnea'}}}]</t>
-        </is>
-      </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>['sleep apnea']</t>
+          <t>[{'Sleep': {'Sleep': {'quality': 'poor', 'duration': 'short'}}}]</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>['e1=Sleep|1:sleep apnea']</t>
+          <t>['he only sleeps 5-10min at a time']</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
+        <is>
+          <t>['e1=Sleep|1:he only sleeps 5-10min at a time']</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -1392,16 +1427,16 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>106</v>
+        <v>63</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>22673_1558377_0005</t>
+          <t>14995_1457380_0019</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>sleeping. vss</t>
+          <t>ms- ambien for sleep- very much awake on/off all of night</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -1412,12 +1447,12 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>(Timestamp('2167-05-21 05:19:00'), Timestamp('2167-05-21 05:32:00'))</t>
+          <t>(Timestamp('1931-12-22 05:51:00'), Timestamp('1931-12-22 06:05:00'))</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>{'text': 'sleeping. vss', 'event': ['Sleep'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Sleep",\n      "text_quote": "sleeping",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    }\n  ],\n  "order": []\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}], 'orders': [[]], 'text_quotes': ['sleeping'], 'event_time': ['Unknown'], 'negation': [False], 'caused_by': ['Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the Text at the end of this prompt into events that took place at the HOSPITAL, DURING THE SHIFT in which this text was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'An event is extracted from the text even if it is negated (e.g. "did not sleep"), but the respective negation attribute is set to True.\', \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n              \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n            ```\n           \n           \n           Text (written between 2167-05-21 05:19:00 and 2167-05-21 05:32:00):\n           sleeping. vss\n        ', 'case_attributes': [[]], 'actor': ['patient'], 'event_detection_time': 3.5918684678617865}</t>
+          <t>{'text': 'ms- ambien for sleep- very much awake on/off all of night', 'event': ['Sleep'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [\n        {\n            "attribute_name": "medication_request",\n            "attribute_value": "ms-ambien"\n        }\n    ],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Sleep",\n            "text_quote": "very much awake on/off all of night",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "night",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "poor",\n                    "duration": "on and off"\n                }\n            }\n        }\n    ],\n    "order": []\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'poor', 'duration': 'on and off'}}}], 'orders': [[]], 'text_quotes': ['very much awake on/off all of night'], 'event_time': ['night'], 'negation': [True], 'caused_by': ['Unknown'], 'event_name_prompt': '**Task: Event Classification and Attribute Extraction** \nYour task is to analyze the Text below and extract all events that occurred during the current hospital shift (the time the note was written).\nClassify each event into one or more of the following categories:\nCategory\tDefinition\nEating\tThe patient takes food into their body by mouth.\nExcretion\tThe patient discharges waste matter from their body.\nFamily\tThe patient has a visit, call, or communication with a family member.\nPain\tThe patient reports or shows signs of pain.\nSleep\tThe patient sleeps or the sleep’s quality or quantity is described.\nUnknown\tchoose "Unknown" if none of the other event type are applicable..\n\n**Rules and Conditions** \n1. Time constraint: Consider only actions that occurred during the current shift as events. \n2. Event constraint: Consider patient history, planning and requests as case attributes. Log them seperately. \n3. Actor constraint: Find out who is the main actor of the event.\n4. Negation Rule: Extract an event even if negated (e.g. “did not sleep”), and set "negation": true.\n5. Default Assumptions: \n        - If actor unclear → "actor":"patient"\n        - If time not mentioned → "time": "Unknown" \n        - If cause not mentioned → "caused_by": "Unknown" \n6. Clarifications:\n        - Sedation/resting ≠ sleep events.\n        - Sleep apnea occurs during sleep.\n        - Actions done to enable an event do not imply the event occurred (e.g., “given med for sleep” ≠ sleep).\nFor each detected event, output strictly valid JSON following the schema below: \n```\n    \n                        {   \n                        "case_attributes":[ \n                        //all patient-related details that did NOT occur during the current hospital shift, including past history, future plans, or events that happened at home or outside the hospital.\n                            {\n                            "attribute_name":"attribute_value" \n                            }\n                        ]  \n                        "events": [ \n                        //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ \n                        //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n```\n**Examples for Sleep Classification**\n\n                1. Include as Sleep Event**\n                - "Patient slept for 2 hours."\n                - "heart rate 50pbm while asleep"\n                - "patient now awake" (awake "now" assumes the patient was sleeping at an earlier state)\n\n                2. Do NOT include as Sleep Event**\n                - "Patient asked for sleeping pill." (Request, not event)\n                - "Patient wants to sleep later." (Future plan)\n                - "Patient fell asleep while driving (history)." (Before shift)\n                - "Patient was sedated/put to sleep for procedure." (Sedation)\n                - "Daughter slept in the room." (Actor ≠ patient)\n                - "Patient Alert and Awake" (Although awake is mentioned, it is not in the context of a status change from sleep but as an observation)\n\n**Text**\nWritten between 1931-12-22 05:51:00 and 1931-12-22 06:05:00:\n\'ms- ambien for sleep- very much awake on/off all of night\'\n', 'case_attributes': [[{'attribute_name': 'medication_request', 'attribute_value': 'ms-ambien'}]], 'actor': ['patient'], 'event_detection_time': 4.677826636005193}</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -1437,7 +1472,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>['sleeping']</t>
+          <t>['very much awake on/off all of night']</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -1445,32 +1480,35 @@
           <t>['patient']</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
-        </is>
+      <c r="O12" t="b">
+        <v>1</v>
       </c>
       <c r="P12" t="inlineStr">
         <is>
+          <t>[{'Sleep': {'Sleep': {'quality': 'poor', 'duration': 'on and off'}}}]</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
           <t>['Sleep']</t>
         </is>
       </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
-        </is>
-      </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>['sleeping']</t>
+          <t>[{'Sleep': {'Sleep': {'quality': 'poor', 'duration': 'on and off'}}}]</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>['e1=Sleep|1:sleeping']</t>
+          <t>['very much awake on/off all of night']</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
+        <is>
+          <t>['e1=Sleep|1:very much awake on/off all of night']</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -1478,16 +1516,16 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>115</v>
+        <v>76</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>23082_1563949_0000</t>
+          <t>14995_1457374_0005</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>patient sleeping fairly well despite activity in the room, offered to give ativan .5mg</t>
+          <t>sleeping in short naps</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -1498,12 +1536,12 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>(Timestamp('2151-05-10 04:08:00'), Timestamp('2151-05-10 04:11:00'))</t>
+          <t>(Timestamp('1931-12-19 06:56:00'), Timestamp('1931-12-19 07:09:00'))</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>{'text': 'patient sleeping fairly well despite activity in the room, offered to give ativan .5mg', 'event': ['Sleep', 'Pain'], 'event_id': ['e1', 'e2'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Sleep",\n      "text_quote": "patient sleeping fairly well despite activity in the room",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "fairly well"\n        }\n      }\n    },\n    {\n      "event_id": "e2",\n      "event_type": "Pain",\n      "text_quote": "offered to give ativan .5mg",\n      "actor": "others",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "Unknown",\n          "location": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    }\n  ],\n  "order": [\n    {\n      "event_id_1": "e2",\n      "relation": "after",\n      "event_id_2": "e1"\n    }\n  ]\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'fairly well'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}], 'orders': [[{'event_id_1': 'e2', 'relation': 'after', 'event_id_2': 'e1'}]], 'text_quotes': ['patient sleeping fairly well despite activity in the room', 'offered to give ativan .5mg'], 'event_time': ['Unknown', 'Unknown'], 'negation': [False, False], 'caused_by': ['Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the Text at the end of this prompt into events that took place at the HOSPITAL, DURING THE SHIFT in which this text was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'An event is extracted from the text even if it is negated (e.g. "did not sleep"), but the respective negation attribute is set to True.\', \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n              \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n            ```\n           \n           \n           Text (written between 2151-05-10 04:08:00 and 2151-05-10 04:11:00):\n           patient sleeping fairly well despite activity in the room, offered to give ativan .5mg\n        ', 'case_attributes': [[]], 'actor': ['patient', 'others'], 'event_detection_time': 7.988435260951519}</t>
+          <t>{'text': 'sleeping in short naps', 'event': ['Sleep'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Sleep",\n            "text_quote": "sleeping in short naps",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "short naps"\n                }\n            }\n        }\n    ],\n    "order": []\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'short naps'}}}], 'orders': [[]], 'text_quotes': ['sleeping in short naps'], 'event_time': ['Unknown'], 'negation': [False], 'caused_by': ['Unknown'], 'event_name_prompt': '**Task: Event Classification and Attribute Extraction** \nYour task is to analyze the Text below and extract all events that occurred during the current hospital shift (the time the note was written).\nClassify each event into one or more of the following categories:\nCategory\tDefinition\nEating\tThe patient takes food into their body by mouth.\nExcretion\tThe patient discharges waste matter from their body.\nFamily\tThe patient has a visit, call, or communication with a family member.\nPain\tThe patient reports or shows signs of pain.\nSleep\tThe patient sleeps or the sleep’s quality or quantity is described.\nUnknown\tchoose "Unknown" if none of the other event type are applicable..\n\n**Rules and Conditions** \n1. Time constraint: Consider only actions that occurred during the current shift as events. \n2. Event constraint: Consider patient history, planning and requests as case attributes. Log them seperately. \n3. Actor constraint: Find out who is the main actor of the event.\n4. Negation Rule: Extract an event even if negated (e.g. “did not sleep”), and set "negation": true.\n5. Default Assumptions: \n        - If actor unclear → "actor":"patient"\n        - If time not mentioned → "time": "Unknown" \n        - If cause not mentioned → "caused_by": "Unknown" \n6. Clarifications:\n        - Sedation/resting ≠ sleep events.\n        - Sleep apnea occurs during sleep.\n        - Actions done to enable an event do not imply the event occurred (e.g., “given med for sleep” ≠ sleep).\nFor each detected event, output strictly valid JSON following the schema below: \n```\n    \n                        {   \n                        "case_attributes":[ \n                        //all patient-related details that did NOT occur during the current hospital shift, including past history, future plans, or events that happened at home or outside the hospital.\n                            {\n                            "attribute_name":"attribute_value" \n                            }\n                        ]  \n                        "events": [ \n                        //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ \n                        //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n```\n**Examples for Sleep Classification**\n\n                1. Include as Sleep Event**\n                - "Patient slept for 2 hours."\n                - "heart rate 50pbm while asleep"\n                - "patient now awake" (awake "now" assumes the patient was sleeping at an earlier state)\n\n                2. Do NOT include as Sleep Event**\n                - "Patient asked for sleeping pill." (Request, not event)\n                - "Patient wants to sleep later." (Future plan)\n                - "Patient fell asleep while driving (history)." (Before shift)\n                - "Patient was sedated/put to sleep for procedure." (Sedation)\n                - "Daughter slept in the room." (Actor ≠ patient)\n                - "Patient Alert and Awake" (Although awake is mentioned, it is not in the context of a status change from sleep but as an observation)\n\n**Text**\nWritten between 1931-12-19 06:56:00 and 1931-12-19 07:09:00:\n\'sleeping in short naps\'\n', 'case_attributes': [[]], 'actor': ['patient'], 'event_detection_time': 3.5682864850386977}</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -1523,7 +1561,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>['patient sleeping fairly well despite activity in the room']</t>
+          <t>['sleeping in short naps']</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -1531,49 +1569,52 @@
           <t>['patient']</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>[{'Sleep': {'Sleep': {'quality': 'fairly well'}}}]</t>
-        </is>
+      <c r="O13" t="b">
+        <v>1</v>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>['Sleep', 'Pain']</t>
+          <t>[{'Sleep': {'Sleep': {'quality': 'short naps'}}}]</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[{'Sleep': {'Sleep': {'quality': 'fairly well'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}]</t>
+          <t>['Sleep']</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>['patient sleeping fairly well despite activity in the room', 'offered to give ativan .5mg']</t>
+          <t>[{'Sleep': {'Sleep': {'quality': 'short naps'}}}]</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>['e1=Sleep|1:patient sleeping fairly well despite activity in the room', 'e2=Pain|1:offered to give ativan .5mg']</t>
+          <t>['sleeping in short naps']</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>[[{'event_id_1': 'e2', 'relation': 'after', 'event_id_2': 'e1'}]]</t>
+          <t>['e1=Sleep|1:sleeping in short naps']</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>[[]]</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>23082_1563949_0005</t>
+          <t>16459_1477480_0040</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>in crease captopril dose while sleeping bp in the 80's .. goood response from [** **]</t>
+          <t>sleep apnea</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -1584,12 +1625,12 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>(Timestamp('2151-05-10 04:08:00'), Timestamp('2151-05-10 04:11:00'))</t>
+          <t>(Timestamp('2015-06-02 03:24:00'), Timestamp('2015-06-02 03:55:00'))</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>{'text': "in crease captopril dose while sleeping bp in the 80's .. goood response from [** **]", 'event': ['Sleep', 'Pain', 'Eating', 'Family', 'Excretion', 'Unknown'], 'event_id': ['e1', 'e2', 'e3', 'e4', 'e5', 'e6'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Sleep",\n            "text_quote": "while sleeping",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {}\n            }\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Pain",\n            "text_quote": "bp in the 80\'s",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e3",\n            "event_type": "Eating",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {}\n            }\n        },\n        {\n            "event_id": "e4",\n            "event_type": "Family",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {}\n            }\n        },\n        {\n            "event_id": "e5",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e6",\n            "event_type": "Unknown",\n            "text_quote": "goood response from [** **]",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        }\n    ],\n    "order": [\n        {\n            "event_id_1": "e1",\n            "relation": "unknown",\n            "event_id_2": "e2"\n        },\n        {\n            "event_id_1": "e2",\n            "relation": "unknown",\n            "event_id_2": "e6"\n        }\n    ]\n}', 'attributes': [{'Sleep': {'Sleep': {}}}, {'Pain': {'Pain': {}}}, {'Eating': {'Eating': {}}}, {'Family': {'Family': {}}}, {'Excretion': {'Excretion': {}}}, {'Unknown': {}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'unknown', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'unknown', 'event_id_2': 'e6'}]], 'text_quotes': ['while sleeping', "bp in the 80's", '', '', '', 'goood response from [** **]'], 'event_time': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'negation': [False, False, True, True, True, False], 'caused_by': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the Text at the end of this prompt into events that took place at the HOSPITAL, DURING THE SHIFT in which this text was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'An event is extracted from the text even if it is negated (e.g. "did not sleep"), but the respective negation attribute is set to True.\', \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n              \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n            ```\n           \n           \n           Text (written between 2151-05-10 04:08:00 and 2151-05-10 04:11:00):\n           in crease captopril dose while sleeping bp in the 80\'s .. goood response from [** **]\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient', 'patient', 'patient', 'patient', 'patient'], 'event_detection_time': 16.862382733030245}</t>
+          <t>{'text': 'sleep apnea', 'event': ['Sleep'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Sleep",\n            "text_quote": "sleep apnea",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        }\n    ],\n    "order": []\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}], 'orders': [[]], 'text_quotes': ['sleep apnea'], 'event_time': ['Unknown'], 'negation': [False], 'caused_by': ['Unknown'], 'event_name_prompt': '**Task: Event Classification and Attribute Extraction** \nYour task is to analyze the Text below and extract all events that occurred during the current hospital shift (the time the note was written).\nClassify each event into one or more of the following categories:\nCategory\tDefinition\nEating\tThe patient takes food into their body by mouth.\nExcretion\tThe patient discharges waste matter from their body.\nFamily\tThe patient has a visit, call, or communication with a family member.\nPain\tThe patient reports or shows signs of pain.\nSleep\tThe patient sleeps or the sleep’s quality or quantity is described.\nUnknown\tchoose "Unknown" if none of the other event type are applicable..\n\n**Rules and Conditions** \n1. Time constraint: Consider only actions that occurred during the current shift as events. \n2. Event constraint: Consider patient history, planning and requests as case attributes. Log them seperately. \n3. Actor constraint: Find out who is the main actor of the event.\n4. Negation Rule: Extract an event even if negated (e.g. “did not sleep”), and set "negation": true.\n5. Default Assumptions: \n        - If actor unclear → "actor":"patient"\n        - If time not mentioned → "time": "Unknown" \n        - If cause not mentioned → "caused_by": "Unknown" \n6. Clarifications:\n        - Sedation/resting ≠ sleep events.\n        - Sleep apnea occurs during sleep.\n        - Actions done to enable an event do not imply the event occurred (e.g., “given med for sleep” ≠ sleep).\nFor each detected event, output strictly valid JSON following the schema below: \n```\n    \n                        {   \n                        "case_attributes":[ \n                        //all patient-related details that did NOT occur during the current hospital shift, including past history, future plans, or events that happened at home or outside the hospital.\n                            {\n                            "attribute_name":"attribute_value" \n                            }\n                        ]  \n                        "events": [ \n                        //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ \n                        //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n```\n**Examples for Sleep Classification**\n\n                1. Include as Sleep Event**\n                - "Patient slept for 2 hours."\n                - "heart rate 50pbm while asleep"\n                - "patient now awake" (awake "now" assumes the patient was sleeping at an earlier state)\n\n                2. Do NOT include as Sleep Event**\n                - "Patient asked for sleeping pill." (Request, not event)\n                - "Patient wants to sleep later." (Future plan)\n                - "Patient fell asleep while driving (history)." (Before shift)\n                - "Patient was sedated/put to sleep for procedure." (Sedation)\n                - "Daughter slept in the room." (Actor ≠ patient)\n                - "Patient Alert and Awake" (Although awake is mentioned, it is not in the context of a status change from sleep but as an observation)\n\n**Text**\nWritten between 2015-06-02 03:24:00 and 2015-06-02 03:55:00:\n\'sleep apnea\'\n', 'case_attributes': [[]], 'actor': ['patient'], 'event_detection_time': nan}</t>
         </is>
       </c>
       <c r="H14" t="n">
@@ -1609,7 +1650,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>['while sleeping']</t>
+          <t>['sleep apnea']</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -1617,49 +1658,52 @@
           <t>['patient']</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>[{'Sleep': {'Sleep': {}}}]</t>
-        </is>
+      <c r="O14" t="b">
+        <v>1</v>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>['Sleep', 'Pain', 'Eating', 'Family', 'Excretion', 'Unknown']</t>
+          <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[{'Sleep': {'Sleep': {}}}, {'Pain': {'Pain': {}}}, {'Eating': {'Eating': {}}}, {'Family': {'Family': {}}}, {'Excretion': {'Excretion': {}}}, {'Unknown': {}}]</t>
+          <t>['Sleep']</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>['while sleeping', "bp in the 80's", '', '', '', 'goood response from [** **]']</t>
+          <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>['e1=Sleep|1:while sleeping', "e2=Pain|1:bp in the 80's", 'e3=Eating|1:', 'e4=Family|1:', 'e5=Excretion|1:', 'e6=Unknown|1:goood response from [** **]']</t>
+          <t>['sleep apnea']</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>[[{'event_id_1': 'e1', 'relation': 'unknown', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'unknown', 'event_id_2': 'e6'}]]</t>
+          <t>['e1=Sleep|1:sleep apnea']</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>[[]]</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>23082_1563944_0013</t>
+          <t>22673_1558370_0002</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>patient turned dumped 100cc serosang, reassured back to sleep, continues to rest, calm.., when awaken needs to be reoriented to time, patien tcooperative/calm</t>
+          <t>c/o feeling tired but not being able to sleep at night or during the day.cv-vss iv ntg d/c'd and changed over to natrecor at .01mcg/kg/min after a 1mcg/kg bolus</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -1670,12 +1714,12 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>(Timestamp('2151-05-09 01:45:00'), Timestamp('2151-05-09 01:49:00'))</t>
+          <t>(Timestamp('1996-08-12 18:33:00'), Timestamp('1996-08-12 18:45:00'))</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>{'text': 'patient turned dumped 100cc serosang, reassured back to sleep, continues to rest, calm.., when awaken needs to be reoriented to time, patien tcooperative/calm', 'event': ['Sleep', 'Pain', 'Family', 'Excretion', 'Eating', 'Pain'], 'event_id': ['e1', 'e2', 'e3', 'e4', 'e5', 'e6'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Sleep",\n      "text_quote": "reassured back to sleep, continues to rest",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "good",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e2",\n      "event_type": "Pain",\n      "text_quote": "None",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "Unknown",\n          "location": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e3",\n      "event_type": "Family",\n      "text_quote": "None",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {\n          "interaction": "Unknown",\n          "relation": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e4",\n      "event_type": "Excretion",\n      "text_quote": "patient turned dumped 100cc serosang",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "serosang",\n          "frequency": "Unknown",\n          "quality": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e5",\n      "event_type": "Eating",\n      "text_quote": "None",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {\n          "food": "Unknown",\n          "amount": "Unknown",\n          "method": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e6",\n      "event_type": "Pain",\n      "text_quote": "calm.., when awaken needs to be reoriented to time, patient cooperative/calm",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "mild",\n          "location": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    }\n  ],\n  "order": [\n    {\n      "event_id_1": "e4",\n      "relation": "before",\n      "event_id_2": "e1"\n    },\n    {\n      "event_id_1": "e1",\n      "relation": "simultaneous",\n      "event_id_2": "e6"\n    }\n  ]\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'good', 'duration': 'Unknown'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Family': {'Family': {'interaction': 'Unknown', 'relation': 'Unknown'}}}, {'Excretion': {'Excretion': {'type': 'serosang', 'frequency': 'Unknown', 'quality': 'Unknown'}}}, {'Eating': {'Eating': {'food': 'Unknown', 'amount': 'Unknown', 'method': 'Unknown'}}}, {'Pain': {'Pain': {'severity': 'mild', 'location': 'Unknown', 'duration': 'Unknown'}}}], 'orders': [[{'event_id_1': 'e4', 'relation': 'before', 'event_id_2': 'e1'}, {'event_id_1': 'e1', 'relation': 'simultaneous', 'event_id_2': 'e6'}]], 'text_quotes': ['reassured back to sleep, continues to rest', 'None', 'None', 'patient turned dumped 100cc serosang', 'None', 'calm.., when awaken needs to be reoriented to time, patient cooperative/calm'], 'event_time': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'negation': [False, True, True, False, True, False], 'caused_by': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the Text at the end of this prompt into events that took place at the HOSPITAL, DURING THE SHIFT in which this text was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'An event is extracted from the text even if it is negated (e.g. "did not sleep"), but the respective negation attribute is set to True.\', \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n              \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n            ```\n           \n           \n           Text (written between 2151-05-09 01:45:00 and 2151-05-09 01:49:00):\n           patient turned dumped 100cc serosang, reassured back to sleep, continues to rest, calm.., when awaken needs to be reoriented to time, patien tcooperative/calm\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient', 'patient', 'patient', 'patient', 'patient'], 'event_detection_time': 21.774615990929306}</t>
+          <t>{'text': "c/o feeling tired but not being able to sleep at night or during the day.cv-vss iv ntg d/c'd and changed over to natrecor at .01mcg/kg/min after a 1mcg/kg bolus", 'event': ['Sleep', 'Pain', 'Excretion', 'Eating', 'Family', 'Unknown'], 'event_id': ['e1', 'e2', 'e3', 'e4', 'e5', 'e6'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [\n        {\n            "attribute_name": "feeling tired",\n            "attribute_value": "yes"\n        }\n    ],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Sleep",\n            "text_quote": "not being able to sleep at night or during the day",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "poor"\n                }\n            }\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Pain",\n            "text_quote": "c/o feeling tired but not being able to sleep at night or during the day",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e3",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e4",\n            "event_type": "Eating",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {}\n            }\n        },\n        {\n            "event_id": "e5",\n            "event_type": "Family",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {}\n            }\n        },\n        {\n            "event_id": "e6",\n            "event_type": "Unknown",\n            "text_quote": "cv-vss iv ntg d/c\'d and changed over to natrecor at .01mcg/kg/min after a 1mcg/kg bolus",\n            "actor": "others",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown"\n        }\n    ],\n    "order": [\n        {\n            "event_id_1": "e2",\n            "relation": "before",\n            "event_id_2": "e1"\n        },\n        {\n            "event_id_1": "e6",\n            "relation": "after",\n            "event_id_2": "e1"\n        }\n    ]\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'poor'}}}, {'Pain': {'Pain': {'severity': 'unknown'}}}, {'Excretion': {'Excretion': {}}}, {'Eating': {'Eating': {}}}, {'Family': {'Family': {}}}, {'Unknown': {}}], 'orders': [[{'event_id_1': 'e2', 'relation': 'before', 'event_id_2': 'e1'}, {'event_id_1': 'e6', 'relation': 'after', 'event_id_2': 'e1'}]], 'text_quotes': ['not being able to sleep at night or during the day', 'c/o feeling tired but not being able to sleep at night or during the day', '', '', '', "cv-vss iv ntg d/c'd and changed over to natrecor at .01mcg/kg/min after a 1mcg/kg bolus"], 'event_time': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'negation': [True, False, False, False, False, False], 'caused_by': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '**Task: Event Classification and Attribute Extraction** \nYour task is to analyze the Text below and extract all events that occurred during the current hospital shift (the time the note was written).\nClassify each event into one or more of the following categories:\nCategory\tDefinition\nEating\tThe patient takes food into their body by mouth.\nExcretion\tThe patient discharges waste matter from their body.\nFamily\tThe patient has a visit, call, or communication with a family member.\nPain\tThe patient reports or shows signs of pain.\nSleep\tThe patient sleeps or the sleep’s quality or quantity is described.\nUnknown\tchoose "Unknown" if none of the other event type are applicable..\n\n**Rules and Conditions** \n1. Time constraint: Consider only actions that occurred during the current shift as events. \n2. Event constraint: Consider patient history, planning and requests as case attributes. Log them seperately. \n3. Actor constraint: Find out who is the main actor of the event.\n4. Negation Rule: Extract an event even if negated (e.g. “did not sleep”), and set "negation": true.\n5. Default Assumptions: \n        - If actor unclear → "actor":"patient"\n        - If time not mentioned → "time": "Unknown" \n        - If cause not mentioned → "caused_by": "Unknown" \n6. Clarifications:\n        - Sedation/resting ≠ sleep events.\n        - Sleep apnea occurs during sleep.\n        - Actions done to enable an event do not imply the event occurred (e.g., “given med for sleep” ≠ sleep).\nFor each detected event, output strictly valid JSON following the schema below: \n```\n    \n                        {   \n                        "case_attributes":[ \n                        //all patient-related details that did NOT occur during the current hospital shift, including past history, future plans, or events that happened at home or outside the hospital.\n                            {\n                            "attribute_name":"attribute_value" \n                            }\n                        ]  \n                        "events": [ \n                        //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ \n                        //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n```\n**Examples for Sleep Classification**\n\n                1. Include as Sleep Event**\n                - "Patient slept for 2 hours."\n                - "heart rate 50pbm while asleep"\n                - "patient now awake" (awake "now" assumes the patient was sleeping at an earlier state)\n\n                2. Do NOT include as Sleep Event**\n                - "Patient asked for sleeping pill." (Request, not event)\n                - "Patient wants to sleep later." (Future plan)\n                - "Patient fell asleep while driving (history)." (Before shift)\n                - "Patient was sedated/put to sleep for procedure." (Sedation)\n                - "Daughter slept in the room." (Actor ≠ patient)\n                - "Patient Alert and Awake" (Although awake is mentioned, it is not in the context of a status change from sleep but as an observation)\n\n**Text**\nWritten between 1996-08-12 18:33:00 and 1996-08-12 18:45:00:\n\'c/o feeling tired but not being able to sleep at night or during the day.cv-vss iv ntg d/c\'d and changed over to natrecor at .01mcg/kg/min after a 1mcg/kg bolus\'\n', 'case_attributes': [[{'attribute_name': 'feeling tired', 'attribute_value': 'yes'}]], 'actor': ['patient', 'patient', 'patient', 'patient', 'patient', 'others'], 'event_detection_time': 19.345029253978282}</t>
         </is>
       </c>
       <c r="H15" t="n">
@@ -1683,7 +1727,7 @@
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" t="b">
         <v>1</v>
@@ -1695,7 +1739,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>['reassured back to sleep, continues to rest']</t>
+          <t>['not being able to sleep at night or during the day']</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -1703,49 +1747,52 @@
           <t>['patient']</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>[{'Sleep': {'Sleep': {'quality': 'good', 'duration': 'Unknown'}}}]</t>
-        </is>
+      <c r="O15" t="b">
+        <v>1</v>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>['Sleep', 'Pain', 'Family', 'Excretion', 'Eating', 'Pain']</t>
+          <t>[{'Sleep': {'Sleep': {'quality': 'poor'}}}]</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>[{'Sleep': {'Sleep': {'quality': 'good', 'duration': 'Unknown'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Family': {'Family': {'interaction': 'Unknown', 'relation': 'Unknown'}}}, {'Excretion': {'Excretion': {'type': 'serosang', 'frequency': 'Unknown', 'quality': 'Unknown'}}}, {'Eating': {'Eating': {'food': 'Unknown', 'amount': 'Unknown', 'method': 'Unknown'}}}, {'Pain': {'Pain': {'severity': 'mild', 'location': 'Unknown', 'duration': 'Unknown'}}}]</t>
+          <t>['Sleep', 'Pain', 'Excretion', 'Eating', 'Family', 'Unknown']</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>['reassured back to sleep, continues to rest', 'None', 'None', 'patient turned dumped 100cc serosang', 'None', 'calm.., when awaken needs to be reoriented to time, patient cooperative/calm']</t>
+          <t>[{'Sleep': {'Sleep': {'quality': 'poor'}}}, {'Pain': {'Pain': {'severity': 'unknown'}}}, {'Excretion': {'Excretion': {}}}, {'Eating': {'Eating': {}}}, {'Family': {'Family': {}}}, {'Unknown': {}}]</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>['e1=Sleep|1:reassured back to sleep, continues to rest', 'e2=Pain|0:None', 'e3=Family|0:None', 'e4=Excretion|1:patient turned dumped 100cc serosang', 'e5=Eating|0:None', 'e6=Pain|0:calm.., when awaken needs to be reoriented to time, patient cooperative/calm']</t>
+          <t>['not being able to sleep at night or during the day', 'c/o feeling tired but not being able to sleep at night or during the day', '', '', '', "cv-vss iv ntg d/c'd and changed over to natrecor at .01mcg/kg/min after a 1mcg/kg bolus"]</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>[[{'event_id_1': 'e4', 'relation': 'before', 'event_id_2': 'e1'}, {'event_id_1': 'e1', 'relation': 'simultaneous', 'event_id_2': 'e6'}]]</t>
+          <t>['e1=Sleep|1:not being able to sleep at night or during the day', 'e2=Pain|1:c/o feeling tired but not being able to sleep at night or during the day', 'e3=Excretion|1:', 'e4=Eating|1:', 'e5=Family|1:', "e6=Unknown|1:cv-vss iv ntg d/c'd and changed over to natrecor at .01mcg/kg/min after a 1mcg/kg bolus"]</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>[[{'event_id_1': 'e2', 'relation': 'before', 'event_id_2': 'e1'}, {'event_id_1': 'e6', 'relation': 'after', 'event_id_2': 'e1'}]]</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>25328_1592841_0036</t>
+          <t>22673_1558374_0001</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>unable to sleep this pm</t>
+          <t>s: " i can't sleep again "</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -1756,12 +1803,12 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>(Timestamp('2183-03-14 04:18:00'), Timestamp('2183-03-14 04:35:00'))</t>
+          <t>(Timestamp('1996-08-14 05:03:00'), Timestamp('1996-08-14 05:24:00'))</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>{'text': 'unable to sleep this pm', 'event': ['Sleep'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Sleep",\n      "text_quote": "unable to sleep this pm",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "pm",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "unknown",\n          "duration": "unknown"\n        }\n      }\n    }\n  ],\n  "order": []\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'unknown', 'duration': 'unknown'}}}], 'orders': [[]], 'text_quotes': ['unable to sleep this pm'], 'event_time': ['pm'], 'negation': [True], 'caused_by': ['Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the Text at the end of this prompt into events that took place at the HOSPITAL, DURING THE SHIFT in which this text was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'An event is extracted from the text even if it is negated (e.g. "did not sleep"), but the respective negation attribute is set to True.\', \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n              \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n            ```\n           \n           \n           Text (written between 2183-03-14 04:18:00 and 2183-03-14 04:35:00):\n           unable to sleep this pm\n        ', 'case_attributes': [[]], 'actor': ['patient'], 'event_detection_time': 3.6814139841590077}</t>
+          <t>{'text': 's: " i can\'t sleep again "', 'event': ['Sleep'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Sleep",\n            "text_quote": "\'i can\'t sleep again\'",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {}\n            }\n        }\n    ],\n    "order": []\n}', 'attributes': [{'Sleep': {'Sleep': {}}}], 'orders': [[]], 'text_quotes': ["'i can't sleep again'"], 'event_time': ['Unknown'], 'negation': [True], 'caused_by': ['Unknown'], 'event_name_prompt': '**Task: Event Classification and Attribute Extraction** \nYour task is to analyze the Text below and extract all events that occurred during the current hospital shift (the time the note was written).\nClassify each event into one or more of the following categories:\nCategory\tDefinition\nEating\tThe patient takes food into their body by mouth.\nExcretion\tThe patient discharges waste matter from their body.\nFamily\tThe patient has a visit, call, or communication with a family member.\nPain\tThe patient reports or shows signs of pain.\nSleep\tThe patient sleeps or the sleep’s quality or quantity is described.\nUnknown\tchoose "Unknown" if none of the other event type are applicable..\n\n**Rules and Conditions** \n1. Time constraint: Consider only actions that occurred during the current shift as events. \n2. Event constraint: Consider patient history, planning and requests as case attributes. Log them seperately. \n3. Actor constraint: Find out who is the main actor of the event.\n4. Negation Rule: Extract an event even if negated (e.g. “did not sleep”), and set "negation": true.\n5. Default Assumptions: \n        - If actor unclear → "actor":"patient"\n        - If time not mentioned → "time": "Unknown" \n        - If cause not mentioned → "caused_by": "Unknown" \n6. Clarifications:\n        - Sedation/resting ≠ sleep events.\n        - Sleep apnea occurs during sleep.\n        - Actions done to enable an event do not imply the event occurred (e.g., “given med for sleep” ≠ sleep).\nFor each detected event, output strictly valid JSON following the schema below: \n```\n    \n                        {   \n                        "case_attributes":[ \n                        //all patient-related details that did NOT occur during the current hospital shift, including past history, future plans, or events that happened at home or outside the hospital.\n                            {\n                            "attribute_name":"attribute_value" \n                            }\n                        ]  \n                        "events": [ \n                        //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ \n                        //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n```\n**Examples for Sleep Classification**\n\n                1. Include as Sleep Event**\n                - "Patient slept for 2 hours."\n                - "heart rate 50pbm while asleep"\n                - "patient now awake" (awake "now" assumes the patient was sleeping at an earlier state)\n\n                2. Do NOT include as Sleep Event**\n                - "Patient asked for sleeping pill." (Request, not event)\n                - "Patient wants to sleep later." (Future plan)\n                - "Patient fell asleep while driving (history)." (Before shift)\n                - "Patient was sedated/put to sleep for procedure." (Sedation)\n                - "Daughter slept in the room." (Actor ≠ patient)\n                - "Patient Alert and Awake" (Although awake is mentioned, it is not in the context of a status change from sleep but as an observation)\n\n**Text**\nWritten between 1996-08-14 05:03:00 and 1996-08-14 05:24:00:\n\'s: " i can\'t sleep again "\'\n', 'case_attributes': [[]], 'actor': ['patient'], 'event_detection_time': 3.226340867113322}</t>
         </is>
       </c>
       <c r="H16" t="n">
@@ -1781,7 +1828,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>['unable to sleep this pm']</t>
+          <t>["'i can't sleep again'"]</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -1789,32 +1836,35 @@
           <t>['patient']</t>
         </is>
       </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>[{'Sleep': {'Sleep': {'quality': 'unknown', 'duration': 'unknown'}}}]</t>
-        </is>
+      <c r="O16" t="b">
+        <v>1</v>
       </c>
       <c r="P16" t="inlineStr">
         <is>
+          <t>[{'Sleep': {'Sleep': {}}}]</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
           <t>['Sleep']</t>
         </is>
       </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>[{'Sleep': {'Sleep': {'quality': 'unknown', 'duration': 'unknown'}}}]</t>
-        </is>
-      </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>['unable to sleep this pm']</t>
+          <t>[{'Sleep': {'Sleep': {}}}]</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>['e1=Sleep|1:unable to sleep this pm']</t>
+          <t>["'i can't sleep again'"]</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
+        <is>
+          <t>["e1=Sleep|0:'i can't sleep again'"]</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -1822,16 +1872,16 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>136</v>
+        <v>105</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>25328_1592840_0008</t>
+          <t>22673_1558374_0013</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>dozing intermittently but needs frequent reminders re operation</t>
+          <t>neuro: given additional 5mg ambien and able to sleep fairly well</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -1842,12 +1892,12 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>(Timestamp('2183-03-13 18:05:00'), Timestamp('2183-03-13 18:31:00'))</t>
+          <t>(Timestamp('1996-08-14 05:03:00'), Timestamp('1996-08-14 05:24:00'))</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>{'text': 'dozing intermittently but needs frequent reminders re operation', 'event': ['Sleep'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Sleep",\n      "text_quote": "dozing intermittently",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "poor",\n          "duration": "intermittent"\n        }\n      }\n    }\n  ],\n  "order": []\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'poor', 'duration': 'intermittent'}}}], 'orders': [[]], 'text_quotes': ['dozing intermittently'], 'event_time': ['Unknown'], 'negation': [False], 'caused_by': ['Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the Text at the end of this prompt into events that took place at the HOSPITAL, DURING THE SHIFT in which this text was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'An event is extracted from the text even if it is negated (e.g. "did not sleep"), but the respective negation attribute is set to True.\', \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n              \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n            ```\n           \n           \n           Text (written between 2183-03-13 18:05:00 and 2183-03-13 18:31:00):\n           dozing intermittently but needs frequent reminders re operation\n        ', 'case_attributes': [[]], 'actor': ['patient'], 'event_detection_time': 3.7258137420285493}</t>
+          <t>{'text': 'neuro: given additional 5mg ambien and able to sleep fairly well', 'event': ['Sleep'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Sleep",\n            "text_quote": "given additional 5mg ambien and able to sleep fairly well",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "fairly well"\n                }\n            }\n        }\n    ],\n    "order": []\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'fairly well'}}}], 'orders': [[]], 'text_quotes': ['given additional 5mg ambien and able to sleep fairly well'], 'event_time': ['Unknown'], 'negation': [False], 'caused_by': ['Unknown'], 'event_name_prompt': '**Task: Event Classification and Attribute Extraction** \nYour task is to analyze the Text below and extract all events that occurred during the current hospital shift (the time the note was written).\nClassify each event into one or more of the following categories:\nCategory\tDefinition\nEating\tThe patient takes food into their body by mouth.\nExcretion\tThe patient discharges waste matter from their body.\nFamily\tThe patient has a visit, call, or communication with a family member.\nPain\tThe patient reports or shows signs of pain.\nSleep\tThe patient sleeps or the sleep’s quality or quantity is described.\nUnknown\tchoose "Unknown" if none of the other event type are applicable..\n\n**Rules and Conditions** \n1. Time constraint: Consider only actions that occurred during the current shift as events. \n2. Event constraint: Consider patient history, planning and requests as case attributes. Log them seperately. \n3. Actor constraint: Find out who is the main actor of the event.\n4. Negation Rule: Extract an event even if negated (e.g. “did not sleep”), and set "negation": true.\n5. Default Assumptions: \n        - If actor unclear → "actor":"patient"\n        - If time not mentioned → "time": "Unknown" \n        - If cause not mentioned → "caused_by": "Unknown" \n6. Clarifications:\n        - Sedation/resting ≠ sleep events.\n        - Sleep apnea occurs during sleep.\n        - Actions done to enable an event do not imply the event occurred (e.g., “given med for sleep” ≠ sleep).\nFor each detected event, output strictly valid JSON following the schema below: \n```\n    \n                        {   \n                        "case_attributes":[ \n                        //all patient-related details that did NOT occur during the current hospital shift, including past history, future plans, or events that happened at home or outside the hospital.\n                            {\n                            "attribute_name":"attribute_value" \n                            }\n                        ]  \n                        "events": [ \n                        //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ \n                        //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n```\n**Examples for Sleep Classification**\n\n                1. Include as Sleep Event**\n                - "Patient slept for 2 hours."\n                - "heart rate 50pbm while asleep"\n                - "patient now awake" (awake "now" assumes the patient was sleeping at an earlier state)\n\n                2. Do NOT include as Sleep Event**\n                - "Patient asked for sleeping pill." (Request, not event)\n                - "Patient wants to sleep later." (Future plan)\n                - "Patient fell asleep while driving (history)." (Before shift)\n                - "Patient was sedated/put to sleep for procedure." (Sedation)\n                - "Daughter slept in the room." (Actor ≠ patient)\n                - "Patient Alert and Awake" (Although awake is mentioned, it is not in the context of a status change from sleep but as an observation)\n\n**Text**\nWritten between 1996-08-14 05:03:00 and 1996-08-14 05:24:00:\n\'neuro: given additional 5mg ambien and able to sleep fairly well\'\n', 'case_attributes': [[]], 'actor': ['patient'], 'event_detection_time': 3.7753904750570655}</t>
         </is>
       </c>
       <c r="H17" t="n">
@@ -1867,7 +1917,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>['dozing intermittently']</t>
+          <t>['given additional 5mg ambien and able to sleep fairly well']</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -1875,32 +1925,35 @@
           <t>['patient']</t>
         </is>
       </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>[{'Sleep': {'Sleep': {'quality': 'poor', 'duration': 'intermittent'}}}]</t>
-        </is>
+      <c r="O17" t="b">
+        <v>1</v>
       </c>
       <c r="P17" t="inlineStr">
         <is>
+          <t>[{'Sleep': {'Sleep': {'quality': 'fairly well'}}}]</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
           <t>['Sleep']</t>
         </is>
       </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>[{'Sleep': {'Sleep': {'quality': 'poor', 'duration': 'intermittent'}}}]</t>
-        </is>
-      </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>['dozing intermittently']</t>
+          <t>[{'Sleep': {'Sleep': {'quality': 'fairly well'}}}]</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>['e1=Sleep|1:dozing intermittently']</t>
+          <t>['given additional 5mg ambien and able to sleep fairly well']</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
+        <is>
+          <t>['e1=Sleep|1:given additional 5mg ambien and able to sleep fairly well']</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -1908,16 +1961,16 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>144</v>
+        <v>112</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>32291_1671530_0018</t>
+          <t>23082_1563929_0014</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>slept most of the night: -repositioned in bed</t>
+          <t>patient fell asleep, but continue to ring light to say pain was not gone</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -1928,12 +1981,12 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>(Timestamp('2171-01-06 02:12:00'), Timestamp('2171-01-06 02:27:00'))</t>
+          <t>(Timestamp('1980-06-29 06:13:00'), Timestamp('1980-06-29 06:29:00'))</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>{'text': 'slept most of the night: -repositioned in bed', 'event': ['Sleep', 'Unknown'], 'event_id': ['e1', 'e2'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Sleep",\n      "text_quote": "slept most of the night",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "night",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "good",\n          "duration": "most of the night"\n        }\n      }\n    },\n    {\n      "event_id": "e2",\n      "event_type": "Unknown",\n      "text_quote": "-repositioned in bed",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {}\n    }\n  ],\n  "order": [\n    {\n      "event_id_1": "e2",\n      "relation": "after",\n      "event_id_2": "e1"\n    }\n  ]\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'good', 'duration': 'most of the night'}}}, {'Unknown': {}}], 'orders': [[{'event_id_1': 'e2', 'relation': 'after', 'event_id_2': 'e1'}]], 'text_quotes': ['slept most of the night', '-repositioned in bed'], 'event_time': ['night', 'Unknown'], 'negation': [False, False], 'caused_by': ['Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the Text at the end of this prompt into events that took place at the HOSPITAL, DURING THE SHIFT in which this text was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'An event is extracted from the text even if it is negated (e.g. "did not sleep"), but the respective negation attribute is set to True.\', \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n              \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n            ```\n           \n           \n           Text (written between 2171-01-06 02:12:00 and 2171-01-06 02:27:00):\n           slept most of the night: -repositioned in bed\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient'], 'event_detection_time': 7.058968710945919}</t>
+          <t>{'text': 'patient fell asleep, but continue to ring light to say pain was not gone', 'event': ['Sleep', 'Pain'], 'event_id': ['e1', 'e2'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Sleep",\n            "text_quote": "patient fell asleep",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {}\n            }\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Pain",\n            "text_quote": "pain was not gone",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        }\n    ],\n    "order": [\n        {\n            "event_id_1": "e1",\n            "relation": "before",\n            "event_id_2": "e2"\n        }\n    ]\n}', 'attributes': [{'Sleep': {'Sleep': {}}}, {'Pain': {'Pain': {}}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}]], 'text_quotes': ['patient fell asleep', 'pain was not gone'], 'event_time': ['Unknown', 'Unknown'], 'negation': [False, True], 'caused_by': ['Unknown', 'Unknown'], 'event_name_prompt': '**Task: Event Classification and Attribute Extraction** \nYour task is to analyze the Text below and extract all events that occurred during the current hospital shift (the time the note was written).\nClassify each event into one or more of the following categories:\nCategory\tDefinition\nEating\tThe patient takes food into their body by mouth.\nExcretion\tThe patient discharges waste matter from their body.\nFamily\tThe patient has a visit, call, or communication with a family member.\nPain\tThe patient reports or shows signs of pain.\nSleep\tThe patient sleeps or the sleep’s quality or quantity is described.\nUnknown\tchoose "Unknown" if none of the other event type are applicable..\n\n**Rules and Conditions** \n1. Time constraint: Consider only actions that occurred during the current shift as events. \n2. Event constraint: Consider patient history, planning and requests as case attributes. Log them seperately. \n3. Actor constraint: Find out who is the main actor of the event.\n4. Negation Rule: Extract an event even if negated (e.g. “did not sleep”), and set "negation": true.\n5. Default Assumptions: \n        - If actor unclear → "actor":"patient"\n        - If time not mentioned → "time": "Unknown" \n        - If cause not mentioned → "caused_by": "Unknown" \n6. Clarifications:\n        - Sedation/resting ≠ sleep events.\n        - Sleep apnea occurs during sleep.\n        - Actions done to enable an event do not imply the event occurred (e.g., “given med for sleep” ≠ sleep).\nFor each detected event, output strictly valid JSON following the schema below: \n```\n    \n                        {   \n                        "case_attributes":[ \n                        //all patient-related details that did NOT occur during the current hospital shift, including past history, future plans, or events that happened at home or outside the hospital.\n                            {\n                            "attribute_name":"attribute_value" \n                            }\n                        ]  \n                        "events": [ \n                        //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ \n                        //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n```\n**Examples for Sleep Classification**\n\n                1. Include as Sleep Event**\n                - "Patient slept for 2 hours."\n                - "heart rate 50pbm while asleep"\n                - "patient now awake" (awake "now" assumes the patient was sleeping at an earlier state)\n\n                2. Do NOT include as Sleep Event**\n                - "Patient asked for sleeping pill." (Request, not event)\n                - "Patient wants to sleep later." (Future plan)\n                - "Patient fell asleep while driving (history)." (Before shift)\n                - "Patient was sedated/put to sleep for procedure." (Sedation)\n                - "Daughter slept in the room." (Actor ≠ patient)\n                - "Patient Alert and Awake" (Although awake is mentioned, it is not in the context of a status change from sleep but as an observation)\n\n**Text**\nWritten between 1980-06-29 06:13:00 and 1980-06-29 06:29:00:\n\'patient fell asleep, but continue to ring light to say pain was not gone\'\n', 'case_attributes': [[]], 'actor': ['patient', 'patient'], 'event_detection_time': 6.682750923093408}</t>
         </is>
       </c>
       <c r="H18" t="n">
@@ -1953,7 +2006,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>['slept most of the night']</t>
+          <t>['patient fell asleep']</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -1961,49 +2014,52 @@
           <t>['patient']</t>
         </is>
       </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>[{'Sleep': {'Sleep': {'quality': 'good', 'duration': 'most of the night'}}}]</t>
-        </is>
+      <c r="O18" t="b">
+        <v>1</v>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>['Sleep', 'Unknown']</t>
+          <t>[{'Sleep': {'Sleep': {}}}]</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>[{'Sleep': {'Sleep': {'quality': 'good', 'duration': 'most of the night'}}}, {'Unknown': {}}]</t>
+          <t>['Sleep', 'Pain']</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>['slept most of the night', '-repositioned in bed']</t>
+          <t>[{'Sleep': {'Sleep': {}}}, {'Pain': {'Pain': {}}}]</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>['e1=Sleep|1:slept most of the night', 'e2=Unknown|1:-repositioned in bed']</t>
+          <t>['patient fell asleep', 'pain was not gone']</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>[[{'event_id_1': 'e2', 'relation': 'after', 'event_id_2': 'e1'}]]</t>
+          <t>['e1=Sleep|1:patient fell asleep', 'e2=Pain|1:pain was not gone']</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>[[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}]]</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>152</v>
+        <v>119</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>16788_1481943_0010</t>
+          <t>23082_1563925_0008</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>ck iso's to be drawn and cycled.patient now dozing intermittently still w midepigastr tenderness on exam</t>
+          <t>patient slept in naps most of day</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -2014,12 +2070,12 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>(Timestamp('2139-06-07 06:48:00'), Timestamp('2139-06-07 07:00:00'))</t>
+          <t>(Timestamp('1980-06-27 17:03:00'), Timestamp('1980-06-27 17:28:00'))</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>{'text': "ck iso's to be drawn and cycled.patient now dozing intermittently still w midepigastr tenderness on exam", 'event': ['Sleep', 'Pain'], 'event_id': ['e1', 'e2'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Sleep",\n      "text_quote": "patient now dozing intermittently",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "intermittent",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e2",\n      "event_type": "Pain",\n      "text_quote": "still w midepigastr tenderness on exam",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "tenderness",\n          "location": "midepigastric",\n          "duration": "Unknown"\n        }\n      }\n    }\n  ],\n  "order": [\n    {\n      "event_id_1": "e1",\n      "relation": "unknown",\n      "event_id_2": "e2"\n    }\n  ]\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'intermittent', 'duration': 'Unknown'}}}, {'Pain': {'Pain': {'severity': 'tenderness', 'location': 'midepigastric', 'duration': 'Unknown'}}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'unknown', 'event_id_2': 'e2'}]], 'text_quotes': ['patient now dozing intermittently', 'still w midepigastr tenderness on exam'], 'event_time': ['Unknown', 'Unknown'], 'negation': [False, False], 'caused_by': ['Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the Text at the end of this prompt into events that took place at the HOSPITAL, DURING THE SHIFT in which this text was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'An event is extracted from the text even if it is negated (e.g. "did not sleep"), but the respective negation attribute is set to True.\', \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n              \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n            ```\n           \n           \n           Text (written between 2139-06-07 06:48:00 and 2139-06-07 07:00:00):\n           ck iso\'s to be drawn and cycled.patient now dozing intermittently still w midepigastr tenderness on exam\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient'], 'event_detection_time': 8.333869362948462}</t>
+          <t>{'text': 'patient slept in naps most of day', 'event': ['Sleep'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Sleep",\n            "text_quote": "patient slept in naps most of day",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "day",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "naps",\n                    "duration": "most of day"\n                }\n            }\n        }\n    ],\n    "order": []\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'naps', 'duration': 'most of day'}}}], 'orders': [[]], 'text_quotes': ['patient slept in naps most of day'], 'event_time': ['day'], 'negation': [False], 'caused_by': ['Unknown'], 'event_name_prompt': '**Task: Event Classification and Attribute Extraction** \nYour task is to analyze the Text below and extract all events that occurred during the current hospital shift (the time the note was written).\nClassify each event into one or more of the following categories:\nCategory\tDefinition\nEating\tThe patient takes food into their body by mouth.\nExcretion\tThe patient discharges waste matter from their body.\nFamily\tThe patient has a visit, call, or communication with a family member.\nPain\tThe patient reports or shows signs of pain.\nSleep\tThe patient sleeps or the sleep’s quality or quantity is described.\nUnknown\tchoose "Unknown" if none of the other event type are applicable..\n\n**Rules and Conditions** \n1. Time constraint: Consider only actions that occurred during the current shift as events. \n2. Event constraint: Consider patient history, planning and requests as case attributes. Log them seperately. \n3. Actor constraint: Find out who is the main actor of the event.\n4. Negation Rule: Extract an event even if negated (e.g. “did not sleep”), and set "negation": true.\n5. Default Assumptions: \n        - If actor unclear → "actor":"patient"\n        - If time not mentioned → "time": "Unknown" \n        - If cause not mentioned → "caused_by": "Unknown" \n6. Clarifications:\n        - Sedation/resting ≠ sleep events.\n        - Sleep apnea occurs during sleep.\n        - Actions done to enable an event do not imply the event occurred (e.g., “given med for sleep” ≠ sleep).\nFor each detected event, output strictly valid JSON following the schema below: \n```\n    \n                        {   \n                        "case_attributes":[ \n                        //all patient-related details that did NOT occur during the current hospital shift, including past history, future plans, or events that happened at home or outside the hospital.\n                            {\n                            "attribute_name":"attribute_value" \n                            }\n                        ]  \n                        "events": [ \n                        //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ \n                        //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n```\n**Examples for Sleep Classification**\n\n                1. Include as Sleep Event**\n                - "Patient slept for 2 hours."\n                - "heart rate 50pbm while asleep"\n                - "patient now awake" (awake "now" assumes the patient was sleeping at an earlier state)\n\n                2. Do NOT include as Sleep Event**\n                - "Patient asked for sleeping pill." (Request, not event)\n                - "Patient wants to sleep later." (Future plan)\n                - "Patient fell asleep while driving (history)." (Before shift)\n                - "Patient was sedated/put to sleep for procedure." (Sedation)\n                - "Daughter slept in the room." (Actor ≠ patient)\n                - "Patient Alert and Awake" (Although awake is mentioned, it is not in the context of a status change from sleep but as an observation)\n\n**Text**\nWritten between 1980-06-27 17:03:00 and 1980-06-27 17:28:00:\n\'patient slept in naps most of day\'\n', 'case_attributes': [[]], 'actor': ['patient'], 'event_detection_time': 3.850271053845063}</t>
         </is>
       </c>
       <c r="H19" t="n">
@@ -2039,7 +2095,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>['patient now dozing intermittently']</t>
+          <t>['patient slept in naps most of day']</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -2047,49 +2103,52 @@
           <t>['patient']</t>
         </is>
       </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>[{'Sleep': {'Sleep': {'quality': 'intermittent', 'duration': 'Unknown'}}}]</t>
-        </is>
+      <c r="O19" t="b">
+        <v>1</v>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>['Sleep', 'Pain']</t>
+          <t>[{'Sleep': {'Sleep': {'quality': 'naps', 'duration': 'most of day'}}}]</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>[{'Sleep': {'Sleep': {'quality': 'intermittent', 'duration': 'Unknown'}}}, {'Pain': {'Pain': {'severity': 'tenderness', 'location': 'midepigastric', 'duration': 'Unknown'}}}]</t>
+          <t>['Sleep']</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>['patient now dozing intermittently', 'still w midepigastr tenderness on exam']</t>
+          <t>[{'Sleep': {'Sleep': {'quality': 'naps', 'duration': 'most of day'}}}]</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>['e1=Sleep|1:patient now dozing intermittently', 'e2=Pain|1:still w midepigastr tenderness on exam']</t>
+          <t>['patient slept in naps most of day']</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>[[{'event_id_1': 'e1', 'relation': 'unknown', 'event_id_2': 'e2'}]]</t>
+          <t>['e1=Sleep|1:patient slept in naps most of day']</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>[[]]</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>155</v>
+        <v>120</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1135_1277060_0001</t>
+          <t>23082_1563944_0013</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>events:  patient slept on and off most of night---good effect from ativan, bp slightly improved although 10 pm lisinopril dose held due to sbp=90, no significant</t>
+          <t>patient turned dumped 100cc serosang, reassured back to sleep, continues to rest, calm.., when awaken needs to be reoriented to time, patien tcooperative/calm</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -2100,12 +2159,12 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>(Timestamp('2154-01-13 05:18:00'), Timestamp('2154-01-13 05:35:00'))</t>
+          <t>(Timestamp('1980-08-03 01:45:00'), Timestamp('1980-08-03 01:49:00'))</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>{'text': 'events:  patient slept on and off most of night---good effect from ativan, bp slightly improved although 10 pm lisinopril dose held due to sbp=90, no significant', 'event': ['Sleep', 'Pain'], 'event_id': ['e1', 'e2'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Sleep",\n      "text_quote": "patient slept on and off most of night---good effect from ativan",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "night",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "on and off",\n          "duration": "most of night"\n        }\n      }\n    },\n    {\n      "event_id": "e2",\n      "event_type": "Pain",\n      "text_quote": "bp slightly improved although 10 pm lisinopril dose held due to sbp=90, no significant",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "slightly improved",\n          "location": "bp",\n          "duration": "Unknown"\n        }\n      }\n    }\n  ],\n  "order": [\n    {\n      "event_id_1": "e1",\n      "relation": "before",\n      "event_id_2": "e2"\n    }\n  ]\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'on and off', 'duration': 'most of night'}}}, {'Pain': {'Pain': {'severity': 'slightly improved', 'location': 'bp', 'duration': 'Unknown'}}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}]], 'text_quotes': ['patient slept on and off most of night---good effect from ativan', 'bp slightly improved although 10 pm lisinopril dose held due to sbp=90, no significant'], 'event_time': ['night', 'Unknown'], 'negation': [False, False], 'caused_by': ['Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the Text at the end of this prompt into events that took place at the HOSPITAL, DURING THE SHIFT in which this text was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'An event is extracted from the text even if it is negated (e.g. "did not sleep"), but the respective negation attribute is set to True.\', \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n              \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n            ```\n           \n           \n           Text (written between 2154-01-13 05:18:00 and 2154-01-13 05:35:00):\n           events:  patient slept on and off most of night---good effect from ativan, bp slightly improved although 10 pm lisinopril dose held due to sbp=90, no significant\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient'], 'event_detection_time': 8.849278097040951}</t>
+          <t>{'text': 'patient turned dumped 100cc serosang, reassured back to sleep, continues to rest, calm.., when awaken needs to be reoriented to time, patien tcooperative/calm', 'event': ['Sleep', 'Pain', 'Excretion', 'Sleep'], 'event_id': ['e1', 'e2', 'e3', 'e4'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Sleep",\n            "text_quote": "reassured back to sleep",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {}\n            }\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e3",\n            "event_type": "Excretion",\n            "text_quote": "patient turned dumped 100cc serosang",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "urine"\n                }\n            }\n        },\n        {\n            "event_id": "e4",\n            "event_type": "Sleep",\n            "text_quote": "continues to rest, calm.., when awaken needs to be reoriented to time",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {}\n            }\n        }\n    ],\n    "order": [\n        {\n            "event_id_1": "e3",\n            "relation": "before",\n            "event_id_2": "e1"\n        },\n        {\n            "event_id_1": "e1",\n            "relation": "before",\n            "event_id_2": "e4"\n        }\n    ]\n}', 'attributes': [{'Sleep': {'Sleep': {}}}, {'Pain': {'Pain': {}}}, {'Excretion': {'Excretion': {'type': 'urine'}}}, {'Sleep': {'Sleep': {}}}], 'orders': [[{'event_id_1': 'e3', 'relation': 'before', 'event_id_2': 'e1'}, {'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e4'}]], 'text_quotes': ['reassured back to sleep', '', 'patient turned dumped 100cc serosang', 'continues to rest, calm.., when awaken needs to be reoriented to time'], 'event_time': ['Unknown', 'Unknown', 'Unknown', 'Unknown'], 'negation': [False, True, False, False], 'caused_by': ['Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '**Task: Event Classification and Attribute Extraction** \nYour task is to analyze the Text below and extract all events that occurred during the current hospital shift (the time the note was written).\nClassify each event into one or more of the following categories:\nCategory\tDefinition\nEating\tThe patient takes food into their body by mouth.\nExcretion\tThe patient discharges waste matter from their body.\nFamily\tThe patient has a visit, call, or communication with a family member.\nPain\tThe patient reports or shows signs of pain.\nSleep\tThe patient sleeps or the sleep’s quality or quantity is described.\nUnknown\tchoose "Unknown" if none of the other event type are applicable..\n\n**Rules and Conditions** \n1. Time constraint: Consider only actions that occurred during the current shift as events. \n2. Event constraint: Consider patient history, planning and requests as case attributes. Log them seperately. \n3. Actor constraint: Find out who is the main actor of the event.\n4. Negation Rule: Extract an event even if negated (e.g. “did not sleep”), and set "negation": true.\n5. Default Assumptions: \n        - If actor unclear → "actor":"patient"\n        - If time not mentioned → "time": "Unknown" \n        - If cause not mentioned → "caused_by": "Unknown" \n6. Clarifications:\n        - Sedation/resting ≠ sleep events.\n        - Sleep apnea occurs during sleep.\n        - Actions done to enable an event do not imply the event occurred (e.g., “given med for sleep” ≠ sleep).\nFor each detected event, output strictly valid JSON following the schema below: \n```\n    \n                        {   \n                        "case_attributes":[ \n                        //all patient-related details that did NOT occur during the current hospital shift, including past history, future plans, or events that happened at home or outside the hospital.\n                            {\n                            "attribute_name":"attribute_value" \n                            }\n                        ]  \n                        "events": [ \n                        //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ \n                        //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n```\n**Examples for Sleep Classification**\n\n                1. Include as Sleep Event**\n                - "Patient slept for 2 hours."\n                - "heart rate 50pbm while asleep"\n                - "patient now awake" (awake "now" assumes the patient was sleeping at an earlier state)\n\n                2. Do NOT include as Sleep Event**\n                - "Patient asked for sleeping pill." (Request, not event)\n                - "Patient wants to sleep later." (Future plan)\n                - "Patient fell asleep while driving (history)." (Before shift)\n                - "Patient was sedated/put to sleep for procedure." (Sedation)\n                - "Daughter slept in the room." (Actor ≠ patient)\n                - "Patient Alert and Awake" (Although awake is mentioned, it is not in the context of a status change from sleep but as an observation)\n\n**Text**\nWritten between 1980-08-03 01:45:00 and 1980-08-03 01:49:00:\n\'patient turned dumped 100cc serosang, reassured back to sleep, continues to rest, calm.., when awaken needs to be reoriented to time, patien tcooperative/calm\'\n', 'case_attributes': [[]], 'actor': ['patient', 'patient', 'patient', 'patient'], 'event_detection_time': 13.324652982875705}</t>
         </is>
       </c>
       <c r="H20" t="n">
@@ -2120,62 +2179,65 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>[True]</t>
+          <t>[True, True]</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>['patient slept on and off most of night---good effect from ativan']</t>
+          <t>['reassured back to sleep', 'continues to rest, calm.., when awaken needs to be reoriented to time']</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>['patient']</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>[{'Sleep': {'Sleep': {'quality': 'on and off', 'duration': 'most of night'}}}]</t>
-        </is>
+          <t>['patient', 'patient']</t>
+        </is>
+      </c>
+      <c r="O20" t="b">
+        <v>1</v>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>['Sleep', 'Pain']</t>
+          <t>[{'Sleep': {'Sleep': {}}}, {'Sleep': {'Sleep': {}}}]</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>[{'Sleep': {'Sleep': {'quality': 'on and off', 'duration': 'most of night'}}}, {'Pain': {'Pain': {'severity': 'slightly improved', 'location': 'bp', 'duration': 'Unknown'}}}]</t>
+          <t>['Sleep', 'Pain', 'Excretion', 'Sleep']</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>['patient slept on and off most of night---good effect from ativan', 'bp slightly improved although 10 pm lisinopril dose held due to sbp=90, no significant']</t>
+          <t>[{'Sleep': {'Sleep': {}}}, {'Pain': {'Pain': {}}}, {'Excretion': {'Excretion': {'type': 'urine'}}}, {'Sleep': {'Sleep': {}}}]</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>['e1=Sleep|1:patient slept on and off most of night---good effect from ativan', 'e2=Pain|1:bp slightly improved although 10 pm lisinopril dose held due to sbp=90, no significant']</t>
+          <t>['reassured back to sleep', '', 'patient turned dumped 100cc serosang', 'continues to rest, calm.., when awaken needs to be reoriented to time']</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>[[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}]]</t>
+          <t>['e1=Sleep|1:reassured back to sleep', 'e2=Pain|1:', 'e3=Excretion|1:patient turned dumped 100cc serosang', 'e4=Sleep|1:continues to rest, calm.., when awaken needs to be reoriented to time']</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>[[{'event_id_1': 'e3', 'relation': 'before', 'event_id_2': 'e1'}, {'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e4'}]]</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>625_1269099_0030</t>
+          <t>32291_1671534_0004</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>patient resting in naps</t>
+          <t>denied pain until ~ 0230 when awakened from sleep to urinate and noticed</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -2186,12 +2248,12 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>(Timestamp('2178-04-25 16:35:00'), Timestamp('2178-04-25 17:01:00'))</t>
+          <t>(Timestamp('2000-04-03 06:22:00'), Timestamp('2000-04-03 06:43:00'))</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>{'text': 'patient resting in naps', 'event': ['Sleep'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Sleep",\n      "text_quote": "patient resting in naps",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "Unknown",\n          "duration": "naps"\n        }\n      }\n    }\n  ],\n  "order": []\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'naps'}}}], 'orders': [[]], 'text_quotes': ['patient resting in naps'], 'event_time': ['Unknown'], 'negation': [False], 'caused_by': ['Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the Text at the end of this prompt into events that took place at the HOSPITAL, DURING THE SHIFT in which this text was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'An event is extracted from the text even if it is negated (e.g. "did not sleep"), but the respective negation attribute is set to True.\', \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n              \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n            ```\n           \n           \n           Text (written between 2178-04-25 16:35:00 and 2178-04-25 17:01:00):\n           patient resting in naps\n        ', 'case_attributes': [[]], 'actor': ['patient'], 'event_detection_time': 3.7160936649888754}</t>
+          <t>{'text': 'denied pain until ~ 0230 when awakened from sleep to urinate and noticed', 'event': ['Sleep', 'Excretion', 'Pain', 'Pain'], 'event_id': ['e1', 'e2', 'e3', 'e4'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Sleep",\n      "text_quote": "awakened from sleep",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "~0230",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e2",\n      "event_type": "Excretion",\n      "text_quote": "urinate",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "~0230",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "urine",\n          "frequency": "Unknown",\n          "quality": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e3",\n      "event_type": "Pain",\n      "text_quote": "denied pain until ~ 0230 when awakened from sleep to urinate and noticed",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "~ before 0230",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "Unknown",\n          "location": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e4",\n      "event_type": "Pain",\n      "text_quote": "denied pain until ~ 0230 when awakened from sleep to urinate and noticed",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "~0230",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "Unknown",\n          "location": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    }\n  ],\n  "order": [\n    {\n      "event_id_1": "e3",\n      "relation": "before",\n      "event_id_2": "e1"\n    },\n    {\n      "event_id_1": "e1",\n      "relation": "simultaneous",\n      "event_id_2": "e2"\n    },\n    {\n      "event_id_1": "e1",\n      "relation": "before",\n      "event_id_2": "e4"\n    }\n  ]\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': 'Unknown', 'quality': 'Unknown'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}], 'orders': [[{'event_id_1': 'e3', 'relation': 'before', 'event_id_2': 'e1'}, {'event_id_1': 'e1', 'relation': 'simultaneous', 'event_id_2': 'e2'}, {'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e4'}]], 'text_quotes': ['awakened from sleep', 'urinate', 'denied pain until ~ 0230 when awakened from sleep to urinate and noticed', 'denied pain until ~ 0230 when awakened from sleep to urinate and noticed'], 'event_time': ['~0230', '~0230', '~ before 0230', '~0230'], 'negation': [False, False, True, False], 'caused_by': ['Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '**Task: Event Classification and Attribute Extraction** \nYour task is to analyze the Text below and extract all events that occurred during the current hospital shift (the time the note was written).\nClassify each event into one or more of the following categories:\nCategory\tDefinition\nEating\tThe patient takes food into their body by mouth.\nExcretion\tThe patient discharges waste matter from their body.\nFamily\tThe patient has a visit, call, or communication with a family member.\nPain\tThe patient reports or shows signs of pain.\nSleep\tThe patient sleeps or the sleep’s quality or quantity is described.\nUnknown\tchoose "Unknown" if none of the other event type are applicable..\n\n**Rules and Conditions** \n1. Time constraint: Consider only actions that occurred during the current shift as events. \n2. Event constraint: Consider patient history, planning and requests as case attributes. Log them seperately. \n3. Actor constraint: Find out who is the main actor of the event.\n4. Negation Rule: Extract an event even if negated (e.g. “did not sleep”), and set "negation": true.\n5. Default Assumptions: \n        - If actor unclear → "actor":"patient"\n        - If time not mentioned → "time": "Unknown" \n        - If cause not mentioned → "caused_by": "Unknown" \n6. Clarifications:\n        - Sedation/resting ≠ sleep events.\n        - Sleep apnea occurs during sleep.\n        - Actions done to enable an event do not imply the event occurred (e.g., “given med for sleep” ≠ sleep).\nFor each detected event, output strictly valid JSON following the schema below: \n```\n    \n                        {   \n                        "case_attributes":[ \n                        //all patient-related details that did NOT occur during the current hospital shift, including past history, future plans, or events that happened at home or outside the hospital.\n                            {\n                            "attribute_name":"attribute_value" \n                            }\n                        ]  \n                        "events": [ \n                        //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ \n                        //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n```\n**Examples for Sleep Classification**\n\n                1. Include as Sleep Event**\n                - "Patient slept for 2 hours."\n                - "heart rate 50pbm while asleep"\n                - "patient now awake" (awake "now" assumes the patient was sleeping at an earlier state)\n\n                2. Do NOT include as Sleep Event**\n                - "Patient asked for sleeping pill." (Request, not event)\n                - "Patient wants to sleep later." (Future plan)\n                - "Patient fell asleep while driving (history)." (Before shift)\n                - "Patient was sedated/put to sleep for procedure." (Sedation)\n                - "Daughter slept in the room." (Actor ≠ patient)\n                - "Patient Alert and Awake" (Although awake is mentioned, it is not in the context of a status change from sleep but as an observation)\n\n**Text**\nWritten between 2000-04-03 06:22:00 and 2000-04-03 06:43:00:\n\'denied pain until ~ 0230 when awakened from sleep to urinate and noticed\'\n', 'case_attributes': [[]], 'actor': ['patient', 'patient', 'patient', 'patient'], 'event_detection_time': 17.03280564211309}</t>
         </is>
       </c>
       <c r="H21" t="n">
@@ -2211,7 +2273,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>['patient resting in naps']</t>
+          <t>['awakened from sleep']</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -2219,49 +2281,52 @@
           <t>['patient']</t>
         </is>
       </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'naps'}}}]</t>
-        </is>
+      <c r="O21" t="b">
+        <v>1</v>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>['Sleep']</t>
+          <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'naps'}}}]</t>
+          <t>['Sleep', 'Excretion', 'Pain', 'Pain']</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>['patient resting in naps']</t>
+          <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': 'Unknown', 'quality': 'Unknown'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>['e1=Sleep|1:patient resting in naps']</t>
+          <t>['awakened from sleep', 'urinate', 'denied pain until ~ 0230 when awakened from sleep to urinate and noticed', 'denied pain until ~ 0230 when awakened from sleep to urinate and noticed']</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>[[]]</t>
+          <t>['e1=Sleep|1:awakened from sleep', 'e2=Excretion|1:urinate', 'e3=Pain|1:denied pain until ~ 0230 when awakened from sleep to urinate and noticed', 'e4=Pain|1:denied pain until ~ 0230 when awakened from sleep to urinate and noticed']</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>[[{'event_id_1': 'e3', 'relation': 'before', 'event_id_2': 'e1'}, {'event_id_1': 'e1', 'relation': 'simultaneous', 'event_id_2': 'e2'}, {'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e4'}]]</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>23389_1567793_0021</t>
+          <t>1135_1277060_0001</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>neuro - sleeping in long naps but easily arousible</t>
+          <t>events:  patient slept on and off most of night---good effect from ativan, bp slightly improved although 10 pm lisinopril dose held due to sbp=90, no significant</t>
         </is>
       </c>
       <c r="D22" t="n">
@@ -2272,12 +2337,12 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>(Timestamp('2108-04-05 03:37:00'), Timestamp('2108-04-05 03:57:00'))</t>
+          <t>(Timestamp('1983-04-10 05:18:00'), Timestamp('1983-04-10 05:35:00'))</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>{'text': 'neuro - sleeping in long naps but easily arousible', 'event': ['Sleep'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Sleep",\n      "text_quote": "neuro - sleeping in long naps but easily arousible",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "easily arousible",\n          "duration": "long naps"\n        }\n      }\n    }\n  ],\n  "order": []\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'easily arousible', 'duration': 'long naps'}}}], 'orders': [[]], 'text_quotes': ['neuro - sleeping in long naps but easily arousible'], 'event_time': ['Unknown'], 'negation': [False], 'caused_by': ['Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the Text at the end of this prompt into events that took place at the HOSPITAL, DURING THE SHIFT in which this text was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'An event is extracted from the text even if it is negated (e.g. "did not sleep"), but the respective negation attribute is set to True.\', \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n              \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n            ```\n           \n           \n           Text (written between 2108-04-05 03:37:00 and 2108-04-05 03:57:00):\n           neuro - sleeping in long naps but easily arousible\n        ', 'case_attributes': [[]], 'actor': ['patient'], 'event_detection_time': 4.036406691884622}</t>
+          <t>{'text': 'events:  patient slept on and off most of night---good effect from ativan, bp slightly improved although 10 pm lisinopril dose held due to sbp=90, no significant', 'event': ['Sleep', 'Pain'], 'event_id': ['e1', 'e2'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [\n        {\n            "attribute_name": "bp",\n            "attribute_value": "slightly improved"\n        },\n        {\n            "attribute_name": "lisinopril dose",\n            "attribute_value": "held due to sbp=90 at 10 pm"\n        }\n    ],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Sleep",\n            "text_quote": "patient slept on and off most of night",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "night",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "on and off",\n                    "duration": "most of night"\n                }\n            }\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Pain",\n            "text_quote": "good effect from ativan",\n            "actor": "Unknown",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "Unknown",\n                    "location": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        }\n    ],\n    "order": [\n        {\n            "event_id_1": "e1",\n            "relation": "before",\n            "event_id_2": "e2"\n        }\n    ]\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'on and off', 'duration': 'most of night'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}]], 'text_quotes': ['patient slept on and off most of night', 'good effect from ativan'], 'event_time': ['night', 'Unknown'], 'negation': [False, False], 'caused_by': ['Unknown', 'Unknown'], 'event_name_prompt': '**Task: Event Classification and Attribute Extraction** \nYour task is to analyze the Text below and extract all events that occurred during the current hospital shift (the time the note was written).\nClassify each event into one or more of the following categories:\nCategory\tDefinition\nEating\tThe patient takes food into their body by mouth.\nExcretion\tThe patient discharges waste matter from their body.\nFamily\tThe patient has a visit, call, or communication with a family member.\nPain\tThe patient reports or shows signs of pain.\nSleep\tThe patient sleeps or the sleep’s quality or quantity is described.\nUnknown\tchoose "Unknown" if none of the other event type are applicable..\n\n**Rules and Conditions** \n1. Time constraint: Consider only actions that occurred during the current shift as events. \n2. Event constraint: Consider patient history, planning and requests as case attributes. Log them seperately. \n3. Actor constraint: Find out who is the main actor of the event.\n4. Negation Rule: Extract an event even if negated (e.g. “did not sleep”), and set "negation": true.\n5. Default Assumptions: \n        - If actor unclear → "actor":"patient"\n        - If time not mentioned → "time": "Unknown" \n        - If cause not mentioned → "caused_by": "Unknown" \n6. Clarifications:\n        - Sedation/resting ≠ sleep events.\n        - Sleep apnea occurs during sleep.\n        - Actions done to enable an event do not imply the event occurred (e.g., “given med for sleep” ≠ sleep).\nFor each detected event, output strictly valid JSON following the schema below: \n```\n    \n                        {   \n                        "case_attributes":[ \n                        //all patient-related details that did NOT occur during the current hospital shift, including past history, future plans, or events that happened at home or outside the hospital.\n                            {\n                            "attribute_name":"attribute_value" \n                            }\n                        ]  \n                        "events": [ \n                        //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ \n                        //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n```\n**Examples for Sleep Classification**\n\n                1. Include as Sleep Event**\n                - "Patient slept for 2 hours."\n                - "heart rate 50pbm while asleep"\n                - "patient now awake" (awake "now" assumes the patient was sleeping at an earlier state)\n\n                2. Do NOT include as Sleep Event**\n                - "Patient asked for sleeping pill." (Request, not event)\n                - "Patient wants to sleep later." (Future plan)\n                - "Patient fell asleep while driving (history)." (Before shift)\n                - "Patient was sedated/put to sleep for procedure." (Sedation)\n                - "Daughter slept in the room." (Actor ≠ patient)\n                - "Patient Alert and Awake" (Although awake is mentioned, it is not in the context of a status change from sleep but as an observation)\n\n**Text**\nWritten between 1983-04-10 05:18:00 and 1983-04-10 05:35:00:\n\'events:  patient slept on and off most of night---good effect from ativan, bp slightly improved although 10 pm lisinopril dose held due to sbp=90, no significant\'\n', 'case_attributes': [[{'attribute_name': 'bp', 'attribute_value': 'slightly improved'}, {'attribute_name': 'lisinopril dose', 'attribute_value': 'held due to sbp=90 at 10 pm'}]], 'actor': ['patient', 'Unknown'], 'event_detection_time': 9.842900388874114}</t>
         </is>
       </c>
       <c r="H22" t="n">
@@ -2297,7 +2362,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>['neuro - sleeping in long naps but easily arousible']</t>
+          <t>['patient slept on and off most of night']</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -2305,49 +2370,52 @@
           <t>['patient']</t>
         </is>
       </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>[{'Sleep': {'Sleep': {'quality': 'easily arousible', 'duration': 'long naps'}}}]</t>
-        </is>
+      <c r="O22" t="b">
+        <v>1</v>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>['Sleep']</t>
+          <t>[{'Sleep': {'Sleep': {'quality': 'on and off', 'duration': 'most of night'}}}]</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>[{'Sleep': {'Sleep': {'quality': 'easily arousible', 'duration': 'long naps'}}}]</t>
+          <t>['Sleep', 'Pain']</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>['neuro - sleeping in long naps but easily arousible']</t>
+          <t>[{'Sleep': {'Sleep': {'quality': 'on and off', 'duration': 'most of night'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>['e1=Sleep|1:neuro - sleeping in long naps but easily arousible']</t>
+          <t>['patient slept on and off most of night', 'good effect from ativan']</t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>[[]]</t>
+          <t>['e1=Sleep|1:patient slept on and off most of night', 'e2=Pain|1:good effect from ativan']</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>[[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}]]</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>19950_1524858_0007</t>
+          <t>2834_1298990_0015</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>slept most of shift, but aao x 3 when woken</t>
+          <t>patient vomited about 50 cc clear fluid zofran ordered but not given, patient back asleep</t>
         </is>
       </c>
       <c r="D23" t="n">
@@ -2358,12 +2426,12 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>(Timestamp('2116-04-28 14:42:00'), Timestamp('2116-04-28 14:45:00'))</t>
+          <t>(Timestamp('1973-10-02 19:11:00'), Timestamp('1973-10-02 19:25:00'))</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>{'text': 'slept most of shift, but aao x 3 when woken', 'event': ['Sleep', 'Pain'], 'event_id': ['e1', 'e2'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Sleep",\n      "text_quote": "slept most of shift",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "Unknown",\n          "duration": "most of shift"\n        }\n      }\n    },\n    {\n      "event_id": "e2",\n      "event_type": "Pain",\n      "text_quote": "aao x 3 when woken",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "Unknown",\n          "location": "Unknown",\n          "duration": "when woken"\n        }\n      }\n    }\n  ],\n  "order": [\n    {\n      "event_id_1": "e1",\n      "relation": "before",\n      "event_id_2": "e2"\n    }\n  ]\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'most of shift'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'when woken'}}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}]], 'text_quotes': ['slept most of shift', 'aao x 3 when woken'], 'event_time': ['Unknown', 'Unknown'], 'negation': [False, False], 'caused_by': ['Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the Text at the end of this prompt into events that took place at the HOSPITAL, DURING THE SHIFT in which this text was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'An event is extracted from the text even if it is negated (e.g. "did not sleep"), but the respective negation attribute is set to True.\', \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n              \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n            ```\n           \n           \n           Text (written between 2116-04-28 14:42:00 and 2116-04-28 14:45:00):\n           slept most of shift, but aao x 3 when woken\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient'], 'event_detection_time': 8.08675427804701}</t>
+          <t>{'text': 'patient vomited about 50 cc clear fluid zofran ordered but not given, patient back asleep', 'event': ['Excretion', 'Sleep'], 'event_id': ['e1', 'e2'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Excretion",\n      "text_quote": "patient vomited about 50 cc clear fluid",\n      "actor": "patient",\n      "object": "fluid",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "vomit",\n          "frequency": "1x",\n          "quality": "clear fluid"\n        }\n      }\n    },\n    {\n      "event_id": "e2",\n      "event_type": "Sleep",\n      "text_quote": "patient back asleep",\n      "actor": "patient",\n      "object": null,\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    }\n  ],\n  "order": [\n    {\n      "event_id_1": "e1",\n      "relation": "before",\n      "event_id_2": "e2"\n    }\n  ]\n}', 'attributes': [{'Excretion': {'Excretion': {'type': 'vomit', 'frequency': '1x', 'quality': 'clear fluid'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}]], 'text_quotes': ['patient vomited about 50 cc clear fluid', 'patient back asleep'], 'event_time': ['Unknown', 'Unknown'], 'negation': [False, False], 'caused_by': ['Unknown', 'Unknown'], 'event_name_prompt': '**Task: Event Classification and Attribute Extraction** \nYour task is to analyze the Text below and extract all events that occurred during the current hospital shift (the time the note was written).\nClassify each event into one or more of the following categories:\nCategory\tDefinition\nEating\tThe patient takes food into their body by mouth.\nExcretion\tThe patient discharges waste matter from their body.\nFamily\tThe patient has a visit, call, or communication with a family member.\nPain\tThe patient reports or shows signs of pain.\nSleep\tThe patient sleeps or the sleep’s quality or quantity is described.\nUnknown\tchoose "Unknown" if none of the other event type are applicable..\n\n**Rules and Conditions** \n1. Time constraint: Consider only actions that occurred during the current shift as events. \n2. Event constraint: Consider patient history, planning and requests as case attributes. Log them seperately. \n3. Actor constraint: Find out who is the main actor of the event.\n4. Negation Rule: Extract an event even if negated (e.g. “did not sleep”), and set "negation": true.\n5. Default Assumptions: \n        - If actor unclear → "actor":"patient"\n        - If time not mentioned → "time": "Unknown" \n        - If cause not mentioned → "caused_by": "Unknown" \n6. Clarifications:\n        - Sedation/resting ≠ sleep events.\n        - Sleep apnea occurs during sleep.\n        - Actions done to enable an event do not imply the event occurred (e.g., “given med for sleep” ≠ sleep).\nFor each detected event, output strictly valid JSON following the schema below: \n```\n    \n                        {   \n                        "case_attributes":[ \n                        //all patient-related details that did NOT occur during the current hospital shift, including past history, future plans, or events that happened at home or outside the hospital.\n                            {\n                            "attribute_name":"attribute_value" \n                            }\n                        ]  \n                        "events": [ \n                        //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ \n                        //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n```\n**Examples for Sleep Classification**\n\n                1. Include as Sleep Event**\n                - "Patient slept for 2 hours."\n                - "heart rate 50pbm while asleep"\n                - "patient now awake" (awake "now" assumes the patient was sleeping at an earlier state)\n\n                2. Do NOT include as Sleep Event**\n                - "Patient asked for sleeping pill." (Request, not event)\n                - "Patient wants to sleep later." (Future plan)\n                - "Patient fell asleep while driving (history)." (Before shift)\n                - "Patient was sedated/put to sleep for procedure." (Sedation)\n                - "Daughter slept in the room." (Actor ≠ patient)\n                - "Patient Alert and Awake" (Although awake is mentioned, it is not in the context of a status change from sleep but as an observation)\n\n**Text**\nWritten between 1973-10-02 19:11:00 and 1973-10-02 19:25:00:\n\'patient vomited about 50 cc clear fluid zofran ordered but not given, patient back asleep\'\n', 'case_attributes': [[]], 'actor': ['patient', 'patient'], 'event_detection_time': 8.03393171587959}</t>
         </is>
       </c>
       <c r="H23" t="n">
@@ -2383,7 +2451,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>['slept most of shift']</t>
+          <t>['patient back asleep']</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -2391,32 +2459,35 @@
           <t>['patient']</t>
         </is>
       </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'most of shift'}}}]</t>
-        </is>
+      <c r="O23" t="b">
+        <v>1</v>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>['Sleep', 'Pain']</t>
+          <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'most of shift'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'when woken'}}}]</t>
+          <t>['Excretion', 'Sleep']</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>['slept most of shift', 'aao x 3 when woken']</t>
+          <t>[{'Excretion': {'Excretion': {'type': 'vomit', 'frequency': '1x', 'quality': 'clear fluid'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>['e1=Sleep|1:slept most of shift', 'e2=Pain|1:aao x 3 when woken']</t>
+          <t>['patient vomited about 50 cc clear fluid', 'patient back asleep']</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
+        <is>
+          <t>['e1=Excretion|1:patient vomited about 50 cc clear fluid', 'e2=Sleep|1:patient back asleep']</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}]]</t>
         </is>
@@ -2424,16 +2495,16 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>202</v>
+        <v>173</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>22217_1553189_0006</t>
+          <t>9539_1388302_0002</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>o x 3, arouses to voice when sleeping</t>
+          <t>slept well but difficult to arouse for meds</t>
         </is>
       </c>
       <c r="D24" t="n">
@@ -2444,12 +2515,12 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>(Timestamp('2123-05-18 23:41:00'), Timestamp('2123-05-18 23:52:00'))</t>
+          <t>(Timestamp('1998-07-07 05:57:00'), Timestamp('1998-07-07 06:06:00'))</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>{'text': 'o x 3, arouses to voice when sleeping', 'event': ['Sleep'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Sleep",\n      "text_quote": "arouses to voice when sleeping",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "poor"\n        }\n      }\n    }\n  ],\n  "order": []\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'poor'}}}], 'orders': [[]], 'text_quotes': ['arouses to voice when sleeping'], 'event_time': ['Unknown'], 'negation': [False], 'caused_by': ['Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the Text at the end of this prompt into events that took place at the HOSPITAL, DURING THE SHIFT in which this text was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'An event is extracted from the text even if it is negated (e.g. "did not sleep"), but the respective negation attribute is set to True.\', \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n              \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n            ```\n           \n           \n           Text (written between 2123-05-18 23:41:00 and 2123-05-18 23:52:00):\n           o x 3, arouses to voice when sleeping\n        ', 'case_attributes': [[]], 'actor': ['patient'], 'event_detection_time': 3.5290062078274786}</t>
+          <t>{'text': 'slept well but difficult to arouse for meds', 'event': ['Sleep', 'Pain'], 'event_id': ['e1', 'e2'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Sleep",\n      "text_quote": "slept well but difficult to arouse for meds",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "well"\n        }\n      }\n    },\n    {\n      "event_id": "e2",\n      "event_type": "Pain",\n      "text_quote": "difficult to arouse for meds",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "Unknown",\n          "location": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    }\n  ],\n  "order": [\n    {\n      "event_id_1": "e1",\n      "relation": "before",\n      "event_id_2": "e2"\n    }\n  ]\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'well'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}]], 'text_quotes': ['slept well but difficult to arouse for meds', 'difficult to arouse for meds'], 'event_time': ['Unknown', 'Unknown'], 'negation': [False, False], 'caused_by': ['Unknown', 'Unknown'], 'event_name_prompt': '**Task: Event Classification and Attribute Extraction** \nYour task is to analyze the Text below and extract all events that occurred during the current hospital shift (the time the note was written).\nClassify each event into one or more of the following categories:\nCategory\tDefinition\nEating\tThe patient takes food into their body by mouth.\nExcretion\tThe patient discharges waste matter from their body.\nFamily\tThe patient has a visit, call, or communication with a family member.\nPain\tThe patient reports or shows signs of pain.\nSleep\tThe patient sleeps or the sleep’s quality or quantity is described.\nUnknown\tchoose "Unknown" if none of the other event type are applicable..\n\n**Rules and Conditions** \n1. Time constraint: Consider only actions that occurred during the current shift as events. \n2. Event constraint: Consider patient history, planning and requests as case attributes. Log them seperately. \n3. Actor constraint: Find out who is the main actor of the event.\n4. Negation Rule: Extract an event even if negated (e.g. “did not sleep”), and set "negation": true.\n5. Default Assumptions: \n        - If actor unclear → "actor":"patient"\n        - If time not mentioned → "time": "Unknown" \n        - If cause not mentioned → "caused_by": "Unknown" \n6. Clarifications:\n        - Sedation/resting ≠ sleep events.\n        - Sleep apnea occurs during sleep.\n        - Actions done to enable an event do not imply the event occurred (e.g., “given med for sleep” ≠ sleep).\nFor each detected event, output strictly valid JSON following the schema below: \n```\n    \n                        {   \n                        "case_attributes":[ \n                        //all patient-related details that did NOT occur during the current hospital shift, including past history, future plans, or events that happened at home or outside the hospital.\n                            {\n                            "attribute_name":"attribute_value" \n                            }\n                        ]  \n                        "events": [ \n                        //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ \n                        //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n```\n**Examples for Sleep Classification**\n\n                1. Include as Sleep Event**\n                - "Patient slept for 2 hours."\n                - "heart rate 50pbm while asleep"\n                - "patient now awake" (awake "now" assumes the patient was sleeping at an earlier state)\n\n                2. Do NOT include as Sleep Event**\n                - "Patient asked for sleeping pill." (Request, not event)\n                - "Patient wants to sleep later." (Future plan)\n                - "Patient fell asleep while driving (history)." (Before shift)\n                - "Patient was sedated/put to sleep for procedure." (Sedation)\n                - "Daughter slept in the room." (Actor ≠ patient)\n                - "Patient Alert and Awake" (Although awake is mentioned, it is not in the context of a status change from sleep but as an observation)\n\n**Text**\nWritten between 1998-07-07 05:57:00 and 1998-07-07 06:06:00:\n\'slept well but difficult to arouse for meds\'\n', 'case_attributes': [[]], 'actor': ['patient', 'patient'], 'event_detection_time': 7.919137211050838}</t>
         </is>
       </c>
       <c r="H24" t="n">
@@ -2469,7 +2540,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>['arouses to voice when sleeping']</t>
+          <t>['slept well but difficult to arouse for meds']</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -2477,49 +2548,52 @@
           <t>['patient']</t>
         </is>
       </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>[{'Sleep': {'Sleep': {'quality': 'poor'}}}]</t>
-        </is>
+      <c r="O24" t="b">
+        <v>1</v>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>['Sleep']</t>
+          <t>[{'Sleep': {'Sleep': {'quality': 'well'}}}]</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>[{'Sleep': {'Sleep': {'quality': 'poor'}}}]</t>
+          <t>['Sleep', 'Pain']</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>['arouses to voice when sleeping']</t>
+          <t>[{'Sleep': {'Sleep': {'quality': 'well'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>['e1=Sleep|1:arouses to voice when sleeping']</t>
+          <t>['slept well but difficult to arouse for meds', 'difficult to arouse for meds']</t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>[[]]</t>
+          <t>['e1=Sleep|1:slept well but difficult to arouse for meds', 'e2=Pain|1:difficult to arouse for meds']</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>[[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}]]</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>219</v>
+        <v>182</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>32240_1671091_0003</t>
+          <t>19950_1524858_0007</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>patient slept well overnight</t>
+          <t>slept most of shift, but aao x 3 when woken</t>
         </is>
       </c>
       <c r="D25" t="n">
@@ -2530,12 +2604,12 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>(Timestamp('2154-10-23 02:45:00'), Timestamp('2154-10-23 03:00:00'))</t>
+          <t>(Timestamp('1945-07-24 14:42:00'), Timestamp('1945-07-24 14:45:00'))</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>{'text': 'patient slept well overnight', 'event': ['Sleep'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Sleep",\n      "text_quote": "patient slept well overnight",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "overnight",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "well"\n        }\n      }\n    }\n  ],\n  "order": []\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'well'}}}], 'orders': [[]], 'text_quotes': ['patient slept well overnight'], 'event_time': ['overnight'], 'negation': [False], 'caused_by': ['Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the Text at the end of this prompt into events that took place at the HOSPITAL, DURING THE SHIFT in which this text was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'An event is extracted from the text even if it is negated (e.g. "did not sleep"), but the respective negation attribute is set to True.\', \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n              \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n            ```\n           \n           \n           Text (written between 2154-10-23 02:45:00 and 2154-10-23 03:00:00):\n           patient slept well overnight\n        ', 'case_attributes': [[]], 'actor': ['patient'], 'event_detection_time': 3.464771127095446}</t>
+          <t>{'text': 'slept most of shift, but aao x 3 when woken', 'event': ['Sleep', 'Pain'], 'event_id': ['e1', 'e2'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Sleep",\n            "text_quote": "slept most of shift, but aao x 3 when woken",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "interrupted",\n                    "duration": "most of shift"\n                }\n            }\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Pain",\n            "text_quote": "aao x 3 when woken",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "waking up",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "Unknown",\n                    "location": "Unknown",\n                    "duration": "3 times"\n                }\n            }\n        }\n    ],\n    "order": [\n        {\n            "event_id_1": "e1",\n            "relation": "before",\n            "event_id_2": "e2"\n        }\n    ]\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'interrupted', 'duration': 'most of shift'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': '3 times'}}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}]], 'text_quotes': ['slept most of shift, but aao x 3 when woken', 'aao x 3 when woken'], 'event_time': ['Unknown', 'Unknown'], 'negation': [False, False], 'caused_by': ['Unknown', 'waking up'], 'event_name_prompt': '**Task: Event Classification and Attribute Extraction** \nYour task is to analyze the Text below and extract all events that occurred during the current hospital shift (the time the note was written).\nClassify each event into one or more of the following categories:\nCategory\tDefinition\nEating\tThe patient takes food into their body by mouth.\nExcretion\tThe patient discharges waste matter from their body.\nFamily\tThe patient has a visit, call, or communication with a family member.\nPain\tThe patient reports or shows signs of pain.\nSleep\tThe patient sleeps or the sleep’s quality or quantity is described.\nUnknown\tchoose "Unknown" if none of the other event type are applicable..\n\n**Rules and Conditions** \n1. Time constraint: Consider only actions that occurred during the current shift as events. \n2. Event constraint: Consider patient history, planning and requests as case attributes. Log them seperately. \n3. Actor constraint: Find out who is the main actor of the event.\n4. Negation Rule: Extract an event even if negated (e.g. “did not sleep”), and set "negation": true.\n5. Default Assumptions: \n        - If actor unclear → "actor":"patient"\n        - If time not mentioned → "time": "Unknown" \n        - If cause not mentioned → "caused_by": "Unknown" \n6. Clarifications:\n        - Sedation/resting ≠ sleep events.\n        - Sleep apnea occurs during sleep.\n        - Actions done to enable an event do not imply the event occurred (e.g., “given med for sleep” ≠ sleep).\nFor each detected event, output strictly valid JSON following the schema below: \n```\n    \n                        {   \n                        "case_attributes":[ \n                        //all patient-related details that did NOT occur during the current hospital shift, including past history, future plans, or events that happened at home or outside the hospital.\n                            {\n                            "attribute_name":"attribute_value" \n                            }\n                        ]  \n                        "events": [ \n                        //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ \n                        //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n```\n**Examples for Sleep Classification**\n\n                1. Include as Sleep Event**\n                - "Patient slept for 2 hours."\n                - "heart rate 50pbm while asleep"\n                - "patient now awake" (awake "now" assumes the patient was sleeping at an earlier state)\n\n                2. Do NOT include as Sleep Event**\n                - "Patient asked for sleeping pill." (Request, not event)\n                - "Patient wants to sleep later." (Future plan)\n                - "Patient fell asleep while driving (history)." (Before shift)\n                - "Patient was sedated/put to sleep for procedure." (Sedation)\n                - "Daughter slept in the room." (Actor ≠ patient)\n                - "Patient Alert and Awake" (Although awake is mentioned, it is not in the context of a status change from sleep but as an observation)\n\n**Text**\nWritten between 1945-07-24 14:42:00 and 1945-07-24 14:45:00:\n\'slept most of shift, but aao x 3 when woken\'\n', 'case_attributes': [[]], 'actor': ['patient', 'patient'], 'event_detection_time': 8.482034632004797}</t>
         </is>
       </c>
       <c r="H25" t="n">
@@ -2555,7 +2629,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>['patient slept well overnight']</t>
+          <t>['slept most of shift, but aao x 3 when woken']</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -2563,49 +2637,52 @@
           <t>['patient']</t>
         </is>
       </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>[{'Sleep': {'Sleep': {'quality': 'well'}}}]</t>
-        </is>
+      <c r="O25" t="b">
+        <v>1</v>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>['Sleep']</t>
+          <t>[{'Sleep': {'Sleep': {'quality': 'interrupted', 'duration': 'most of shift'}}}]</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>[{'Sleep': {'Sleep': {'quality': 'well'}}}]</t>
+          <t>['Sleep', 'Pain']</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>['patient slept well overnight']</t>
+          <t>[{'Sleep': {'Sleep': {'quality': 'interrupted', 'duration': 'most of shift'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': '3 times'}}}]</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>['e1=Sleep|1:patient slept well overnight']</t>
+          <t>['slept most of shift, but aao x 3 when woken', 'aao x 3 when woken']</t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>[[]]</t>
+          <t>['e1=Sleep|1:slept most of shift, but aao x 3 when woken', 'e2=Pain|1:aao x 3 when woken']</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>[[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}]]</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>227</v>
+        <v>188</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>22530_1556837_0018</t>
+          <t>27659_1623973_0031</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>p:  npo past midnight, sleep med tonight, cont ntg and heparin as ordered, turn and position for comfort keeping hob flat d/t sheaths, keep patient and family informed of plan per multidisciplinary rounds</t>
+          <t>patient slept most of the evening</t>
         </is>
       </c>
       <c r="D26" t="n">
@@ -2616,12 +2693,12 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>(Timestamp('2110-08-08 22:50:00'), Timestamp('2110-08-08 22:58:00'))</t>
+          <t>(Timestamp('2002-11-07 05:44:00'), Timestamp('2002-11-07 06:17:00'))</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>{'text': 'p:  npo past midnight, sleep med tonight, cont ntg and heparin as ordered, turn and position for comfort keeping hob flat d/t sheaths, keep patient and family informed of plan per multidisciplinary rounds', 'event': ['Eating', 'Sleep', 'Family'], 'event_id': ['e1', 'e2', 'e3'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Eating",\n      "text_quote": "npo past midnight",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "past midnight",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {\n          "food": "Unknown",\n          "amount": "Unknown",\n          "method": "oral"\n        }\n      }\n    },\n    {\n      "event_id": "e2",\n      "event_type": "Sleep",\n      "text_quote": "sleep med tonight",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "tonight",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e3",\n      "event_type": "Family",\n      "text_quote": "keep patient and family informed of plan per multidisciplinary rounds",\n      "actor": "others",\n      "object": "family member",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {\n          "interaction": "communication",\n          "relation": "Unknown"\n        }\n      }\n    }\n  ],\n  "order": [\n    {\n      "event_id_1": "e1",\n      "relation": "before",\n      "event_id_2": "e2"\n    },\n    {\n      "event_id_1": "e2",\n      "relation": "unknown",\n      "event_id_2": "e3"\n    }\n  ]\n}', 'attributes': [{'Eating': {'Eating': {'food': 'Unknown', 'amount': 'Unknown', 'method': 'oral'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Family': {'Family': {'interaction': 'communication', 'relation': 'Unknown'}}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'unknown', 'event_id_2': 'e3'}]], 'text_quotes': ['npo past midnight', 'sleep med tonight', 'keep patient and family informed of plan per multidisciplinary rounds'], 'event_time': ['past midnight', 'tonight', 'Unknown'], 'negation': [True, False, False], 'caused_by': ['Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the Text at the end of this prompt into events that took place at the HOSPITAL, DURING THE SHIFT in which this text was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'An event is extracted from the text even if it is negated (e.g. "did not sleep"), but the respective negation attribute is set to True.\', \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n              \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n            ```\n           \n           \n           Text (written between 2110-08-08 22:50:00 and 2110-08-08 22:58:00):\n           p:  npo past midnight, sleep med tonight, cont ntg and heparin as ordered, turn and position for comfort keeping hob flat d/t sheaths, keep patient and family informed of plan per multidisciplinary rounds\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient', 'others'], 'event_detection_time': 11.984353800071403}</t>
+          <t>{'text': 'patient slept most of the evening', 'event': ['Sleep'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Sleep",\n            "text_quote": "patient slept most of the evening",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "evening",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "Unknown",\n                    "duration": "most of the evening"\n                }\n            }\n        }\n    ],\n    "order": []\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'most of the evening'}}}], 'orders': [[]], 'text_quotes': ['patient slept most of the evening'], 'event_time': ['evening'], 'negation': [False], 'caused_by': ['Unknown'], 'event_name_prompt': '**Task: Event Classification and Attribute Extraction** \nYour task is to analyze the Text below and extract all events that occurred during the current hospital shift (the time the note was written).\nClassify each event into one or more of the following categories:\nCategory\tDefinition\nEating\tThe patient takes food into their body by mouth.\nExcretion\tThe patient discharges waste matter from their body.\nFamily\tThe patient has a visit, call, or communication with a family member.\nPain\tThe patient reports or shows signs of pain.\nSleep\tThe patient sleeps or the sleep’s quality or quantity is described.\nUnknown\tchoose "Unknown" if none of the other event type are applicable..\n\n**Rules and Conditions** \n1. Time constraint: Consider only actions that occurred during the current shift as events. \n2. Event constraint: Consider patient history, planning and requests as case attributes. Log them seperately. \n3. Actor constraint: Find out who is the main actor of the event.\n4. Negation Rule: Extract an event even if negated (e.g. “did not sleep”), and set "negation": true.\n5. Default Assumptions: \n        - If actor unclear → "actor":"patient"\n        - If time not mentioned → "time": "Unknown" \n        - If cause not mentioned → "caused_by": "Unknown" \n6. Clarifications:\n        - Sedation/resting ≠ sleep events.\n        - Sleep apnea occurs during sleep.\n        - Actions done to enable an event do not imply the event occurred (e.g., “given med for sleep” ≠ sleep).\nFor each detected event, output strictly valid JSON following the schema below: \n```\n    \n                        {   \n                        "case_attributes":[ \n                        //all patient-related details that did NOT occur during the current hospital shift, including past history, future plans, or events that happened at home or outside the hospital.\n                            {\n                            "attribute_name":"attribute_value" \n                            }\n                        ]  \n                        "events": [ \n                        //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ \n                        //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n```\n**Examples for Sleep Classification**\n\n                1. Include as Sleep Event**\n                - "Patient slept for 2 hours."\n                - "heart rate 50pbm while asleep"\n                - "patient now awake" (awake "now" assumes the patient was sleeping at an earlier state)\n\n                2. Do NOT include as Sleep Event**\n                - "Patient asked for sleeping pill." (Request, not event)\n                - "Patient wants to sleep later." (Future plan)\n                - "Patient fell asleep while driving (history)." (Before shift)\n                - "Patient was sedated/put to sleep for procedure." (Sedation)\n                - "Daughter slept in the room." (Actor ≠ patient)\n                - "Patient Alert and Awake" (Although awake is mentioned, it is not in the context of a status change from sleep but as an observation)\n\n**Text**\nWritten between 2002-11-07 05:44:00 and 2002-11-07 06:17:00:\n\'patient slept most of the evening\'\n', 'case_attributes': [[]], 'actor': ['patient'], 'event_detection_time': 3.8167889749165624}</t>
         </is>
       </c>
       <c r="H26" t="n">
@@ -2641,7 +2718,7 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>['sleep med tonight']</t>
+          <t>['patient slept most of the evening']</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -2649,49 +2726,52 @@
           <t>['patient']</t>
         </is>
       </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
-        </is>
+      <c r="O26" t="b">
+        <v>1</v>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>['Eating', 'Sleep', 'Family']</t>
+          <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'most of the evening'}}}]</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>[{'Eating': {'Eating': {'food': 'Unknown', 'amount': 'Unknown', 'method': 'oral'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Family': {'Family': {'interaction': 'communication', 'relation': 'Unknown'}}}]</t>
+          <t>['Sleep']</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>['npo past midnight', 'sleep med tonight', 'keep patient and family informed of plan per multidisciplinary rounds']</t>
+          <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'most of the evening'}}}]</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>['e1=Eating|1:npo past midnight', 'e2=Sleep|1:sleep med tonight', 'e3=Family|1:keep patient and family informed of plan per multidisciplinary rounds']</t>
+          <t>['patient slept most of the evening']</t>
         </is>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>[[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'unknown', 'event_id_2': 'e3'}]]</t>
+          <t>['e1=Sleep|1:patient slept most of the evening']</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>[[]]</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>228</v>
+        <v>202</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>7784_1366538_0012</t>
+          <t>22217_1553189_0006</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>patient slept longer p last dose, requiring less ativan. agitation and confusion only symptoms on ciwa scale</t>
+          <t>o x 3, arouses to voice when sleeping</t>
         </is>
       </c>
       <c r="D27" t="n">
@@ -2702,12 +2782,12 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>(Timestamp('2128-06-17 04:14:00'), Timestamp('2128-06-17 04:35:00'))</t>
+          <t>(Timestamp('1952-08-12 23:41:00'), Timestamp('1952-08-12 23:52:00'))</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>{'text': 'patient slept longer p last dose, requiring less ativan. agitation and confusion only symptoms on ciwa scale', 'event': ['Sleep', 'Pain'], 'event_id': ['e1', 'e2'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Sleep",\n            "text_quote": "patient slept longer p last dose, requiring less ativan.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "longer",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Pain",\n            "text_quote": "agitation and confusion only symptoms on ciwa scale",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "Unknown",\n                    "location": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        }\n    ],\n    "order": [\n        {\n            "event_id_1": "e1",\n            "relation": "before",\n            "event_id_2": "e2"\n        }\n    ]\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'longer', 'duration': 'Unknown'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}]], 'text_quotes': ['patient slept longer p last dose, requiring less ativan.', 'agitation and confusion only symptoms on ciwa scale'], 'event_time': ['Unknown', 'Unknown'], 'negation': [False, False], 'caused_by': ['Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the Text at the end of this prompt into events that took place at the HOSPITAL, DURING THE SHIFT in which this text was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'An event is extracted from the text even if it is negated (e.g. "did not sleep"), but the respective negation attribute is set to True.\', \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n              \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n            ```\n           \n           \n           Text (written between 2128-06-17 04:14:00 and 2128-06-17 04:35:00):\n           patient slept longer p last dose, requiring less ativan. agitation and confusion only symptoms on ciwa scale\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient'], 'event_detection_time': 8.209613368846476}</t>
+          <t>{'text': 'o x 3, arouses to voice when sleeping', 'event': ['Sleep'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Sleep",\n            "text_quote": "arouses to voice when sleeping",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "light"\n                }\n            }\n        }\n    ],\n    "order": []\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'light'}}}], 'orders': [[]], 'text_quotes': ['arouses to voice when sleeping'], 'event_time': ['Unknown'], 'negation': [False], 'caused_by': ['Unknown'], 'event_name_prompt': '**Task: Event Classification and Attribute Extraction** \nYour task is to analyze the Text below and extract all events that occurred during the current hospital shift (the time the note was written).\nClassify each event into one or more of the following categories:\nCategory\tDefinition\nEating\tThe patient takes food into their body by mouth.\nExcretion\tThe patient discharges waste matter from their body.\nFamily\tThe patient has a visit, call, or communication with a family member.\nPain\tThe patient reports or shows signs of pain.\nSleep\tThe patient sleeps or the sleep’s quality or quantity is described.\nUnknown\tchoose "Unknown" if none of the other event type are applicable..\n\n**Rules and Conditions** \n1. Time constraint: Consider only actions that occurred during the current shift as events. \n2. Event constraint: Consider patient history, planning and requests as case attributes. Log them seperately. \n3. Actor constraint: Find out who is the main actor of the event.\n4. Negation Rule: Extract an event even if negated (e.g. “did not sleep”), and set "negation": true.\n5. Default Assumptions: \n        - If actor unclear → "actor":"patient"\n        - If time not mentioned → "time": "Unknown" \n        - If cause not mentioned → "caused_by": "Unknown" \n6. Clarifications:\n        - Sedation/resting ≠ sleep events.\n        - Sleep apnea occurs during sleep.\n        - Actions done to enable an event do not imply the event occurred (e.g., “given med for sleep” ≠ sleep).\nFor each detected event, output strictly valid JSON following the schema below: \n```\n    \n                        {   \n                        "case_attributes":[ \n                        //all patient-related details that did NOT occur during the current hospital shift, including past history, future plans, or events that happened at home or outside the hospital.\n                            {\n                            "attribute_name":"attribute_value" \n                            }\n                        ]  \n                        "events": [ \n                        //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ \n                        //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n```\n**Examples for Sleep Classification**\n\n                1. Include as Sleep Event**\n                - "Patient slept for 2 hours."\n                - "heart rate 50pbm while asleep"\n                - "patient now awake" (awake "now" assumes the patient was sleeping at an earlier state)\n\n                2. Do NOT include as Sleep Event**\n                - "Patient asked for sleeping pill." (Request, not event)\n                - "Patient wants to sleep later." (Future plan)\n                - "Patient fell asleep while driving (history)." (Before shift)\n                - "Patient was sedated/put to sleep for procedure." (Sedation)\n                - "Daughter slept in the room." (Actor ≠ patient)\n                - "Patient Alert and Awake" (Although awake is mentioned, it is not in the context of a status change from sleep but as an observation)\n\n**Text**\nWritten between 1952-08-12 23:41:00 and 1952-08-12 23:52:00:\n\'o x 3, arouses to voice when sleeping\'\n', 'case_attributes': [[]], 'actor': ['patient'], 'event_detection_time': 3.607458386104554}</t>
         </is>
       </c>
       <c r="H27" t="n">
@@ -2727,7 +2807,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>['patient slept longer p last dose, requiring less ativan.']</t>
+          <t>['arouses to voice when sleeping']</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -2735,49 +2815,52 @@
           <t>['patient']</t>
         </is>
       </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>[{'Sleep': {'Sleep': {'quality': 'longer', 'duration': 'Unknown'}}}]</t>
-        </is>
+      <c r="O27" t="b">
+        <v>1</v>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>['Sleep', 'Pain']</t>
+          <t>[{'Sleep': {'Sleep': {'quality': 'light'}}}]</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>[{'Sleep': {'Sleep': {'quality': 'longer', 'duration': 'Unknown'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}]</t>
+          <t>['Sleep']</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>['patient slept longer p last dose, requiring less ativan.', 'agitation and confusion only symptoms on ciwa scale']</t>
+          <t>[{'Sleep': {'Sleep': {'quality': 'light'}}}]</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>['e1=Sleep|1:patient slept longer p last dose, requiring less ativan.', 'e2=Pain|1:agitation and confusion only symptoms on ciwa scale']</t>
+          <t>['arouses to voice when sleeping']</t>
         </is>
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>[[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}]]</t>
+          <t>['e1=Sleep|1:arouses to voice when sleeping']</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>[[]]</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>230</v>
+        <v>203</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>3848_1311805_0003</t>
+          <t>29005_1638872_0004</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>this is the first night i have slept"</t>
+          <t>rouses to voice, dozing throughout much of day- a/ox3 this am, by early this evening patient a/ox2 and increasingly lethargic-dr</t>
         </is>
       </c>
       <c r="D28" t="n">
@@ -2788,12 +2871,12 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>(Timestamp('2198-12-24 04:39:00'), Timestamp('2198-12-24 05:16:00'))</t>
+          <t>(Timestamp('1945-02-15 17:23:00'), Timestamp('1945-02-15 17:36:00'))</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>{'text': 'this is the first night i have slept"', 'event': ['Sleep'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Sleep",\n      "text_quote": "this is the first night i have slept",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "night",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "Unknown",\n          "duration": "first night"\n        }\n      }\n    }\n  ],\n  "order": []\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'first night'}}}], 'orders': [[]], 'text_quotes': ['this is the first night i have slept'], 'event_time': ['night'], 'negation': [False], 'caused_by': ['Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the Text at the end of this prompt into events that took place at the HOSPITAL, DURING THE SHIFT in which this text was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'An event is extracted from the text even if it is negated (e.g. "did not sleep"), but the respective negation attribute is set to True.\', \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n              \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n            ```\n           \n           \n           Text (written between 2198-12-24 04:39:00 and 2198-12-24 05:16:00):\n           this is the first night i have slept"\n        ', 'case_attributes': [[]], 'actor': ['patient'], 'event_detection_time': 3.801187306875363}</t>
+          <t>{'text': 'rouses to voice, dozing throughout much of day- a/ox3 this am, by early this evening patient a/ox2 and increasingly lethargic-dr', 'event': ['Sleep', 'Pain', 'Sleep'], 'event_id': ['e1', 'e2', 'e3'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Sleep",\n            "text_quote": "dozing throughout much of day",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "day",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "poor",\n                    "duration": "on and off"\n                }\n            }\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e3",\n            "event_type": "Sleep",\n            "text_quote": "rouses to voice, increasingly lethargic-dr",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "evening",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {}\n            }\n        }\n    ],\n    "order": [\n        {\n            "event_id_1": "e1",\n            "relation": "before",\n            "event_id_2": "e3"\n        }\n    ]\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'poor', 'duration': 'on and off'}}}, {'Pain': {'Pain': {}}}, {'Sleep': {'Sleep': {}}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e3'}]], 'text_quotes': ['dozing throughout much of day', '', 'rouses to voice, increasingly lethargic-dr'], 'event_time': ['day', 'Unknown', 'evening'], 'negation': [False, True, False], 'caused_by': ['Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '**Task: Event Classification and Attribute Extraction** \nYour task is to analyze the Text below and extract all events that occurred during the current hospital shift (the time the note was written).\nClassify each event into one or more of the following categories:\nCategory\tDefinition\nEating\tThe patient takes food into their body by mouth.\nExcretion\tThe patient discharges waste matter from their body.\nFamily\tThe patient has a visit, call, or communication with a family member.\nPain\tThe patient reports or shows signs of pain.\nSleep\tThe patient sleeps or the sleep’s quality or quantity is described.\nUnknown\tchoose "Unknown" if none of the other event type are applicable..\n\n**Rules and Conditions** \n1. Time constraint: Consider only actions that occurred during the current shift as events. \n2. Event constraint: Consider patient history, planning and requests as case attributes. Log them seperately. \n3. Actor constraint: Find out who is the main actor of the event.\n4. Negation Rule: Extract an event even if negated (e.g. “did not sleep”), and set "negation": true.\n5. Default Assumptions: \n        - If actor unclear → "actor":"patient"\n        - If time not mentioned → "time": "Unknown" \n        - If cause not mentioned → "caused_by": "Unknown" \n6. Clarifications:\n        - Sedation/resting ≠ sleep events.\n        - Sleep apnea occurs during sleep.\n        - Actions done to enable an event do not imply the event occurred (e.g., “given med for sleep” ≠ sleep).\nFor each detected event, output strictly valid JSON following the schema below: \n```\n    \n                        {   \n                        "case_attributes":[ \n                        //all patient-related details that did NOT occur during the current hospital shift, including past history, future plans, or events that happened at home or outside the hospital.\n                            {\n                            "attribute_name":"attribute_value" \n                            }\n                        ]  \n                        "events": [ \n                        //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ \n                        //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n```\n**Examples for Sleep Classification**\n\n                1. Include as Sleep Event**\n                - "Patient slept for 2 hours."\n                - "heart rate 50pbm while asleep"\n                - "patient now awake" (awake "now" assumes the patient was sleeping at an earlier state)\n\n                2. Do NOT include as Sleep Event**\n                - "Patient asked for sleeping pill." (Request, not event)\n                - "Patient wants to sleep later." (Future plan)\n                - "Patient fell asleep while driving (history)." (Before shift)\n                - "Patient was sedated/put to sleep for procedure." (Sedation)\n                - "Daughter slept in the room." (Actor ≠ patient)\n                - "Patient Alert and Awake" (Although awake is mentioned, it is not in the context of a status change from sleep but as an observation)\n\n**Text**\nWritten between 1945-02-15 17:23:00 and 1945-02-15 17:36:00:\n\'rouses to voice, dozing throughout much of day- a/ox3 this am, by early this evening patient a/ox2 and increasingly lethargic-dr\'\n', 'case_attributes': [[]], 'actor': ['patient', 'patient', 'patient'], 'event_detection_time': 9.818496186984703}</t>
         </is>
       </c>
       <c r="H28" t="n">
@@ -2808,62 +2891,65 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>[True]</t>
+          <t>[True, True]</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>['this is the first night i have slept']</t>
+          <t>['dozing throughout much of day', 'rouses to voice, increasingly lethargic-dr']</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>['patient']</t>
-        </is>
-      </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'first night'}}}]</t>
-        </is>
+          <t>['patient', 'patient']</t>
+        </is>
+      </c>
+      <c r="O28" t="b">
+        <v>1</v>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>['Sleep']</t>
+          <t>[{'Sleep': {'Sleep': {'quality': 'poor', 'duration': 'on and off'}}}, {'Sleep': {'Sleep': {}}}]</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'first night'}}}]</t>
+          <t>['Sleep', 'Pain', 'Sleep']</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>['this is the first night i have slept']</t>
+          <t>[{'Sleep': {'Sleep': {'quality': 'poor', 'duration': 'on and off'}}}, {'Pain': {'Pain': {}}}, {'Sleep': {'Sleep': {}}}]</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>['e1=Sleep|1:this is the first night i have slept']</t>
+          <t>['dozing throughout much of day', '', 'rouses to voice, increasingly lethargic-dr']</t>
         </is>
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>[[]]</t>
+          <t>['e1=Sleep|1:dozing throughout much of day', 'e2=Pain|1:', 'e3=Sleep|0:rouses to voice, increasingly lethargic-dr']</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>[[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e3'}]]</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>244</v>
+        <v>263</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>14972_1457192_0011</t>
+          <t>32480_1673407_0004</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>but is able to sleep for most of the day</t>
+          <t>neuro: alert, sleeping in naps</t>
         </is>
       </c>
       <c r="D29" t="n">
@@ -2874,12 +2960,12 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>(Timestamp('2173-09-30 16:24:00'), Timestamp('2173-09-30 16:55:00'))</t>
+          <t>(Timestamp('1998-09-23 14:28:00'), Timestamp('1998-09-23 14:37:00'))</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>{'text': 'but is able to sleep for most of the day', 'event': ['Sleep'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Sleep",\n      "text_quote": "but is able to sleep for most of the day",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "Unknown",\n          "duration": "most of the day"\n        }\n      }\n    }\n  ],\n  "order": []\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'most of the day'}}}], 'orders': [[]], 'text_quotes': ['but is able to sleep for most of the day'], 'event_time': ['Unknown'], 'negation': [False], 'caused_by': ['Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the Text at the end of this prompt into events that took place at the HOSPITAL, DURING THE SHIFT in which this text was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'An event is extracted from the text even if it is negated (e.g. "did not sleep"), but the respective negation attribute is set to True.\', \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n              \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n            ```\n           \n           \n           Text (written between 2173-09-30 16:24:00 and 2173-09-30 16:55:00):\n           but is able to sleep for most of the day\n        ', 'case_attributes': [[]], 'actor': ['patient'], 'event_detection_time': 3.9144357698969543}</t>
+          <t>{'text': 'neuro: alert, sleeping in naps', 'event': ['Sleep'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Sleep",\n            "text_quote": "sleeping in naps",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "napping",\n                    "duration": "short"\n                }\n            }\n        }\n    ],\n    "order": []\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'napping', 'duration': 'short'}}}], 'orders': [[]], 'text_quotes': ['sleeping in naps'], 'event_time': ['Unknown'], 'negation': [False], 'caused_by': ['Unknown'], 'event_name_prompt': '**Task: Event Classification and Attribute Extraction** \nYour task is to analyze the Text below and extract all events that occurred during the current hospital shift (the time the note was written).\nClassify each event into one or more of the following categories:\nCategory\tDefinition\nEating\tThe patient takes food into their body by mouth.\nExcretion\tThe patient discharges waste matter from their body.\nFamily\tThe patient has a visit, call, or communication with a family member.\nPain\tThe patient reports or shows signs of pain.\nSleep\tThe patient sleeps or the sleep’s quality or quantity is described.\nUnknown\tchoose "Unknown" if none of the other event type are applicable..\n\n**Rules and Conditions** \n1. Time constraint: Consider only actions that occurred during the current shift as events. \n2. Event constraint: Consider patient history, planning and requests as case attributes. Log them seperately. \n3. Actor constraint: Find out who is the main actor of the event.\n4. Negation Rule: Extract an event even if negated (e.g. “did not sleep”), and set "negation": true.\n5. Default Assumptions: \n        - If actor unclear → "actor":"patient"\n        - If time not mentioned → "time": "Unknown" \n        - If cause not mentioned → "caused_by": "Unknown" \n6. Clarifications:\n        - Sedation/resting ≠ sleep events.\n        - Sleep apnea occurs during sleep.\n        - Actions done to enable an event do not imply the event occurred (e.g., “given med for sleep” ≠ sleep).\nFor each detected event, output strictly valid JSON following the schema below: \n```\n    \n                        {   \n                        "case_attributes":[ \n                        //all patient-related details that did NOT occur during the current hospital shift, including past history, future plans, or events that happened at home or outside the hospital.\n                            {\n                            "attribute_name":"attribute_value" \n                            }\n                        ]  \n                        "events": [ \n                        //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ \n                        //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n```\n**Examples for Sleep Classification**\n\n                1. Include as Sleep Event**\n                - "Patient slept for 2 hours."\n                - "heart rate 50pbm while asleep"\n                - "patient now awake" (awake "now" assumes the patient was sleeping at an earlier state)\n\n                2. Do NOT include as Sleep Event**\n                - "Patient asked for sleeping pill." (Request, not event)\n                - "Patient wants to sleep later." (Future plan)\n                - "Patient fell asleep while driving (history)." (Before shift)\n                - "Patient was sedated/put to sleep for procedure." (Sedation)\n                - "Daughter slept in the room." (Actor ≠ patient)\n                - "Patient Alert and Awake" (Although awake is mentioned, it is not in the context of a status change from sleep but as an observation)\n\n**Text**\nWritten between 1998-09-23 14:28:00 and 1998-09-23 14:37:00:\n\'neuro: alert, sleeping in naps\'\n', 'case_attributes': [[]], 'actor': ['patient'], 'event_detection_time': 3.713001657044515}</t>
         </is>
       </c>
       <c r="H29" t="n">
@@ -2899,7 +2985,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>['but is able to sleep for most of the day']</t>
+          <t>['sleeping in naps']</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -2907,32 +2993,35 @@
           <t>['patient']</t>
         </is>
       </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'most of the day'}}}]</t>
-        </is>
+      <c r="O29" t="b">
+        <v>1</v>
       </c>
       <c r="P29" t="inlineStr">
         <is>
+          <t>[{'Sleep': {'Sleep': {'quality': 'napping', 'duration': 'short'}}}]</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
           <t>['Sleep']</t>
         </is>
       </c>
-      <c r="Q29" t="inlineStr">
-        <is>
-          <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'most of the day'}}}]</t>
-        </is>
-      </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>['but is able to sleep for most of the day']</t>
+          <t>[{'Sleep': {'Sleep': {'quality': 'napping', 'duration': 'short'}}}]</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>['e1=Sleep|1:but is able to sleep for most of the day']</t>
+          <t>['sleeping in naps']</t>
         </is>
       </c>
       <c r="T29" t="inlineStr">
+        <is>
+          <t>['e1=Sleep|1:sleeping in naps']</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -2940,16 +3029,16 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>270</v>
+        <v>284</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>14603_1452808_0006</t>
+          <t>25621_1596312_0041</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>given ambien for sleep with effect</t>
+          <t>patient dozed intermittently overnoc</t>
         </is>
       </c>
       <c r="D30" t="n">
@@ -2960,12 +3049,12 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>(Timestamp('2196-04-04 06:27:00'), Timestamp('2196-04-04 06:40:00'))</t>
+          <t>(Timestamp('1948-07-06 06:56:00'), Timestamp('1948-07-06 07:50:00'))</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>{'text': 'given ambien for sleep with effect', 'event': ['Sleep'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Sleep",\n      "text_quote": "given ambien for sleep with effect",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    }\n  ],\n  "order": []\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}], 'orders': [[]], 'text_quotes': ['given ambien for sleep with effect'], 'event_time': ['Unknown'], 'negation': [False], 'caused_by': ['Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the Text at the end of this prompt into events that took place at the HOSPITAL, DURING THE SHIFT in which this text was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'An event is extracted from the text even if it is negated (e.g. "did not sleep"), but the respective negation attribute is set to True.\', \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n              \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n            ```\n           \n           \n           Text (written between 2196-04-04 06:27:00 and 2196-04-04 06:40:00):\n           given ambien for sleep with effect\n        ', 'case_attributes': [[]], 'actor': ['patient'], 'event_detection_time': 3.7264576831366867}</t>
+          <t>{'text': 'patient dozed intermittently overnoc', 'event': ['Sleep'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Sleep",\n            "text_quote": "patient dozed intermittently overnight",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "overnight",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "intermittent"\n                }\n            }\n        }\n    ],\n    "order": []\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'intermittent'}}}], 'orders': [[]], 'text_quotes': ['patient dozed intermittently overnight'], 'event_time': ['overnight'], 'negation': [False], 'caused_by': ['Unknown'], 'event_name_prompt': '**Task: Event Classification and Attribute Extraction** \nYour task is to analyze the Text below and extract all events that occurred during the current hospital shift (the time the note was written).\nClassify each event into one or more of the following categories:\nCategory\tDefinition\nEating\tThe patient takes food into their body by mouth.\nExcretion\tThe patient discharges waste matter from their body.\nFamily\tThe patient has a visit, call, or communication with a family member.\nPain\tThe patient reports or shows signs of pain.\nSleep\tThe patient sleeps or the sleep’s quality or quantity is described.\nUnknown\tchoose "Unknown" if none of the other event type are applicable..\n\n**Rules and Conditions** \n1. Time constraint: Consider only actions that occurred during the current shift as events. \n2. Event constraint: Consider patient history, planning and requests as case attributes. Log them seperately. \n3. Actor constraint: Find out who is the main actor of the event.\n4. Negation Rule: Extract an event even if negated (e.g. “did not sleep”), and set "negation": true.\n5. Default Assumptions: \n        - If actor unclear → "actor":"patient"\n        - If time not mentioned → "time": "Unknown" \n        - If cause not mentioned → "caused_by": "Unknown" \n6. Clarifications:\n        - Sedation/resting ≠ sleep events.\n        - Sleep apnea occurs during sleep.\n        - Actions done to enable an event do not imply the event occurred (e.g., “given med for sleep” ≠ sleep).\nFor each detected event, output strictly valid JSON following the schema below: \n```\n    \n                        {   \n                        "case_attributes":[ \n                        //all patient-related details that did NOT occur during the current hospital shift, including past history, future plans, or events that happened at home or outside the hospital.\n                            {\n                            "attribute_name":"attribute_value" \n                            }\n                        ]  \n                        "events": [ \n                        //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ \n                        //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n```\n**Examples for Sleep Classification**\n\n                1. Include as Sleep Event**\n                - "Patient slept for 2 hours."\n                - "heart rate 50pbm while asleep"\n                - "patient now awake" (awake "now" assumes the patient was sleeping at an earlier state)\n\n                2. Do NOT include as Sleep Event**\n                - "Patient asked for sleeping pill." (Request, not event)\n                - "Patient wants to sleep later." (Future plan)\n                - "Patient fell asleep while driving (history)." (Before shift)\n                - "Patient was sedated/put to sleep for procedure." (Sedation)\n                - "Daughter slept in the room." (Actor ≠ patient)\n                - "Patient Alert and Awake" (Although awake is mentioned, it is not in the context of a status change from sleep but as an observation)\n\n**Text**\nWritten between 1948-07-06 06:56:00 and 1948-07-06 07:50:00:\n\'patient dozed intermittently overnoc\'\n', 'case_attributes': [[]], 'actor': ['patient'], 'event_detection_time': 3.6042496911250055}</t>
         </is>
       </c>
       <c r="H30" t="n">
@@ -2985,7 +3074,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>['given ambien for sleep with effect']</t>
+          <t>['patient dozed intermittently overnight']</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -2993,32 +3082,35 @@
           <t>['patient']</t>
         </is>
       </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
-        </is>
+      <c r="O30" t="b">
+        <v>1</v>
       </c>
       <c r="P30" t="inlineStr">
         <is>
+          <t>[{'Sleep': {'Sleep': {'quality': 'intermittent'}}}]</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
           <t>['Sleep']</t>
         </is>
       </c>
-      <c r="Q30" t="inlineStr">
-        <is>
-          <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
-        </is>
-      </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>['given ambien for sleep with effect']</t>
+          <t>[{'Sleep': {'Sleep': {'quality': 'intermittent'}}}]</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>['e1=Sleep|1:given ambien for sleep with effect']</t>
+          <t>['patient dozed intermittently overnight']</t>
         </is>
       </c>
       <c r="T30" t="inlineStr">
+        <is>
+          <t>['e1=Sleep|0:patient dozed intermittently overnight']</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -3026,16 +3118,16 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>274</v>
+        <v>293</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>11569_1413704_0004</t>
+          <t>25374_1593405_0012</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>patient appeared to sleep most of shift, would hold hand w/wife and squeeze hand when she told him she had to move and would occasionally open eyes when asked, no further answering ?s with nodding</t>
+          <t>patient medicated for pain with mso4 with good effect- patient sleeps approx 1-2 hrs after pain is relieved- patient states pain is located on r side of chest and assoc with excessive coughing</t>
         </is>
       </c>
       <c r="D31" t="n">
@@ -3046,12 +3138,12 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>(Timestamp('2160-12-26 18:06:00'), Timestamp('2160-12-26 18:25:00'))</t>
+          <t>(Timestamp('2014-01-17 06:25:00'), Timestamp('2014-01-17 06:40:00'))</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>{'text': 'patient appeared to sleep most of shift, would hold hand w/wife and squeeze hand when she told him she had to move and would occasionally open eyes when asked, no further answering ?s with nodding', 'event': ['Sleep', 'Family', 'Pain'], 'event_id': ['e1', 'e2', 'e3'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Sleep",\n      "text_quote": "patient appeared to sleep most of shift",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "Unknown",\n          "duration": "most of shift"\n        }\n      }\n    },\n    {\n      "event_id": "e2",\n      "event_type": "Family",\n      "text_quote": "would hold hand w/wife and squeeze hand when she told him she had to move",\n      "actor": "patient",\n      "object": "wife",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {\n          "interaction": "physical contact",\n          "relation": "wife"\n        }\n      }\n    },\n    {\n      "event_id": "e3",\n      "event_type": "Pain",\n      "text_quote": "no further answering ?s with nodding",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "Unknown",\n          "location": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    }\n  ],\n  "order": [\n    {\n      "event_id_1": "e1",\n      "relation": "simultaneous",\n      "event_id_2": "e2"\n    },\n    {\n      "event_id_1": "e2",\n      "relation": "after",\n      "event_id_2": "e3"\n    }\n  ]\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'most of shift'}}}, {'Family': {'Family': {'interaction': 'physical contact', 'relation': 'wife'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'simultaneous', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'after', 'event_id_2': 'e3'}]], 'text_quotes': ['patient appeared to sleep most of shift', 'would hold hand w/wife and squeeze hand when she told him she had to move', 'no further answering ?s with nodding'], 'event_time': ['Unknown', 'Unknown', 'Unknown'], 'negation': [False, False, True], 'caused_by': ['Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the Text at the end of this prompt into events that took place at the HOSPITAL, DURING THE SHIFT in which this text was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'An event is extracted from the text even if it is negated (e.g. "did not sleep"), but the respective negation attribute is set to True.\', \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n              \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n            ```\n           \n           \n           Text (written between 2160-12-26 18:06:00 and 2160-12-26 18:25:00):\n           patient appeared to sleep most of shift, would hold hand w/wife and squeeze hand when she told him she had to move and would occasionally open eyes when asked, no further answering ?s with nodding\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient', 'patient'], 'event_detection_time': 12.421605160227045}</t>
+          <t>{'text': 'patient medicated for pain with mso4 with good effect- patient sleeps approx 1-2 hrs after pain is relieved- patient states pain is located on r side of chest and assoc with excessive coughing', 'event': ['Pain', 'Sleep'], 'event_id': ['e1', 'e2'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [\n        {\n            "attribute_name": "pain_location",\n            "attribute_value": "r side of chest"\n        },\n        {\n            "attribute_name": "pain_association",\n            "attribute_value": "excessive coughing"\n        }\n    ],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Pain",\n            "text_quote": "patient medicated for pain with mso4 with good effect",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "Unknown",\n                    "location": "r side of chest",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Sleep",\n            "text_quote": "patient sleeps approx 1-2 hrs after pain is relieved",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "e1",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "Unknown",\n                    "duration": "approx 1-2 hrs"\n                }\n            }\n        }\n    ],\n    "order": [\n        {\n            "event_id_1": "e1",\n            "relation": "before",\n            "event_id_2": "e2"\n        }\n    ]\n}', 'attributes': [{'Pain': {'Pain': {'severity': 'Unknown', 'location': 'r side of chest', 'duration': 'Unknown'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'approx 1-2 hrs'}}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}]], 'text_quotes': ['patient medicated for pain with mso4 with good effect', 'patient sleeps approx 1-2 hrs after pain is relieved'], 'event_time': ['Unknown', 'Unknown'], 'negation': [False, False], 'caused_by': ['Unknown', 'e1'], 'event_name_prompt': '**Task: Event Classification and Attribute Extraction** \nYour task is to analyze the Text below and extract all events that occurred during the current hospital shift (the time the note was written).\nClassify each event into one or more of the following categories:\nCategory\tDefinition\nEating\tThe patient takes food into their body by mouth.\nExcretion\tThe patient discharges waste matter from their body.\nFamily\tThe patient has a visit, call, or communication with a family member.\nPain\tThe patient reports or shows signs of pain.\nSleep\tThe patient sleeps or the sleep’s quality or quantity is described.\nUnknown\tchoose "Unknown" if none of the other event type are applicable..\n\n**Rules and Conditions** \n1. Time constraint: Consider only actions that occurred during the current shift as events. \n2. Event constraint: Consider patient history, planning and requests as case attributes. Log them seperately. \n3. Actor constraint: Find out who is the main actor of the event.\n4. Negation Rule: Extract an event even if negated (e.g. “did not sleep”), and set "negation": true.\n5. Default Assumptions: \n        - If actor unclear → "actor":"patient"\n        - If time not mentioned → "time": "Unknown" \n        - If cause not mentioned → "caused_by": "Unknown" \n6. Clarifications:\n        - Sedation/resting ≠ sleep events.\n        - Sleep apnea occurs during sleep.\n        - Actions done to enable an event do not imply the event occurred (e.g., “given med for sleep” ≠ sleep).\nFor each detected event, output strictly valid JSON following the schema below: \n```\n    \n                        {   \n                        "case_attributes":[ \n                        //all patient-related details that did NOT occur during the current hospital shift, including past history, future plans, or events that happened at home or outside the hospital.\n                            {\n                            "attribute_name":"attribute_value" \n                            }\n                        ]  \n                        "events": [ \n                        //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ \n                        //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n```\n**Examples for Sleep Classification**\n\n                1. Include as Sleep Event**\n                - "Patient slept for 2 hours."\n                - "heart rate 50pbm while asleep"\n                - "patient now awake" (awake "now" assumes the patient was sleeping at an earlier state)\n\n                2. Do NOT include as Sleep Event**\n                - "Patient asked for sleeping pill." (Request, not event)\n                - "Patient wants to sleep later." (Future plan)\n                - "Patient fell asleep while driving (history)." (Before shift)\n                - "Patient was sedated/put to sleep for procedure." (Sedation)\n                - "Daughter slept in the room." (Actor ≠ patient)\n                - "Patient Alert and Awake" (Although awake is mentioned, it is not in the context of a status change from sleep but as an observation)\n\n**Text**\nWritten between 2014-01-17 06:25:00 and 2014-01-17 06:40:00:\n\'patient medicated for pain with mso4 with good effect- patient sleeps approx 1-2 hrs after pain is relieved- patient states pain is located on r side of chest and assoc with excessive coughing\'\n', 'case_attributes': [[{'attribute_name': 'pain_location', 'attribute_value': 'r side of chest'}, {'attribute_name': 'pain_association', 'attribute_value': 'excessive coughing'}]], 'actor': ['patient', 'patient'], 'event_detection_time': 10.101658578962088}</t>
         </is>
       </c>
       <c r="H31" t="n">
@@ -3071,7 +3163,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>['patient appeared to sleep most of shift']</t>
+          <t>['patient sleeps approx 1-2 hrs after pain is relieved']</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -3079,49 +3171,52 @@
           <t>['patient']</t>
         </is>
       </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'most of shift'}}}]</t>
-        </is>
+      <c r="O31" t="b">
+        <v>1</v>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>['Sleep', 'Family', 'Pain']</t>
+          <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'approx 1-2 hrs'}}}]</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'most of shift'}}}, {'Family': {'Family': {'interaction': 'physical contact', 'relation': 'wife'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}]</t>
+          <t>['Pain', 'Sleep']</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>['patient appeared to sleep most of shift', 'would hold hand w/wife and squeeze hand when she told him she had to move', 'no further answering ?s with nodding']</t>
+          <t>[{'Pain': {'Pain': {'severity': 'Unknown', 'location': 'r side of chest', 'duration': 'Unknown'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'approx 1-2 hrs'}}}]</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>['e1=Sleep|1:patient appeared to sleep most of shift', 'e2=Family|1:would hold hand w/wife and squeeze hand when she told him she had to move', 'e3=Pain|1:no further answering ?s with nodding']</t>
+          <t>['patient medicated for pain with mso4 with good effect', 'patient sleeps approx 1-2 hrs after pain is relieved']</t>
         </is>
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>[[{'event_id_1': 'e1', 'relation': 'simultaneous', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'after', 'event_id_2': 'e3'}]]</t>
+          <t>['e1=Pain|1:patient medicated for pain with mso4 with good effect', 'e2=Sleep|1:patient sleeps approx 1-2 hrs after pain is relieved']</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>[[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}]]</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>3304_1304618_0000</t>
+          <t>16332_1475705_0027</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>patient anxious c/o pain med with morphine with relief trazadone hs for sleep with effectbp labile neo drops increased /cvp 13-15continues with copious amounts of thick tan/yellow secretions 04am increase rr/and decrease tv decrease sao2 91 patient c/o "can't breath" mouths words increase ps to 12 increase fio2 to 70% sao2 increase to 95 rr 22 tv improved</t>
+          <t>ambien qhs as unable to sleepcurrently asleep</t>
         </is>
       </c>
       <c r="D32" t="n">
@@ -3132,12 +3227,12 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>(Timestamp('2103-01-04 04:35:00'), Timestamp('2103-01-04 04:50:00'))</t>
+          <t>(Timestamp('1977-01-18 04:24:00'), Timestamp('1977-01-18 04:35:00'))</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>{'text': 'patient anxious c/o pain med with morphine with relief trazadone hs for sleep with effectbp labile neo drops increased /cvp 13-15continues with copious amounts of thick tan/yellow secretions 04am increase rr/and decrease tv decrease sao2 91 patient c/o "can\'t breath" mouths words increase ps to 12 increase fio2 to 70% sao2 increase to 95 rr 22 tv improved', 'event': ['Pain', 'Sleep', 'Excretion', 'Pain'], 'event_id': ['e1', 'e2', 'e3', 'e4'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Pain",\n      "text_quote": "patient anxious c/o pain med with morphine with relief",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "Unknown",\n          "location": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e2",\n      "event_type": "Sleep",\n      "text_quote": "trazadone hs for sleep with effect",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e3",\n      "event_type": "Excretion",\n      "text_quote": "continues with copious amounts of thick tan/yellow secretions",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "secretions",\n          "frequency": "copious amounts",\n          "quality": "thick tan/yellow"\n        }\n      }\n    },\n    {\n      "event_id": "e4",\n      "event_type": "Pain",\n      "text_quote": "patient c/o \\"can\'t breath\\"",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "Unknown",\n          "location": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    }\n  ],\n  "order": [\n    {\n      "event_id_1": "e1",\n      "relation": "before",\n      "event_id_2": "e2"\n    },\n    {\n      "event_id_1": "e2",\n      "relation": "before",\n      "event_id_2": "e3"\n    },\n    {\n      "event_id_1": "e3",\n      "relation": "before",\n      "event_id_2": "e4"\n    }\n  ]\n}', 'attributes': [{'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Excretion': {'Excretion': {'type': 'secretions', 'frequency': 'copious amounts', 'quality': 'thick tan/yellow'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'before', 'event_id_2': 'e3'}, {'event_id_1': 'e3', 'relation': 'before', 'event_id_2': 'e4'}]], 'text_quotes': ['patient anxious c/o pain med with morphine with relief', 'trazadone hs for sleep with effect', 'continues with copious amounts of thick tan/yellow secretions', 'patient c/o "can\'t breath"'], 'event_time': ['Unknown', 'Unknown', 'Unknown', 'Unknown'], 'negation': [False, False, False, False], 'caused_by': ['Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the Text at the end of this prompt into events that took place at the HOSPITAL, DURING THE SHIFT in which this text was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'An event is extracted from the text even if it is negated (e.g. "did not sleep"), but the respective negation attribute is set to True.\', \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n              \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n            ```\n           \n           \n           Text (written between 2103-01-04 04:35:00 and 2103-01-04 04:50:00):\n           patient anxious c/o pain med with morphine with relief trazadone hs for sleep with effectbp labile neo drops increased /cvp 13-15continues with copious amounts of thick tan/yellow secretions 04am increase rr/and decrease tv decrease sao2 91 patient c/o "can\'t breath" mouths words increase ps to 12 increase fio2 to 70% sao2 increase to 95 rr 22 tv improved\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient', 'patient', 'patient'], 'event_detection_time': 17.085101284086704}</t>
+          <t>{'text': 'ambien qhs as unable to sleepcurrently asleep', 'event': ['Sleep', 'Pain'], 'event_id': ['e1', 'e2'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [\n    {\n      "attribute_name": "medication",\n      "attribute_value": "Ambien"\n    }\n  ],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Sleep",\n      "text_quote": "currently asleep",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e2",\n      "event_type": "Pain",\n      "text_quote": "unable to sleep",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "Unknown",\n          "location": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    }\n  ],\n  "order": [\n    {\n      "event_id_1": "e2",\n      "relation": "before",\n      "event_id_2": "e1"\n    }\n  ]\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}], 'orders': [[{'event_id_1': 'e2', 'relation': 'before', 'event_id_2': 'e1'}]], 'text_quotes': ['currently asleep', 'unable to sleep'], 'event_time': ['Unknown', 'Unknown'], 'negation': [False, False], 'caused_by': ['Unknown', 'Unknown'], 'event_name_prompt': '**Task: Event Classification and Attribute Extraction** \nYour task is to analyze the Text below and extract all events that occurred during the current hospital shift (the time the note was written).\nClassify each event into one or more of the following categories:\nCategory\tDefinition\nEating\tThe patient takes food into their body by mouth.\nExcretion\tThe patient discharges waste matter from their body.\nFamily\tThe patient has a visit, call, or communication with a family member.\nPain\tThe patient reports or shows signs of pain.\nSleep\tThe patient sleeps or the sleep’s quality or quantity is described.\nUnknown\tchoose "Unknown" if none of the other event type are applicable..\n\n**Rules and Conditions** \n1. Time constraint: Consider only actions that occurred during the current shift as events. \n2. Event constraint: Consider patient history, planning and requests as case attributes. Log them seperately. \n3. Actor constraint: Find out who is the main actor of the event.\n4. Negation Rule: Extract an event even if negated (e.g. “did not sleep”), and set "negation": true.\n5. Default Assumptions: \n        - If actor unclear → "actor":"patient"\n        - If time not mentioned → "time": "Unknown" \n        - If cause not mentioned → "caused_by": "Unknown" \n6. Clarifications:\n        - Sedation/resting ≠ sleep events.\n        - Sleep apnea occurs during sleep.\n        - Actions done to enable an event do not imply the event occurred (e.g., “given med for sleep” ≠ sleep).\nFor each detected event, output strictly valid JSON following the schema below: \n```\n    \n                        {   \n                        "case_attributes":[ \n                        //all patient-related details that did NOT occur during the current hospital shift, including past history, future plans, or events that happened at home or outside the hospital.\n                            {\n                            "attribute_name":"attribute_value" \n                            }\n                        ]  \n                        "events": [ \n                        //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ \n                        //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n```\n**Examples for Sleep Classification**\n\n                1. Include as Sleep Event**\n                - "Patient slept for 2 hours."\n                - "heart rate 50pbm while asleep"\n                - "patient now awake" (awake "now" assumes the patient was sleeping at an earlier state)\n\n                2. Do NOT include as Sleep Event**\n                - "Patient asked for sleeping pill." (Request, not event)\n                - "Patient wants to sleep later." (Future plan)\n                - "Patient fell asleep while driving (history)." (Before shift)\n                - "Patient was sedated/put to sleep for procedure." (Sedation)\n                - "Daughter slept in the room." (Actor ≠ patient)\n                - "Patient Alert and Awake" (Although awake is mentioned, it is not in the context of a status change from sleep but as an observation)\n\n**Text**\nWritten between 1977-01-18 04:24:00 and 1977-01-18 04:35:00:\n\'ambien qhs as unable to sleepcurrently asleep\'\n', 'case_attributes': [[{'attribute_name': 'medication', 'attribute_value': 'Ambien'}]], 'actor': ['patient', 'patient'], 'event_detection_time': 8.469926010118797}</t>
         </is>
       </c>
       <c r="H32" t="n">
@@ -3157,7 +3252,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>['trazadone hs for sleep with effect']</t>
+          <t>['currently asleep']</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -3165,49 +3260,52 @@
           <t>['patient']</t>
         </is>
       </c>
-      <c r="O32" t="inlineStr">
+      <c r="O32" t="b">
+        <v>1</v>
+      </c>
+      <c r="P32" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="P32" t="inlineStr">
-        <is>
-          <t>['Pain', 'Sleep', 'Excretion', 'Pain']</t>
-        </is>
-      </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>[{'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Excretion': {'Excretion': {'type': 'secretions', 'frequency': 'copious amounts', 'quality': 'thick tan/yellow'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}]</t>
+          <t>['Sleep', 'Pain']</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>['patient anxious c/o pain med with morphine with relief', 'trazadone hs for sleep with effect', 'continues with copious amounts of thick tan/yellow secretions', 'patient c/o "can\'t breath"']</t>
+          <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>['e1=Pain|1:patient anxious c/o pain med with morphine with relief', 'e2=Sleep|1:trazadone hs for sleep with effect', 'e3=Excretion|1:continues with copious amounts of thick tan/yellow secretions', 'e4=Pain|1:patient c/o "can\'t breath"']</t>
+          <t>['currently asleep', 'unable to sleep']</t>
         </is>
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>[[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'before', 'event_id_2': 'e3'}, {'event_id_1': 'e3', 'relation': 'before', 'event_id_2': 'e4'}]]</t>
+          <t>['e1=Sleep|1:currently asleep', 'e2=Pain|1:unable to sleep']</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>[[{'event_id_1': 'e2', 'relation': 'before', 'event_id_2': 'e1'}]]</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>291</v>
+        <v>308</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>19814_1522561_0004</t>
+          <t>840_1272641_0009</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>back pain improved and patient sleeping</t>
+          <t>mother states patient asleep all eve, was more awake earlier in the day</t>
         </is>
       </c>
       <c r="D33" t="n">
@@ -3218,12 +3316,12 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>(Timestamp('2192-04-18 15:17:00'), Timestamp('2192-04-18 15:19:00'))</t>
+          <t>(Timestamp('1960-04-11 22:27:00'), Timestamp('1960-04-11 22:36:00'))</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>{'text': 'back pain improved and patient sleeping', 'event': ['Pain', 'Sleep'], 'event_id': ['e1', 'e2'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Pain",\n      "text_quote": "back pain improved",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "improved",\n          "location": "back",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e2",\n      "event_type": "Sleep",\n      "text_quote": "patient sleeping",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    }\n  ],\n  "order": [\n    {\n      "event_id_1": "e2",\n      "relation": "after",\n      "event_id_2": "e1"\n    }\n  ]\n}', 'attributes': [{'Pain': {'Pain': {'severity': 'improved', 'location': 'back', 'duration': 'Unknown'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}], 'orders': [[{'event_id_1': 'e2', 'relation': 'after', 'event_id_2': 'e1'}]], 'text_quotes': ['back pain improved', 'patient sleeping'], 'event_time': ['Unknown', 'Unknown'], 'negation': [False, False], 'caused_by': ['Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the Text at the end of this prompt into events that took place at the HOSPITAL, DURING THE SHIFT in which this text was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'An event is extracted from the text even if it is negated (e.g. "did not sleep"), but the respective negation attribute is set to True.\', \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n              \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n            ```\n           \n           \n           Text (written between 2192-04-18 15:17:00 and 2192-04-18 15:19:00):\n           back pain improved and patient sleeping\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient'], 'event_detection_time': 7.74702328001149}</t>
+          <t>{'text': 'mother states patient asleep all eve, was more awake earlier in the day', 'event': ['Sleep'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [\n        {\n            "attribute_name": "patient\'s condition earlier in the day",\n            "attribute_value": "more awake"\n        }\n    ],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Sleep",\n            "text_quote": "mother states patient asleep all eve",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "evening",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "Unknown",\n                    "duration": "all evening"\n                }\n            }\n        }\n    ],\n    "order": []\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'all evening'}}}], 'orders': [[]], 'text_quotes': ['mother states patient asleep all eve'], 'event_time': ['evening'], 'negation': [False], 'caused_by': ['Unknown'], 'event_name_prompt': '**Task: Event Classification and Attribute Extraction** \nYour task is to analyze the Text below and extract all events that occurred during the current hospital shift (the time the note was written).\nClassify each event into one or more of the following categories:\nCategory\tDefinition\nEating\tThe patient takes food into their body by mouth.\nExcretion\tThe patient discharges waste matter from their body.\nFamily\tThe patient has a visit, call, or communication with a family member.\nPain\tThe patient reports or shows signs of pain.\nSleep\tThe patient sleeps or the sleep’s quality or quantity is described.\nUnknown\tchoose "Unknown" if none of the other event type are applicable..\n\n**Rules and Conditions** \n1. Time constraint: Consider only actions that occurred during the current shift as events. \n2. Event constraint: Consider patient history, planning and requests as case attributes. Log them seperately. \n3. Actor constraint: Find out who is the main actor of the event.\n4. Negation Rule: Extract an event even if negated (e.g. “did not sleep”), and set "negation": true.\n5. Default Assumptions: \n        - If actor unclear → "actor":"patient"\n        - If time not mentioned → "time": "Unknown" \n        - If cause not mentioned → "caused_by": "Unknown" \n6. Clarifications:\n        - Sedation/resting ≠ sleep events.\n        - Sleep apnea occurs during sleep.\n        - Actions done to enable an event do not imply the event occurred (e.g., “given med for sleep” ≠ sleep).\nFor each detected event, output strictly valid JSON following the schema below: \n```\n    \n                        {   \n                        "case_attributes":[ \n                        //all patient-related details that did NOT occur during the current hospital shift, including past history, future plans, or events that happened at home or outside the hospital.\n                            {\n                            "attribute_name":"attribute_value" \n                            }\n                        ]  \n                        "events": [ \n                        //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ \n                        //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n```\n**Examples for Sleep Classification**\n\n                1. Include as Sleep Event**\n                - "Patient slept for 2 hours."\n                - "heart rate 50pbm while asleep"\n                - "patient now awake" (awake "now" assumes the patient was sleeping at an earlier state)\n\n                2. Do NOT include as Sleep Event**\n                - "Patient asked for sleeping pill." (Request, not event)\n                - "Patient wants to sleep later." (Future plan)\n                - "Patient fell asleep while driving (history)." (Before shift)\n                - "Patient was sedated/put to sleep for procedure." (Sedation)\n                - "Daughter slept in the room." (Actor ≠ patient)\n                - "Patient Alert and Awake" (Although awake is mentioned, it is not in the context of a status change from sleep but as an observation)\n\n**Text**\nWritten between 1960-04-11 22:27:00 and 1960-04-11 22:36:00:\n\'mother states patient asleep all eve, was more awake earlier in the day\'\n', 'case_attributes': [[{'attribute_name': "patient's condition earlier in the day", 'attribute_value': 'more awake'}]], 'actor': ['patient'], 'event_detection_time': 4.639523071004078}</t>
         </is>
       </c>
       <c r="H33" t="n">
@@ -3243,7 +3341,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>['patient sleeping']</t>
+          <t>['mother states patient asleep all eve']</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -3251,34 +3349,37 @@
           <t>['patient']</t>
         </is>
       </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
-        </is>
+      <c r="O33" t="b">
+        <v>1</v>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>['Pain', 'Sleep']</t>
+          <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'all evening'}}}]</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>[{'Pain': {'Pain': {'severity': 'improved', 'location': 'back', 'duration': 'Unknown'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
+          <t>['Sleep']</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>['back pain improved', 'patient sleeping']</t>
+          <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'all evening'}}}]</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>['e1=Pain|1:back pain improved', 'e2=Sleep|1:patient sleeping']</t>
+          <t>['mother states patient asleep all eve']</t>
         </is>
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>[[{'event_id_1': 'e2', 'relation': 'after', 'event_id_2': 'e1'}]]</t>
+          <t>['e1=Sleep|1:mother states patient asleep all eve']</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>[[]]</t>
         </is>
       </c>
     </row>
@@ -3304,12 +3405,12 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>(Timestamp('2136-04-02 06:04:00'), Timestamp('2136-04-02 06:34:00'))</t>
+          <t>(Timestamp('1965-06-28 06:04:00'), Timestamp('1965-06-28 06:34:00'))</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>{'text': 'slept poorly in short naps', 'event': ['Sleep'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Sleep",\n      "text_quote": "slept poorly in short naps",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "poor",\n          "duration": "short"\n        }\n      }\n    }\n  ],\n  "order": []\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'poor', 'duration': 'short'}}}], 'orders': [[]], 'text_quotes': ['slept poorly in short naps'], 'event_time': ['Unknown'], 'negation': [False], 'caused_by': ['Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the Text at the end of this prompt into events that took place at the HOSPITAL, DURING THE SHIFT in which this text was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'An event is extracted from the text even if it is negated (e.g. "did not sleep"), but the respective negation attribute is set to True.\', \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n              \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n            ```\n           \n           \n           Text (written between 2136-04-02 06:04:00 and 2136-04-02 06:34:00):\n           slept poorly in short naps\n        ', 'case_attributes': [[]], 'actor': ['patient'], 'event_detection_time': 3.8043049392290413}</t>
+          <t>{'text': 'slept poorly in short naps', 'event': ['Sleep'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Sleep",\n      "text_quote": "slept poorly in short naps",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "poor",\n          "duration": "short naps"\n        }\n      }\n    }\n  ],\n  "order": []\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'poor', 'duration': 'short naps'}}}], 'orders': [[]], 'text_quotes': ['slept poorly in short naps'], 'event_time': ['Unknown'], 'negation': [False], 'caused_by': ['Unknown'], 'event_name_prompt': '**Task: Event Classification and Attribute Extraction** \nYour task is to analyze the Text below and extract all events that occurred during the current hospital shift (the time the note was written).\nClassify each event into one or more of the following categories:\nCategory\tDefinition\nEating\tThe patient takes food into their body by mouth.\nExcretion\tThe patient discharges waste matter from their body.\nFamily\tThe patient has a visit, call, or communication with a family member.\nPain\tThe patient reports or shows signs of pain.\nSleep\tThe patient sleeps or the sleep’s quality or quantity is described.\nUnknown\tchoose "Unknown" if none of the other event type are applicable..\n\n**Rules and Conditions** \n1. Time constraint: Consider only actions that occurred during the current shift as events. \n2. Event constraint: Consider patient history, planning and requests as case attributes. Log them seperately. \n3. Actor constraint: Find out who is the main actor of the event.\n4. Negation Rule: Extract an event even if negated (e.g. “did not sleep”), and set "negation": true.\n5. Default Assumptions: \n        - If actor unclear → "actor":"patient"\n        - If time not mentioned → "time": "Unknown" \n        - If cause not mentioned → "caused_by": "Unknown" \n6. Clarifications:\n        - Sedation/resting ≠ sleep events.\n        - Sleep apnea occurs during sleep.\n        - Actions done to enable an event do not imply the event occurred (e.g., “given med for sleep” ≠ sleep).\nFor each detected event, output strictly valid JSON following the schema below: \n```\n    \n                        {   \n                        "case_attributes":[ \n                        //all patient-related details that did NOT occur during the current hospital shift, including past history, future plans, or events that happened at home or outside the hospital.\n                            {\n                            "attribute_name":"attribute_value" \n                            }\n                        ]  \n                        "events": [ \n                        //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ \n                        //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n```\n**Examples for Sleep Classification**\n\n                1. Include as Sleep Event**\n                - "Patient slept for 2 hours."\n                - "heart rate 50pbm while asleep"\n                - "patient now awake" (awake "now" assumes the patient was sleeping at an earlier state)\n\n                2. Do NOT include as Sleep Event**\n                - "Patient asked for sleeping pill." (Request, not event)\n                - "Patient wants to sleep later." (Future plan)\n                - "Patient fell asleep while driving (history)." (Before shift)\n                - "Patient was sedated/put to sleep for procedure." (Sedation)\n                - "Daughter slept in the room." (Actor ≠ patient)\n                - "Patient Alert and Awake" (Although awake is mentioned, it is not in the context of a status change from sleep but as an observation)\n\n**Text**\nWritten between 1965-06-28 06:04:00 and 1965-06-28 06:34:00:\n\'slept poorly in short naps\'\n', 'case_attributes': [[]], 'actor': ['patient'], 'event_detection_time': 3.8517965557985008}</t>
         </is>
       </c>
       <c r="H34" t="n">
@@ -3337,32 +3438,35 @@
           <t>['patient']</t>
         </is>
       </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>[{'Sleep': {'Sleep': {'quality': 'poor', 'duration': 'short'}}}]</t>
-        </is>
+      <c r="O34" t="b">
+        <v>1</v>
       </c>
       <c r="P34" t="inlineStr">
         <is>
+          <t>[{'Sleep': {'Sleep': {'quality': 'poor', 'duration': 'short naps'}}}]</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
           <t>['Sleep']</t>
         </is>
       </c>
-      <c r="Q34" t="inlineStr">
-        <is>
-          <t>[{'Sleep': {'Sleep': {'quality': 'poor', 'duration': 'short'}}}]</t>
-        </is>
-      </c>
       <c r="R34" t="inlineStr">
         <is>
+          <t>[{'Sleep': {'Sleep': {'quality': 'poor', 'duration': 'short naps'}}}]</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
           <t>['slept poorly in short naps']</t>
         </is>
       </c>
-      <c r="S34" t="inlineStr">
+      <c r="T34" t="inlineStr">
         <is>
           <t>['e1=Sleep|1:slept poorly in short naps']</t>
         </is>
       </c>
-      <c r="T34" t="inlineStr">
+      <c r="U34" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -3370,16 +3474,16 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>326</v>
+        <v>357</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>19950_1524854_0003</t>
+          <t>27467_1621531_0010</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>slept most of night</t>
+          <t>5mg ir oxycodone for breakthrough pain -patient sleeping on reassesment, complete relief of pain-when aware pain returning - "tolerable" managed with percocet</t>
         </is>
       </c>
       <c r="D35" t="n">
@@ -3390,12 +3494,12 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>(Timestamp('2116-04-27 04:22:00'), Timestamp('2116-04-27 04:53:00'))</t>
+          <t>(Timestamp('1999-11-08 16:36:00'), Timestamp('1999-11-08 17:00:00'))</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>{'text': 'slept most of night', 'event': ['Sleep'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Sleep",\n      "text_quote": "slept most of night",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "night",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "good",\n          "duration": "most"\n        }\n      }\n    }\n  ],\n  "order": []\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'good', 'duration': 'most'}}}], 'orders': [[]], 'text_quotes': ['slept most of night'], 'event_time': ['night'], 'negation': [False], 'caused_by': ['Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the Text at the end of this prompt into events that took place at the HOSPITAL, DURING THE SHIFT in which this text was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'An event is extracted from the text even if it is negated (e.g. "did not sleep"), but the respective negation attribute is set to True.\', \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n              \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n            ```\n           \n           \n           Text (written between 2116-04-27 04:22:00 and 2116-04-27 04:53:00):\n           slept most of night\n        ', 'case_attributes': [[]], 'actor': ['patient'], 'event_detection_time': 3.709589494159445}</t>
+          <t>{'text': '5mg ir oxycodone for breakthrough pain -patient sleeping on reassesment, complete relief of pain-when aware pain returning - "tolerable" managed with percocet', 'event': ['Pain', 'Sleep', 'Pain'], 'event_id': ['e1', 'e2', 'e3'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [\n        {\n            "attribute_name": "breakthrough pain",\n            "attribute_value": "managed with 5mg ir oxycodone"\n        },\n        {\n            "attribute_name": "pain management plan",\n            "attribute_value": "percocet for tolerable pain"\n        }\n    ],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Pain",\n            "text_quote": "breakthrough pain - patient sleeping on reassesment, complete relief of pain",\n            "actor": "patient",\n            "object": "pain",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "breakthrough",\n                    "location": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Sleep",\n            "text_quote": "patient sleeping on reassesment",\n            "actor": "patient",\n            "object": "sleep",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "5mg ir oxycodone",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e3",\n            "event_type": "Pain",\n            "text_quote": "when aware pain returning - \\"tolerable\\" managed with percocet",\n            "actor": "patient",\n            "object": "pain",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "tolerable",\n                    "location": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        }\n    ],\n    "order": [\n        {\n            "event_id_1": "e1",\n            "relation": "before",\n            "event_id_2": "e2"\n        },\n        {\n            "event_id_1": "e2",\n            "relation": "before",\n            "event_id_2": "e3"\n        }\n    ]\n}', 'attributes': [{'Pain': {'Pain': {'severity': 'breakthrough', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Pain': {'Pain': {'severity': 'tolerable', 'location': 'Unknown', 'duration': 'Unknown'}}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'before', 'event_id_2': 'e3'}]], 'text_quotes': ['breakthrough pain - patient sleeping on reassesment, complete relief of pain', 'patient sleeping on reassesment', 'when aware pain returning - "tolerable" managed with percocet'], 'event_time': ['Unknown', 'Unknown', 'Unknown'], 'negation': [False, False, False], 'caused_by': ['Unknown', '5mg ir oxycodone', 'Unknown'], 'event_name_prompt': '**Task: Event Classification and Attribute Extraction** \nYour task is to analyze the Text below and extract all events that occurred during the current hospital shift (the time the note was written).\nClassify each event into one or more of the following categories:\nCategory\tDefinition\nEating\tThe patient takes food into their body by mouth.\nExcretion\tThe patient discharges waste matter from their body.\nFamily\tThe patient has a visit, call, or communication with a family member.\nPain\tThe patient reports or shows signs of pain.\nSleep\tThe patient sleeps or the sleep’s quality or quantity is described.\nUnknown\tchoose "Unknown" if none of the other event type are applicable..\n\n**Rules and Conditions** \n1. Time constraint: Consider only actions that occurred during the current shift as events. \n2. Event constraint: Consider patient history, planning and requests as case attributes. Log them seperately. \n3. Actor constraint: Find out who is the main actor of the event.\n4. Negation Rule: Extract an event even if negated (e.g. “did not sleep”), and set "negation": true.\n5. Default Assumptions: \n        - If actor unclear → "actor":"patient"\n        - If time not mentioned → "time": "Unknown" \n        - If cause not mentioned → "caused_by": "Unknown" \n6. Clarifications:\n        - Sedation/resting ≠ sleep events.\n        - Sleep apnea occurs during sleep.\n        - Actions done to enable an event do not imply the event occurred (e.g., “given med for sleep” ≠ sleep).\nFor each detected event, output strictly valid JSON following the schema below: \n```\n    \n                        {   \n                        "case_attributes":[ \n                        //all patient-related details that did NOT occur during the current hospital shift, including past history, future plans, or events that happened at home or outside the hospital.\n                            {\n                            "attribute_name":"attribute_value" \n                            }\n                        ]  \n                        "events": [ \n                        //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ \n                        //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n```\n**Examples for Sleep Classification**\n\n                1. Include as Sleep Event**\n                - "Patient slept for 2 hours."\n                - "heart rate 50pbm while asleep"\n                - "patient now awake" (awake "now" assumes the patient was sleeping at an earlier state)\n\n                2. Do NOT include as Sleep Event**\n                - "Patient asked for sleeping pill." (Request, not event)\n                - "Patient wants to sleep later." (Future plan)\n                - "Patient fell asleep while driving (history)." (Before shift)\n                - "Patient was sedated/put to sleep for procedure." (Sedation)\n                - "Daughter slept in the room." (Actor ≠ patient)\n                - "Patient Alert and Awake" (Although awake is mentioned, it is not in the context of a status change from sleep but as an observation)\n\n**Text**\nWritten between 1999-11-08 16:36:00 and 1999-11-08 17:00:00:\n\'5mg ir oxycodone for breakthrough pain -patient sleeping on reassesment, complete relief of pain-when aware pain returning - "tolerable" managed with percocet\'\n', 'case_attributes': [[{'attribute_name': 'breakthrough pain', 'attribute_value': 'managed with 5mg ir oxycodone'}, {'attribute_name': 'pain management plan', 'attribute_value': 'percocet for tolerable pain'}]], 'actor': ['patient', 'patient', 'patient'], 'event_detection_time': 14.707432802999392}</t>
         </is>
       </c>
       <c r="H35" t="n">
@@ -3415,7 +3519,7 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>['slept most of night']</t>
+          <t>['patient sleeping on reassesment']</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
@@ -3423,49 +3527,52 @@
           <t>['patient']</t>
         </is>
       </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>[{'Sleep': {'Sleep': {'quality': 'good', 'duration': 'most'}}}]</t>
-        </is>
+      <c r="O35" t="b">
+        <v>1</v>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>['Sleep']</t>
+          <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>[{'Sleep': {'Sleep': {'quality': 'good', 'duration': 'most'}}}]</t>
+          <t>['Pain', 'Sleep', 'Pain']</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>['slept most of night']</t>
+          <t>[{'Pain': {'Pain': {'severity': 'breakthrough', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Pain': {'Pain': {'severity': 'tolerable', 'location': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>['e1=Sleep|1:slept most of night']</t>
+          <t>['breakthrough pain - patient sleeping on reassesment, complete relief of pain', 'patient sleeping on reassesment', 'when aware pain returning - "tolerable" managed with percocet']</t>
         </is>
       </c>
       <c r="T35" t="inlineStr">
         <is>
-          <t>[[]]</t>
+          <t>['e1=Pain|0:breakthrough pain - patient sleeping on reassesment, complete relief of pain', 'e2=Sleep|1:patient sleeping on reassesment', 'e3=Pain|1:when aware pain returning - "tolerable" managed with percocet']</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>[[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'before', 'event_id_2': 'e3'}]]</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>330</v>
+        <v>360</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>8313_1372364_0002</t>
+          <t>25707_1597159_0011</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>slept well in long naps</t>
+          <t>neuro status: very anxious gentleman req serax 10 mg x2 for sleep w patient eventually able to sleep in 2-3hr naps</t>
         </is>
       </c>
       <c r="D36" t="n">
@@ -3476,12 +3583,12 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>(Timestamp('2144-08-29 05:02:00'), Timestamp('2144-08-29 05:07:00'))</t>
+          <t>(Timestamp('2028-08-08 08:09:00'), Timestamp('2028-08-08 08:17:00'))</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>{'text': 'slept well in long naps', 'event': ['Sleep'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Sleep",\n      "text_quote": "slept well in long naps",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "well",\n          "duration": "long"\n        }\n      }\n    }\n  ],\n  "order": []\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'well', 'duration': 'long'}}}], 'orders': [[]], 'text_quotes': ['slept well in long naps'], 'event_time': ['Unknown'], 'negation': [False], 'caused_by': ['Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the Text at the end of this prompt into events that took place at the HOSPITAL, DURING THE SHIFT in which this text was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'An event is extracted from the text even if it is negated (e.g. "did not sleep"), but the respective negation attribute is set to True.\', \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n              \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n            ```\n           \n           \n           Text (written between 2144-08-29 05:02:00 and 2144-08-29 05:07:00):\n           slept well in long naps\n        ', 'case_attributes': [[]], 'actor': ['patient'], 'event_detection_time': 3.7703714731615037}</t>
+          <t>{'text': 'neuro status: very anxious gentleman req serax 10 mg x2 for sleep w patient eventually able to sleep in 2-3hr naps', 'event': ['Sleep', 'Pain'], 'event_id': ['e1', 'e2'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [\n        {\n            "attribute_name": "anxious",\n            "attribute_value": "very"\n        },\n        {\n            "attribute_name": "medication_request",\n            "attribute_value": "serax 10 mg x2 for sleep"\n        }\n    ],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Sleep",\n            "text_quote": "patient eventually able to sleep in 2-3hr naps",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": " Unknown",\n                    "duration": "2-3hr naps"\n                }\n            }\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Pain",\n            "text_quote": "very anxious gentleman",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": " Unknown",\n                    "location": " Unknown",\n                    "duration": " Unknown"\n                }\n            }\n        }\n    ],\n    "order": [\n        {\n            "event_id_1": "e2",\n            "relation": "before",\n            "event_id_2": "e1"\n        }\n    ]\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': ' Unknown', 'duration': '2-3hr naps'}}}, {'Pain': {'Pain': {'severity': ' Unknown', 'location': ' Unknown', 'duration': ' Unknown'}}}], 'orders': [[{'event_id_1': 'e2', 'relation': 'before', 'event_id_2': 'e1'}]], 'text_quotes': ['patient eventually able to sleep in 2-3hr naps', 'very anxious gentleman'], 'event_time': ['Unknown', 'Unknown'], 'negation': [False, False], 'caused_by': ['Unknown', 'Unknown'], 'event_name_prompt': '**Task: Event Classification and Attribute Extraction** \nYour task is to analyze the Text below and extract all events that occurred during the current hospital shift (the time the note was written).\nClassify each event into one or more of the following categories:\nCategory\tDefinition\nEating\tThe patient takes food into their body by mouth.\nExcretion\tThe patient discharges waste matter from their body.\nFamily\tThe patient has a visit, call, or communication with a family member.\nPain\tThe patient reports or shows signs of pain.\nSleep\tThe patient sleeps or the sleep’s quality or quantity is described.\nUnknown\tchoose "Unknown" if none of the other event type are applicable..\n\n**Rules and Conditions** \n1. Time constraint: Consider only actions that occurred during the current shift as events. \n2. Event constraint: Consider patient history, planning and requests as case attributes. Log them seperately. \n3. Actor constraint: Find out who is the main actor of the event.\n4. Negation Rule: Extract an event even if negated (e.g. “did not sleep”), and set "negation": true.\n5. Default Assumptions: \n        - If actor unclear → "actor":"patient"\n        - If time not mentioned → "time": "Unknown" \n        - If cause not mentioned → "caused_by": "Unknown" \n6. Clarifications:\n        - Sedation/resting ≠ sleep events.\n        - Sleep apnea occurs during sleep.\n        - Actions done to enable an event do not imply the event occurred (e.g., “given med for sleep” ≠ sleep).\nFor each detected event, output strictly valid JSON following the schema below: \n```\n    \n                        {   \n                        "case_attributes":[ \n                        //all patient-related details that did NOT occur during the current hospital shift, including past history, future plans, or events that happened at home or outside the hospital.\n                            {\n                            "attribute_name":"attribute_value" \n                            }\n                        ]  \n                        "events": [ \n                        //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ \n                        //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n```\n**Examples for Sleep Classification**\n\n                1. Include as Sleep Event**\n                - "Patient slept for 2 hours."\n                - "heart rate 50pbm while asleep"\n                - "patient now awake" (awake "now" assumes the patient was sleeping at an earlier state)\n\n                2. Do NOT include as Sleep Event**\n                - "Patient asked for sleeping pill." (Request, not event)\n                - "Patient wants to sleep later." (Future plan)\n                - "Patient fell asleep while driving (history)." (Before shift)\n                - "Patient was sedated/put to sleep for procedure." (Sedation)\n                - "Daughter slept in the room." (Actor ≠ patient)\n                - "Patient Alert and Awake" (Although awake is mentioned, it is not in the context of a status change from sleep but as an observation)\n\n**Text**\nWritten between 2028-08-08 08:09:00 and 2028-08-08 08:17:00:\n\'neuro status: very anxious gentleman req serax 10 mg x2 for sleep w patient eventually able to sleep in 2-3hr naps\'\n', 'case_attributes': [[{'attribute_name': 'anxious', 'attribute_value': 'very'}, {'attribute_name': 'medication_request', 'attribute_value': 'serax 10 mg x2 for sleep'}]], 'actor': ['patient', 'patient'], 'event_detection_time': 9.861281251069158}</t>
         </is>
       </c>
       <c r="H36" t="n">
@@ -3501,7 +3608,7 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>['slept well in long naps']</t>
+          <t>['patient eventually able to sleep in 2-3hr naps']</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
@@ -3509,49 +3616,52 @@
           <t>['patient']</t>
         </is>
       </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>[{'Sleep': {'Sleep': {'quality': 'well', 'duration': 'long'}}}]</t>
-        </is>
+      <c r="O36" t="b">
+        <v>1</v>
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>['Sleep']</t>
+          <t>[{'Sleep': {'Sleep': {'quality': ' Unknown', 'duration': '2-3hr naps'}}}]</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>[{'Sleep': {'Sleep': {'quality': 'well', 'duration': 'long'}}}]</t>
+          <t>['Sleep', 'Pain']</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>['slept well in long naps']</t>
+          <t>[{'Sleep': {'Sleep': {'quality': ' Unknown', 'duration': '2-3hr naps'}}}, {'Pain': {'Pain': {'severity': ' Unknown', 'location': ' Unknown', 'duration': ' Unknown'}}}]</t>
         </is>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>['e1=Sleep|1:slept well in long naps']</t>
+          <t>['patient eventually able to sleep in 2-3hr naps', 'very anxious gentleman']</t>
         </is>
       </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t>[[]]</t>
+          <t>['e1=Sleep|1:patient eventually able to sleep in 2-3hr naps', 'e2=Pain|1:very anxious gentleman']</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>[[{'event_id_1': 'e2', 'relation': 'before', 'event_id_2': 'e1'}]]</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>344</v>
+        <v>389</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>23318_1566972_0010</t>
+          <t>26374_1606772_0001</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>around midnight patient with occassional pvc's while asleep- no symptoms noted</t>
+          <t>cv:  temp 99.6-&gt;98.6, nsr, sl hypotensive when asleep diastolic blood pressure in 90's but map&gt;65</t>
         </is>
       </c>
       <c r="D37" t="n">
@@ -3562,12 +3672,12 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>(Timestamp('2147-09-16 04:32:00'), Timestamp('2147-09-16 04:50:00'))</t>
+          <t>(Timestamp('1978-02-13 05:57:00'), Timestamp('1978-02-13 06:03:00'))</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>{'text': "around midnight patient with occassional pvc's while asleep- no symptoms noted", 'event': ['Sleep', 'Pain'], 'event_id': ['e1', 'e2'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Sleep",\n      "text_quote": "around midnight patient with occassional pvc\'s while asleep",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "midnight",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "poor"\n        }\n      }\n    },\n    {\n      "event_id": "e2",\n      "event_type": "Pain",\n      "text_quote": "no symptoms noted",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {}\n      }\n    }\n  ],\n  "order": [\n    {\n      "event_id_1": "e1",\n      "relation": "before",\n      "event_id_2": "e2"\n    }\n  ]\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'poor'}}}, {'Pain': {'Pain': {}}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}]], 'text_quotes': ["around midnight patient with occassional pvc's while asleep", 'no symptoms noted'], 'event_time': ['midnight', 'Unknown'], 'negation': [False, True], 'caused_by': ['Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the Text at the end of this prompt into events that took place at the HOSPITAL, DURING THE SHIFT in which this text was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'An event is extracted from the text even if it is negated (e.g. "did not sleep"), but the respective negation attribute is set to True.\', \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n              \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n            ```\n           \n           \n           Text (written between 2147-09-16 04:32:00 and 2147-09-16 04:50:00):\n           around midnight patient with occassional pvc\'s while asleep- no symptoms noted\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient'], 'event_detection_time': 7.200789452996105}</t>
+          <t>{'text': "cv:  temp 99.6-&gt;98.6, nsr, sl hypotensive when asleep diastolic blood pressure in 90's but map&gt;65", 'event': ['Sleep', 'Pain', 'Excretion', 'Eating', 'Family', 'Unknown'], 'event_id': ['e1', 'e2', 'e3', 'e4', 'e5', 'e6'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Sleep",\n            "text_quote": "sl hypotensive when asleep",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "Unknown",\n                    "location": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e3",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "Unknown",\n                    "frequency": "Unknown",\n                    "quality": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e4",\n            "event_type": "Eating",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {\n                    "food": "Unknown",\n                    "amount": "Unknown",\n                    "method": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e5",\n            "event_type": "Family",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {\n                    "interaction": "Unknown",\n                    "relation": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e6",\n            "event_type": "Unknown",\n            "text_quote": "cv:  temp 99.6-&gt;98.6, nsr, sl hypotensive when asleep diastolic blood pressure in 90\'s but map&gt;65",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        }\n    ],\n    "order": [\n        {\n            "event_id_1": "e6",\n            "relation": "unknown",\n            "event_id_2": "e1"\n        }\n    ]\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Excretion': {'Excretion': {'type': 'Unknown', 'frequency': 'Unknown', 'quality': 'Unknown'}}}, {'Eating': {'Eating': {'food': 'Unknown', 'amount': 'Unknown', 'method': 'Unknown'}}}, {'Family': {'Family': {'interaction': 'Unknown', 'relation': 'Unknown'}}}, {'Unknown': {}}], 'orders': [[{'event_id_1': 'e6', 'relation': 'unknown', 'event_id_2': 'e1'}]], 'text_quotes': ['sl hypotensive when asleep', '', '', '', '', "cv:  temp 99.6-&gt;98.6, nsr, sl hypotensive when asleep diastolic blood pressure in 90's but map&gt;65"], 'event_time': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'negation': [False, True, True, True, True, False], 'caused_by': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '**Task: Event Classification and Attribute Extraction** \nYour task is to analyze the Text below and extract all events that occurred during the current hospital shift (the time the note was written).\nClassify each event into one or more of the following categories:\nCategory\tDefinition\nEating\tThe patient takes food into their body by mouth.\nExcretion\tThe patient discharges waste matter from their body.\nFamily\tThe patient has a visit, call, or communication with a family member.\nPain\tThe patient reports or shows signs of pain.\nSleep\tThe patient sleeps or the sleep’s quality or quantity is described.\nUnknown\tchoose "Unknown" if none of the other event type are applicable..\n\n**Rules and Conditions** \n1. Time constraint: Consider only actions that occurred during the current shift as events. \n2. Event constraint: Consider patient history, planning and requests as case attributes. Log them seperately. \n3. Actor constraint: Find out who is the main actor of the event.\n4. Negation Rule: Extract an event even if negated (e.g. “did not sleep”), and set "negation": true.\n5. Default Assumptions: \n        - If actor unclear → "actor":"patient"\n        - If time not mentioned → "time": "Unknown" \n        - If cause not mentioned → "caused_by": "Unknown" \n6. Clarifications:\n        - Sedation/resting ≠ sleep events.\n        - Sleep apnea occurs during sleep.\n        - Actions done to enable an event do not imply the event occurred (e.g., “given med for sleep” ≠ sleep).\nFor each detected event, output strictly valid JSON following the schema below: \n```\n    \n                        {   \n                        "case_attributes":[ \n                        //all patient-related details that did NOT occur during the current hospital shift, including past history, future plans, or events that happened at home or outside the hospital.\n                            {\n                            "attribute_name":"attribute_value" \n                            }\n                        ]  \n                        "events": [ \n                        //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ \n                        //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n```\n**Examples for Sleep Classification**\n\n                1. Include as Sleep Event**\n                - "Patient slept for 2 hours."\n                - "heart rate 50pbm while asleep"\n                - "patient now awake" (awake "now" assumes the patient was sleeping at an earlier state)\n\n                2. Do NOT include as Sleep Event**\n                - "Patient asked for sleeping pill." (Request, not event)\n                - "Patient wants to sleep later." (Future plan)\n                - "Patient fell asleep while driving (history)." (Before shift)\n                - "Patient was sedated/put to sleep for procedure." (Sedation)\n                - "Daughter slept in the room." (Actor ≠ patient)\n                - "Patient Alert and Awake" (Although awake is mentioned, it is not in the context of a status change from sleep but as an observation)\n\n**Text**\nWritten between 1978-02-13 05:57:00 and 1978-02-13 06:03:00:\n\'cv:  temp 99.6-&gt;98.6, nsr, sl hypotensive when asleep diastolic blood pressure in 90\'s but map&gt;65\'\n', 'case_attributes': [[]], 'actor': ['patient', 'patient', 'patient', 'patient', 'patient', 'patient'], 'event_detection_time': 19.687356031034142}</t>
         </is>
       </c>
       <c r="H37" t="n">
@@ -3587,7 +3697,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>["around midnight patient with occassional pvc's while asleep"]</t>
+          <t>['sl hypotensive when asleep']</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -3595,49 +3705,52 @@
           <t>['patient']</t>
         </is>
       </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>[{'Sleep': {'Sleep': {'quality': 'poor'}}}]</t>
-        </is>
+      <c r="O37" t="b">
+        <v>1</v>
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>['Sleep', 'Pain']</t>
+          <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>[{'Sleep': {'Sleep': {'quality': 'poor'}}}, {'Pain': {'Pain': {}}}]</t>
+          <t>['Sleep', 'Pain', 'Excretion', 'Eating', 'Family', 'Unknown']</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>["around midnight patient with occassional pvc's while asleep", 'no symptoms noted']</t>
+          <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Excretion': {'Excretion': {'type': 'Unknown', 'frequency': 'Unknown', 'quality': 'Unknown'}}}, {'Eating': {'Eating': {'food': 'Unknown', 'amount': 'Unknown', 'method': 'Unknown'}}}, {'Family': {'Family': {'interaction': 'Unknown', 'relation': 'Unknown'}}}, {'Unknown': {}}]</t>
         </is>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>["e1=Sleep|1:around midnight patient with occassional pvc's while asleep", 'e2=Pain|1:no symptoms noted']</t>
+          <t>['sl hypotensive when asleep', '', '', '', '', "cv:  temp 99.6-&gt;98.6, nsr, sl hypotensive when asleep diastolic blood pressure in 90's but map&gt;65"]</t>
         </is>
       </c>
       <c r="T37" t="inlineStr">
         <is>
-          <t>[[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}]]</t>
+          <t>['e1=Sleep|1:sl hypotensive when asleep', 'e2=Pain|1:', 'e3=Excretion|1:', 'e4=Eating|1:', 'e5=Family|1:', "e6=Unknown|1:cv:  temp 99.6-&gt;98.6, nsr, sl hypotensive when asleep diastolic blood pressure in 90's but map&gt;65"]</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>[[{'event_id_1': 'e6', 'relation': 'unknown', 'event_id_2': 'e1'}]]</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>355</v>
+        <v>397</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>27656_1623968_0005</t>
+          <t>22541_1556896_0042</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>: ls clear, weak cough, maintans so2&gt;96 on 2lnc, falls to 91-92 while asleep and requires flow up to 5lnc</t>
+          <t>continues to remain asleep, intubated</t>
         </is>
       </c>
       <c r="D38" t="n">
@@ -3648,12 +3761,12 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>(Timestamp('2137-07-10 05:18:00'), Timestamp('2137-07-10 05:31:00'))</t>
+          <t>(Timestamp('2022-08-24 17:36:00'), Timestamp('2022-08-24 18:02:00'))</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>{'text': ': ls clear, weak cough, maintans so2&gt;96 on 2lnc, falls to 91-92 while asleep and requires flow up to 5lnc', 'event': ['Sleep', 'Excretion', 'Pain', 'Eating', 'Family'], 'event_id': ['e1', 'e2', 'e3', 'e4', 'e5'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Sleep",\n      "text_quote": "falls to 91-92 while asleep",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "poor"\n        }\n      }\n    },\n    {\n      "event_id": "e2",\n      "event_type": "Excretion",\n      "text_quote": "",\n      "actor": "",\n      "object": "",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {}\n    },\n    {\n      "event_id": "e3",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "",\n      "object": "",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {}\n    },\n    {\n      "event_id": "e4",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "",\n      "object": "",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {}\n    },\n    {\n      "event_id": "e5",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "",\n      "object": "",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {}\n    }\n  ],\n  "order": [\n    {\n      "event_id_1": "e1",\n      "relation": "unknown",\n      "event_id_2": ""\n    }\n  ]\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'poor'}}}, {'Excretion': {}}, {'Pain': {}}, {'Eating': {}}, {'Family': {}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'unknown', 'event_id_2': ''}]], 'text_quotes': ['falls to 91-92 while asleep', '', '', '', ''], 'event_time': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'negation': [False, True, True, True, True], 'caused_by': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the Text at the end of this prompt into events that took place at the HOSPITAL, DURING THE SHIFT in which this text was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'An event is extracted from the text even if it is negated (e.g. "did not sleep"), but the respective negation attribute is set to True.\', \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n              \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n            ```\n           \n           \n           Text (written between 2137-07-10 05:18:00 and 2137-07-10 05:31:00):\n           : ls clear, weak cough, maintans so2&gt;96 on 2lnc, falls to 91-92 while asleep and requires flow up to 5lnc\n        ', 'case_attributes': [[]], 'actor': ['patient', '', '', '', ''], 'event_detection_time': 12.385335685918108}</t>
+          <t>{'text': 'continues to remain asleep, intubated', 'event': ['Sleep'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Sleep",\n            "text_quote": "continues to remain asleep, intubated",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        }\n    ],\n    "order": []\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}], 'orders': [[]], 'text_quotes': ['continues to remain asleep, intubated'], 'event_time': ['Unknown'], 'negation': [False], 'caused_by': ['Unknown'], 'event_name_prompt': '**Task: Event Classification and Attribute Extraction** \nYour task is to analyze the Text below and extract all events that occurred during the current hospital shift (the time the note was written).\nClassify each event into one or more of the following categories:\nCategory\tDefinition\nEating\tThe patient takes food into their body by mouth.\nExcretion\tThe patient discharges waste matter from their body.\nFamily\tThe patient has a visit, call, or communication with a family member.\nPain\tThe patient reports or shows signs of pain.\nSleep\tThe patient sleeps or the sleep’s quality or quantity is described.\nUnknown\tchoose "Unknown" if none of the other event type are applicable..\n\n**Rules and Conditions** \n1. Time constraint: Consider only actions that occurred during the current shift as events. \n2. Event constraint: Consider patient history, planning and requests as case attributes. Log them seperately. \n3. Actor constraint: Find out who is the main actor of the event.\n4. Negation Rule: Extract an event even if negated (e.g. “did not sleep”), and set "negation": true.\n5. Default Assumptions: \n        - If actor unclear → "actor":"patient"\n        - If time not mentioned → "time": "Unknown" \n        - If cause not mentioned → "caused_by": "Unknown" \n6. Clarifications:\n        - Sedation/resting ≠ sleep events.\n        - Sleep apnea occurs during sleep.\n        - Actions done to enable an event do not imply the event occurred (e.g., “given med for sleep” ≠ sleep).\nFor each detected event, output strictly valid JSON following the schema below: \n```\n    \n                        {   \n                        "case_attributes":[ \n                        //all patient-related details that did NOT occur during the current hospital shift, including past history, future plans, or events that happened at home or outside the hospital.\n                            {\n                            "attribute_name":"attribute_value" \n                            }\n                        ]  \n                        "events": [ \n                        //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ \n                        //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n```\n**Examples for Sleep Classification**\n\n                1. Include as Sleep Event**\n                - "Patient slept for 2 hours."\n                - "heart rate 50pbm while asleep"\n                - "patient now awake" (awake "now" assumes the patient was sleeping at an earlier state)\n\n                2. Do NOT include as Sleep Event**\n                - "Patient asked for sleeping pill." (Request, not event)\n                - "Patient wants to sleep later." (Future plan)\n                - "Patient fell asleep while driving (history)." (Before shift)\n                - "Patient was sedated/put to sleep for procedure." (Sedation)\n                - "Daughter slept in the room." (Actor ≠ patient)\n                - "Patient Alert and Awake" (Although awake is mentioned, it is not in the context of a status change from sleep but as an observation)\n\n**Text**\nWritten between 2022-08-24 17:36:00 and 2022-08-24 18:02:00:\n\'continues to remain asleep, intubated\'\n', 'case_attributes': [[]], 'actor': ['patient'], 'event_detection_time': 3.8214363120496273}</t>
         </is>
       </c>
       <c r="H38" t="n">
@@ -3673,7 +3786,7 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>['falls to 91-92 while asleep']</t>
+          <t>['continues to remain asleep, intubated']</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -3681,49 +3794,52 @@
           <t>['patient']</t>
         </is>
       </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>[{'Sleep': {'Sleep': {'quality': 'poor'}}}]</t>
-        </is>
+      <c r="O38" t="b">
+        <v>1</v>
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>['Sleep', 'Excretion', 'Pain', 'Eating', 'Family']</t>
+          <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>[{'Sleep': {'Sleep': {'quality': 'poor'}}}, {'Excretion': {}}, {'Pain': {}}, {'Eating': {}}, {'Family': {}}]</t>
+          <t>['Sleep']</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>['falls to 91-92 while asleep', '', '', '', '']</t>
+          <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>['e1=Sleep|1:falls to 91-92 while asleep', 'e2=Excretion|1:', 'e3=Pain|1:', 'e4=Eating|1:', 'e5=Family|1:']</t>
+          <t>['continues to remain asleep, intubated']</t>
         </is>
       </c>
       <c r="T38" t="inlineStr">
         <is>
-          <t>[[{'event_id_1': 'e1', 'relation': 'unknown', 'event_id_2': ''}]]</t>
+          <t>['e1=Sleep|1:continues to remain asleep, intubated']</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>[[]]</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>357</v>
+        <v>408</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>27467_1621531_0010</t>
+          <t>8622_1376537_0008</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>5mg ir oxycodone for breakthrough pain -patient sleeping on reassesment, complete relief of pain-when aware pain returning - "tolerable" managed with percocet</t>
+          <t>vs as per flowsheet-&gt;requiring restart of neosynephrine this afternoon with back to bed and napping</t>
         </is>
       </c>
       <c r="D39" t="n">
@@ -3734,12 +3850,12 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>(Timestamp('2170-08-13 16:36:00'), Timestamp('2170-08-13 17:00:00'))</t>
+          <t>(Timestamp('1944-07-14 18:25:00'), Timestamp('1944-07-14 18:38:00'))</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>{'text': '5mg ir oxycodone for breakthrough pain -patient sleeping on reassesment, complete relief of pain-when aware pain returning - "tolerable" managed with percocet', 'event': ['Pain', 'Sleep', 'Pain', 'Eating', 'Excretion', 'Family', 'Unknown'], 'event_id': ['e1', 'e2', 'e3', 'e4', 'e5', 'e6', 'e7'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Pain",\n      "text_quote": "5mg ir oxycodone for breakthrough pain -patient sleeping on reassesment, complete relief of pain-when aware pain returning - \\"tolerable\\" managed with percocet",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "breakthrough, tolerable",\n          "location": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e2",\n      "event_type": "Sleep",\n      "text_quote": "-patient sleeping on reassesment, complete relief of pain-when aware pain returning - \\"tolerable\\" managed with percocet",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "e1",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e3",\n      "event_type": "Pain",\n      "text_quote": "-when aware pain returning - \\"tolerable\\" managed with percocet",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "e2",\n      "event_attributes": {\n        "Pain": {\n          "severity": "tolerable",\n          "location": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e4",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {\n          "food": "",\n          "amount": "",\n          "method": ""\n        }\n      }\n    },\n    {\n      "event_id": "e5",\n      "event_type": "Excretion",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "",\n          "frequency": "",\n          "quality": ""\n        }\n      }\n    },\n    {\n      "event_id": "e6",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {\n          "interaction": "",\n          "relation": ""\n        }\n      }\n    },\n    {\n      "event_id": "e7",\n      "event_type": "Unknown",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {}\n    }\n  ],\n  "order": [\n    {\n      "event_id_1": "e1",\n      "relation": "before",\n      "event_id_2": "e2"\n    },\n    {\n      "event_id_1": "e2",\n      "relation": "before",\n      "event_id_2": "e3"\n    }\n  ]\n}', 'attributes': [{'Pain': {'Pain': {'severity': 'breakthrough, tolerable', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Pain': {'Pain': {'severity': 'tolerable', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Eating': {'Eating': {'food': '', 'amount': '', 'method': ''}}}, {'Excretion': {'Excretion': {'type': '', 'frequency': '', 'quality': ''}}}, {'Family': {'Family': {'interaction': '', 'relation': ''}}}, {'Unknown': {}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'before', 'event_id_2': 'e3'}]], 'text_quotes': ['5mg ir oxycodone for breakthrough pain -patient sleeping on reassesment, complete relief of pain-when aware pain returning - "tolerable" managed with percocet', '-patient sleeping on reassesment, complete relief of pain-when aware pain returning - "tolerable" managed with percocet', '-when aware pain returning - "tolerable" managed with percocet', '', '', '', ''], 'event_time': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'negation': [False, False, False, True, True, True, True], 'caused_by': ['Unknown', 'e1', 'e2', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the Text at the end of this prompt into events that took place at the HOSPITAL, DURING THE SHIFT in which this text was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'An event is extracted from the text even if it is negated (e.g. "did not sleep"), but the respective negation attribute is set to True.\', \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n              \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n            ```\n           \n           \n           Text (written between 2170-08-13 16:36:00 and 2170-08-13 17:00:00):\n           5mg ir oxycodone for breakthrough pain -patient sleeping on reassesment, complete relief of pain-when aware pain returning - "tolerable" managed with percocet\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient', 'patient', 'patient', 'patient', 'patient', 'patient'], 'event_detection_time': 24.436264917021617}</t>
+          <t>{'text': 'vs as per flowsheet-&gt;requiring restart of neosynephrine this afternoon with back to bed and napping', 'event': ['Sleep'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [\n        {\n            "attribute_name": "neosynephrine restart",\n            "attribute_value": "this afternoon"\n        }\n    ],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Sleep",\n            "text_quote": "back to bed and napping",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "afternoon",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        }\n    ],\n    "order": []\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}], 'orders': [[]], 'text_quotes': ['back to bed and napping'], 'event_time': ['afternoon'], 'negation': [False], 'caused_by': ['Unknown'], 'event_name_prompt': '**Task: Event Classification and Attribute Extraction** \nYour task is to analyze the Text below and extract all events that occurred during the current hospital shift (the time the note was written).\nClassify each event into one or more of the following categories:\nCategory\tDefinition\nEating\tThe patient takes food into their body by mouth.\nExcretion\tThe patient discharges waste matter from their body.\nFamily\tThe patient has a visit, call, or communication with a family member.\nPain\tThe patient reports or shows signs of pain.\nSleep\tThe patient sleeps or the sleep’s quality or quantity is described.\nUnknown\tchoose "Unknown" if none of the other event type are applicable..\n\n**Rules and Conditions** \n1. Time constraint: Consider only actions that occurred during the current shift as events. \n2. Event constraint: Consider patient history, planning and requests as case attributes. Log them seperately. \n3. Actor constraint: Find out who is the main actor of the event.\n4. Negation Rule: Extract an event even if negated (e.g. “did not sleep”), and set "negation": true.\n5. Default Assumptions: \n        - If actor unclear → "actor":"patient"\n        - If time not mentioned → "time": "Unknown" \n        - If cause not mentioned → "caused_by": "Unknown" \n6. Clarifications:\n        - Sedation/resting ≠ sleep events.\n        - Sleep apnea occurs during sleep.\n        - Actions done to enable an event do not imply the event occurred (e.g., “given med for sleep” ≠ sleep).\nFor each detected event, output strictly valid JSON following the schema below: \n```\n    \n                        {   \n                        "case_attributes":[ \n                        //all patient-related details that did NOT occur during the current hospital shift, including past history, future plans, or events that happened at home or outside the hospital.\n                            {\n                            "attribute_name":"attribute_value" \n                            }\n                        ]  \n                        "events": [ \n                        //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ \n                        //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n```\n**Examples for Sleep Classification**\n\n                1. Include as Sleep Event**\n                - "Patient slept for 2 hours."\n                - "heart rate 50pbm while asleep"\n                - "patient now awake" (awake "now" assumes the patient was sleeping at an earlier state)\n\n                2. Do NOT include as Sleep Event**\n                - "Patient asked for sleeping pill." (Request, not event)\n                - "Patient wants to sleep later." (Future plan)\n                - "Patient fell asleep while driving (history)." (Before shift)\n                - "Patient was sedated/put to sleep for procedure." (Sedation)\n                - "Daughter slept in the room." (Actor ≠ patient)\n                - "Patient Alert and Awake" (Although awake is mentioned, it is not in the context of a status change from sleep but as an observation)\n\n**Text**\nWritten between 1944-07-14 18:25:00 and 1944-07-14 18:38:00:\n\'vs as per flowsheet-&gt;requiring restart of neosynephrine this afternoon with back to bed and napping\'\n', 'case_attributes': [[{'attribute_name': 'neosynephrine restart', 'attribute_value': 'this afternoon'}]], 'actor': ['patient'], 'event_detection_time': 4.640280646970496}</t>
         </is>
       </c>
       <c r="H39" t="n">
@@ -3759,7 +3875,7 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>['-patient sleeping on reassesment, complete relief of pain-when aware pain returning - "tolerable" managed with percocet']</t>
+          <t>['back to bed and napping']</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
@@ -3767,49 +3883,52 @@
           <t>['patient']</t>
         </is>
       </c>
-      <c r="O39" t="inlineStr">
+      <c r="O39" t="b">
+        <v>1</v>
+      </c>
+      <c r="P39" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="P39" t="inlineStr">
-        <is>
-          <t>['Pain', 'Sleep', 'Pain', 'Eating', 'Excretion', 'Family', 'Unknown']</t>
-        </is>
-      </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>[{'Pain': {'Pain': {'severity': 'breakthrough, tolerable', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Pain': {'Pain': {'severity': 'tolerable', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Eating': {'Eating': {'food': '', 'amount': '', 'method': ''}}}, {'Excretion': {'Excretion': {'type': '', 'frequency': '', 'quality': ''}}}, {'Family': {'Family': {'interaction': '', 'relation': ''}}}, {'Unknown': {}}]</t>
+          <t>['Sleep']</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>['5mg ir oxycodone for breakthrough pain -patient sleeping on reassesment, complete relief of pain-when aware pain returning - "tolerable" managed with percocet', '-patient sleeping on reassesment, complete relief of pain-when aware pain returning - "tolerable" managed with percocet', '-when aware pain returning - "tolerable" managed with percocet', '', '', '', '']</t>
+          <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>['e1=Pain|1:5mg ir oxycodone for breakthrough pain -patient sleeping on reassesment, complete relief of pain-when aware pain returning - "tolerable" managed with percocet', 'e2=Sleep|1:-patient sleeping on reassesment, complete relief of pain-when aware pain returning - "tolerable" managed with percocet', 'e3=Pain|1:-when aware pain returning - "tolerable" managed with percocet', 'e4=Eating|1:', 'e5=Excretion|1:', 'e6=Family|1:', 'e7=Unknown|1:']</t>
+          <t>['back to bed and napping']</t>
         </is>
       </c>
       <c r="T39" t="inlineStr">
         <is>
-          <t>[[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'before', 'event_id_2': 'e3'}]]</t>
+          <t>['e1=Sleep|1:back to bed and napping']</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>[[]]</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>371</v>
+        <v>426</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>7909_1367790_0012</t>
+          <t>7127_1357221_0035</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>able to sleep most of night</t>
+          <t>mae, slept well after 5mg by mouth ambien at mn</t>
         </is>
       </c>
       <c r="D40" t="n">
@@ -3820,12 +3939,12 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>(Timestamp('2189-11-18 04:20:00'), Timestamp('2189-11-18 04:28:00'))</t>
+          <t>(Timestamp('1984-07-30 02:50:00'), Timestamp('1984-07-30 03:10:00'))</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>{'text': 'able to sleep most of night', 'event': ['Sleep'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Sleep",\n      "text_quote": "able to sleep most of night",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "night",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "good",\n          "duration": "most"\n        }\n      }\n    }\n  ],\n  "order": []\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'good', 'duration': 'most'}}}], 'orders': [[]], 'text_quotes': ['able to sleep most of night'], 'event_time': ['night'], 'negation': [False], 'caused_by': ['Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the Text at the end of this prompt into events that took place at the HOSPITAL, DURING THE SHIFT in which this text was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'An event is extracted from the text even if it is negated (e.g. "did not sleep"), but the respective negation attribute is set to True.\', \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n              \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n            ```\n           \n           \n           Text (written between 2189-11-18 04:20:00 and 2189-11-18 04:28:00):\n           able to sleep most of night\n        ', 'case_attributes': [[]], 'actor': ['patient'], 'event_detection_time': 3.698162592947483}</t>
+          <t>{'text': 'mae, slept well after 5mg by mouth ambien at mn', 'event': ['Sleep'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Sleep",\n            "text_quote": "slept well after 5mg by mouth ambien at mn",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "night",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "well"\n                }\n            }\n        }\n    ],\n    "order": []\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'well'}}}], 'orders': [[]], 'text_quotes': ['slept well after 5mg by mouth ambien at mn'], 'event_time': ['night'], 'negation': [False], 'caused_by': ['Unknown'], 'event_name_prompt': '**Task: Event Classification and Attribute Extraction** \nYour task is to analyze the Text below and extract all events that occurred during the current hospital shift (the time the note was written).\nClassify each event into one or more of the following categories:\nCategory\tDefinition\nEating\tThe patient takes food into their body by mouth.\nExcretion\tThe patient discharges waste matter from their body.\nFamily\tThe patient has a visit, call, or communication with a family member.\nPain\tThe patient reports or shows signs of pain.\nSleep\tThe patient sleeps or the sleep’s quality or quantity is described.\nUnknown\tchoose "Unknown" if none of the other event type are applicable..\n\n**Rules and Conditions** \n1. Time constraint: Consider only actions that occurred during the current shift as events. \n2. Event constraint: Consider patient history, planning and requests as case attributes. Log them seperately. \n3. Actor constraint: Find out who is the main actor of the event.\n4. Negation Rule: Extract an event even if negated (e.g. “did not sleep”), and set "negation": true.\n5. Default Assumptions: \n        - If actor unclear → "actor":"patient"\n        - If time not mentioned → "time": "Unknown" \n        - If cause not mentioned → "caused_by": "Unknown" \n6. Clarifications:\n        - Sedation/resting ≠ sleep events.\n        - Sleep apnea occurs during sleep.\n        - Actions done to enable an event do not imply the event occurred (e.g., “given med for sleep” ≠ sleep).\nFor each detected event, output strictly valid JSON following the schema below: \n```\n    \n                        {   \n                        "case_attributes":[ \n                        //all patient-related details that did NOT occur during the current hospital shift, including past history, future plans, or events that happened at home or outside the hospital.\n                            {\n                            "attribute_name":"attribute_value" \n                            }\n                        ]  \n                        "events": [ \n                        //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ \n                        //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n```\n**Examples for Sleep Classification**\n\n                1. Include as Sleep Event**\n                - "Patient slept for 2 hours."\n                - "heart rate 50pbm while asleep"\n                - "patient now awake" (awake "now" assumes the patient was sleeping at an earlier state)\n\n                2. Do NOT include as Sleep Event**\n                - "Patient asked for sleeping pill." (Request, not event)\n                - "Patient wants to sleep later." (Future plan)\n                - "Patient fell asleep while driving (history)." (Before shift)\n                - "Patient was sedated/put to sleep for procedure." (Sedation)\n                - "Daughter slept in the room." (Actor ≠ patient)\n                - "Patient Alert and Awake" (Although awake is mentioned, it is not in the context of a status change from sleep but as an observation)\n\n**Text**\nWritten between 1984-07-30 02:50:00 and 1984-07-30 03:10:00:\n\'mae, slept well after 5mg by mouth ambien at mn\'\n', 'case_attributes': [[]], 'actor': ['patient'], 'event_detection_time': 3.7706258178222924}</t>
         </is>
       </c>
       <c r="H40" t="n">
@@ -3845,7 +3964,7 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>['able to sleep most of night']</t>
+          <t>['slept well after 5mg by mouth ambien at mn']</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -3853,32 +3972,35 @@
           <t>['patient']</t>
         </is>
       </c>
-      <c r="O40" t="inlineStr">
-        <is>
-          <t>[{'Sleep': {'Sleep': {'quality': 'good', 'duration': 'most'}}}]</t>
-        </is>
+      <c r="O40" t="b">
+        <v>1</v>
       </c>
       <c r="P40" t="inlineStr">
         <is>
+          <t>[{'Sleep': {'Sleep': {'quality': 'well'}}}]</t>
+        </is>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
           <t>['Sleep']</t>
         </is>
       </c>
-      <c r="Q40" t="inlineStr">
-        <is>
-          <t>[{'Sleep': {'Sleep': {'quality': 'good', 'duration': 'most'}}}]</t>
-        </is>
-      </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>['able to sleep most of night']</t>
+          <t>[{'Sleep': {'Sleep': {'quality': 'well'}}}]</t>
         </is>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>['e1=Sleep|1:able to sleep most of night']</t>
+          <t>['slept well after 5mg by mouth ambien at mn']</t>
         </is>
       </c>
       <c r="T40" t="inlineStr">
+        <is>
+          <t>['e1=Sleep|1:slept well after 5mg by mouth ambien at mn']</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -3886,16 +4008,16 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>380</v>
+        <v>427</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>625_1269117_0005</t>
+          <t>13825_1442632_0003</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>slept in naps throughout the night</t>
+          <t>alert to lethargic depend when waken from deep sleep</t>
         </is>
       </c>
       <c r="D41" t="n">
@@ -3906,12 +4028,12 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>(Timestamp('2178-05-01 06:15:00'), Timestamp('2178-05-01 06:29:00'))</t>
+          <t>(Timestamp('1959-02-11 05:22:00'), Timestamp('1959-02-11 05:52:00'))</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>{'text': 'slept in naps throughout the night', 'event': ['Sleep'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Sleep",\n      "text_quote": "slept in naps throughout the night",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "night",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "on and off",\n          "duration": "throughout the night"\n        }\n      }\n    }\n  ],\n  "order": []\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'on and off', 'duration': 'throughout the night'}}}], 'orders': [[]], 'text_quotes': ['slept in naps throughout the night'], 'event_time': ['night'], 'negation': [False], 'caused_by': ['Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the Text at the end of this prompt into events that took place at the HOSPITAL, DURING THE SHIFT in which this text was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'An event is extracted from the text even if it is negated (e.g. "did not sleep"), but the respective negation attribute is set to True.\', \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n              \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n            ```\n           \n           \n           Text (written between 2178-05-01 06:15:00 and 2178-05-01 06:29:00):\n           slept in naps throughout the night\n        ', 'case_attributes': [[]], 'actor': ['patient'], 'event_detection_time': 3.935605090111494}</t>
+          <t>{'text': 'alert to lethargic depend when waken from deep sleep', 'event': ['Sleep', 'Pain'], 'event_id': ['e1', 'e2'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Sleep",\n      "text_quote": "deep sleep",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "deep"\n        }\n      }\n    },\n    {\n      "event_id": "e2",\n      "event_type": "Pain",\n      "text_quote": "alert to lethargic depend when waken from deep sleep",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "e1",\n      "event_attributes": {\n        "Pain": {\n          "severity": "lethargic"\n        }\n      }\n    }\n  ],\n  "order": [\n    {\n      "event_id_1": "e1",\n      "relation": "before",\n      "event_id_2": "e2"\n    }\n  ]\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'deep'}}}, {'Pain': {'Pain': {'severity': 'lethargic'}}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}]], 'text_quotes': ['deep sleep', 'alert to lethargic depend when waken from deep sleep'], 'event_time': ['Unknown', 'Unknown'], 'negation': [False, False], 'caused_by': ['Unknown', 'e1'], 'event_name_prompt': '**Task: Event Classification and Attribute Extraction** \nYour task is to analyze the Text below and extract all events that occurred during the current hospital shift (the time the note was written).\nClassify each event into one or more of the following categories:\nCategory\tDefinition\nEating\tThe patient takes food into their body by mouth.\nExcretion\tThe patient discharges waste matter from their body.\nFamily\tThe patient has a visit, call, or communication with a family member.\nPain\tThe patient reports or shows signs of pain.\nSleep\tThe patient sleeps or the sleep’s quality or quantity is described.\nUnknown\tchoose "Unknown" if none of the other event type are applicable..\n\n**Rules and Conditions** \n1. Time constraint: Consider only actions that occurred during the current shift as events. \n2. Event constraint: Consider patient history, planning and requests as case attributes. Log them seperately. \n3. Actor constraint: Find out who is the main actor of the event.\n4. Negation Rule: Extract an event even if negated (e.g. “did not sleep”), and set "negation": true.\n5. Default Assumptions: \n        - If actor unclear → "actor":"patient"\n        - If time not mentioned → "time": "Unknown" \n        - If cause not mentioned → "caused_by": "Unknown" \n6. Clarifications:\n        - Sedation/resting ≠ sleep events.\n        - Sleep apnea occurs during sleep.\n        - Actions done to enable an event do not imply the event occurred (e.g., “given med for sleep” ≠ sleep).\nFor each detected event, output strictly valid JSON following the schema below: \n```\n    \n                        {   \n                        "case_attributes":[ \n                        //all patient-related details that did NOT occur during the current hospital shift, including past history, future plans, or events that happened at home or outside the hospital.\n                            {\n                            "attribute_name":"attribute_value" \n                            }\n                        ]  \n                        "events": [ \n                        //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ \n                        //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n```\n**Examples for Sleep Classification**\n\n                1. Include as Sleep Event**\n                - "Patient slept for 2 hours."\n                - "heart rate 50pbm while asleep"\n                - "patient now awake" (awake "now" assumes the patient was sleeping at an earlier state)\n\n                2. Do NOT include as Sleep Event**\n                - "Patient asked for sleeping pill." (Request, not event)\n                - "Patient wants to sleep later." (Future plan)\n                - "Patient fell asleep while driving (history)." (Before shift)\n                - "Patient was sedated/put to sleep for procedure." (Sedation)\n                - "Daughter slept in the room." (Actor ≠ patient)\n                - "Patient Alert and Awake" (Although awake is mentioned, it is not in the context of a status change from sleep but as an observation)\n\n**Text**\nWritten between 1959-02-11 05:22:00 and 1959-02-11 05:52:00:\n\'alert to lethargic depend when waken from deep sleep\'\n', 'case_attributes': [[]], 'actor': ['patient', 'patient'], 'event_detection_time': 7.504166146041825}</t>
         </is>
       </c>
       <c r="H41" t="n">
@@ -3931,7 +4053,7 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>['slept in naps throughout the night']</t>
+          <t>['deep sleep']</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
@@ -3939,49 +4061,52 @@
           <t>['patient']</t>
         </is>
       </c>
-      <c r="O41" t="inlineStr">
-        <is>
-          <t>[{'Sleep': {'Sleep': {'quality': 'on and off', 'duration': 'throughout the night'}}}]</t>
-        </is>
+      <c r="O41" t="b">
+        <v>1</v>
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>['Sleep']</t>
+          <t>[{'Sleep': {'Sleep': {'quality': 'deep'}}}]</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>[{'Sleep': {'Sleep': {'quality': 'on and off', 'duration': 'throughout the night'}}}]</t>
+          <t>['Sleep', 'Pain']</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>['slept in naps throughout the night']</t>
+          <t>[{'Sleep': {'Sleep': {'quality': 'deep'}}}, {'Pain': {'Pain': {'severity': 'lethargic'}}}]</t>
         </is>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>['e1=Sleep|1:slept in naps throughout the night']</t>
+          <t>['deep sleep', 'alert to lethargic depend when waken from deep sleep']</t>
         </is>
       </c>
       <c r="T41" t="inlineStr">
         <is>
-          <t>[[]]</t>
+          <t>['e1=Sleep|1:deep sleep', 'e2=Pain|1:alert to lethargic depend when waken from deep sleep']</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>[[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}]]</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>392</v>
+        <v>429</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2082_1288664_0008</t>
+          <t>5383_1333331_0003</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>alert and oriented, med for pain x 2 with relief, slept most of night</t>
+          <t>responds to voice &amp; weakly follows commands but falls asleep immediately unless stimulated</t>
         </is>
       </c>
       <c r="D42" t="n">
@@ -3992,12 +4117,12 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>(Timestamp('2142-08-19 06:22:00'), Timestamp('2142-08-19 06:28:00'))</t>
+          <t>(Timestamp('2028-09-11 19:30:00'), Timestamp('2028-09-11 19:43:00'))</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>{'text': 'alert and oriented, med for pain x 2 with relief, slept most of night', 'event': ['Pain', 'Sleep'], 'event_id': ['e1', 'e2'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Pain",\n      "text_quote": "med for pain x 2 with relief",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "Unknown",\n          "location": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e2",\n      "event_type": "Sleep",\n      "text_quote": "slept most of night",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "night",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "Unknown",\n          "duration": "most"\n        }\n      }\n    }\n  ],\n  "order": [\n    {\n      "event_id_1": "e2",\n      "relation": "before",\n      "event_id_2": "e1"\n    }\n  ]\n}', 'attributes': [{'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'most'}}}], 'orders': [[{'event_id_1': 'e2', 'relation': 'before', 'event_id_2': 'e1'}]], 'text_quotes': ['med for pain x 2 with relief', 'slept most of night'], 'event_time': ['Unknown', 'night'], 'negation': [False, False], 'caused_by': ['Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the Text at the end of this prompt into events that took place at the HOSPITAL, DURING THE SHIFT in which this text was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'An event is extracted from the text even if it is negated (e.g. "did not sleep"), but the respective negation attribute is set to True.\', \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n              \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n            ```\n           \n           \n           Text (written between 2142-08-19 06:22:00 and 2142-08-19 06:28:00):\n           alert and oriented, med for pain x 2 with relief, slept most of night\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient'], 'event_detection_time': 7.997718236874789}</t>
+          <t>{'text': 'responds to voice &amp; weakly follows commands but falls asleep immediately unless stimulated', 'event': ['Sleep', 'Pain'], 'event_id': ['e1', 'e2'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Sleep",\n            "text_quote": "falls asleep immediately unless stimulated",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "immediate",\n                    "duration": "short"\n                }\n            }\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Pain",\n            "text_quote": "responds to voice &amp; weakly follows commands",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "weak",\n                    "location": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        }\n    ],\n    "order": [\n        {\n            "event_id_1": "e2",\n            "relation": "before",\n            "event_id_2": "e1"\n        }\n    ]\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'immediate', 'duration': 'short'}}}, {'Pain': {'Pain': {'severity': 'weak', 'location': 'Unknown', 'duration': 'Unknown'}}}], 'orders': [[{'event_id_1': 'e2', 'relation': 'before', 'event_id_2': 'e1'}]], 'text_quotes': ['falls asleep immediately unless stimulated', 'responds to voice &amp; weakly follows commands'], 'event_time': ['Unknown', 'Unknown'], 'negation': [False, False], 'caused_by': ['Unknown', 'Unknown'], 'event_name_prompt': '**Task: Event Classification and Attribute Extraction** \nYour task is to analyze the Text below and extract all events that occurred during the current hospital shift (the time the note was written).\nClassify each event into one or more of the following categories:\nCategory\tDefinition\nEating\tThe patient takes food into their body by mouth.\nExcretion\tThe patient discharges waste matter from their body.\nFamily\tThe patient has a visit, call, or communication with a family member.\nPain\tThe patient reports or shows signs of pain.\nSleep\tThe patient sleeps or the sleep’s quality or quantity is described.\nUnknown\tchoose "Unknown" if none of the other event type are applicable..\n\n**Rules and Conditions** \n1. Time constraint: Consider only actions that occurred during the current shift as events. \n2. Event constraint: Consider patient history, planning and requests as case attributes. Log them seperately. \n3. Actor constraint: Find out who is the main actor of the event.\n4. Negation Rule: Extract an event even if negated (e.g. “did not sleep”), and set "negation": true.\n5. Default Assumptions: \n        - If actor unclear → "actor":"patient"\n        - If time not mentioned → "time": "Unknown" \n        - If cause not mentioned → "caused_by": "Unknown" \n6. Clarifications:\n        - Sedation/resting ≠ sleep events.\n        - Sleep apnea occurs during sleep.\n        - Actions done to enable an event do not imply the event occurred (e.g., “given med for sleep” ≠ sleep).\nFor each detected event, output strictly valid JSON following the schema below: \n```\n    \n                        {   \n                        "case_attributes":[ \n                        //all patient-related details that did NOT occur during the current hospital shift, including past history, future plans, or events that happened at home or outside the hospital.\n                            {\n                            "attribute_name":"attribute_value" \n                            }\n                        ]  \n                        "events": [ \n                        //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ \n                        //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n```\n**Examples for Sleep Classification**\n\n                1. Include as Sleep Event**\n                - "Patient slept for 2 hours."\n                - "heart rate 50pbm while asleep"\n                - "patient now awake" (awake "now" assumes the patient was sleeping at an earlier state)\n\n                2. Do NOT include as Sleep Event**\n                - "Patient asked for sleeping pill." (Request, not event)\n                - "Patient wants to sleep later." (Future plan)\n                - "Patient fell asleep while driving (history)." (Before shift)\n                - "Patient was sedated/put to sleep for procedure." (Sedation)\n                - "Daughter slept in the room." (Actor ≠ patient)\n                - "Patient Alert and Awake" (Although awake is mentioned, it is not in the context of a status change from sleep but as an observation)\n\n**Text**\nWritten between 2028-09-11 19:30:00 and 2028-09-11 19:43:00:\n\'responds to voice &amp; weakly follows commands but falls asleep immediately unless stimulated\'\n', 'case_attributes': [[]], 'actor': ['patient', 'patient'], 'event_detection_time': 8.079781075008214}</t>
         </is>
       </c>
       <c r="H42" t="n">
@@ -4017,7 +4142,7 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>['slept most of night']</t>
+          <t>['falls asleep immediately unless stimulated']</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
@@ -4025,32 +4150,35 @@
           <t>['patient']</t>
         </is>
       </c>
-      <c r="O42" t="inlineStr">
-        <is>
-          <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'most'}}}]</t>
-        </is>
+      <c r="O42" t="b">
+        <v>1</v>
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>['Pain', 'Sleep']</t>
+          <t>[{'Sleep': {'Sleep': {'quality': 'immediate', 'duration': 'short'}}}]</t>
         </is>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>[{'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'most'}}}]</t>
+          <t>['Sleep', 'Pain']</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>['med for pain x 2 with relief', 'slept most of night']</t>
+          <t>[{'Sleep': {'Sleep': {'quality': 'immediate', 'duration': 'short'}}}, {'Pain': {'Pain': {'severity': 'weak', 'location': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>['e1=Pain|1:med for pain x 2 with relief', 'e2=Sleep|1:slept most of night']</t>
+          <t>['falls asleep immediately unless stimulated', 'responds to voice &amp; weakly follows commands']</t>
         </is>
       </c>
       <c r="T42" t="inlineStr">
+        <is>
+          <t>['e1=Sleep|1:falls asleep immediately unless stimulated', 'e2=Pain|1:responds to voice &amp; weakly follows commands']</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e2', 'relation': 'before', 'event_id_2': 'e1'}]]</t>
         </is>
@@ -4058,16 +4186,16 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>396</v>
+        <v>432</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>11901_1418000_0021</t>
+          <t>12625_1427788_0016</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>slept well on current propofol drops</t>
+          <t>earlier in shift when drifting off to sleep sats drop to 85%</t>
         </is>
       </c>
       <c r="D43" t="n">
@@ -4078,12 +4206,12 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>(Timestamp('2176-07-05 05:35:00'), Timestamp('2176-07-05 06:23:00'))</t>
+          <t>(Timestamp('1952-03-03 02:29:00'), Timestamp('1952-03-03 02:43:00'))</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>{'text': 'slept well on current propofol drops', 'event': ['Sleep'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Sleep",\n      "text_quote": "slept well on current propofol drops",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "well"\n        }\n      }\n    }\n  ],\n  "order": []\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'well'}}}], 'orders': [[]], 'text_quotes': ['slept well on current propofol drops'], 'event_time': ['Unknown'], 'negation': [False], 'caused_by': ['Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the Text at the end of this prompt into events that took place at the HOSPITAL, DURING THE SHIFT in which this text was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'An event is extracted from the text even if it is negated (e.g. "did not sleep"), but the respective negation attribute is set to True.\', \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n              \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n            ```\n           \n           \n           Text (written between 2176-07-05 05:35:00 and 2176-07-05 06:23:00):\n           slept well on current propofol drops\n        ', 'case_attributes': [[]], 'actor': ['patient'], 'event_detection_time': 3.6204345989972353}</t>
+          <t>{'text': 'earlier in shift when drifting off to sleep sats drop to 85%', 'event': ['Sleep'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Sleep",\n            "text_quote": "earlier in shift when drifting off to sleep sats drop to 85%",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "earlier in shift",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "dropping sats"\n                }\n            }\n        }\n    ],\n    "order": []\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'dropping sats'}}}], 'orders': [[]], 'text_quotes': ['earlier in shift when drifting off to sleep sats drop to 85%'], 'event_time': ['earlier in shift'], 'negation': [False], 'caused_by': ['Unknown'], 'event_name_prompt': '**Task: Event Classification and Attribute Extraction** \nYour task is to analyze the Text below and extract all events that occurred during the current hospital shift (the time the note was written).\nClassify each event into one or more of the following categories:\nCategory\tDefinition\nEating\tThe patient takes food into their body by mouth.\nExcretion\tThe patient discharges waste matter from their body.\nFamily\tThe patient has a visit, call, or communication with a family member.\nPain\tThe patient reports or shows signs of pain.\nSleep\tThe patient sleeps or the sleep’s quality or quantity is described.\nUnknown\tchoose "Unknown" if none of the other event type are applicable..\n\n**Rules and Conditions** \n1. Time constraint: Consider only actions that occurred during the current shift as events. \n2. Event constraint: Consider patient history, planning and requests as case attributes. Log them seperately. \n3. Actor constraint: Find out who is the main actor of the event.\n4. Negation Rule: Extract an event even if negated (e.g. “did not sleep”), and set "negation": true.\n5. Default Assumptions: \n        - If actor unclear → "actor":"patient"\n        - If time not mentioned → "time": "Unknown" \n        - If cause not mentioned → "caused_by": "Unknown" \n6. Clarifications:\n        - Sedation/resting ≠ sleep events.\n        - Sleep apnea occurs during sleep.\n        - Actions done to enable an event do not imply the event occurred (e.g., “given med for sleep” ≠ sleep).\nFor each detected event, output strictly valid JSON following the schema below: \n```\n    \n                        {   \n                        "case_attributes":[ \n                        //all patient-related details that did NOT occur during the current hospital shift, including past history, future plans, or events that happened at home or outside the hospital.\n                            {\n                            "attribute_name":"attribute_value" \n                            }\n                        ]  \n                        "events": [ \n                        //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ \n                        //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n```\n**Examples for Sleep Classification**\n\n                1. Include as Sleep Event**\n                - "Patient slept for 2 hours."\n                - "heart rate 50pbm while asleep"\n                - "patient now awake" (awake "now" assumes the patient was sleeping at an earlier state)\n\n                2. Do NOT include as Sleep Event**\n                - "Patient asked for sleeping pill." (Request, not event)\n                - "Patient wants to sleep later." (Future plan)\n                - "Patient fell asleep while driving (history)." (Before shift)\n                - "Patient was sedated/put to sleep for procedure." (Sedation)\n                - "Daughter slept in the room." (Actor ≠ patient)\n                - "Patient Alert and Awake" (Although awake is mentioned, it is not in the context of a status change from sleep but as an observation)\n\n**Text**\nWritten between 1952-03-03 02:29:00 and 1952-03-03 02:43:00:\n\'earlier in shift when drifting off to sleep sats drop to 85%\'\n', 'case_attributes': [[]], 'actor': ['patient'], 'event_detection_time': 3.9817942881491035}</t>
         </is>
       </c>
       <c r="H43" t="n">
@@ -4103,7 +4231,7 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>['slept well on current propofol drops']</t>
+          <t>['earlier in shift when drifting off to sleep sats drop to 85%']</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
@@ -4111,32 +4239,35 @@
           <t>['patient']</t>
         </is>
       </c>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t>[{'Sleep': {'Sleep': {'quality': 'well'}}}]</t>
-        </is>
+      <c r="O43" t="b">
+        <v>1</v>
       </c>
       <c r="P43" t="inlineStr">
         <is>
+          <t>[{'Sleep': {'Sleep': {'quality': 'dropping sats'}}}]</t>
+        </is>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
           <t>['Sleep']</t>
         </is>
       </c>
-      <c r="Q43" t="inlineStr">
-        <is>
-          <t>[{'Sleep': {'Sleep': {'quality': 'well'}}}]</t>
-        </is>
-      </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>['slept well on current propofol drops']</t>
+          <t>[{'Sleep': {'Sleep': {'quality': 'dropping sats'}}}]</t>
         </is>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>['e1=Sleep|1:slept well on current propofol drops']</t>
+          <t>['earlier in shift when drifting off to sleep sats drop to 85%']</t>
         </is>
       </c>
       <c r="T43" t="inlineStr">
+        <is>
+          <t>['e1=Sleep|1:earlier in shift when drifting off to sleep sats drop to 85%']</t>
+        </is>
+      </c>
+      <c r="U43" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -4144,16 +4275,16 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>400</v>
+        <v>438</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>16161_1473600_0005</t>
+          <t>27198_1617943_0009</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>dozing on and off</t>
+          <t>abg acceptable, mild resp acidosis this am (patient sleeping)</t>
         </is>
       </c>
       <c r="D44" t="n">
@@ -4164,12 +4295,12 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>(Timestamp('2123-11-22 17:10:00'), Timestamp('2123-11-22 17:36:00'))</t>
+          <t>(Timestamp('2027-05-23 05:14:00'), Timestamp('2027-05-23 05:33:00'))</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>{'text': 'dozing on and off', 'event': ['Sleep'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Sleep",\n      "text_quote": "dozing on and off",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "on and off",\n          "duration": "short"\n        }\n      }\n    }\n  ],\n  "order": []\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'on and off', 'duration': 'short'}}}], 'orders': [[]], 'text_quotes': ['dozing on and off'], 'event_time': ['Unknown'], 'negation': [False], 'caused_by': ['Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the Text at the end of this prompt into events that took place at the HOSPITAL, DURING THE SHIFT in which this text was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'An event is extracted from the text even if it is negated (e.g. "did not sleep"), but the respective negation attribute is set to True.\', \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n              \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n            ```\n           \n           \n           Text (written between 2123-11-22 17:10:00 and 2123-11-22 17:36:00):\n           dozing on and off\n        ', 'case_attributes': [[]], 'actor': ['patient'], 'event_detection_time': 3.7183128809556365}</t>
+          <t>{'text': 'abg acceptable, mild resp acidosis this am (patient sleeping)', 'event': ['Sleep', 'Pain', 'Excretion', 'Eating', 'Family'], 'event_id': ['e1', 'e2', 'e3', 'e4', 'e5'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Sleep",\n            "text_quote": "(patient sleeping)",\n            "actor": "patient",\n            "object": "",\n            "negation": false,\n            "time": "this am",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {}\n            }\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "",\n            "object": "",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        },\n        {\n            "event_id": "e3",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "",\n            "object": "",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        },\n        {\n            "event_id": "e4",\n            "event_type": "Eating",\n            "text_quote": "",\n            "actor": "",\n            "object": "",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        },\n        {\n            "event_id": "e5",\n            "event_type": "Family",\n            "text_quote": "",\n            "actor": "",\n            "object": "",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        }\n    ],\n    "order": []\n}', 'attributes': [{'Sleep': {'Sleep': {}}}, {'Pain': {}}, {'Excretion': {}}, {'Eating': {}}, {'Family': {}}], 'orders': [[]], 'text_quotes': ['(patient sleeping)', '', '', '', ''], 'event_time': ['this am', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'negation': [False, True, True, True, True], 'caused_by': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '**Task: Event Classification and Attribute Extraction** \nYour task is to analyze the Text below and extract all events that occurred during the current hospital shift (the time the note was written).\nClassify each event into one or more of the following categories:\nCategory\tDefinition\nEating\tThe patient takes food into their body by mouth.\nExcretion\tThe patient discharges waste matter from their body.\nFamily\tThe patient has a visit, call, or communication with a family member.\nPain\tThe patient reports or shows signs of pain.\nSleep\tThe patient sleeps or the sleep’s quality or quantity is described.\nUnknown\tchoose "Unknown" if none of the other event type are applicable..\n\n**Rules and Conditions** \n1. Time constraint: Consider only actions that occurred during the current shift as events. \n2. Event constraint: Consider patient history, planning and requests as case attributes. Log them seperately. \n3. Actor constraint: Find out who is the main actor of the event.\n4. Negation Rule: Extract an event even if negated (e.g. “did not sleep”), and set "negation": true.\n5. Default Assumptions: \n        - If actor unclear → "actor":"patient"\n        - If time not mentioned → "time": "Unknown" \n        - If cause not mentioned → "caused_by": "Unknown" \n6. Clarifications:\n        - Sedation/resting ≠ sleep events.\n        - Sleep apnea occurs during sleep.\n        - Actions done to enable an event do not imply the event occurred (e.g., “given med for sleep” ≠ sleep).\nFor each detected event, output strictly valid JSON following the schema below: \n```\n    \n                        {   \n                        "case_attributes":[ \n                        //all patient-related details that did NOT occur during the current hospital shift, including past history, future plans, or events that happened at home or outside the hospital.\n                            {\n                            "attribute_name":"attribute_value" \n                            }\n                        ]  \n                        "events": [ \n                        //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ \n                        //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n```\n**Examples for Sleep Classification**\n\n                1. Include as Sleep Event**\n                - "Patient slept for 2 hours."\n                - "heart rate 50pbm while asleep"\n                - "patient now awake" (awake "now" assumes the patient was sleeping at an earlier state)\n\n                2. Do NOT include as Sleep Event**\n                - "Patient asked for sleeping pill." (Request, not event)\n                - "Patient wants to sleep later." (Future plan)\n                - "Patient fell asleep while driving (history)." (Before shift)\n                - "Patient was sedated/put to sleep for procedure." (Sedation)\n                - "Daughter slept in the room." (Actor ≠ patient)\n                - "Patient Alert and Awake" (Although awake is mentioned, it is not in the context of a status change from sleep but as an observation)\n\n**Text**\nWritten between 2027-05-23 05:14:00 and 2027-05-23 05:33:00:\n\'abg acceptable, mild resp acidosis this am (patient sleeping)\'\n', 'case_attributes': [[]], 'actor': ['patient', '', '', '', ''], 'event_detection_time': 10.977697428083047}</t>
         </is>
       </c>
       <c r="H44" t="n">
@@ -4189,7 +4320,7 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>['dozing on and off']</t>
+          <t>['(patient sleeping)']</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
@@ -4197,32 +4328,35 @@
           <t>['patient']</t>
         </is>
       </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>[{'Sleep': {'Sleep': {'quality': 'on and off', 'duration': 'short'}}}]</t>
-        </is>
+      <c r="O44" t="b">
+        <v>1</v>
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>['Sleep']</t>
+          <t>[{'Sleep': {'Sleep': {}}}]</t>
         </is>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>[{'Sleep': {'Sleep': {'quality': 'on and off', 'duration': 'short'}}}]</t>
+          <t>['Sleep', 'Pain', 'Excretion', 'Eating', 'Family']</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>['dozing on and off']</t>
+          <t>[{'Sleep': {'Sleep': {}}}, {'Pain': {}}, {'Excretion': {}}, {'Eating': {}}, {'Family': {}}]</t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>['e1=Sleep|1:dozing on and off']</t>
+          <t>['(patient sleeping)', '', '', '', '']</t>
         </is>
       </c>
       <c r="T44" t="inlineStr">
+        <is>
+          <t>['e1=Sleep|1:(patient sleeping)', 'e2=Pain|1:', 'e3=Excretion|1:', 'e4=Eating|1:', 'e5=Family|1:']</t>
+        </is>
+      </c>
+      <c r="U44" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -4230,16 +4364,16 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>419</v>
+        <v>439</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>26751_1612579_0009</t>
+          <t>25066_1589409_0012</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>settled and slept in long naps.by mouth dilantin load 1000mg given in increments late pm</t>
+          <t>patient did have few episodes of desat to 88-92 while sleeping</t>
         </is>
       </c>
       <c r="D45" t="n">
@@ -4250,12 +4384,12 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>(Timestamp('2140-07-04 04:47:00'), Timestamp('2140-07-04 04:52:00'))</t>
+          <t>(Timestamp('2020-04-12 06:33:00'), Timestamp('2020-04-12 06:41:00'))</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>{'text': 'settled and slept in long naps.by mouth dilantin load 1000mg given in increments late pm', 'event': ['Sleep', 'Eating'], 'event_id': ['e1', 'e2'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Sleep",\n      "text_quote": "settled and slept in long naps",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "long naps",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e2",\n      "event_type": "Eating",\n      "text_quote": "by mouth dilantin load 1000mg given in increments late pm",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "late pm",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {\n          "food": "dilantin load 1000mg",\n          "amount": "Unknown",\n          "method": "oral"\n        }\n      }\n    }\n  ],\n  "order": [\n    {\n      "event_id_1": "e2",\n      "relation": "before",\n      "event_id_2": "e1"\n    }\n  ]\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'long naps', 'duration': 'Unknown'}}}, {'Eating': {'Eating': {'food': 'dilantin load 1000mg', 'amount': 'Unknown', 'method': 'oral'}}}], 'orders': [[{'event_id_1': 'e2', 'relation': 'before', 'event_id_2': 'e1'}]], 'text_quotes': ['settled and slept in long naps', 'by mouth dilantin load 1000mg given in increments late pm'], 'event_time': ['Unknown', 'late pm'], 'negation': [False, False], 'caused_by': ['Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the Text at the end of this prompt into events that took place at the HOSPITAL, DURING THE SHIFT in which this text was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'An event is extracted from the text even if it is negated (e.g. "did not sleep"), but the respective negation attribute is set to True.\', \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n              \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n            ```\n           \n           \n           Text (written between 2140-07-04 04:47:00 and 2140-07-04 04:52:00):\n           settled and slept in long naps.by mouth dilantin load 1000mg given in increments late pm\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient'], 'event_detection_time': 8.569345304975286}</t>
+          <t>{'text': 'patient did have few episodes of desat to 88-92 while sleeping', 'event': ['Sleep'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Sleep",\n            "text_quote": "patient did have few episodes of desat to 88-92 while sleeping",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "interrupted"\n                }\n            }\n        }\n    ],\n    "order": []\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'interrupted'}}}], 'orders': [[]], 'text_quotes': ['patient did have few episodes of desat to 88-92 while sleeping'], 'event_time': ['Unknown'], 'negation': [False], 'caused_by': ['Unknown'], 'event_name_prompt': '**Task: Event Classification and Attribute Extraction** \nYour task is to analyze the Text below and extract all events that occurred during the current hospital shift (the time the note was written).\nClassify each event into one or more of the following categories:\nCategory\tDefinition\nEating\tThe patient takes food into their body by mouth.\nExcretion\tThe patient discharges waste matter from their body.\nFamily\tThe patient has a visit, call, or communication with a family member.\nPain\tThe patient reports or shows signs of pain.\nSleep\tThe patient sleeps or the sleep’s quality or quantity is described.\nUnknown\tchoose "Unknown" if none of the other event type are applicable..\n\n**Rules and Conditions** \n1. Time constraint: Consider only actions that occurred during the current shift as events. \n2. Event constraint: Consider patient history, planning and requests as case attributes. Log them seperately. \n3. Actor constraint: Find out who is the main actor of the event.\n4. Negation Rule: Extract an event even if negated (e.g. “did not sleep”), and set "negation": true.\n5. Default Assumptions: \n        - If actor unclear → "actor":"patient"\n        - If time not mentioned → "time": "Unknown" \n        - If cause not mentioned → "caused_by": "Unknown" \n6. Clarifications:\n        - Sedation/resting ≠ sleep events.\n        - Sleep apnea occurs during sleep.\n        - Actions done to enable an event do not imply the event occurred (e.g., “given med for sleep” ≠ sleep).\nFor each detected event, output strictly valid JSON following the schema below: \n```\n    \n                        {   \n                        "case_attributes":[ \n                        //all patient-related details that did NOT occur during the current hospital shift, including past history, future plans, or events that happened at home or outside the hospital.\n                            {\n                            "attribute_name":"attribute_value" \n                            }\n                        ]  \n                        "events": [ \n                        //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ \n                        //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n```\n**Examples for Sleep Classification**\n\n                1. Include as Sleep Event**\n                - "Patient slept for 2 hours."\n                - "heart rate 50pbm while asleep"\n                - "patient now awake" (awake "now" assumes the patient was sleeping at an earlier state)\n\n                2. Do NOT include as Sleep Event**\n                - "Patient asked for sleeping pill." (Request, not event)\n                - "Patient wants to sleep later." (Future plan)\n                - "Patient fell asleep while driving (history)." (Before shift)\n                - "Patient was sedated/put to sleep for procedure." (Sedation)\n                - "Daughter slept in the room." (Actor ≠ patient)\n                - "Patient Alert and Awake" (Although awake is mentioned, it is not in the context of a status change from sleep but as an observation)\n\n**Text**\nWritten between 2020-04-12 06:33:00 and 2020-04-12 06:41:00:\n\'patient did have few episodes of desat to 88-92 while sleeping\'\n', 'case_attributes': [[]], 'actor': ['patient'], 'event_detection_time': 3.81395195890218}</t>
         </is>
       </c>
       <c r="H45" t="n">
@@ -4275,7 +4409,7 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>['settled and slept in long naps']</t>
+          <t>['patient did have few episodes of desat to 88-92 while sleeping']</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -4283,49 +4417,52 @@
           <t>['patient']</t>
         </is>
       </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>[{'Sleep': {'Sleep': {'quality': 'long naps', 'duration': 'Unknown'}}}]</t>
-        </is>
+      <c r="O45" t="b">
+        <v>1</v>
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>['Sleep', 'Eating']</t>
+          <t>[{'Sleep': {'Sleep': {'quality': 'interrupted'}}}]</t>
         </is>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>[{'Sleep': {'Sleep': {'quality': 'long naps', 'duration': 'Unknown'}}}, {'Eating': {'Eating': {'food': 'dilantin load 1000mg', 'amount': 'Unknown', 'method': 'oral'}}}]</t>
+          <t>['Sleep']</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>['settled and slept in long naps', 'by mouth dilantin load 1000mg given in increments late pm']</t>
+          <t>[{'Sleep': {'Sleep': {'quality': 'interrupted'}}}]</t>
         </is>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>['e1=Sleep|1:settled and slept in long naps', 'e2=Eating|1:by mouth dilantin load 1000mg given in increments late pm']</t>
+          <t>['patient did have few episodes of desat to 88-92 while sleeping']</t>
         </is>
       </c>
       <c r="T45" t="inlineStr">
         <is>
-          <t>[[{'event_id_1': 'e2', 'relation': 'before', 'event_id_2': 'e1'}]]</t>
+          <t>['e1=Sleep|1:patient did have few episodes of desat to 88-92 while sleeping']</t>
+        </is>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>[[]]</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>532</v>
+        <v>465</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>18356_1503936_0005</t>
+          <t>30156_1651305_0003</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>patient then awake having bronchospasms</t>
+          <t>patient is now awake and alert, moving all extremeties (although very weak due to her swollen hands and feet) and appears to nod yes/no appropriately</t>
         </is>
       </c>
       <c r="D46" t="n">
@@ -4336,12 +4473,12 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>(Timestamp('2149-01-16 13:28:00'), Timestamp('2149-01-16 13:39:00'))</t>
+          <t>(Timestamp('1968-07-19 05:38:00'), Timestamp('1968-07-19 06:02:00'))</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>{'text': 'patient then awake having bronchospasms', 'event': ['Pain', 'Sleep'], 'event_id': ['e1', 'e2'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Pain",\n      "text_quote": "patient then awake having bronchospasms",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "Unknown",\n          "location": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e2",\n      "event_type": "Sleep",\n      "text_quote": "patient then awake having bronchospasms",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    }\n  ],\n  "order": [\n    {\n      "event_id_1": "e2",\n      "relation": "before",\n      "event_id_2": "e1"\n    }\n  ]\n}', 'attributes': [{'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}], 'orders': [[{'event_id_1': 'e2', 'relation': 'before', 'event_id_2': 'e1'}]], 'text_quotes': ['patient then awake having bronchospasms', 'patient then awake having bronchospasms'], 'event_time': ['Unknown', 'Unknown'], 'negation': [False, True], 'caused_by': ['Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the Text at the end of this prompt into events that took place at the HOSPITAL, DURING THE SHIFT in which this text was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'An event is extracted from the text even if it is negated (e.g. "did not sleep"), but the respective negation attribute is set to True.\', \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n              \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n            ```\n           \n           \n           Text (written between 2149-01-16 13:28:00 and 2149-01-16 13:39:00):\n           patient then awake having bronchospasms\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient'], 'event_detection_time': 8.081017846008763}</t>
+          <t>{'text': 'patient is now awake and alert, moving all extremeties (although very weak due to her swollen hands and feet) and appears to nod yes/no appropriately', 'event': ['Sleep', 'Pain'], 'event_id': ['e1', 'e2'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Sleep",\n            "text_quote": "patient is now awake",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Pain",\n            "text_quote": "moving all extremeties (although very weak due to her swollen hands and feet)",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "Unknown",\n                    "location": "hands and feet",\n                    "duration": "Unknown"\n                }\n            }\n        }\n    ],\n    "order": [\n        {\n            "event_id_1": "e2",\n            "relation": "after",\n            "event_id_2": "e1"\n        }\n    ]\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'hands and feet', 'duration': 'Unknown'}}}], 'orders': [[{'event_id_1': 'e2', 'relation': 'after', 'event_id_2': 'e1'}]], 'text_quotes': ['patient is now awake', 'moving all extremeties (although very weak due to her swollen hands and feet)'], 'event_time': ['Unknown', 'Unknown'], 'negation': [False, False], 'caused_by': ['Unknown', 'Unknown'], 'event_name_prompt': '**Task: Event Classification and Attribute Extraction** \nYour task is to analyze the Text below and extract all events that occurred during the current hospital shift (the time the note was written).\nClassify each event into one or more of the following categories:\nCategory\tDefinition\nEating\tThe patient takes food into their body by mouth.\nExcretion\tThe patient discharges waste matter from their body.\nFamily\tThe patient has a visit, call, or communication with a family member.\nPain\tThe patient reports or shows signs of pain.\nSleep\tThe patient sleeps or the sleep’s quality or quantity is described.\nUnknown\tchoose "Unknown" if none of the other event type are applicable..\n\n**Rules and Conditions** \n1. Time constraint: Consider only actions that occurred during the current shift as events. \n2. Event constraint: Consider patient history, planning and requests as case attributes. Log them seperately. \n3. Actor constraint: Find out who is the main actor of the event.\n4. Negation Rule: Extract an event even if negated (e.g. “did not sleep”), and set "negation": true.\n5. Default Assumptions: \n        - If actor unclear → "actor":"patient"\n        - If time not mentioned → "time": "Unknown" \n        - If cause not mentioned → "caused_by": "Unknown" \n6. Clarifications:\n        - Sedation/resting ≠ sleep events.\n        - Sleep apnea occurs during sleep.\n        - Actions done to enable an event do not imply the event occurred (e.g., “given med for sleep” ≠ sleep).\nFor each detected event, output strictly valid JSON following the schema below: \n```\n    \n                        {   \n                        "case_attributes":[ \n                        //all patient-related details that did NOT occur during the current hospital shift, including past history, future plans, or events that happened at home or outside the hospital.\n                            {\n                            "attribute_name":"attribute_value" \n                            }\n                        ]  \n                        "events": [ \n                        //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ \n                        //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n```\n**Examples for Sleep Classification**\n\n                1. Include as Sleep Event**\n                - "Patient slept for 2 hours."\n                - "heart rate 50pbm while asleep"\n                - "patient now awake" (awake "now" assumes the patient was sleeping at an earlier state)\n\n                2. Do NOT include as Sleep Event**\n                - "Patient asked for sleeping pill." (Request, not event)\n                - "Patient wants to sleep later." (Future plan)\n                - "Patient fell asleep while driving (history)." (Before shift)\n                - "Patient was sedated/put to sleep for procedure." (Sedation)\n                - "Daughter slept in the room." (Actor ≠ patient)\n                - "Patient Alert and Awake" (Although awake is mentioned, it is not in the context of a status change from sleep but as an observation)\n\n**Text**\nWritten between 1968-07-19 05:38:00 and 1968-07-19 06:02:00:\n\'patient is now awake and alert, moving all extremeties (although very weak due to her swollen hands and feet) and appears to nod yes/no appropriately\'\n', 'case_attributes': [[]], 'actor': ['patient', 'patient'], 'event_detection_time': 8.244961532996967}</t>
         </is>
       </c>
       <c r="H46" t="n">
@@ -4361,7 +4498,7 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>['patient then awake having bronchospasms']</t>
+          <t>['patient is now awake']</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
@@ -4369,34 +4506,37 @@
           <t>['patient']</t>
         </is>
       </c>
-      <c r="O46" t="inlineStr">
+      <c r="O46" t="b">
+        <v>1</v>
+      </c>
+      <c r="P46" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="P46" t="inlineStr">
-        <is>
-          <t>['Pain', 'Sleep']</t>
-        </is>
-      </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>[{'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
+          <t>['Sleep', 'Pain']</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>['patient then awake having bronchospasms', 'patient then awake having bronchospasms']</t>
+          <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'hands and feet', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>['e1=Pain|1:patient then awake having bronchospasms', 'e2=Sleep|1:patient then awake having bronchospasms']</t>
+          <t>['patient is now awake', 'moving all extremeties (although very weak due to her swollen hands and feet)']</t>
         </is>
       </c>
       <c r="T46" t="inlineStr">
         <is>
-          <t>[[{'event_id_1': 'e2', 'relation': 'before', 'event_id_2': 'e1'}]]</t>
+          <t>['e1=Sleep|1:patient is now awake', 'e2=Pain|1:moving all extremeties (although very weak due to her swollen hands and feet)']</t>
+        </is>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>[[{'event_id_1': 'e2', 'relation': 'after', 'event_id_2': 'e1'}]]</t>
         </is>
       </c>
     </row>
